--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POINTAST\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F2A7F-BB14-4E67-AADB-B5E06B058064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28188E44-9D9E-42AA-AB9D-F36E07BBC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" firstSheet="1" activeTab="2" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="661">
   <si>
     <t>Line</t>
   </si>
@@ -2016,6 +2016,12 @@
   </si>
   <si>
     <t>N17:PK16</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2361,10 +2367,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2401,7 +2406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2717,20 +2722,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="32.58203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="32.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2743,8 +2748,14 @@
       <c r="D1" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>207</v>
       </c>
@@ -2757,9 +2768,14 @@
       <c r="D2" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2770,9 +2786,14 @@
       <c r="D3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -2783,9 +2804,14 @@
       <c r="D4" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2796,9 +2822,14 @@
       <c r="D5" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>116</v>
+      </c>
+      <c r="F5" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -2809,9 +2840,14 @@
       <c r="D6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>116</v>
+      </c>
+      <c r="F6" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -2822,9 +2858,14 @@
       <c r="D7" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -2835,9 +2876,14 @@
       <c r="D8" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2848,9 +2894,14 @@
       <c r="D9" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>124</v>
+      </c>
+      <c r="F9" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -2861,9 +2912,14 @@
       <c r="D10" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>132</v>
+      </c>
+      <c r="F10" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -2874,9 +2930,14 @@
       <c r="D11" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>140</v>
+      </c>
+      <c r="F11" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -2887,9 +2948,14 @@
       <c r="D12" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>150</v>
+      </c>
+      <c r="F12" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -2900,9 +2966,14 @@
       <c r="D13" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="2">
+        <v>165</v>
+      </c>
+      <c r="F13" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -2913,9 +2984,14 @@
       <c r="D14" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="2">
+        <v>173</v>
+      </c>
+      <c r="F14" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -2926,9 +3002,14 @@
       <c r="D15" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
+        <v>183</v>
+      </c>
+      <c r="F15" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -2939,9 +3020,14 @@
       <c r="D16" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2">
+        <v>193</v>
+      </c>
+      <c r="F16" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -2952,9 +3038,14 @@
       <c r="D17" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2">
+        <v>199</v>
+      </c>
+      <c r="F17" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -2965,9 +3056,14 @@
       <c r="D18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <v>205</v>
+      </c>
+      <c r="F18" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
         <v>19</v>
@@ -2978,9 +3074,14 @@
       <c r="D19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <v>211</v>
+      </c>
+      <c r="F19" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -2991,9 +3092,14 @@
       <c r="D20" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2">
+        <v>217</v>
+      </c>
+      <c r="F20" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -3004,9 +3110,14 @@
       <c r="D21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <v>217</v>
+      </c>
+      <c r="F21" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -3017,9 +3128,14 @@
       <c r="D22" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>217</v>
+      </c>
+      <c r="F22" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -3030,9 +3146,14 @@
       <c r="D23" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <v>217</v>
+      </c>
+      <c r="F23" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3043,9 +3164,14 @@
       <c r="D24" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>217</v>
+      </c>
+      <c r="F24" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -3056,9 +3182,14 @@
       <c r="D25" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <v>209</v>
+      </c>
+      <c r="F25" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -3069,9 +3200,14 @@
       <c r="D26" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="2">
+        <v>197</v>
+      </c>
+      <c r="F26" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -3082,9 +3218,14 @@
       <c r="D27" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -3095,9 +3236,14 @@
       <c r="D28" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="2">
+        <v>168</v>
+      </c>
+      <c r="F28" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -3108,9 +3254,14 @@
       <c r="D29" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="2">
+        <v>158</v>
+      </c>
+      <c r="F29" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -3121,9 +3272,14 @@
       <c r="D30" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="2">
+        <v>149</v>
+      </c>
+      <c r="F30" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="2" t="s">
         <v>31</v>
@@ -3134,9 +3290,14 @@
       <c r="D31" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="2">
+        <v>140</v>
+      </c>
+      <c r="F31" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -3147,9 +3308,14 @@
       <c r="D32" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="2">
+        <v>133</v>
+      </c>
+      <c r="F32" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>33</v>
@@ -3160,9 +3326,14 @@
       <c r="D33" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="2">
+        <v>126</v>
+      </c>
+      <c r="F33" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -3173,9 +3344,14 @@
       <c r="D34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="2">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="2" t="s">
         <v>35</v>
@@ -3186,9 +3362,14 @@
       <c r="D35" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="2">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -3199,9 +3380,14 @@
       <c r="D36" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="2">
+        <v>86</v>
+      </c>
+      <c r="F36" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
         <v>37</v>
@@ -3212,9 +3398,14 @@
       <c r="D37" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="2">
+        <v>76</v>
+      </c>
+      <c r="F37" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -3225,9 +3416,14 @@
       <c r="D38" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="2">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
         <v>39</v>
@@ -3238,9 +3434,14 @@
       <c r="D39" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="2">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>208</v>
       </c>
@@ -3253,9 +3454,14 @@
       <c r="D40" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="2">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
@@ -3266,9 +3472,14 @@
       <c r="D41" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="2">
+        <v>28</v>
+      </c>
+      <c r="F41" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="2" t="s">
         <v>42</v>
@@ -3279,9 +3490,14 @@
       <c r="D42" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="2">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="2" t="s">
         <v>43</v>
@@ -3292,9 +3508,14 @@
       <c r="D43" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="2">
+        <v>46</v>
+      </c>
+      <c r="F43" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -3305,9 +3526,14 @@
       <c r="D44" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="2">
+        <v>56</v>
+      </c>
+      <c r="F44" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="2" t="s">
         <v>45</v>
@@ -3318,9 +3544,14 @@
       <c r="D45" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="2">
+        <v>66</v>
+      </c>
+      <c r="F45" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="2" t="s">
         <v>46</v>
@@ -3331,9 +3562,14 @@
       <c r="D46" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="2">
+        <v>76</v>
+      </c>
+      <c r="F46" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="2" t="s">
         <v>47</v>
@@ -3344,9 +3580,14 @@
       <c r="D47" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="2">
+        <v>86</v>
+      </c>
+      <c r="F47" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -3357,9 +3598,14 @@
       <c r="D48" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="2">
+        <v>96</v>
+      </c>
+      <c r="F48" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -3370,9 +3616,14 @@
       <c r="D49" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="2">
+        <v>106</v>
+      </c>
+      <c r="F49" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -3383,9 +3634,14 @@
       <c r="D50" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="2">
+        <v>116</v>
+      </c>
+      <c r="F50" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -3396,9 +3652,14 @@
       <c r="D51" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="2">
+        <v>124</v>
+      </c>
+      <c r="F51" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="2" t="s">
         <v>52</v>
@@ -3409,9 +3670,14 @@
       <c r="D52" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="2">
+        <v>132</v>
+      </c>
+      <c r="F52" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="2" t="s">
         <v>53</v>
@@ -3422,9 +3688,14 @@
       <c r="D53" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="2">
+        <v>140</v>
+      </c>
+      <c r="F53" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="2" t="s">
         <v>54</v>
@@ -3435,9 +3706,14 @@
       <c r="D54" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="2">
+        <v>140</v>
+      </c>
+      <c r="F54" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="2" t="s">
         <v>55</v>
@@ -3448,9 +3724,14 @@
       <c r="D55" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="2">
+        <v>140</v>
+      </c>
+      <c r="F55" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
         <v>209</v>
       </c>
@@ -3463,9 +3744,14 @@
       <c r="D56" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="2">
+        <v>197</v>
+      </c>
+      <c r="F56" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="2" t="s">
         <v>57</v>
@@ -3476,9 +3762,14 @@
       <c r="D57" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="2">
+        <v>207</v>
+      </c>
+      <c r="F57" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="2" t="s">
         <v>58</v>
@@ -3489,9 +3780,14 @@
       <c r="D58" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="2">
+        <v>217</v>
+      </c>
+      <c r="F58" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="2" t="s">
         <v>59</v>
@@ -3502,9 +3798,14 @@
       <c r="D59" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="2">
+        <v>227</v>
+      </c>
+      <c r="F59" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="2" t="s">
         <v>60</v>
@@ -3515,9 +3816,14 @@
       <c r="D60" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="2">
+        <v>237</v>
+      </c>
+      <c r="F60" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="2" t="s">
         <v>61</v>
@@ -3528,9 +3834,14 @@
       <c r="D61" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="2">
+        <v>245</v>
+      </c>
+      <c r="F61" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="2" t="s">
         <v>62</v>
@@ -3541,9 +3852,14 @@
       <c r="D62" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="2">
+        <v>253</v>
+      </c>
+      <c r="F62" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="2" t="s">
         <v>63</v>
@@ -3554,9 +3870,14 @@
       <c r="D63" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="2">
+        <v>261</v>
+      </c>
+      <c r="F63" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="2" t="s">
         <v>64</v>
@@ -3567,9 +3888,14 @@
       <c r="D64" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="2">
+        <v>269</v>
+      </c>
+      <c r="F64" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="2" t="s">
         <v>65</v>
@@ -3580,9 +3906,14 @@
       <c r="D65" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="2">
+        <v>277</v>
+      </c>
+      <c r="F65" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="2" t="s">
         <v>66</v>
@@ -3593,9 +3924,14 @@
       <c r="D66" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="2">
+        <v>277</v>
+      </c>
+      <c r="F66" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="2" t="s">
         <v>67</v>
@@ -3606,9 +3942,14 @@
       <c r="D67" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="2">
+        <v>277</v>
+      </c>
+      <c r="F67" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="2" t="s">
         <v>68</v>
@@ -3619,9 +3960,14 @@
       <c r="D68" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="2">
+        <v>277</v>
+      </c>
+      <c r="F68" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="2" t="s">
         <v>69</v>
@@ -3632,9 +3978,14 @@
       <c r="D69" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="2">
+        <v>277</v>
+      </c>
+      <c r="F69" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="2" t="s">
         <v>70</v>
@@ -3645,9 +3996,14 @@
       <c r="D70" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="2">
+        <v>277</v>
+      </c>
+      <c r="F70" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
@@ -3658,9 +4014,14 @@
       <c r="D71" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="2">
+        <v>277</v>
+      </c>
+      <c r="F71" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="2" t="s">
         <v>72</v>
@@ -3671,9 +4032,14 @@
       <c r="D72" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="2">
+        <v>277</v>
+      </c>
+      <c r="F72" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39"/>
       <c r="B73" s="2" t="s">
         <v>73</v>
@@ -3684,9 +4050,14 @@
       <c r="D73" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="2">
+        <v>277</v>
+      </c>
+      <c r="F73" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="2" t="s">
         <v>74</v>
@@ -3697,9 +4068,14 @@
       <c r="D74" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="2">
+        <v>277</v>
+      </c>
+      <c r="F74" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="2" t="s">
         <v>75</v>
@@ -3710,9 +4086,14 @@
       <c r="D75" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="2">
+        <v>277</v>
+      </c>
+      <c r="F75" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="2" t="s">
         <v>76</v>
@@ -3723,9 +4104,14 @@
       <c r="D76" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="2">
+        <v>275</v>
+      </c>
+      <c r="F76" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39"/>
       <c r="B77" s="2" t="s">
         <v>77</v>
@@ -3736,9 +4122,14 @@
       <c r="D77" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="2">
+        <v>268</v>
+      </c>
+      <c r="F77" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="B78" s="2" t="s">
         <v>78</v>
@@ -3749,9 +4140,14 @@
       <c r="D78" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="2">
+        <v>261</v>
+      </c>
+      <c r="F78" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
         <v>210</v>
       </c>
@@ -3764,9 +4160,14 @@
       <c r="D79" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="2">
+        <v>112</v>
+      </c>
+      <c r="F79" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39"/>
       <c r="B80" s="2" t="s">
         <v>80</v>
@@ -3777,9 +4178,14 @@
       <c r="D80" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="2">
+        <v>104</v>
+      </c>
+      <c r="F80" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39"/>
       <c r="B81" s="2" t="s">
         <v>81</v>
@@ -3790,9 +4196,14 @@
       <c r="D81" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="2">
+        <v>96</v>
+      </c>
+      <c r="F81" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39"/>
       <c r="B82" s="2" t="s">
         <v>82</v>
@@ -3803,9 +4214,14 @@
       <c r="D82" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="2">
+        <v>88</v>
+      </c>
+      <c r="F82" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39"/>
       <c r="B83" s="2" t="s">
         <v>83</v>
@@ -3816,9 +4232,14 @@
       <c r="D83" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="2">
+        <v>80</v>
+      </c>
+      <c r="F83" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39"/>
       <c r="B84" s="2" t="s">
         <v>84</v>
@@ -3829,9 +4250,14 @@
       <c r="D84" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="2">
+        <v>80</v>
+      </c>
+      <c r="F84" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39"/>
       <c r="B85" s="2" t="s">
         <v>85</v>
@@ -3842,9 +4268,14 @@
       <c r="D85" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="2">
+        <v>88</v>
+      </c>
+      <c r="F85" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39"/>
       <c r="B86" s="2" t="s">
         <v>86</v>
@@ -3855,9 +4286,14 @@
       <c r="D86" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="2">
+        <v>98</v>
+      </c>
+      <c r="F86" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39"/>
       <c r="B87" s="2" t="s">
         <v>87</v>
@@ -3868,9 +4304,14 @@
       <c r="D87" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="2">
+        <v>108</v>
+      </c>
+      <c r="F87" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39"/>
       <c r="B88" s="2" t="s">
         <v>88</v>
@@ -3881,9 +4322,14 @@
       <c r="D88" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="2">
+        <v>118</v>
+      </c>
+      <c r="F88" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
@@ -3894,9 +4340,14 @@
       <c r="D89" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="2">
+        <v>128</v>
+      </c>
+      <c r="F89" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39"/>
       <c r="B90" s="2" t="s">
         <v>90</v>
@@ -3907,9 +4358,14 @@
       <c r="D90" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="2">
+        <v>137</v>
+      </c>
+      <c r="F90" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39"/>
       <c r="B91" s="2" t="s">
         <v>91</v>
@@ -3920,9 +4376,14 @@
       <c r="D91" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="2">
+        <v>146</v>
+      </c>
+      <c r="F91" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39"/>
       <c r="B92" s="2" t="s">
         <v>92</v>
@@ -3933,9 +4394,14 @@
       <c r="D92" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="2">
+        <v>160</v>
+      </c>
+      <c r="F92" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39"/>
       <c r="B93" s="2" t="s">
         <v>93</v>
@@ -3946,9 +4412,14 @@
       <c r="D93" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="2">
+        <v>169</v>
+      </c>
+      <c r="F93" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39"/>
       <c r="B94" s="2" t="s">
         <v>94</v>
@@ -3959,9 +4430,14 @@
       <c r="D94" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="2">
+        <v>183</v>
+      </c>
+      <c r="F94" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39"/>
       <c r="B95" s="2" t="s">
         <v>95</v>
@@ -3972,9 +4448,14 @@
       <c r="D95" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="2">
+        <v>192</v>
+      </c>
+      <c r="F95" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
@@ -3985,9 +4466,14 @@
       <c r="D96" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="2">
+        <v>201</v>
+      </c>
+      <c r="F96" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39"/>
       <c r="B97" s="2" t="s">
         <v>97</v>
@@ -3998,9 +4484,14 @@
       <c r="D97" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="2">
+        <v>210</v>
+      </c>
+      <c r="F97" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39"/>
       <c r="B98" s="2" t="s">
         <v>98</v>
@@ -4011,9 +4502,14 @@
       <c r="D98" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="2">
+        <v>219</v>
+      </c>
+      <c r="F98" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39"/>
       <c r="B99" s="2" t="s">
         <v>99</v>
@@ -4024,9 +4520,14 @@
       <c r="D99" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E99" s="2">
+        <v>228</v>
+      </c>
+      <c r="F99" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39"/>
       <c r="B100" s="2" t="s">
         <v>100</v>
@@ -4037,9 +4538,14 @@
       <c r="D100" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="2">
+        <v>237</v>
+      </c>
+      <c r="F100" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39"/>
       <c r="B101" s="2" t="s">
         <v>101</v>
@@ -4050,9 +4556,14 @@
       <c r="D101" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="2">
+        <v>245</v>
+      </c>
+      <c r="F101" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39"/>
       <c r="B102" s="2" t="s">
         <v>102</v>
@@ -4063,9 +4574,14 @@
       <c r="D102" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="2">
+        <v>253</v>
+      </c>
+      <c r="F102" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39"/>
       <c r="B103" s="2" t="s">
         <v>103</v>
@@ -4076,9 +4592,14 @@
       <c r="D103" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="2">
+        <v>260</v>
+      </c>
+      <c r="F103" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39"/>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -4089,9 +4610,14 @@
       <c r="D104" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="2">
+        <v>267</v>
+      </c>
+      <c r="F104" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="39"/>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -4102,9 +4628,14 @@
       <c r="D105" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="2">
+        <v>274</v>
+      </c>
+      <c r="F105" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
@@ -4115,9 +4646,14 @@
       <c r="D106" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="2">
+        <v>281</v>
+      </c>
+      <c r="F106" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="39"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
@@ -4128,9 +4664,14 @@
       <c r="D107" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="2">
+        <v>288</v>
+      </c>
+      <c r="F107" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
@@ -4141,9 +4682,14 @@
       <c r="D108" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="2">
+        <v>295</v>
+      </c>
+      <c r="F108" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39"/>
       <c r="B109" s="2" t="s">
         <v>109</v>
@@ -4154,9 +4700,14 @@
       <c r="D109" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="2">
+        <v>116</v>
+      </c>
+      <c r="F109" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39"/>
       <c r="B110" s="2" t="s">
         <v>110</v>
@@ -4167,9 +4718,14 @@
       <c r="D110" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="2">
+        <v>116</v>
+      </c>
+      <c r="F110" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="s">
         <v>211</v>
       </c>
@@ -4182,9 +4738,14 @@
       <c r="D111" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="2">
+        <v>224</v>
+      </c>
+      <c r="F111" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39"/>
       <c r="B112" s="2" t="s">
         <v>112</v>
@@ -4195,9 +4756,14 @@
       <c r="D112" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="2">
+        <v>214</v>
+      </c>
+      <c r="F112" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39"/>
       <c r="B113" s="2" t="s">
         <v>113</v>
@@ -4208,9 +4774,14 @@
       <c r="D113" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="2">
+        <v>208</v>
+      </c>
+      <c r="F113" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39"/>
       <c r="B114" s="2" t="s">
         <v>114</v>
@@ -4221,9 +4792,14 @@
       <c r="D114" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="2">
+        <v>202</v>
+      </c>
+      <c r="F114" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39"/>
       <c r="B115" s="2" t="s">
         <v>115</v>
@@ -4234,9 +4810,14 @@
       <c r="D115" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="2">
+        <v>196</v>
+      </c>
+      <c r="F115" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39"/>
       <c r="B116" s="2" t="s">
         <v>116</v>
@@ -4247,9 +4828,14 @@
       <c r="D116" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="2">
+        <v>190</v>
+      </c>
+      <c r="F116" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39"/>
       <c r="B117" s="2" t="s">
         <v>117</v>
@@ -4260,9 +4846,14 @@
       <c r="D117" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="2">
+        <v>184</v>
+      </c>
+      <c r="F117" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39"/>
       <c r="B118" s="2" t="s">
         <v>118</v>
@@ -4273,9 +4864,14 @@
       <c r="D118" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="2">
+        <v>178</v>
+      </c>
+      <c r="F118" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39"/>
       <c r="B119" s="2" t="s">
         <v>119</v>
@@ -4286,9 +4882,14 @@
       <c r="D119" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="2">
+        <v>178</v>
+      </c>
+      <c r="F119" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39"/>
       <c r="B120" s="2" t="s">
         <v>120</v>
@@ -4299,9 +4900,14 @@
       <c r="D120" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="2">
+        <v>178</v>
+      </c>
+      <c r="F120" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39"/>
       <c r="B121" s="2" t="s">
         <v>121</v>
@@ -4312,9 +4918,14 @@
       <c r="D121" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="2">
+        <v>178</v>
+      </c>
+      <c r="F121" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39"/>
       <c r="B122" s="2" t="s">
         <v>122</v>
@@ -4325,9 +4936,14 @@
       <c r="D122" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="2">
+        <v>178</v>
+      </c>
+      <c r="F122" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39"/>
       <c r="B123" s="2" t="s">
         <v>123</v>
@@ -4338,9 +4954,14 @@
       <c r="D123" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="2">
+        <v>178</v>
+      </c>
+      <c r="F123" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39"/>
       <c r="B124" s="2" t="s">
         <v>124</v>
@@ -4351,9 +4972,14 @@
       <c r="D124" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="2">
+        <v>178</v>
+      </c>
+      <c r="F124" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39"/>
       <c r="B125" s="2" t="s">
         <v>125</v>
@@ -4364,9 +4990,14 @@
       <c r="D125" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="2">
+        <v>178</v>
+      </c>
+      <c r="F125" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39"/>
       <c r="B126" s="2" t="s">
         <v>127</v>
@@ -4377,9 +5008,14 @@
       <c r="D126" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="2">
+        <v>178</v>
+      </c>
+      <c r="F126" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39"/>
       <c r="B127" s="2" t="s">
         <v>128</v>
@@ -4390,9 +5026,14 @@
       <c r="D127" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="2">
+        <v>178</v>
+      </c>
+      <c r="F127" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39"/>
       <c r="B128" s="2" t="s">
         <v>129</v>
@@ -4403,9 +5044,14 @@
       <c r="D128" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="2">
+        <v>178</v>
+      </c>
+      <c r="F128" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39"/>
       <c r="B129" s="2" t="s">
         <v>130</v>
@@ -4416,9 +5062,14 @@
       <c r="D129" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="2">
+        <v>178</v>
+      </c>
+      <c r="F129" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39"/>
       <c r="B130" s="2" t="s">
         <v>131</v>
@@ -4429,9 +5080,14 @@
       <c r="D130" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="2">
+        <v>178</v>
+      </c>
+      <c r="F130" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39"/>
       <c r="B131" s="2" t="s">
         <v>132</v>
@@ -4442,9 +5098,14 @@
       <c r="D131" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="2">
+        <v>178</v>
+      </c>
+      <c r="F131" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39"/>
       <c r="B132" s="2" t="s">
         <v>133</v>
@@ -4455,9 +5116,14 @@
       <c r="D132" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="2">
+        <v>178</v>
+      </c>
+      <c r="F132" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39"/>
       <c r="B133" s="2" t="s">
         <v>134</v>
@@ -4468,9 +5134,14 @@
       <c r="D133" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="2">
+        <v>178</v>
+      </c>
+      <c r="F133" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39"/>
       <c r="B134" s="2" t="s">
         <v>135</v>
@@ -4481,9 +5152,14 @@
       <c r="D134" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="2">
+        <v>178</v>
+      </c>
+      <c r="F134" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39"/>
       <c r="B135" s="2" t="s">
         <v>126</v>
@@ -4494,9 +5170,14 @@
       <c r="D135" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="2">
+        <v>178</v>
+      </c>
+      <c r="F135" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39"/>
       <c r="B136" s="2" t="s">
         <v>136</v>
@@ -4507,9 +5188,14 @@
       <c r="D136" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="2">
+        <v>188</v>
+      </c>
+      <c r="F136" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39"/>
       <c r="B137" s="2" t="s">
         <v>137</v>
@@ -4520,9 +5206,14 @@
       <c r="D137" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="2">
+        <v>199</v>
+      </c>
+      <c r="F137" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39"/>
       <c r="B138" s="2" t="s">
         <v>138</v>
@@ -4533,9 +5224,14 @@
       <c r="D138" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="2">
+        <v>208</v>
+      </c>
+      <c r="F138" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39"/>
       <c r="B139" s="2" t="s">
         <v>139</v>
@@ -4546,9 +5242,14 @@
       <c r="D139" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="2">
+        <v>217</v>
+      </c>
+      <c r="F139" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39"/>
       <c r="B140" s="2" t="s">
         <v>140</v>
@@ -4559,9 +5260,14 @@
       <c r="D140" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="2">
+        <v>226</v>
+      </c>
+      <c r="F140" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39"/>
       <c r="B141" s="2" t="s">
         <v>141</v>
@@ -4572,9 +5278,14 @@
       <c r="D141" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="2">
+        <v>231</v>
+      </c>
+      <c r="F141" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39"/>
       <c r="B142" s="2" t="s">
         <v>142</v>
@@ -4585,9 +5296,14 @@
       <c r="D142" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="2">
+        <v>236</v>
+      </c>
+      <c r="F142" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39"/>
       <c r="B143" s="2" t="s">
         <v>143</v>
@@ -4598,9 +5314,14 @@
       <c r="D143" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="2">
+        <v>241</v>
+      </c>
+      <c r="F143" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39"/>
       <c r="B144" s="2" t="s">
         <v>144</v>
@@ -4611,9 +5332,14 @@
       <c r="D144" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="2">
+        <v>246</v>
+      </c>
+      <c r="F144" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39"/>
       <c r="B145" s="2" t="s">
         <v>145</v>
@@ -4624,9 +5350,14 @@
       <c r="D145" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="2">
+        <v>251</v>
+      </c>
+      <c r="F145" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39"/>
       <c r="B146" s="2" t="s">
         <v>146</v>
@@ -4637,9 +5368,14 @@
       <c r="D146" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="2">
+        <v>256</v>
+      </c>
+      <c r="F146" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39"/>
       <c r="B147" s="2" t="s">
         <v>147</v>
@@ -4650,9 +5386,14 @@
       <c r="D147" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="2">
+        <v>256</v>
+      </c>
+      <c r="F147" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39"/>
       <c r="B148" s="2" t="s">
         <v>148</v>
@@ -4663,9 +5404,14 @@
       <c r="D148" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="2">
+        <v>256</v>
+      </c>
+      <c r="F148" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39"/>
       <c r="B149" s="2" t="s">
         <v>149</v>
@@ -4676,9 +5422,14 @@
       <c r="D149" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="2">
+        <v>256</v>
+      </c>
+      <c r="F149" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39"/>
       <c r="B150" s="2" t="s">
         <v>150</v>
@@ -4689,9 +5440,14 @@
       <c r="D150" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="2">
+        <v>256</v>
+      </c>
+      <c r="F150" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39"/>
       <c r="B151" s="2" t="s">
         <v>151</v>
@@ -4702,9 +5458,14 @@
       <c r="D151" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="2">
+        <v>256</v>
+      </c>
+      <c r="F151" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39"/>
       <c r="B152" s="2" t="s">
         <v>152</v>
@@ -4715,9 +5476,14 @@
       <c r="D152" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="2">
+        <v>256</v>
+      </c>
+      <c r="F152" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39"/>
       <c r="B153" s="2" t="s">
         <v>153</v>
@@ -4728,9 +5494,14 @@
       <c r="D153" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="2">
+        <v>256</v>
+      </c>
+      <c r="F153" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39"/>
       <c r="B154" s="2" t="s">
         <v>154</v>
@@ -4741,9 +5512,14 @@
       <c r="D154" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E154" s="2">
+        <v>256</v>
+      </c>
+      <c r="F154" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39"/>
       <c r="B155" s="2" t="s">
         <v>155</v>
@@ -4754,9 +5530,14 @@
       <c r="D155" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E155" s="2">
+        <v>256</v>
+      </c>
+      <c r="F155" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39"/>
       <c r="B156" s="2" t="s">
         <v>156</v>
@@ -4767,9 +5548,14 @@
       <c r="D156" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="2">
+        <v>256</v>
+      </c>
+      <c r="F156" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39"/>
       <c r="B157" s="2" t="s">
         <v>157</v>
@@ -4780,9 +5566,14 @@
       <c r="D157" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="2">
+        <v>256</v>
+      </c>
+      <c r="F157" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39"/>
       <c r="B158" s="2" t="s">
         <v>158</v>
@@ -4793,9 +5584,14 @@
       <c r="D158" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="2">
+        <v>264</v>
+      </c>
+      <c r="F158" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39"/>
       <c r="B159" s="2" t="s">
         <v>159</v>
@@ -4806,9 +5602,14 @@
       <c r="D159" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="2">
+        <v>168</v>
+      </c>
+      <c r="F159" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39"/>
       <c r="B160" s="2" t="s">
         <v>160</v>
@@ -4819,9 +5620,14 @@
       <c r="D160" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="2">
+        <v>178</v>
+      </c>
+      <c r="F160" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39"/>
       <c r="B161" s="2" t="s">
         <v>161</v>
@@ -4832,9 +5638,14 @@
       <c r="D161" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="2">
+        <v>178</v>
+      </c>
+      <c r="F161" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39"/>
       <c r="B162" s="2" t="s">
         <v>162</v>
@@ -4845,9 +5656,14 @@
       <c r="D162" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="2">
+        <v>178</v>
+      </c>
+      <c r="F162" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39"/>
       <c r="B163" s="2" t="s">
         <v>163</v>
@@ -4858,9 +5674,14 @@
       <c r="D163" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="2">
+        <v>172</v>
+      </c>
+      <c r="F163" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39"/>
       <c r="B164" s="2" t="s">
         <v>164</v>
@@ -4871,9 +5692,14 @@
       <c r="D164" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="2">
+        <v>165</v>
+      </c>
+      <c r="F164" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39"/>
       <c r="B165" s="2" t="s">
         <v>165</v>
@@ -4884,9 +5710,14 @@
       <c r="D165" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="2">
+        <v>158</v>
+      </c>
+      <c r="F165" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39"/>
       <c r="B166" s="2" t="s">
         <v>166</v>
@@ -4897,9 +5728,14 @@
       <c r="D166" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="2">
+        <v>148</v>
+      </c>
+      <c r="F166" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39"/>
       <c r="B167" s="2" t="s">
         <v>167</v>
@@ -4910,9 +5746,14 @@
       <c r="D167" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="2">
+        <v>138</v>
+      </c>
+      <c r="F167" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39"/>
       <c r="B168" s="2" t="s">
         <v>168</v>
@@ -4923,9 +5764,14 @@
       <c r="D168" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="2">
+        <v>128</v>
+      </c>
+      <c r="F168" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39"/>
       <c r="B169" s="2" t="s">
         <v>169</v>
@@ -4936,9 +5782,14 @@
       <c r="D169" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="2">
+        <v>118</v>
+      </c>
+      <c r="F169" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39"/>
       <c r="B170" s="2" t="s">
         <v>170</v>
@@ -4949,9 +5800,14 @@
       <c r="D170" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="2">
+        <v>109</v>
+      </c>
+      <c r="F170" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39"/>
       <c r="B171" s="2" t="s">
         <v>171</v>
@@ -4962,9 +5818,14 @@
       <c r="D171" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="2">
+        <v>100</v>
+      </c>
+      <c r="F171" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="s">
         <v>449</v>
       </c>
@@ -4977,9 +5838,14 @@
       <c r="D172" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="2">
+        <v>148</v>
+      </c>
+      <c r="F172" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39"/>
       <c r="B173" s="2" t="s">
         <v>451</v>
@@ -4990,9 +5856,14 @@
       <c r="D173" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="2">
+        <v>143</v>
+      </c>
+      <c r="F173" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39"/>
       <c r="B174" s="2" t="s">
         <v>452</v>
@@ -5003,9 +5874,14 @@
       <c r="D174" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="2">
+        <v>138</v>
+      </c>
+      <c r="F174" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="s">
         <v>212</v>
       </c>
@@ -5018,9 +5894,14 @@
       <c r="D175" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="2">
+        <v>155</v>
+      </c>
+      <c r="F175" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39"/>
       <c r="B176" s="2" t="s">
         <v>173</v>
@@ -5031,9 +5912,14 @@
       <c r="D176" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="2">
+        <v>155</v>
+      </c>
+      <c r="F176" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39"/>
       <c r="B177" s="2" t="s">
         <v>174</v>
@@ -5044,9 +5930,14 @@
       <c r="D177" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="2">
+        <v>155</v>
+      </c>
+      <c r="F177" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39"/>
       <c r="B178" s="2" t="s">
         <v>175</v>
@@ -5057,9 +5948,14 @@
       <c r="D178" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="2">
+        <v>155</v>
+      </c>
+      <c r="F178" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39"/>
       <c r="B179" s="2" t="s">
         <v>176</v>
@@ -5070,9 +5966,14 @@
       <c r="D179" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="2">
+        <v>155</v>
+      </c>
+      <c r="F179" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39"/>
       <c r="B180" s="2" t="s">
         <v>177</v>
@@ -5083,9 +5984,14 @@
       <c r="D180" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E180" s="2">
+        <v>155</v>
+      </c>
+      <c r="F180" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39"/>
       <c r="B181" s="2" t="s">
         <v>178</v>
@@ -5096,9 +6002,14 @@
       <c r="D181" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E181" s="2">
+        <v>155</v>
+      </c>
+      <c r="F181" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39"/>
       <c r="B182" s="2" t="s">
         <v>179</v>
@@ -5109,9 +6020,14 @@
       <c r="D182" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E182" s="2">
+        <v>155</v>
+      </c>
+      <c r="F182" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39"/>
       <c r="B183" s="2" t="s">
         <v>180</v>
@@ -5122,9 +6038,14 @@
       <c r="D183" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E183" s="2">
+        <v>155</v>
+      </c>
+      <c r="F183" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39"/>
       <c r="B184" s="2" t="s">
         <v>181</v>
@@ -5135,9 +6056,14 @@
       <c r="D184" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E184" s="2">
+        <v>155</v>
+      </c>
+      <c r="F184" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39"/>
       <c r="B185" s="2" t="s">
         <v>182</v>
@@ -5148,9 +6074,14 @@
       <c r="D185" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="2">
+        <v>135</v>
+      </c>
+      <c r="F185" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39"/>
       <c r="B186" s="2" t="s">
         <v>183</v>
@@ -5161,9 +6092,14 @@
       <c r="D186" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="2">
+        <v>119</v>
+      </c>
+      <c r="F186" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39"/>
       <c r="B187" s="2" t="s">
         <v>184</v>
@@ -5174,9 +6110,14 @@
       <c r="D187" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="2">
+        <v>104</v>
+      </c>
+      <c r="F187" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39"/>
       <c r="B188" s="2" t="s">
         <v>185</v>
@@ -5187,9 +6128,14 @@
       <c r="D188" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E188" s="2">
+        <v>88</v>
+      </c>
+      <c r="F188" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39"/>
       <c r="B189" s="2" t="s">
         <v>186</v>
@@ -5200,9 +6146,14 @@
       <c r="D189" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E189" s="2">
+        <v>78</v>
+      </c>
+      <c r="F189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="s">
         <v>213</v>
       </c>
@@ -5215,9 +6166,14 @@
       <c r="D190" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E190" s="2">
+        <v>324</v>
+      </c>
+      <c r="F190" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39"/>
       <c r="B191" s="2" t="s">
         <v>188</v>
@@ -5228,9 +6184,14 @@
       <c r="D191" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="2">
+        <v>313</v>
+      </c>
+      <c r="F191" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39"/>
       <c r="B192" s="2" t="s">
         <v>189</v>
@@ -5241,9 +6202,14 @@
       <c r="D192" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E192" s="2">
+        <v>297</v>
+      </c>
+      <c r="F192" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39"/>
       <c r="B193" s="2" t="s">
         <v>190</v>
@@ -5254,9 +6220,14 @@
       <c r="D193" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="2">
+        <v>281</v>
+      </c>
+      <c r="F193" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39"/>
       <c r="B194" s="2" t="s">
         <v>191</v>
@@ -5267,9 +6238,14 @@
       <c r="D194" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E194" s="2">
+        <v>233</v>
+      </c>
+      <c r="F194" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39"/>
       <c r="B195" s="2" t="s">
         <v>192</v>
@@ -5280,9 +6256,14 @@
       <c r="D195" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="2">
+        <v>212</v>
+      </c>
+      <c r="F195" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39"/>
       <c r="B196" s="2" t="s">
         <v>193</v>
@@ -5293,9 +6274,14 @@
       <c r="D196" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E196" s="2">
+        <v>197</v>
+      </c>
+      <c r="F196" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39"/>
       <c r="B197" s="2" t="s">
         <v>194</v>
@@ -5306,9 +6292,14 @@
       <c r="D197" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E197" s="2">
+        <v>183</v>
+      </c>
+      <c r="F197" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="s">
         <v>214</v>
       </c>
@@ -5321,9 +6312,14 @@
       <c r="D198" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E198" s="2">
+        <v>183</v>
+      </c>
+      <c r="F198" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39"/>
       <c r="B199" s="2" t="s">
         <v>196</v>
@@ -5334,9 +6330,14 @@
       <c r="D199" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="2">
+        <v>183</v>
+      </c>
+      <c r="F199" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39"/>
       <c r="B200" s="2" t="s">
         <v>197</v>
@@ -5347,9 +6348,14 @@
       <c r="D200" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="2">
+        <v>183</v>
+      </c>
+      <c r="F200" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39"/>
       <c r="B201" s="2" t="s">
         <v>198</v>
@@ -5360,9 +6366,14 @@
       <c r="D201" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E201" s="2">
+        <v>183</v>
+      </c>
+      <c r="F201" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39"/>
       <c r="B202" s="2" t="s">
         <v>199</v>
@@ -5373,9 +6384,14 @@
       <c r="D202" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E202" s="2">
+        <v>191</v>
+      </c>
+      <c r="F202" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39"/>
       <c r="B203" s="2" t="s">
         <v>200</v>
@@ -5386,9 +6402,14 @@
       <c r="D203" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E203" s="2">
+        <v>198</v>
+      </c>
+      <c r="F203" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39"/>
       <c r="B204" s="2" t="s">
         <v>201</v>
@@ -5399,9 +6420,14 @@
       <c r="D204" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E204" s="2">
+        <v>191</v>
+      </c>
+      <c r="F204" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="39"/>
       <c r="B205" s="2" t="s">
         <v>202</v>
@@ -5412,9 +6438,14 @@
       <c r="D205" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E205" s="2">
+        <v>182</v>
+      </c>
+      <c r="F205" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39"/>
       <c r="B206" s="2" t="s">
         <v>203</v>
@@ -5425,9 +6456,14 @@
       <c r="D206" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E206" s="2">
+        <v>168</v>
+      </c>
+      <c r="F206" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="39"/>
       <c r="B207" s="2" t="s">
         <v>204</v>
@@ -5438,9 +6474,14 @@
       <c r="D207" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E207" s="2">
+        <v>175</v>
+      </c>
+      <c r="F207" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="39"/>
       <c r="B208" s="2" t="s">
         <v>205</v>
@@ -5451,9 +6492,14 @@
       <c r="D208" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E208" s="2">
+        <v>161</v>
+      </c>
+      <c r="F208" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39"/>
       <c r="B209" s="2" t="s">
         <v>206</v>
@@ -5464,7 +6510,12 @@
       <c r="D209" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E209" s="2"/>
+      <c r="E209" s="2">
+        <v>118</v>
+      </c>
+      <c r="F209" s="1">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5492,9 +6543,9 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5526,7 +6577,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
@@ -5549,7 +6600,7 @@
       </c>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="33"/>
       <c r="C3" s="35"/>
@@ -5562,7 +6613,7 @@
       <c r="I3" s="35"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35"/>
@@ -5575,7 +6626,7 @@
       <c r="I4" s="35"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="33"/>
       <c r="C5" s="35"/>
@@ -5588,7 +6639,7 @@
       <c r="I5" s="35"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="34"/>
       <c r="C6" s="30"/>
@@ -5601,7 +6652,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>208</v>
       </c>
@@ -5621,7 +6672,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="33"/>
       <c r="C8" s="35"/>
@@ -5633,7 +6684,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="33"/>
       <c r="C9" s="35"/>
@@ -5645,7 +6696,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="33"/>
       <c r="C10" s="35"/>
@@ -5657,7 +6708,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="34"/>
       <c r="C11" s="30"/>
@@ -5669,7 +6720,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>209</v>
       </c>
@@ -5689,7 +6740,7 @@
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35"/>
@@ -5701,7 +6752,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="33"/>
       <c r="C14" s="35"/>
@@ -5713,7 +6764,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="33"/>
       <c r="C15" s="35"/>
@@ -5725,7 +6776,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30"/>
@@ -5737,7 +6788,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>210</v>
       </c>
@@ -5757,7 +6808,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="33"/>
       <c r="C18" s="35"/>
@@ -5769,7 +6820,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="33"/>
       <c r="C19" s="35"/>
@@ -5781,7 +6832,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="33"/>
       <c r="C20" s="35"/>
@@ -5793,7 +6844,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30"/>
@@ -5805,7 +6856,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>211</v>
       </c>
@@ -5831,7 +6882,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="33" t="s">
         <v>626</v>
@@ -5844,7 +6895,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="33" t="s">
         <v>627</v>
@@ -5856,7 +6907,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="33" t="s">
         <v>628</v>
@@ -5869,7 +6920,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="34" t="s">
         <v>629</v>
@@ -5883,7 +6934,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>449</v>
       </c>
@@ -5899,7 +6950,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
@@ -5911,7 +6962,7 @@
       <c r="I28" s="35"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
@@ -5923,7 +6974,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="33"/>
       <c r="C30" s="35"/>
@@ -5935,7 +6986,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
@@ -5947,7 +6998,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>212</v>
       </c>
@@ -5967,7 +7018,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -5979,7 +7030,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="33"/>
       <c r="C34" s="35"/>
@@ -5991,7 +7042,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="33"/>
       <c r="C35" s="35"/>
@@ -6003,7 +7054,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="34"/>
       <c r="C36" s="30"/>
@@ -6015,7 +7066,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>213</v>
       </c>
@@ -6035,22 +7086,22 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="36"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="36"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="36"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="40"/>
       <c r="B41" s="37"/>
       <c r="C41" s="14"/>
@@ -6062,7 +7113,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>214</v>
       </c>
@@ -6078,7 +7129,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
       <c r="B43" s="36"/>
       <c r="F43" t="s">
@@ -6086,17 +7137,17 @@
       </c>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="40"/>
       <c r="B44" s="36"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="40"/>
       <c r="B45" s="36"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="40"/>
       <c r="B46" s="37"/>
       <c r="C46" s="14"/>
@@ -6130,16 +7181,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD90CC-09F2-46A0-A203-5B8BE87044B8}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6189,7 +7240,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -6199,45 +7250,45 @@
       <c r="C2" s="36">
         <v>17</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2">
         <v>17</v>
       </c>
-      <c r="E2" s="55">
-        <v>20</v>
-      </c>
-      <c r="F2" s="55">
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>22</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2">
         <v>25</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2">
         <v>37</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2">
         <v>30</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2">
         <v>32</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2">
         <v>35</v>
       </c>
-      <c r="L2" s="55">
+      <c r="L2">
         <v>37</v>
       </c>
-      <c r="M2" s="55">
+      <c r="M2">
         <v>40</v>
       </c>
-      <c r="N2" s="55">
+      <c r="N2">
         <v>42</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2">
         <v>45</v>
       </c>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="9" t="s">
         <v>618</v>
@@ -6245,57 +7296,57 @@
       <c r="C3" s="36">
         <v>15</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3">
         <f>_xlfn.FLOOR.MATH(D2*0.9)</f>
         <v>15</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3">
         <f t="shared" ref="E3:O3" si="0">_xlfn.FLOOR.MATH(E2*0.9)</f>
         <v>18</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
       <c r="B4" s="9" t="s">
         <v>620</v>
@@ -6353,7 +7404,7 @@
       </c>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>211</v>
       </c>
@@ -6395,7 +7446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
       <c r="B6" s="9" t="s">
         <v>618</v>
@@ -6403,39 +7454,35 @@
       <c r="C6" s="36">
         <v>17</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6">
         <v>17</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6">
         <v>28</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6">
         <v>32</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6">
         <v>35</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6">
         <v>40</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6">
         <v>43</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6">
         <v>47</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
       <c r="P6" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="9" t="s">
         <v>620</v>
@@ -6483,7 +7530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>449</v>
       </c>
@@ -6511,7 +7558,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="9" t="s">
         <v>618</v>
@@ -6519,25 +7566,15 @@
       <c r="C9" s="36">
         <v>16</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>620</v>
@@ -6563,7 +7600,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
         <v>213</v>
       </c>
@@ -6601,7 +7638,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>618</v>
@@ -6610,42 +7647,37 @@
         <f>_xlfn.CEILING.MATH(C11*0.8)</f>
         <v>12</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12">
         <f>_xlfn.CEILING.MATH(D11*0.8)</f>
         <v>12</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12">
         <f t="shared" ref="E12:J12" si="3">_xlfn.CEILING.MATH(E11*0.8)</f>
         <v>16</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>620</v>
@@ -6689,7 +7721,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>214</v>
       </c>
@@ -6735,7 +7767,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="9" t="s">
         <v>618</v>
@@ -6743,43 +7775,42 @@
       <c r="C15" s="36">
         <v>0</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" s="55"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="10" t="s">
         <v>620</v>
@@ -6854,13 +7885,13 @@
       <selection activeCell="AH134" sqref="AH1:AI1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="5.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6887,7 +7918,7 @@
       <c r="R1" s="47"/>
       <c r="S1" s="48"/>
     </row>
-    <row r="2" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>208</v>
       </c>
@@ -6944,7 +7975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50"/>
       <c r="B3" s="50"/>
       <c r="C3" s="21" t="s">
@@ -6999,7 +8030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="50"/>
       <c r="C4" s="21" t="s">
@@ -7054,7 +8085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="50"/>
       <c r="C5" s="21" t="s">
@@ -7109,7 +8140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="50"/>
       <c r="C6" s="21" t="s">
@@ -7164,7 +8195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="50"/>
       <c r="C7" s="21" t="s">
@@ -7219,7 +8250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="50"/>
       <c r="C8" s="21" t="s">
@@ -7274,7 +8305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="50"/>
       <c r="C9" s="21" t="s">
@@ -7329,7 +8360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="50"/>
       <c r="C10" s="21" t="s">
@@ -7384,7 +8415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="50"/>
       <c r="C11" s="21" t="s">
@@ -7439,7 +8470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="50"/>
       <c r="C12" s="21" t="s">
@@ -7494,7 +8525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="50"/>
       <c r="C13" s="21" t="s">
@@ -7549,7 +8580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="21" t="s">
@@ -7604,7 +8635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
       <c r="C15" s="21" t="s">
@@ -7659,7 +8690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
       <c r="C16" s="21" t="s">
@@ -7714,7 +8745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="50"/>
       <c r="C17" s="21" t="s">
@@ -7769,7 +8800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
       <c r="C18" s="23" t="s">
@@ -7824,7 +8855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="50" t="s">
         <v>618</v>
@@ -7879,7 +8910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
       <c r="C20" s="21" t="s">
@@ -7934,7 +8965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="50"/>
       <c r="C21" s="21" t="s">
@@ -7989,7 +9020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="B22" s="50"/>
       <c r="C22" s="21" t="s">
@@ -8044,7 +9075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
       <c r="C23" s="21" t="s">
@@ -8099,7 +9130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
@@ -8154,7 +9185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="B25" s="50"/>
       <c r="C25" s="21" t="s">
@@ -8209,7 +9240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="50"/>
       <c r="C26" s="21" t="s">
@@ -8264,7 +9295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
       <c r="B27" s="50"/>
       <c r="C27" s="21" t="s">
@@ -8319,7 +9350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="50"/>
       <c r="C28" s="21" t="s">
@@ -8374,7 +9405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="50"/>
       <c r="C29" s="21" t="s">
@@ -8429,7 +9460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
       <c r="C30" s="21" t="s">
@@ -8484,7 +9515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="50"/>
       <c r="C31" s="21" t="s">
@@ -8539,7 +9570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="50"/>
       <c r="C32" s="21" t="s">
@@ -8594,7 +9625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="50"/>
       <c r="C33" s="21" t="s">
@@ -8649,7 +9680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="50"/>
       <c r="C34" s="21" t="s">
@@ -8704,7 +9735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="50"/>
       <c r="C35" s="23" t="s">
@@ -8759,7 +9790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="50" t="s">
         <v>620</v>
@@ -8814,7 +9845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
       <c r="B37" s="50"/>
       <c r="C37" s="21" t="s">
@@ -8869,7 +9900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="50"/>
       <c r="C38" s="21" t="s">
@@ -8924,7 +9955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
       <c r="C39" s="21" t="s">
@@ -8979,7 +10010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
       <c r="B40" s="50"/>
       <c r="C40" s="21" t="s">
@@ -9034,7 +10065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
       <c r="C41" s="21" t="s">
@@ -9089,7 +10120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
       <c r="B42" s="50"/>
       <c r="C42" s="21" t="s">
@@ -9144,7 +10175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
       <c r="B43" s="50"/>
       <c r="C43" s="21" t="s">
@@ -9199,7 +10230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="21" t="s">
@@ -9254,7 +10285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
       <c r="C45" s="21" t="s">
@@ -9309,7 +10340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
       <c r="B46" s="50"/>
       <c r="C46" s="21" t="s">
@@ -9364,7 +10395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="21" t="s">
@@ -9419,7 +10450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
       <c r="C48" s="21" t="s">
@@ -9474,7 +10505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="21" t="s">
@@ -9529,7 +10560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
       <c r="B50" s="50"/>
       <c r="C50" s="21" t="s">
@@ -9584,7 +10615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="21" t="s">
@@ -9639,7 +10670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
       <c r="C52" s="21" t="s">
@@ -9694,7 +10725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="51" t="s">
         <v>209</v>
       </c>
@@ -9772,7 +10803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="52"/>
       <c r="C54" s="21" t="s">
@@ -9848,7 +10879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="52"/>
       <c r="C55" s="21" t="s">
@@ -9924,7 +10955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52"/>
       <c r="B56" s="52"/>
       <c r="C56" s="21" t="s">
@@ -10000,7 +11031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52"/>
       <c r="B57" s="52"/>
       <c r="C57" s="21" t="s">
@@ -10076,7 +11107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
       <c r="B58" s="52"/>
       <c r="C58" s="21" t="s">
@@ -10152,7 +11183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="52"/>
       <c r="B59" s="52"/>
       <c r="C59" s="21" t="s">
@@ -10228,7 +11259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="52"/>
       <c r="B60" s="52"/>
       <c r="C60" s="21" t="s">
@@ -10304,7 +11335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="52"/>
       <c r="B61" s="52"/>
       <c r="C61" s="21" t="s">
@@ -10380,7 +11411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="52"/>
       <c r="C62" s="21" t="s">
@@ -10456,7 +11487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="52"/>
       <c r="B63" s="52"/>
       <c r="C63" s="21" t="s">
@@ -10532,7 +11563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="52"/>
       <c r="B64" s="52"/>
       <c r="C64" s="21" t="s">
@@ -10608,7 +11639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="52"/>
       <c r="B65" s="52"/>
       <c r="C65" s="21" t="s">
@@ -10684,7 +11715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="52"/>
       <c r="B66" s="52"/>
       <c r="C66" s="21" t="s">
@@ -10760,7 +11791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="52"/>
       <c r="B67" s="52"/>
       <c r="C67" s="21" t="s">
@@ -10836,7 +11867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="52"/>
       <c r="B68" s="52"/>
       <c r="C68" s="21" t="s">
@@ -10912,7 +11943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="52"/>
       <c r="B69" s="52"/>
       <c r="C69" s="21" t="s">
@@ -10988,7 +12019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="52"/>
       <c r="B70" s="52"/>
       <c r="C70" s="21" t="s">
@@ -11064,7 +12095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="52"/>
       <c r="B71" s="52"/>
       <c r="C71" s="21" t="s">
@@ -11140,7 +12171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="52"/>
       <c r="B72" s="52"/>
       <c r="C72" s="21" t="s">
@@ -11216,7 +12247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="52"/>
       <c r="B73" s="52"/>
       <c r="C73" s="21" t="s">
@@ -11292,7 +12323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="52"/>
       <c r="B74" s="52"/>
       <c r="C74" s="21" t="s">
@@ -11368,7 +12399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="52"/>
       <c r="B75" s="52"/>
       <c r="C75" s="21" t="s">
@@ -11444,7 +12475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="52"/>
       <c r="B76" s="49"/>
       <c r="C76" s="23" t="s">
@@ -11520,7 +12551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="52"/>
       <c r="B77" s="51" t="s">
         <v>618</v>
@@ -11596,7 +12627,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="52"/>
       <c r="B78" s="52"/>
       <c r="C78" s="21" t="s">
@@ -11672,7 +12703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="52"/>
       <c r="B79" s="52"/>
       <c r="C79" s="21" t="s">
@@ -11748,7 +12779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="52"/>
       <c r="C80" s="21" t="s">
@@ -11824,7 +12855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
       <c r="B81" s="52"/>
       <c r="C81" s="21" t="s">
@@ -11900,7 +12931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="52"/>
       <c r="B82" s="52"/>
       <c r="C82" s="21" t="s">
@@ -11976,7 +13007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="52"/>
       <c r="B83" s="52"/>
       <c r="C83" s="21" t="s">
@@ -12052,7 +13083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="52"/>
       <c r="B84" s="52"/>
       <c r="C84" s="21" t="s">
@@ -12128,7 +13159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="52"/>
       <c r="B85" s="52"/>
       <c r="C85" s="21" t="s">
@@ -12204,7 +13235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="52"/>
       <c r="B86" s="52"/>
       <c r="C86" s="21" t="s">
@@ -12280,7 +13311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="52"/>
       <c r="B87" s="52"/>
       <c r="C87" s="21" t="s">
@@ -12356,7 +13387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="52"/>
       <c r="B88" s="52"/>
       <c r="C88" s="21" t="s">
@@ -12432,7 +13463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="52"/>
       <c r="B89" s="52"/>
       <c r="C89" s="21" t="s">
@@ -12508,7 +13539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="52"/>
       <c r="B90" s="52"/>
       <c r="C90" s="21" t="s">
@@ -12584,7 +13615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="52"/>
       <c r="B91" s="52"/>
       <c r="C91" s="21" t="s">
@@ -12660,7 +13691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="52"/>
       <c r="B92" s="52"/>
       <c r="C92" s="21" t="s">
@@ -12736,7 +13767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="52"/>
       <c r="B93" s="52"/>
       <c r="C93" s="21" t="s">
@@ -12812,7 +13843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="52"/>
       <c r="B94" s="52"/>
       <c r="C94" s="21" t="s">
@@ -12888,7 +13919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="52"/>
       <c r="B95" s="52"/>
       <c r="C95" s="21" t="s">
@@ -12964,7 +13995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="52"/>
       <c r="B96" s="52"/>
       <c r="C96" s="21" t="s">
@@ -13040,7 +14071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="52"/>
       <c r="B97" s="52"/>
       <c r="C97" s="21" t="s">
@@ -13116,7 +14147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="52"/>
       <c r="B98" s="52"/>
       <c r="C98" s="21" t="s">
@@ -13192,7 +14223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="52"/>
       <c r="B99" s="52"/>
       <c r="C99" s="21" t="s">
@@ -13268,7 +14299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="52"/>
       <c r="B100" s="49"/>
       <c r="C100" s="23" t="s">
@@ -13344,7 +14375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="52"/>
       <c r="B101" s="51" t="s">
         <v>620</v>
@@ -13420,7 +14451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="52"/>
       <c r="B102" s="52"/>
       <c r="C102" s="21" t="s">
@@ -13496,7 +14527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="52"/>
       <c r="B103" s="52"/>
       <c r="C103" s="21" t="s">
@@ -13572,7 +14603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="52"/>
       <c r="B104" s="52"/>
       <c r="C104" s="21" t="s">
@@ -13648,7 +14679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="52"/>
       <c r="B105" s="52"/>
       <c r="C105" s="21" t="s">
@@ -13724,7 +14755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="52"/>
       <c r="B106" s="52"/>
       <c r="C106" s="21" t="s">
@@ -13800,7 +14831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="52"/>
       <c r="B107" s="52"/>
       <c r="C107" s="21" t="s">
@@ -13876,7 +14907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="52"/>
       <c r="B108" s="52"/>
       <c r="C108" s="21" t="s">
@@ -13952,7 +14983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="52"/>
       <c r="B109" s="52"/>
       <c r="C109" s="21" t="s">
@@ -14028,7 +15059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="52"/>
       <c r="B110" s="52"/>
       <c r="C110" s="21" t="s">
@@ -14104,7 +15135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="52"/>
       <c r="B111" s="52"/>
       <c r="C111" s="21" t="s">
@@ -14180,7 +15211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="52"/>
       <c r="B112" s="52"/>
       <c r="C112" s="21" t="s">
@@ -14256,7 +15287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="52"/>
       <c r="B113" s="52"/>
       <c r="C113" s="21" t="s">
@@ -14332,7 +15363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="52"/>
       <c r="B114" s="52"/>
       <c r="C114" s="21" t="s">
@@ -14408,7 +15439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="52"/>
       <c r="B115" s="52"/>
       <c r="C115" s="21" t="s">
@@ -14484,7 +15515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="52"/>
       <c r="B116" s="52"/>
       <c r="C116" s="21" t="s">
@@ -14560,7 +15591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="52"/>
       <c r="B117" s="52"/>
       <c r="C117" s="21" t="s">
@@ -14636,7 +15667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="52"/>
       <c r="B118" s="52"/>
       <c r="C118" s="21" t="s">
@@ -14712,7 +15743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="52"/>
       <c r="B119" s="52"/>
       <c r="C119" s="21" t="s">
@@ -14788,7 +15819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="52"/>
       <c r="B120" s="52"/>
       <c r="C120" s="21" t="s">
@@ -14864,7 +15895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="52"/>
       <c r="B121" s="52"/>
       <c r="C121" s="21" t="s">
@@ -14940,7 +15971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="52"/>
       <c r="B122" s="52"/>
       <c r="C122" s="21" t="s">
@@ -15016,7 +16047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="52"/>
       <c r="B123" s="52"/>
       <c r="C123" s="21" t="s">
@@ -15092,7 +16123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="49"/>
       <c r="B124" s="49"/>
       <c r="C124" s="23" t="s">
@@ -15168,7 +16199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="51" t="s">
         <v>210</v>
       </c>
@@ -15273,7 +16304,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="52"/>
       <c r="B126" s="52"/>
       <c r="C126" s="21" t="s">
@@ -15376,7 +16407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="52"/>
       <c r="B127" s="52"/>
       <c r="C127" s="21" t="s">
@@ -15479,7 +16510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="52"/>
       <c r="B128" s="52"/>
       <c r="C128" s="21" t="s">
@@ -15582,7 +16613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="52"/>
       <c r="B129" s="52"/>
       <c r="C129" s="21" t="s">
@@ -15685,7 +16716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="52"/>
       <c r="B130" s="52"/>
       <c r="C130" s="21" t="s">
@@ -15788,7 +16819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="52"/>
       <c r="B131" s="52"/>
       <c r="C131" s="21" t="s">
@@ -15891,7 +16922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="52"/>
       <c r="B132" s="52"/>
       <c r="C132" s="21" t="s">
@@ -15994,7 +17025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="52"/>
       <c r="B133" s="52"/>
       <c r="C133" s="21" t="s">
@@ -16097,7 +17128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="52"/>
       <c r="B134" s="52"/>
       <c r="C134" s="21" t="s">
@@ -16200,7 +17231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="52"/>
       <c r="B135" s="52"/>
       <c r="C135" s="21" t="s">
@@ -16303,7 +17334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="52"/>
       <c r="B136" s="52"/>
       <c r="C136" s="21" t="s">
@@ -16406,7 +17437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="52"/>
       <c r="B137" s="52"/>
       <c r="C137" s="21" t="s">
@@ -16509,7 +17540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="52"/>
       <c r="B138" s="52"/>
       <c r="C138" s="21" t="s">
@@ -16612,7 +17643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="52"/>
       <c r="B139" s="52"/>
       <c r="C139" s="21" t="s">
@@ -16715,7 +17746,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="52"/>
       <c r="B140" s="52"/>
       <c r="C140" s="21" t="s">
@@ -16818,7 +17849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="52"/>
       <c r="B141" s="52"/>
       <c r="C141" s="21" t="s">
@@ -16921,7 +17952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="52"/>
       <c r="B142" s="52"/>
       <c r="C142" s="21" t="s">
@@ -17024,7 +18055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="52"/>
       <c r="B143" s="52"/>
       <c r="C143" s="21" t="s">
@@ -17127,7 +18158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="52"/>
       <c r="B144" s="52"/>
       <c r="C144" s="21" t="s">
@@ -17230,7 +18261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="52"/>
       <c r="B145" s="52"/>
       <c r="C145" s="21" t="s">
@@ -17333,7 +18364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="52"/>
       <c r="B146" s="52"/>
       <c r="C146" s="21" t="s">
@@ -17436,7 +18467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="52"/>
       <c r="B147" s="52"/>
       <c r="C147" s="21" t="s">
@@ -17539,7 +18570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="52"/>
       <c r="B148" s="52"/>
       <c r="C148" s="21" t="s">
@@ -17642,7 +18673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="52"/>
       <c r="B149" s="52"/>
       <c r="C149" s="21" t="s">
@@ -17745,7 +18776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="52"/>
       <c r="B150" s="52"/>
       <c r="C150" s="21" t="s">
@@ -17848,7 +18879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="52"/>
       <c r="B151" s="52"/>
       <c r="C151" s="21" t="s">
@@ -17951,7 +18982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="52"/>
       <c r="B152" s="52"/>
       <c r="C152" s="21" t="s">
@@ -18054,7 +19085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="52"/>
       <c r="B153" s="52"/>
       <c r="C153" s="21" t="s">
@@ -18157,7 +19188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="52"/>
       <c r="B154" s="52"/>
       <c r="C154" s="21" t="s">
@@ -18260,7 +19291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="52"/>
       <c r="B155" s="52"/>
       <c r="C155" s="21" t="s">
@@ -18363,7 +19394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="52"/>
       <c r="B156" s="52"/>
       <c r="C156" s="21" t="s">
@@ -18466,7 +19497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="52"/>
       <c r="B157" s="49"/>
       <c r="C157" s="23" t="s">
@@ -18569,7 +19600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="52"/>
       <c r="B158" s="51" t="s">
         <v>618</v>
@@ -18672,7 +19703,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="52"/>
       <c r="B159" s="52"/>
       <c r="C159" s="21" t="s">
@@ -18775,7 +19806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="52"/>
       <c r="B160" s="52"/>
       <c r="C160" s="21" t="s">
@@ -18878,7 +19909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="52"/>
       <c r="B161" s="52"/>
       <c r="C161" s="21" t="s">
@@ -18981,7 +20012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="52"/>
       <c r="B162" s="52"/>
       <c r="C162" s="21" t="s">
@@ -19084,7 +20115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="52"/>
       <c r="B163" s="52"/>
       <c r="C163" s="21" t="s">
@@ -19187,7 +20218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="52"/>
       <c r="B164" s="52"/>
       <c r="C164" s="21" t="s">
@@ -19290,7 +20321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="52"/>
       <c r="B165" s="52"/>
       <c r="C165" s="21" t="s">
@@ -19393,7 +20424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="52"/>
       <c r="B166" s="52"/>
       <c r="C166" s="21" t="s">
@@ -19496,7 +20527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="52"/>
       <c r="B167" s="52"/>
       <c r="C167" s="21" t="s">
@@ -19599,7 +20630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="52"/>
       <c r="B168" s="52"/>
       <c r="C168" s="21" t="s">
@@ -19702,7 +20733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="52"/>
       <c r="B169" s="52"/>
       <c r="C169" s="21" t="s">
@@ -19805,7 +20836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="52"/>
       <c r="B170" s="52"/>
       <c r="C170" s="21" t="s">
@@ -19908,7 +20939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="52"/>
       <c r="B171" s="52"/>
       <c r="C171" s="21" t="s">
@@ -20011,7 +21042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="52"/>
       <c r="B172" s="52"/>
       <c r="C172" s="21" t="s">
@@ -20114,7 +21145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="52"/>
       <c r="B173" s="52"/>
       <c r="C173" s="21" t="s">
@@ -20217,7 +21248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="52"/>
       <c r="B174" s="52"/>
       <c r="C174" s="21" t="s">
@@ -20320,7 +21351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="52"/>
       <c r="B175" s="52"/>
       <c r="C175" s="21" t="s">
@@ -20423,7 +21454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="52"/>
       <c r="B176" s="52"/>
       <c r="C176" s="21" t="s">
@@ -20526,7 +21557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="52"/>
       <c r="B177" s="52"/>
       <c r="C177" s="21" t="s">
@@ -20629,7 +21660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="52"/>
       <c r="B178" s="52"/>
       <c r="C178" s="21" t="s">
@@ -20732,7 +21763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="52"/>
       <c r="B179" s="52"/>
       <c r="C179" s="21" t="s">
@@ -20835,7 +21866,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="52"/>
       <c r="B180" s="52"/>
       <c r="C180" s="21" t="s">
@@ -20938,7 +21969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="52"/>
       <c r="B181" s="52"/>
       <c r="C181" s="21" t="s">
@@ -21041,7 +22072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="52"/>
       <c r="B182" s="52"/>
       <c r="C182" s="21" t="s">
@@ -21144,7 +22175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="52"/>
       <c r="B183" s="52"/>
       <c r="C183" s="21" t="s">
@@ -21247,7 +22278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="52"/>
       <c r="B184" s="52"/>
       <c r="C184" s="21" t="s">
@@ -21350,7 +22381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="52"/>
       <c r="B185" s="52"/>
       <c r="C185" s="21" t="s">
@@ -21453,7 +22484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="52"/>
       <c r="B186" s="52"/>
       <c r="C186" s="21" t="s">
@@ -21556,7 +22587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="52"/>
       <c r="B187" s="52"/>
       <c r="C187" s="21" t="s">
@@ -21659,7 +22690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="52"/>
       <c r="B188" s="52"/>
       <c r="C188" s="21" t="s">
@@ -21762,7 +22793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="52"/>
       <c r="B189" s="52"/>
       <c r="C189" s="21" t="s">
@@ -21865,7 +22896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="52"/>
       <c r="B190" s="49"/>
       <c r="C190" s="23" t="s">
@@ -21968,7 +22999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="52"/>
       <c r="B191" s="51" t="s">
         <v>620</v>
@@ -22071,7 +23102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="52"/>
       <c r="B192" s="52"/>
       <c r="C192" s="21" t="s">
@@ -22206,7 +23237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="52"/>
       <c r="B193" s="52"/>
       <c r="C193" s="21" t="s">
@@ -22341,7 +23372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="52"/>
       <c r="B194" s="52"/>
       <c r="C194" s="21" t="s">
@@ -22476,7 +23507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="52"/>
       <c r="B195" s="52"/>
       <c r="C195" s="21" t="s">
@@ -22611,7 +23642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="52"/>
       <c r="B196" s="52"/>
       <c r="C196" s="21" t="s">
@@ -22746,7 +23777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="52"/>
       <c r="B197" s="52"/>
       <c r="C197" s="21" t="s">
@@ -22881,7 +23912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="52"/>
       <c r="B198" s="52"/>
       <c r="C198" s="21" t="s">
@@ -23016,7 +24047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="52"/>
       <c r="B199" s="52"/>
       <c r="C199" s="21" t="s">
@@ -23151,7 +24182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="52"/>
       <c r="B200" s="52"/>
       <c r="C200" s="21" t="s">
@@ -23286,7 +24317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="52"/>
       <c r="B201" s="52"/>
       <c r="C201" s="21" t="s">
@@ -23421,7 +24452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="52"/>
       <c r="B202" s="52"/>
       <c r="C202" s="21" t="s">
@@ -23556,7 +24587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="52"/>
       <c r="B203" s="52"/>
       <c r="C203" s="21" t="s">
@@ -23691,7 +24722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="52"/>
       <c r="B204" s="52"/>
       <c r="C204" s="21" t="s">
@@ -23826,7 +24857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="52"/>
       <c r="B205" s="52"/>
       <c r="C205" s="21" t="s">
@@ -23961,7 +24992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="52"/>
       <c r="B206" s="52"/>
       <c r="C206" s="21" t="s">
@@ -24096,7 +25127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="52"/>
       <c r="B207" s="52"/>
       <c r="C207" s="21" t="s">
@@ -24231,7 +25262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="52"/>
       <c r="B208" s="52"/>
       <c r="C208" s="21" t="s">
@@ -24366,7 +25397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="52"/>
       <c r="B209" s="52"/>
       <c r="C209" s="21" t="s">
@@ -24501,7 +25532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="52"/>
       <c r="B210" s="52"/>
       <c r="C210" s="21" t="s">
@@ -24636,7 +25667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="52"/>
       <c r="B211" s="52"/>
       <c r="C211" s="21" t="s">
@@ -24771,7 +25802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="52"/>
       <c r="B212" s="52"/>
       <c r="C212" s="21" t="s">
@@ -24906,7 +25937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="52"/>
       <c r="B213" s="52"/>
       <c r="C213" s="21" t="s">
@@ -25041,7 +26072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="52"/>
       <c r="B214" s="52"/>
       <c r="C214" s="21" t="s">
@@ -25176,7 +26207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="52"/>
       <c r="B215" s="52"/>
       <c r="C215" s="21" t="s">
@@ -25311,7 +26342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="52"/>
       <c r="B216" s="52"/>
       <c r="C216" s="21" t="s">
@@ -25446,7 +26477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="52"/>
       <c r="B217" s="52"/>
       <c r="C217" s="21" t="s">
@@ -25581,7 +26612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="52"/>
       <c r="B218" s="52"/>
       <c r="C218" s="21" t="s">
@@ -25716,7 +26747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="52"/>
       <c r="B219" s="52"/>
       <c r="C219" s="21" t="s">
@@ -25851,7 +26882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="52"/>
       <c r="B220" s="52"/>
       <c r="C220" s="21" t="s">
@@ -25986,7 +27017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="52"/>
       <c r="B221" s="52"/>
       <c r="C221" s="21" t="s">
@@ -26121,7 +27152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="52"/>
       <c r="B222" s="52"/>
       <c r="C222" s="21" t="s">
@@ -26256,7 +27287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="49"/>
       <c r="B223" s="49"/>
       <c r="C223" s="23" t="s">
@@ -26391,7 +27422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="53" t="s">
         <v>212</v>
       </c>
@@ -26456,7 +27487,7 @@
       <c r="AF224" s="16"/>
       <c r="AG224" s="16"/>
     </row>
-    <row r="225" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="54"/>
       <c r="B225" s="52"/>
       <c r="C225" s="21" t="s">
@@ -26519,7 +27550,7 @@
       <c r="AF225" s="16"/>
       <c r="AG225" s="16"/>
     </row>
-    <row r="226" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="54"/>
       <c r="B226" s="52"/>
       <c r="C226" s="21" t="s">
@@ -26582,7 +27613,7 @@
       <c r="AF226" s="16"/>
       <c r="AG226" s="16"/>
     </row>
-    <row r="227" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="54"/>
       <c r="B227" s="52"/>
       <c r="C227" s="21" t="s">
@@ -26645,7 +27676,7 @@
       <c r="AF227" s="16"/>
       <c r="AG227" s="16"/>
     </row>
-    <row r="228" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="54"/>
       <c r="B228" s="52"/>
       <c r="C228" s="21" t="s">
@@ -26708,7 +27739,7 @@
       <c r="AF228" s="16"/>
       <c r="AG228" s="16"/>
     </row>
-    <row r="229" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="54"/>
       <c r="B229" s="52"/>
       <c r="C229" s="21" t="s">
@@ -26771,7 +27802,7 @@
       <c r="AF229" s="16"/>
       <c r="AG229" s="16"/>
     </row>
-    <row r="230" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="54"/>
       <c r="B230" s="52"/>
       <c r="C230" s="21" t="s">
@@ -26834,7 +27865,7 @@
       <c r="AF230" s="16"/>
       <c r="AG230" s="16"/>
     </row>
-    <row r="231" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="54"/>
       <c r="B231" s="52"/>
       <c r="C231" s="21" t="s">
@@ -26897,7 +27928,7 @@
       <c r="AF231" s="16"/>
       <c r="AG231" s="16"/>
     </row>
-    <row r="232" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="54"/>
       <c r="B232" s="52"/>
       <c r="C232" s="21" t="s">
@@ -26960,7 +27991,7 @@
       <c r="AF232" s="16"/>
       <c r="AG232" s="16"/>
     </row>
-    <row r="233" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="54"/>
       <c r="B233" s="52"/>
       <c r="C233" s="21" t="s">
@@ -27023,7 +28054,7 @@
       <c r="AF233" s="16"/>
       <c r="AG233" s="16"/>
     </row>
-    <row r="234" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="54"/>
       <c r="B234" s="52"/>
       <c r="C234" s="21" t="s">
@@ -27086,7 +28117,7 @@
       <c r="AF234" s="16"/>
       <c r="AG234" s="16"/>
     </row>
-    <row r="235" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="54"/>
       <c r="B235" s="52"/>
       <c r="C235" s="21" t="s">
@@ -27149,7 +28180,7 @@
       <c r="AF235" s="16"/>
       <c r="AG235" s="16"/>
     </row>
-    <row r="236" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="54"/>
       <c r="B236" s="52"/>
       <c r="C236" s="21" t="s">
@@ -27212,7 +28243,7 @@
       <c r="AF236" s="16"/>
       <c r="AG236" s="16"/>
     </row>
-    <row r="237" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="54"/>
       <c r="B237" s="49"/>
       <c r="C237" s="23" t="s">
@@ -27275,7 +28306,7 @@
       <c r="AF237" s="16"/>
       <c r="AG237" s="16"/>
     </row>
-    <row r="238" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="54"/>
       <c r="B238" s="51" t="s">
         <v>618</v>
@@ -27321,7 +28352,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="54"/>
       <c r="B239" s="52"/>
       <c r="C239" s="21" t="s">
@@ -27367,7 +28398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="54"/>
       <c r="B240" s="52"/>
       <c r="C240" s="21" t="s">
@@ -27413,7 +28444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="54"/>
       <c r="B241" s="52"/>
       <c r="C241" s="21" t="s">
@@ -27459,7 +28490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="54"/>
       <c r="B242" s="52"/>
       <c r="C242" s="21" t="s">
@@ -27505,7 +28536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="54"/>
       <c r="B243" s="52"/>
       <c r="C243" s="21" t="s">
@@ -27551,7 +28582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="54"/>
       <c r="B244" s="52"/>
       <c r="C244" s="21" t="s">
@@ -27597,7 +28628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="54"/>
       <c r="B245" s="52"/>
       <c r="C245" s="21" t="s">
@@ -27643,7 +28674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="54"/>
       <c r="B246" s="52"/>
       <c r="C246" s="21" t="s">
@@ -27689,7 +28720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="54"/>
       <c r="B247" s="52"/>
       <c r="C247" s="21" t="s">
@@ -27735,7 +28766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="54"/>
       <c r="B248" s="52"/>
       <c r="C248" s="21" t="s">
@@ -27781,7 +28812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="54"/>
       <c r="B249" s="52"/>
       <c r="C249" s="21" t="s">
@@ -27827,7 +28858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="54"/>
       <c r="B250" s="52"/>
       <c r="C250" s="21" t="s">
@@ -27873,7 +28904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="54"/>
       <c r="B251" s="49"/>
       <c r="C251" s="23" t="s">
@@ -27919,7 +28950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="54"/>
       <c r="B252" s="51" t="s">
         <v>620</v>
@@ -27965,7 +28996,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="54"/>
       <c r="B253" s="52"/>
       <c r="C253" s="21" t="s">
@@ -28011,7 +29042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="54"/>
       <c r="B254" s="52"/>
       <c r="C254" s="21" t="s">
@@ -28057,7 +29088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="54"/>
       <c r="B255" s="52"/>
       <c r="C255" s="21" t="s">
@@ -28103,7 +29134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="54"/>
       <c r="B256" s="52"/>
       <c r="C256" s="21" t="s">
@@ -28149,7 +29180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="54"/>
       <c r="B257" s="52"/>
       <c r="C257" s="21" t="s">
@@ -28195,7 +29226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="54"/>
       <c r="B258" s="52"/>
       <c r="C258" s="21" t="s">
@@ -28241,7 +29272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="54"/>
       <c r="B259" s="52"/>
       <c r="C259" s="21" t="s">
@@ -28287,7 +29318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="54"/>
       <c r="B260" s="52"/>
       <c r="C260" s="21" t="s">
@@ -28333,7 +29364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="54"/>
       <c r="B261" s="52"/>
       <c r="C261" s="21" t="s">
@@ -28379,7 +29410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="54"/>
       <c r="B262" s="52"/>
       <c r="C262" s="21" t="s">
@@ -28425,7 +29456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="54"/>
       <c r="B263" s="52"/>
       <c r="C263" s="21" t="s">
@@ -28471,7 +29502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="54"/>
       <c r="B264" s="52"/>
       <c r="C264" s="21" t="s">
@@ -28517,7 +29548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="54"/>
       <c r="B265" s="49"/>
       <c r="C265" s="23" t="s">

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POINTAST\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28188E44-9D9E-42AA-AB9D-F36E07BBC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF485E1-C36B-4896-8A98-C036E3C6B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
-    <sheet name="Interchange" sheetId="4" r:id="rId2"/>
-    <sheet name="PriceByStation" sheetId="2" r:id="rId3"/>
-    <sheet name="PriceByDistance" sheetId="3" r:id="rId4"/>
+    <sheet name="Map" sheetId="5" r:id="rId2"/>
+    <sheet name="Interchange" sheetId="4" r:id="rId3"/>
+    <sheet name="PriceByStation" sheetId="2" r:id="rId4"/>
+    <sheet name="PriceByDistance" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="664">
   <si>
     <t>Line</t>
   </si>
@@ -2022,13 +2023,22 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2063,16 +2073,29 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2249,11 +2272,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2340,6 +2379,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,27 +2403,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2724,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+    <sheetView topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6536,6 +6582,4026 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A0F263-0FE6-4A77-A3D5-A843FD2683AE}">
+  <dimension ref="A1:F221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="K212" sqref="K212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="2">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="2">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="2">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="2">
+        <v>116</v>
+      </c>
+      <c r="F5" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="2">
+        <v>116</v>
+      </c>
+      <c r="F6" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="2">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="2">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="2">
+        <v>124</v>
+      </c>
+      <c r="F9" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="2">
+        <v>132</v>
+      </c>
+      <c r="F10" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="2">
+        <v>140</v>
+      </c>
+      <c r="F11" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="2">
+        <v>150</v>
+      </c>
+      <c r="F12" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="2">
+        <v>165</v>
+      </c>
+      <c r="F13" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="2">
+        <v>173</v>
+      </c>
+      <c r="F14" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="2">
+        <v>183</v>
+      </c>
+      <c r="F15" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="2">
+        <v>193</v>
+      </c>
+      <c r="F16" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="2">
+        <v>199</v>
+      </c>
+      <c r="F17" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" s="2">
+        <v>205</v>
+      </c>
+      <c r="F18" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="2">
+        <v>211</v>
+      </c>
+      <c r="F19" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E20" s="2">
+        <v>217</v>
+      </c>
+      <c r="F20" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" s="2">
+        <v>217</v>
+      </c>
+      <c r="F21" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="2">
+        <v>217</v>
+      </c>
+      <c r="F22" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="2">
+        <v>217</v>
+      </c>
+      <c r="F23" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="2">
+        <v>217</v>
+      </c>
+      <c r="F24" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="2">
+        <v>209</v>
+      </c>
+      <c r="F25" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="2">
+        <v>197</v>
+      </c>
+      <c r="F26" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="2">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E28" s="2">
+        <v>168</v>
+      </c>
+      <c r="F28" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" s="2">
+        <v>158</v>
+      </c>
+      <c r="F29" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" s="2">
+        <v>149</v>
+      </c>
+      <c r="F30" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31" s="2">
+        <v>140</v>
+      </c>
+      <c r="F31" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" s="2">
+        <v>133</v>
+      </c>
+      <c r="F32" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E33" s="2">
+        <v>126</v>
+      </c>
+      <c r="F33" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="2">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E35" s="2">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="2">
+        <v>86</v>
+      </c>
+      <c r="F36" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="39"/>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" s="2">
+        <v>76</v>
+      </c>
+      <c r="F37" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="2">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E39" s="2">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E40" s="2">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E41" s="2">
+        <v>28</v>
+      </c>
+      <c r="F41" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E42" s="55">
+        <v>36</v>
+      </c>
+      <c r="F42" s="56">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E43" s="2">
+        <v>36</v>
+      </c>
+      <c r="F43" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="39"/>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E44" s="2">
+        <v>46</v>
+      </c>
+      <c r="F44" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45" s="2">
+        <v>56</v>
+      </c>
+      <c r="F45" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E46" s="2">
+        <v>66</v>
+      </c>
+      <c r="F46" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" s="2">
+        <v>76</v>
+      </c>
+      <c r="F47" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E48" s="2">
+        <v>86</v>
+      </c>
+      <c r="F48" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="2">
+        <v>96</v>
+      </c>
+      <c r="F49" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E50" s="2">
+        <v>106</v>
+      </c>
+      <c r="F50" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="2">
+        <v>116</v>
+      </c>
+      <c r="F51" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E52" s="2">
+        <v>124</v>
+      </c>
+      <c r="F52" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E53" s="2">
+        <v>132</v>
+      </c>
+      <c r="F53" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="2">
+        <v>140</v>
+      </c>
+      <c r="F54" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="2">
+        <v>140</v>
+      </c>
+      <c r="F55" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E56" s="2">
+        <v>140</v>
+      </c>
+      <c r="F56" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E57" s="2">
+        <v>197</v>
+      </c>
+      <c r="F57" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E58" s="2">
+        <v>207</v>
+      </c>
+      <c r="F58" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E59" s="2">
+        <v>217</v>
+      </c>
+      <c r="F59" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E60" s="2">
+        <v>227</v>
+      </c>
+      <c r="F60" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E61" s="2">
+        <v>237</v>
+      </c>
+      <c r="F61" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E62" s="2">
+        <v>245</v>
+      </c>
+      <c r="F62" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E63" s="2">
+        <v>253</v>
+      </c>
+      <c r="F63" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E64" s="2">
+        <v>261</v>
+      </c>
+      <c r="F64" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39"/>
+      <c r="B65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E65" s="2">
+        <v>269</v>
+      </c>
+      <c r="F65" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E66" s="2">
+        <v>277</v>
+      </c>
+      <c r="F66" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="2">
+        <v>277</v>
+      </c>
+      <c r="F67" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E68" s="2">
+        <v>277</v>
+      </c>
+      <c r="F68" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="39"/>
+      <c r="B69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E69" s="2">
+        <v>277</v>
+      </c>
+      <c r="F69" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="39"/>
+      <c r="B70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E70" s="2">
+        <v>277</v>
+      </c>
+      <c r="F70" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E71" s="2">
+        <v>277</v>
+      </c>
+      <c r="F71" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="39"/>
+      <c r="B72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E72" s="2">
+        <v>277</v>
+      </c>
+      <c r="F72" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E73" s="2">
+        <v>277</v>
+      </c>
+      <c r="F73" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="39"/>
+      <c r="B74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E74" s="2">
+        <v>277</v>
+      </c>
+      <c r="F74" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="39"/>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E75" s="2">
+        <v>277</v>
+      </c>
+      <c r="F75" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E76" s="2">
+        <v>277</v>
+      </c>
+      <c r="F76" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="39"/>
+      <c r="B77" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D77" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E77" s="55">
+        <v>275</v>
+      </c>
+      <c r="F77" s="56">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="39"/>
+      <c r="B78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E78" s="2">
+        <v>275</v>
+      </c>
+      <c r="F78" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="39"/>
+      <c r="B79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E79" s="2">
+        <v>268</v>
+      </c>
+      <c r="F79" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="39"/>
+      <c r="B80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E80" s="2">
+        <v>261</v>
+      </c>
+      <c r="F80" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E81" s="2">
+        <v>112</v>
+      </c>
+      <c r="F81" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="39"/>
+      <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E82" s="2">
+        <v>104</v>
+      </c>
+      <c r="F82" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="39"/>
+      <c r="B83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E83" s="2">
+        <v>96</v>
+      </c>
+      <c r="F83" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="39"/>
+      <c r="B84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E84" s="2">
+        <v>88</v>
+      </c>
+      <c r="F84" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="39"/>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E85" s="2">
+        <v>80</v>
+      </c>
+      <c r="F85" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="39"/>
+      <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E86" s="2">
+        <v>80</v>
+      </c>
+      <c r="F86" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="39"/>
+      <c r="B87" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E87" s="55">
+        <v>88</v>
+      </c>
+      <c r="F87" s="56">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="39"/>
+      <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E88" s="2">
+        <v>88</v>
+      </c>
+      <c r="F88" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="39"/>
+      <c r="B89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E89" s="2">
+        <v>98</v>
+      </c>
+      <c r="F89" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="39"/>
+      <c r="B90" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E90" s="2">
+        <v>108</v>
+      </c>
+      <c r="F90" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="39"/>
+      <c r="B91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E91" s="2">
+        <v>118</v>
+      </c>
+      <c r="F91" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="39"/>
+      <c r="B92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E92" s="2">
+        <v>128</v>
+      </c>
+      <c r="F92" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="39"/>
+      <c r="B93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" s="2">
+        <v>137</v>
+      </c>
+      <c r="F93" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="39"/>
+      <c r="B94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E94" s="2">
+        <v>146</v>
+      </c>
+      <c r="F94" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="39"/>
+      <c r="B95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" s="2">
+        <v>160</v>
+      </c>
+      <c r="F95" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="39"/>
+      <c r="B96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E96" s="2">
+        <v>169</v>
+      </c>
+      <c r="F96" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="39"/>
+      <c r="B97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E97" s="2">
+        <v>183</v>
+      </c>
+      <c r="F97" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="39"/>
+      <c r="B98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E98" s="2">
+        <v>192</v>
+      </c>
+      <c r="F98" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="B99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E99" s="2">
+        <v>201</v>
+      </c>
+      <c r="F99" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="39"/>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E100" s="2">
+        <v>210</v>
+      </c>
+      <c r="F100" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="39"/>
+      <c r="B101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E101" s="2">
+        <v>219</v>
+      </c>
+      <c r="F101" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="39"/>
+      <c r="B102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E102" s="2">
+        <v>228</v>
+      </c>
+      <c r="F102" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="39"/>
+      <c r="B103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E103" s="2">
+        <v>237</v>
+      </c>
+      <c r="F103" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="39"/>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E104" s="2">
+        <v>245</v>
+      </c>
+      <c r="F104" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="39"/>
+      <c r="B105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E105" s="2">
+        <v>253</v>
+      </c>
+      <c r="F105" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="39"/>
+      <c r="B106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E106" s="2">
+        <v>260</v>
+      </c>
+      <c r="F106" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="39"/>
+      <c r="B107" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E107" s="2">
+        <v>267</v>
+      </c>
+      <c r="F107" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="39"/>
+      <c r="B108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E108" s="2">
+        <v>274</v>
+      </c>
+      <c r="F108" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="39"/>
+      <c r="B109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E109" s="2">
+        <v>281</v>
+      </c>
+      <c r="F109" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="39"/>
+      <c r="B110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E110" s="2">
+        <v>288</v>
+      </c>
+      <c r="F110" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="39"/>
+      <c r="B111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E111" s="2">
+        <v>295</v>
+      </c>
+      <c r="F111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="39"/>
+      <c r="B112" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="E112" s="55"/>
+      <c r="F112" s="56"/>
+    </row>
+    <row r="113" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="39"/>
+      <c r="B113" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="E113" s="55">
+        <v>118</v>
+      </c>
+      <c r="F113" s="56">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="39"/>
+      <c r="B114" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E114" s="55">
+        <v>116</v>
+      </c>
+      <c r="F114" s="56">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="39"/>
+      <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E115" s="2">
+        <v>116</v>
+      </c>
+      <c r="F115" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="39"/>
+      <c r="B116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E116" s="2">
+        <v>116</v>
+      </c>
+      <c r="F116" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E117" s="2">
+        <v>224</v>
+      </c>
+      <c r="F117" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="39"/>
+      <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E118" s="2">
+        <v>214</v>
+      </c>
+      <c r="F118" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="39"/>
+      <c r="B119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E119" s="2">
+        <v>208</v>
+      </c>
+      <c r="F119" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="39"/>
+      <c r="B120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E120" s="2">
+        <v>202</v>
+      </c>
+      <c r="F120" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="39"/>
+      <c r="B121" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E121" s="2">
+        <v>196</v>
+      </c>
+      <c r="F121" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="39"/>
+      <c r="B122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E122" s="2">
+        <v>190</v>
+      </c>
+      <c r="F122" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="39"/>
+      <c r="B123" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E123" s="2">
+        <v>184</v>
+      </c>
+      <c r="F123" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="39"/>
+      <c r="B124" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E124" s="2">
+        <v>178</v>
+      </c>
+      <c r="F124" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="39"/>
+      <c r="B125" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E125" s="2">
+        <v>178</v>
+      </c>
+      <c r="F125" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="39"/>
+      <c r="B126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E126" s="2">
+        <v>178</v>
+      </c>
+      <c r="F126" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="39"/>
+      <c r="B127" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E127" s="2">
+        <v>178</v>
+      </c>
+      <c r="F127" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="39"/>
+      <c r="B128" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E128" s="2">
+        <v>178</v>
+      </c>
+      <c r="F128" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="39"/>
+      <c r="B129" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E129" s="2">
+        <v>178</v>
+      </c>
+      <c r="F129" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="39"/>
+      <c r="B130" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E130" s="2">
+        <v>178</v>
+      </c>
+      <c r="F130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="39"/>
+      <c r="B131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E131" s="2">
+        <v>178</v>
+      </c>
+      <c r="F131" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="39"/>
+      <c r="B132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E132" s="2">
+        <v>178</v>
+      </c>
+      <c r="F132" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="39"/>
+      <c r="B133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E133" s="2">
+        <v>178</v>
+      </c>
+      <c r="F133" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="39"/>
+      <c r="B134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E134" s="2">
+        <v>178</v>
+      </c>
+      <c r="F134" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="39"/>
+      <c r="B135" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E135" s="2">
+        <v>178</v>
+      </c>
+      <c r="F135" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="39"/>
+      <c r="B136" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E136" s="2">
+        <v>178</v>
+      </c>
+      <c r="F136" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="39"/>
+      <c r="B137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E137" s="2">
+        <v>178</v>
+      </c>
+      <c r="F137" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="39"/>
+      <c r="B138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E138" s="2">
+        <v>178</v>
+      </c>
+      <c r="F138" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="39"/>
+      <c r="B139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" s="2">
+        <v>178</v>
+      </c>
+      <c r="F139" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="39"/>
+      <c r="B140" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E140" s="2">
+        <v>178</v>
+      </c>
+      <c r="F140" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="39"/>
+      <c r="B141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E141" s="2">
+        <v>178</v>
+      </c>
+      <c r="F141" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="39"/>
+      <c r="B142" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E142" s="2">
+        <v>188</v>
+      </c>
+      <c r="F142" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="39"/>
+      <c r="B143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E143" s="2">
+        <v>199</v>
+      </c>
+      <c r="F143" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="39"/>
+      <c r="B144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E144" s="2">
+        <v>208</v>
+      </c>
+      <c r="F144" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="39"/>
+      <c r="B145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E145" s="2">
+        <v>217</v>
+      </c>
+      <c r="F145" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="39"/>
+      <c r="B146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E146" s="2">
+        <v>226</v>
+      </c>
+      <c r="F146" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="39"/>
+      <c r="B147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E147" s="2">
+        <v>231</v>
+      </c>
+      <c r="F147" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="39"/>
+      <c r="B148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E148" s="2">
+        <v>236</v>
+      </c>
+      <c r="F148" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="39"/>
+      <c r="B149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E149" s="2">
+        <v>241</v>
+      </c>
+      <c r="F149" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="39"/>
+      <c r="B150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E150" s="2">
+        <v>246</v>
+      </c>
+      <c r="F150" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="39"/>
+      <c r="B151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E151" s="2">
+        <v>251</v>
+      </c>
+      <c r="F151" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="39"/>
+      <c r="B152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E152" s="2">
+        <v>256</v>
+      </c>
+      <c r="F152" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="39"/>
+      <c r="B153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E153" s="2">
+        <v>256</v>
+      </c>
+      <c r="F153" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="39"/>
+      <c r="B154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E154" s="2">
+        <v>256</v>
+      </c>
+      <c r="F154" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="39"/>
+      <c r="B155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E155" s="2">
+        <v>256</v>
+      </c>
+      <c r="F155" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="39"/>
+      <c r="B156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E156" s="2">
+        <v>256</v>
+      </c>
+      <c r="F156" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="39"/>
+      <c r="B157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E157" s="2">
+        <v>256</v>
+      </c>
+      <c r="F157" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="39"/>
+      <c r="B158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E158" s="2">
+        <v>256</v>
+      </c>
+      <c r="F158" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="39"/>
+      <c r="B159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E159" s="2">
+        <v>256</v>
+      </c>
+      <c r="F159" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="39"/>
+      <c r="B160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E160" s="2">
+        <v>256</v>
+      </c>
+      <c r="F160" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="39"/>
+      <c r="B161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E161" s="2">
+        <v>256</v>
+      </c>
+      <c r="F161" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="39"/>
+      <c r="B162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E162" s="2">
+        <v>256</v>
+      </c>
+      <c r="F162" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="39"/>
+      <c r="B163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E163" s="2">
+        <v>256</v>
+      </c>
+      <c r="F163" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="39"/>
+      <c r="B164" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C164" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D164" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E164" s="55">
+        <v>264</v>
+      </c>
+      <c r="F164" s="56">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="39"/>
+      <c r="B165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E165" s="2">
+        <v>264</v>
+      </c>
+      <c r="F165" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="39"/>
+      <c r="B166" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="C166" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="D166" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="E166" s="55"/>
+      <c r="F166" s="56"/>
+    </row>
+    <row r="167" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="39"/>
+      <c r="B167" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E167" s="2">
+        <v>168</v>
+      </c>
+      <c r="F167" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="39"/>
+      <c r="B168" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="C168" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="D168" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="E168" s="55">
+        <v>178</v>
+      </c>
+      <c r="F168" s="56">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="39"/>
+      <c r="B169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E169" s="2">
+        <v>178</v>
+      </c>
+      <c r="F169" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="39"/>
+      <c r="B170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E170" s="2">
+        <v>178</v>
+      </c>
+      <c r="F170" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="39"/>
+      <c r="B171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E171" s="2">
+        <v>178</v>
+      </c>
+      <c r="F171" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="39"/>
+      <c r="B172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E172" s="2">
+        <v>172</v>
+      </c>
+      <c r="F172" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="39"/>
+      <c r="B173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E173" s="2">
+        <v>165</v>
+      </c>
+      <c r="F173" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="39"/>
+      <c r="B174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E174" s="2">
+        <v>158</v>
+      </c>
+      <c r="F174" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="39"/>
+      <c r="B175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E175" s="2">
+        <v>148</v>
+      </c>
+      <c r="F175" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="39"/>
+      <c r="B176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E176" s="2">
+        <v>138</v>
+      </c>
+      <c r="F176" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="39"/>
+      <c r="B177" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E177" s="2">
+        <v>128</v>
+      </c>
+      <c r="F177" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="39"/>
+      <c r="B178" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E178" s="2">
+        <v>118</v>
+      </c>
+      <c r="F178" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="39"/>
+      <c r="B179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E179" s="2">
+        <v>109</v>
+      </c>
+      <c r="F179" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="39"/>
+      <c r="B180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E180" s="2">
+        <v>100</v>
+      </c>
+      <c r="F180" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E181" s="2">
+        <v>148</v>
+      </c>
+      <c r="F181" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="39"/>
+      <c r="B182" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E182" s="2">
+        <v>143</v>
+      </c>
+      <c r="F182" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="39"/>
+      <c r="B183" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E183" s="2">
+        <v>138</v>
+      </c>
+      <c r="F183" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E184" s="2">
+        <v>78</v>
+      </c>
+      <c r="F184" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="39"/>
+      <c r="B185" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E185" s="2">
+        <v>88</v>
+      </c>
+      <c r="F185" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="39"/>
+      <c r="B186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E186" s="2">
+        <v>104</v>
+      </c>
+      <c r="F186" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="39"/>
+      <c r="B187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E187" s="2">
+        <v>119</v>
+      </c>
+      <c r="F187" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="39"/>
+      <c r="B188" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E188" s="2">
+        <v>135</v>
+      </c>
+      <c r="F188" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="39"/>
+      <c r="B189" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C189" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D189" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E189" s="55">
+        <v>155</v>
+      </c>
+      <c r="F189" s="56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="39"/>
+      <c r="B190" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E190" s="2">
+        <v>155</v>
+      </c>
+      <c r="F190" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="39"/>
+      <c r="B191" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E191" s="2">
+        <v>155</v>
+      </c>
+      <c r="F191" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="39"/>
+      <c r="B192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E192" s="2">
+        <v>155</v>
+      </c>
+      <c r="F192" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="39"/>
+      <c r="B193" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E193" s="2">
+        <v>155</v>
+      </c>
+      <c r="F193" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="39"/>
+      <c r="B194" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E194" s="2">
+        <v>155</v>
+      </c>
+      <c r="F194" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="39"/>
+      <c r="B195" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E195" s="2">
+        <v>155</v>
+      </c>
+      <c r="F195" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="39"/>
+      <c r="B196" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E196" s="2">
+        <v>155</v>
+      </c>
+      <c r="F196" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="39"/>
+      <c r="B197" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E197" s="2">
+        <v>155</v>
+      </c>
+      <c r="F197" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="39"/>
+      <c r="B198" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E198" s="2">
+        <v>155</v>
+      </c>
+      <c r="F198" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="39"/>
+      <c r="B199" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E199" s="2">
+        <v>155</v>
+      </c>
+      <c r="F199" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E200" s="2">
+        <v>324</v>
+      </c>
+      <c r="F200" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="39"/>
+      <c r="B201" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C201" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D201" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E201" s="55">
+        <v>313</v>
+      </c>
+      <c r="F201" s="56">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="39"/>
+      <c r="B202" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E202" s="2">
+        <v>313</v>
+      </c>
+      <c r="F202" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="39"/>
+      <c r="B203" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E203" s="2">
+        <v>297</v>
+      </c>
+      <c r="F203" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="39"/>
+      <c r="B204" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E204" s="2">
+        <v>281</v>
+      </c>
+      <c r="F204" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="39"/>
+      <c r="B205" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E205" s="2">
+        <v>233</v>
+      </c>
+      <c r="F205" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="39"/>
+      <c r="B206" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E206" s="2">
+        <v>212</v>
+      </c>
+      <c r="F206" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="39"/>
+      <c r="B207" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E207" s="2">
+        <v>197</v>
+      </c>
+      <c r="F207" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="39"/>
+      <c r="B208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E208" s="2">
+        <v>183</v>
+      </c>
+      <c r="F208" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E209" s="2">
+        <v>183</v>
+      </c>
+      <c r="F209" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="39"/>
+      <c r="B210" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E210" s="2">
+        <v>183</v>
+      </c>
+      <c r="F210" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="39"/>
+      <c r="B211" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E211" s="2">
+        <v>183</v>
+      </c>
+      <c r="F211" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="39"/>
+      <c r="B212" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E212" s="2">
+        <v>183</v>
+      </c>
+      <c r="F212" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="39"/>
+      <c r="B213" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E213" s="2">
+        <v>191</v>
+      </c>
+      <c r="F213" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="39"/>
+      <c r="B214" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E214" s="2">
+        <v>198</v>
+      </c>
+      <c r="F214" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="39"/>
+      <c r="B215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E215" s="2">
+        <v>191</v>
+      </c>
+      <c r="F215" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="39"/>
+      <c r="B216" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E216" s="2">
+        <v>182</v>
+      </c>
+      <c r="F216" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="39"/>
+      <c r="B217" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E217" s="2">
+        <v>168</v>
+      </c>
+      <c r="F217" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="39"/>
+      <c r="B218" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E218" s="2">
+        <v>175</v>
+      </c>
+      <c r="F218" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="39"/>
+      <c r="B219" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E219" s="2">
+        <v>161</v>
+      </c>
+      <c r="F219" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="39"/>
+      <c r="B220" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="C220" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="D220" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E220" s="55">
+        <v>118</v>
+      </c>
+      <c r="F220" s="56">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="39"/>
+      <c r="B221" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E221" s="2">
+        <v>118</v>
+      </c>
+      <c r="F221" s="1">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A117:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A199"/>
+    <mergeCell ref="A200:A208"/>
+    <mergeCell ref="A209:A221"/>
+    <mergeCell ref="A2:A39"/>
+    <mergeCell ref="A40:A56"/>
+    <mergeCell ref="A57:A80"/>
+    <mergeCell ref="A81:A116"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAA2FF1-CCDE-4BC9-BBC6-84B8AE5E59CA}">
   <dimension ref="A1:J46"/>
   <sheetViews>
@@ -7177,7 +11243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD90CC-09F2-46A0-A203-5B8BE87044B8}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -7874,7 +11940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E650487-5FD3-4C14-90E1-8D588F0B14CD}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -7898,31 +11964,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -7976,8 +12042,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8031,8 +12097,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8086,8 +12152,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8141,8 +12207,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8196,8 +12262,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8251,8 +12317,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8306,8 +12372,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8361,8 +12427,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8416,8 +12482,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8471,8 +12537,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8526,8 +12592,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8581,8 +12647,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8636,8 +12702,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8691,8 +12757,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8746,8 +12812,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8801,8 +12867,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8856,8 +12922,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8911,8 +12977,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -8966,8 +13032,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9021,8 +13087,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9076,8 +13142,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9131,8 +13197,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9186,8 +13252,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9241,8 +13307,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9296,8 +13362,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9351,8 +13417,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9406,8 +13472,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9461,8 +13527,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9516,8 +13582,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9571,8 +13637,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9626,8 +13692,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9681,8 +13747,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9736,8 +13802,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9791,8 +13857,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9846,8 +13912,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9901,8 +13967,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -9956,8 +14022,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10011,8 +14077,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10066,8 +14132,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10121,8 +14187,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10176,8 +14242,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10231,8 +14297,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10286,8 +14352,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10341,8 +14407,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10396,8 +14462,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10451,8 +14517,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10506,8 +14572,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10561,8 +14627,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10616,8 +14682,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10671,8 +14737,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10726,10 +14792,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10804,8 +14870,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10880,8 +14946,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -10956,8 +15022,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11032,8 +15098,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11108,8 +15174,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11184,8 +15250,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11260,8 +15326,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11336,8 +15402,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11412,8 +15478,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11488,8 +15554,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11564,8 +15630,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11640,8 +15706,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11716,8 +15782,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11792,8 +15858,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11868,8 +15934,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11944,8 +16010,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12020,8 +16086,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12096,8 +16162,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12172,8 +16238,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12248,8 +16314,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12324,8 +16390,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12400,8 +16466,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12476,8 +16542,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12552,8 +16618,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
-      <c r="B77" s="51" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12628,8 +16694,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12704,8 +16770,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12780,8 +16846,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12856,8 +16922,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12932,8 +16998,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13008,8 +17074,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13084,8 +17150,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13160,8 +17226,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13236,8 +17302,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13312,8 +17378,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13388,8 +17454,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13464,8 +17530,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13540,8 +17606,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13616,8 +17682,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13692,8 +17758,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13768,8 +17834,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13844,8 +17910,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13920,8 +17986,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -13996,8 +18062,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14072,8 +18138,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14148,8 +18214,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14224,8 +18290,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14300,8 +18366,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
-      <c r="B100" s="49"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14376,8 +18442,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
-      <c r="B101" s="51" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14452,8 +18518,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14528,8 +18594,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14604,8 +18670,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14680,8 +18746,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14756,8 +18822,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14832,8 +18898,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14908,8 +18974,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -14984,8 +19050,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15060,8 +19126,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15136,8 +19202,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15212,8 +19278,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15288,8 +19354,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15364,8 +19430,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15440,8 +19506,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15516,8 +19582,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15592,8 +19658,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="52"/>
-      <c r="B117" s="52"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15668,8 +19734,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="52"/>
-      <c r="B118" s="52"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15744,8 +19810,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="52"/>
-      <c r="B119" s="52"/>
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15820,8 +19886,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15896,8 +19962,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
-      <c r="B121" s="52"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -15972,8 +20038,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="52"/>
-      <c r="B122" s="52"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16048,8 +20114,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="52"/>
-      <c r="B123" s="52"/>
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16124,8 +20190,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="49"/>
-      <c r="B124" s="49"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16200,10 +20266,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="51" t="s">
+      <c r="A125" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16305,8 +20371,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="52"/>
-      <c r="B126" s="52"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16408,8 +20474,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
-      <c r="B127" s="52"/>
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16511,8 +20577,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
-      <c r="B128" s="52"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16614,8 +20680,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16717,8 +20783,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16820,8 +20886,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16923,8 +20989,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17026,8 +21092,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17129,8 +21195,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17232,8 +21298,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17335,8 +21401,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17438,8 +21504,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17541,8 +21607,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
-      <c r="B138" s="52"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17644,8 +21710,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52"/>
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17747,8 +21813,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17850,8 +21916,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -17953,8 +22019,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18056,8 +22122,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18159,8 +22225,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18262,8 +22328,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18365,8 +22431,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18468,8 +22534,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18571,8 +22637,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="52"/>
-      <c r="B148" s="52"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18674,8 +22740,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="52"/>
-      <c r="B149" s="52"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18777,8 +22843,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="52"/>
-      <c r="B150" s="52"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18880,8 +22946,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="52"/>
-      <c r="B151" s="52"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -18983,8 +23049,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="52"/>
-      <c r="B152" s="52"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19086,8 +23152,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19189,8 +23255,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19292,8 +23358,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="52"/>
-      <c r="B155" s="52"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19395,8 +23461,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="52"/>
-      <c r="B156" s="52"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19498,8 +23564,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="52"/>
-      <c r="B157" s="49"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19601,8 +23667,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="52"/>
-      <c r="B158" s="51" t="s">
+      <c r="A158" s="47"/>
+      <c r="B158" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19704,8 +23770,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
-      <c r="B159" s="52"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19807,8 +23873,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="52"/>
-      <c r="B160" s="52"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19910,8 +23976,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20013,8 +24079,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20116,8 +24182,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="52"/>
-      <c r="B163" s="52"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20219,8 +24285,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20322,8 +24388,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20425,8 +24491,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20528,8 +24594,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="52"/>
-      <c r="B167" s="52"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20631,8 +24697,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="52"/>
-      <c r="B168" s="52"/>
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20734,8 +24800,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="52"/>
-      <c r="B169" s="52"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20837,8 +24903,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="52"/>
-      <c r="B170" s="52"/>
+      <c r="A170" s="47"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20940,8 +25006,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="52"/>
-      <c r="B171" s="52"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21043,8 +25109,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="52"/>
-      <c r="B172" s="52"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21146,8 +25212,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="52"/>
-      <c r="B173" s="52"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21249,8 +25315,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="52"/>
-      <c r="B174" s="52"/>
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21352,8 +25418,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="52"/>
-      <c r="B175" s="52"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21455,8 +25521,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="52"/>
-      <c r="B176" s="52"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="47"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21558,8 +25624,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="52"/>
-      <c r="B177" s="52"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21661,8 +25727,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="52"/>
-      <c r="B178" s="52"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21764,8 +25830,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="52"/>
-      <c r="B179" s="52"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21867,8 +25933,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="52"/>
-      <c r="B180" s="52"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -21970,8 +26036,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="52"/>
-      <c r="B181" s="52"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22073,8 +26139,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="52"/>
-      <c r="B182" s="52"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22176,8 +26242,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="52"/>
-      <c r="B183" s="52"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="47"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22279,8 +26345,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="52"/>
-      <c r="B184" s="52"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22382,8 +26448,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="52"/>
-      <c r="B185" s="52"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22485,8 +26551,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="52"/>
-      <c r="B186" s="52"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22588,8 +26654,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="52"/>
-      <c r="B187" s="52"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22691,8 +26757,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="52"/>
-      <c r="B188" s="52"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22794,8 +26860,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="52"/>
-      <c r="B189" s="52"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22897,8 +26963,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="52"/>
-      <c r="B190" s="49"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="48"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -23000,8 +27066,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="52"/>
-      <c r="B191" s="51" t="s">
+      <c r="A191" s="47"/>
+      <c r="B191" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23103,8 +27169,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="52"/>
-      <c r="B192" s="52"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23238,8 +27304,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
+      <c r="A193" s="47"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23373,8 +27439,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
+      <c r="A194" s="47"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23508,8 +27574,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
+      <c r="A195" s="47"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23643,8 +27709,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
+      <c r="A196" s="47"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23778,8 +27844,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="52"/>
-      <c r="B197" s="52"/>
+      <c r="A197" s="47"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23913,8 +27979,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="52"/>
-      <c r="B198" s="52"/>
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24048,8 +28114,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="52"/>
-      <c r="B199" s="52"/>
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24183,8 +28249,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="52"/>
-      <c r="B200" s="52"/>
+      <c r="A200" s="47"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24318,8 +28384,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="52"/>
-      <c r="B201" s="52"/>
+      <c r="A201" s="47"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24453,8 +28519,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="52"/>
-      <c r="B202" s="52"/>
+      <c r="A202" s="47"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24588,8 +28654,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="52"/>
-      <c r="B203" s="52"/>
+      <c r="A203" s="47"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24723,8 +28789,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="52"/>
-      <c r="B204" s="52"/>
+      <c r="A204" s="47"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24858,8 +28924,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="52"/>
-      <c r="B205" s="52"/>
+      <c r="A205" s="47"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -24993,8 +29059,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="52"/>
-      <c r="B206" s="52"/>
+      <c r="A206" s="47"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25128,8 +29194,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="52"/>
-      <c r="B207" s="52"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25263,8 +29329,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="52"/>
-      <c r="B208" s="52"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25398,8 +29464,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="52"/>
-      <c r="B209" s="52"/>
+      <c r="A209" s="47"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25533,8 +29599,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
-      <c r="B210" s="52"/>
+      <c r="A210" s="47"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25668,8 +29734,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25803,8 +29869,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25938,8 +30004,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="52"/>
-      <c r="B213" s="52"/>
+      <c r="A213" s="47"/>
+      <c r="B213" s="47"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26073,8 +30139,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="52"/>
-      <c r="B214" s="52"/>
+      <c r="A214" s="47"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26208,8 +30274,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="52"/>
-      <c r="B215" s="52"/>
+      <c r="A215" s="47"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26343,8 +30409,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="52"/>
-      <c r="B216" s="52"/>
+      <c r="A216" s="47"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26478,8 +30544,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="52"/>
-      <c r="B217" s="52"/>
+      <c r="A217" s="47"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26613,8 +30679,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="52"/>
-      <c r="B218" s="52"/>
+      <c r="A218" s="47"/>
+      <c r="B218" s="47"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26748,8 +30814,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="52"/>
-      <c r="B219" s="52"/>
+      <c r="A219" s="47"/>
+      <c r="B219" s="47"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26883,8 +30949,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="52"/>
-      <c r="B220" s="52"/>
+      <c r="A220" s="47"/>
+      <c r="B220" s="47"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27018,8 +31084,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="52"/>
-      <c r="B221" s="52"/>
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27153,8 +31219,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="52"/>
-      <c r="B222" s="52"/>
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27288,8 +31354,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="49"/>
-      <c r="B223" s="49"/>
+      <c r="A223" s="48"/>
+      <c r="B223" s="48"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27423,10 +31489,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="53" t="s">
+      <c r="A224" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27488,8 +31554,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="54"/>
-      <c r="B225" s="52"/>
+      <c r="A225" s="50"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27551,8 +31617,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="54"/>
-      <c r="B226" s="52"/>
+      <c r="A226" s="50"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27614,8 +31680,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="54"/>
-      <c r="B227" s="52"/>
+      <c r="A227" s="50"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27677,8 +31743,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="54"/>
-      <c r="B228" s="52"/>
+      <c r="A228" s="50"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27740,8 +31806,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="54"/>
-      <c r="B229" s="52"/>
+      <c r="A229" s="50"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27803,8 +31869,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="54"/>
-      <c r="B230" s="52"/>
+      <c r="A230" s="50"/>
+      <c r="B230" s="47"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27866,8 +31932,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="54"/>
-      <c r="B231" s="52"/>
+      <c r="A231" s="50"/>
+      <c r="B231" s="47"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27929,8 +31995,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="54"/>
-      <c r="B232" s="52"/>
+      <c r="A232" s="50"/>
+      <c r="B232" s="47"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -27992,8 +32058,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="54"/>
-      <c r="B233" s="52"/>
+      <c r="A233" s="50"/>
+      <c r="B233" s="47"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28055,8 +32121,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="54"/>
-      <c r="B234" s="52"/>
+      <c r="A234" s="50"/>
+      <c r="B234" s="47"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28118,8 +32184,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="54"/>
-      <c r="B235" s="52"/>
+      <c r="A235" s="50"/>
+      <c r="B235" s="47"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28181,8 +32247,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="54"/>
-      <c r="B236" s="52"/>
+      <c r="A236" s="50"/>
+      <c r="B236" s="47"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28244,8 +32310,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="54"/>
-      <c r="B237" s="49"/>
+      <c r="A237" s="50"/>
+      <c r="B237" s="48"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28307,8 +32373,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="54"/>
-      <c r="B238" s="51" t="s">
+      <c r="A238" s="50"/>
+      <c r="B238" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28353,8 +32419,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="54"/>
-      <c r="B239" s="52"/>
+      <c r="A239" s="50"/>
+      <c r="B239" s="47"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28399,8 +32465,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="54"/>
-      <c r="B240" s="52"/>
+      <c r="A240" s="50"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28445,8 +32511,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="54"/>
-      <c r="B241" s="52"/>
+      <c r="A241" s="50"/>
+      <c r="B241" s="47"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28491,8 +32557,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="54"/>
-      <c r="B242" s="52"/>
+      <c r="A242" s="50"/>
+      <c r="B242" s="47"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28537,8 +32603,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="54"/>
-      <c r="B243" s="52"/>
+      <c r="A243" s="50"/>
+      <c r="B243" s="47"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28583,8 +32649,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="54"/>
-      <c r="B244" s="52"/>
+      <c r="A244" s="50"/>
+      <c r="B244" s="47"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28629,8 +32695,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="54"/>
-      <c r="B245" s="52"/>
+      <c r="A245" s="50"/>
+      <c r="B245" s="47"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28675,8 +32741,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="54"/>
-      <c r="B246" s="52"/>
+      <c r="A246" s="50"/>
+      <c r="B246" s="47"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28721,8 +32787,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="54"/>
-      <c r="B247" s="52"/>
+      <c r="A247" s="50"/>
+      <c r="B247" s="47"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28767,8 +32833,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="54"/>
-      <c r="B248" s="52"/>
+      <c r="A248" s="50"/>
+      <c r="B248" s="47"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28813,8 +32879,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="54"/>
-      <c r="B249" s="52"/>
+      <c r="A249" s="50"/>
+      <c r="B249" s="47"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28859,8 +32925,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="54"/>
-      <c r="B250" s="52"/>
+      <c r="A250" s="50"/>
+      <c r="B250" s="47"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28905,8 +32971,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="54"/>
-      <c r="B251" s="49"/>
+      <c r="A251" s="50"/>
+      <c r="B251" s="48"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -28951,8 +33017,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="54"/>
-      <c r="B252" s="51" t="s">
+      <c r="A252" s="50"/>
+      <c r="B252" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -28997,8 +33063,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="54"/>
-      <c r="B253" s="52"/>
+      <c r="A253" s="50"/>
+      <c r="B253" s="47"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29043,8 +33109,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="54"/>
-      <c r="B254" s="52"/>
+      <c r="A254" s="50"/>
+      <c r="B254" s="47"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29089,8 +33155,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="54"/>
-      <c r="B255" s="52"/>
+      <c r="A255" s="50"/>
+      <c r="B255" s="47"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29135,8 +33201,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="54"/>
-      <c r="B256" s="52"/>
+      <c r="A256" s="50"/>
+      <c r="B256" s="47"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29181,8 +33247,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="54"/>
-      <c r="B257" s="52"/>
+      <c r="A257" s="50"/>
+      <c r="B257" s="47"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29227,8 +33293,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="54"/>
-      <c r="B258" s="52"/>
+      <c r="A258" s="50"/>
+      <c r="B258" s="47"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29273,8 +33339,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="54"/>
-      <c r="B259" s="52"/>
+      <c r="A259" s="50"/>
+      <c r="B259" s="47"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29319,8 +33385,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="54"/>
-      <c r="B260" s="52"/>
+      <c r="A260" s="50"/>
+      <c r="B260" s="47"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29365,8 +33431,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="54"/>
-      <c r="B261" s="52"/>
+      <c r="A261" s="50"/>
+      <c r="B261" s="47"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29411,8 +33477,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="54"/>
-      <c r="B262" s="52"/>
+      <c r="A262" s="50"/>
+      <c r="B262" s="47"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29457,8 +33523,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="54"/>
-      <c r="B263" s="52"/>
+      <c r="A263" s="50"/>
+      <c r="B263" s="47"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29503,8 +33569,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="54"/>
-      <c r="B264" s="52"/>
+      <c r="A264" s="50"/>
+      <c r="B264" s="47"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29549,8 +33615,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="54"/>
-      <c r="B265" s="49"/>
+      <c r="A265" s="50"/>
+      <c r="B265" s="48"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29596,6 +33662,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29608,11 +33679,6 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF485E1-C36B-4896-8A98-C036E3C6B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD6990-EBE0-4ADA-8BDF-566B3ADFAEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
@@ -2358,6 +2358,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2379,21 +2385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2403,13 +2394,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2802,7 +2802,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2822,7 +2822,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +2930,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -3110,7 +3110,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3128,7 +3128,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3146,7 +3146,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3182,7 +3182,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3200,7 +3200,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3236,7 +3236,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -3254,7 +3254,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -3308,7 +3308,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -3326,7 +3326,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -3362,7 +3362,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="41" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3508,7 +3508,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3526,7 +3526,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
@@ -3562,7 +3562,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
@@ -3580,7 +3580,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
@@ -3616,7 +3616,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
@@ -3778,7 +3778,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="41" t="s">
         <v>209</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3798,7 +3798,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
@@ -4032,7 +4032,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="2" t="s">
         <v>72</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="41" t="s">
         <v>210</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="2" t="s">
         <v>80</v>
       </c>
@@ -4232,7 +4232,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="39"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
@@ -4250,7 +4250,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="2" t="s">
         <v>82</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="39"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="39"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
@@ -4304,7 +4304,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="39"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="39"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
@@ -4340,7 +4340,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="39"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
@@ -4358,7 +4358,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="39"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="39"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
@@ -4394,7 +4394,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="39"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
@@ -4412,7 +4412,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="39"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="39"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
@@ -4448,7 +4448,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="39"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="2" t="s">
         <v>93</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="39"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
@@ -4484,7 +4484,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="39"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="2" t="s">
         <v>95</v>
       </c>
@@ -4502,7 +4502,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="39"/>
+      <c r="A96" s="41"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="39"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="39"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
@@ -4556,7 +4556,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="39"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="39"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
@@ -4592,7 +4592,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="39"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="2" t="s">
         <v>101</v>
       </c>
@@ -4610,7 +4610,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="39"/>
+      <c r="A102" s="41"/>
       <c r="B102" s="2" t="s">
         <v>102</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="39"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="2" t="s">
         <v>103</v>
       </c>
@@ -4646,7 +4646,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="39"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
@@ -4664,7 +4664,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="39"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="39"/>
+      <c r="A106" s="41"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="39"/>
+      <c r="A107" s="41"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4718,7 +4718,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="39"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4736,7 +4736,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="39"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4754,7 +4754,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="39"/>
+      <c r="A110" s="41"/>
       <c r="B110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="41" t="s">
         <v>211</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -4792,7 +4792,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="39"/>
+      <c r="A112" s="41"/>
       <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="39"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4828,7 +4828,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="39"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4846,7 +4846,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="39"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4864,7 +4864,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="39"/>
+      <c r="A116" s="41"/>
       <c r="B116" s="2" t="s">
         <v>116</v>
       </c>
@@ -4882,7 +4882,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="39"/>
+      <c r="A117" s="41"/>
       <c r="B117" s="2" t="s">
         <v>117</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="39"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
@@ -4918,7 +4918,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="39"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="39"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="2" t="s">
         <v>120</v>
       </c>
@@ -4954,7 +4954,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="39"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
@@ -4972,7 +4972,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="39"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4990,7 +4990,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="39"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
@@ -5008,7 +5008,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="39"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
@@ -5026,7 +5026,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="39"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
@@ -5044,7 +5044,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="39"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="2" t="s">
         <v>127</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="39"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="2" t="s">
         <v>128</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="39"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="2" t="s">
         <v>129</v>
       </c>
@@ -5098,7 +5098,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="39"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="2" t="s">
         <v>130</v>
       </c>
@@ -5116,7 +5116,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="39"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="2" t="s">
         <v>131</v>
       </c>
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="39"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="2" t="s">
         <v>132</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="39"/>
+      <c r="A132" s="41"/>
       <c r="B132" s="2" t="s">
         <v>133</v>
       </c>
@@ -5170,7 +5170,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="39"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="2" t="s">
         <v>134</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="39"/>
+      <c r="A134" s="41"/>
       <c r="B134" s="2" t="s">
         <v>135</v>
       </c>
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="39"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="2" t="s">
         <v>126</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="39"/>
+      <c r="A136" s="41"/>
       <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="39"/>
+      <c r="A137" s="41"/>
       <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="39"/>
+      <c r="A138" s="41"/>
       <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
@@ -5278,7 +5278,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="39"/>
+      <c r="A139" s="41"/>
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
@@ -5296,7 +5296,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="39"/>
+      <c r="A140" s="41"/>
       <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
@@ -5314,7 +5314,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="39"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="39"/>
+      <c r="A142" s="41"/>
       <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="39"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
@@ -5368,7 +5368,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="39"/>
+      <c r="A144" s="41"/>
       <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
@@ -5386,7 +5386,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="39"/>
+      <c r="A145" s="41"/>
       <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
@@ -5404,7 +5404,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="39"/>
+      <c r="A146" s="41"/>
       <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
@@ -5422,7 +5422,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="39"/>
+      <c r="A147" s="41"/>
       <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
@@ -5440,7 +5440,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="39"/>
+      <c r="A148" s="41"/>
       <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="39"/>
+      <c r="A149" s="41"/>
       <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="39"/>
+      <c r="A150" s="41"/>
       <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
@@ -5494,7 +5494,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="39"/>
+      <c r="A151" s="41"/>
       <c r="B151" s="2" t="s">
         <v>151</v>
       </c>
@@ -5512,7 +5512,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="39"/>
+      <c r="A152" s="41"/>
       <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
@@ -5530,7 +5530,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="39"/>
+      <c r="A153" s="41"/>
       <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
@@ -5548,7 +5548,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="39"/>
+      <c r="A154" s="41"/>
       <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
@@ -5566,7 +5566,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="39"/>
+      <c r="A155" s="41"/>
       <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
@@ -5584,7 +5584,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="39"/>
+      <c r="A156" s="41"/>
       <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
@@ -5602,7 +5602,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="39"/>
+      <c r="A157" s="41"/>
       <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
@@ -5620,7 +5620,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="39"/>
+      <c r="A158" s="41"/>
       <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
@@ -5638,7 +5638,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="39"/>
+      <c r="A159" s="41"/>
       <c r="B159" s="2" t="s">
         <v>159</v>
       </c>
@@ -5656,7 +5656,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="39"/>
+      <c r="A160" s="41"/>
       <c r="B160" s="2" t="s">
         <v>160</v>
       </c>
@@ -5674,7 +5674,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="39"/>
+      <c r="A161" s="41"/>
       <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
@@ -5692,7 +5692,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="39"/>
+      <c r="A162" s="41"/>
       <c r="B162" s="2" t="s">
         <v>162</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="39"/>
+      <c r="A163" s="41"/>
       <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
@@ -5728,7 +5728,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="39"/>
+      <c r="A164" s="41"/>
       <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
@@ -5746,7 +5746,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="39"/>
+      <c r="A165" s="41"/>
       <c r="B165" s="2" t="s">
         <v>165</v>
       </c>
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="39"/>
+      <c r="A166" s="41"/>
       <c r="B166" s="2" t="s">
         <v>166</v>
       </c>
@@ -5782,7 +5782,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="39"/>
+      <c r="A167" s="41"/>
       <c r="B167" s="2" t="s">
         <v>167</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="39"/>
+      <c r="A168" s="41"/>
       <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
@@ -5818,7 +5818,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="39"/>
+      <c r="A169" s="41"/>
       <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
@@ -5836,7 +5836,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="39"/>
+      <c r="A170" s="41"/>
       <c r="B170" s="2" t="s">
         <v>170</v>
       </c>
@@ -5854,7 +5854,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="39"/>
+      <c r="A171" s="41"/>
       <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
@@ -5872,7 +5872,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="39" t="s">
+      <c r="A172" s="41" t="s">
         <v>449</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -5892,7 +5892,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="39"/>
+      <c r="A173" s="41"/>
       <c r="B173" s="2" t="s">
         <v>451</v>
       </c>
@@ -5910,7 +5910,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="39"/>
+      <c r="A174" s="41"/>
       <c r="B174" s="2" t="s">
         <v>452</v>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="39" t="s">
+      <c r="A175" s="41" t="s">
         <v>212</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -5948,7 +5948,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="39"/>
+      <c r="A176" s="41"/>
       <c r="B176" s="2" t="s">
         <v>173</v>
       </c>
@@ -5966,7 +5966,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="39"/>
+      <c r="A177" s="41"/>
       <c r="B177" s="2" t="s">
         <v>174</v>
       </c>
@@ -5984,7 +5984,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="39"/>
+      <c r="A178" s="41"/>
       <c r="B178" s="2" t="s">
         <v>175</v>
       </c>
@@ -6002,7 +6002,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="39"/>
+      <c r="A179" s="41"/>
       <c r="B179" s="2" t="s">
         <v>176</v>
       </c>
@@ -6020,7 +6020,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="39"/>
+      <c r="A180" s="41"/>
       <c r="B180" s="2" t="s">
         <v>177</v>
       </c>
@@ -6038,7 +6038,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="39"/>
+      <c r="A181" s="41"/>
       <c r="B181" s="2" t="s">
         <v>178</v>
       </c>
@@ -6056,7 +6056,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="39"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="2" t="s">
         <v>179</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="39"/>
+      <c r="A183" s="41"/>
       <c r="B183" s="2" t="s">
         <v>180</v>
       </c>
@@ -6092,7 +6092,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="39"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="2" t="s">
         <v>181</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="39"/>
+      <c r="A185" s="41"/>
       <c r="B185" s="2" t="s">
         <v>182</v>
       </c>
@@ -6128,7 +6128,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="39"/>
+      <c r="A186" s="41"/>
       <c r="B186" s="2" t="s">
         <v>183</v>
       </c>
@@ -6146,7 +6146,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="39"/>
+      <c r="A187" s="41"/>
       <c r="B187" s="2" t="s">
         <v>184</v>
       </c>
@@ -6164,7 +6164,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="39"/>
+      <c r="A188" s="41"/>
       <c r="B188" s="2" t="s">
         <v>185</v>
       </c>
@@ -6182,7 +6182,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="39"/>
+      <c r="A189" s="41"/>
       <c r="B189" s="2" t="s">
         <v>186</v>
       </c>
@@ -6200,7 +6200,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="39" t="s">
+      <c r="A190" s="41" t="s">
         <v>213</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -6220,7 +6220,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="39"/>
+      <c r="A191" s="41"/>
       <c r="B191" s="2" t="s">
         <v>188</v>
       </c>
@@ -6238,7 +6238,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="39"/>
+      <c r="A192" s="41"/>
       <c r="B192" s="2" t="s">
         <v>189</v>
       </c>
@@ -6256,7 +6256,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="39"/>
+      <c r="A193" s="41"/>
       <c r="B193" s="2" t="s">
         <v>190</v>
       </c>
@@ -6274,7 +6274,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="39"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="2" t="s">
         <v>191</v>
       </c>
@@ -6292,7 +6292,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="39"/>
+      <c r="A195" s="41"/>
       <c r="B195" s="2" t="s">
         <v>192</v>
       </c>
@@ -6310,7 +6310,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="39"/>
+      <c r="A196" s="41"/>
       <c r="B196" s="2" t="s">
         <v>193</v>
       </c>
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="39"/>
+      <c r="A197" s="41"/>
       <c r="B197" s="2" t="s">
         <v>194</v>
       </c>
@@ -6346,7 +6346,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="39" t="s">
+      <c r="A198" s="41" t="s">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -6366,7 +6366,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="39"/>
+      <c r="A199" s="41"/>
       <c r="B199" s="2" t="s">
         <v>196</v>
       </c>
@@ -6384,7 +6384,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="39"/>
+      <c r="A200" s="41"/>
       <c r="B200" s="2" t="s">
         <v>197</v>
       </c>
@@ -6402,7 +6402,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="39"/>
+      <c r="A201" s="41"/>
       <c r="B201" s="2" t="s">
         <v>198</v>
       </c>
@@ -6420,7 +6420,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="39"/>
+      <c r="A202" s="41"/>
       <c r="B202" s="2" t="s">
         <v>199</v>
       </c>
@@ -6438,7 +6438,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="39"/>
+      <c r="A203" s="41"/>
       <c r="B203" s="2" t="s">
         <v>200</v>
       </c>
@@ -6456,7 +6456,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="39"/>
+      <c r="A204" s="41"/>
       <c r="B204" s="2" t="s">
         <v>201</v>
       </c>
@@ -6474,7 +6474,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="39"/>
+      <c r="A205" s="41"/>
       <c r="B205" s="2" t="s">
         <v>202</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="39"/>
+      <c r="A206" s="41"/>
       <c r="B206" s="2" t="s">
         <v>203</v>
       </c>
@@ -6510,7 +6510,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="39"/>
+      <c r="A207" s="41"/>
       <c r="B207" s="2" t="s">
         <v>204</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="39"/>
+      <c r="A208" s="41"/>
       <c r="B208" s="2" t="s">
         <v>205</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="39"/>
+      <c r="A209" s="41"/>
       <c r="B209" s="2" t="s">
         <v>206</v>
       </c>
@@ -6585,8 +6585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A0F263-0FE6-4A77-A3D5-A843FD2683AE}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="K212" sqref="K212"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6615,7 +6615,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6635,7 +6635,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6653,7 +6653,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -6671,7 +6671,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6689,7 +6689,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -6707,7 +6707,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6725,7 +6725,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6743,7 +6743,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6761,7 +6761,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -6779,7 +6779,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -6797,7 +6797,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -6815,7 +6815,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -6851,7 +6851,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -6905,7 +6905,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -6923,7 +6923,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -6959,7 +6959,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -6977,7 +6977,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -6995,7 +6995,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -7013,7 +7013,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -7031,7 +7031,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -7049,7 +7049,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -7067,7 +7067,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -7085,7 +7085,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -7139,7 +7139,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -7175,7 +7175,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -7193,7 +7193,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -7211,7 +7211,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
@@ -7229,7 +7229,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -7247,7 +7247,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
@@ -7265,7 +7265,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
@@ -7283,7 +7283,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
@@ -7301,7 +7301,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="41" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -7321,7 +7321,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
@@ -7339,25 +7339,25 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="55" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="39">
         <v>36</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="40">
         <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
@@ -7393,7 +7393,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
@@ -7411,7 +7411,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
@@ -7447,7 +7447,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
@@ -7465,7 +7465,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
@@ -7483,7 +7483,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
@@ -7501,7 +7501,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
@@ -7519,7 +7519,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
@@ -7555,7 +7555,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
@@ -7573,7 +7573,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
@@ -7591,7 +7591,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
@@ -7609,7 +7609,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="41" t="s">
         <v>209</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -7629,7 +7629,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
@@ -7647,7 +7647,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
@@ -7665,7 +7665,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
@@ -7683,7 +7683,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
@@ -7701,7 +7701,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
@@ -7719,7 +7719,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
@@ -7737,7 +7737,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
@@ -7755,7 +7755,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
@@ -7773,7 +7773,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
@@ -7791,7 +7791,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
@@ -7827,7 +7827,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
@@ -7845,7 +7845,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
@@ -7863,7 +7863,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
@@ -7881,7 +7881,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
@@ -7899,7 +7899,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
@@ -7917,7 +7917,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="2" t="s">
         <v>73</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
@@ -7971,25 +7971,25 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
-      <c r="B77" s="55" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E77" s="55">
+      <c r="E77" s="39">
         <v>275</v>
       </c>
-      <c r="F77" s="56">
+      <c r="F77" s="40">
         <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="2" t="s">
         <v>76</v>
       </c>
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="2" t="s">
         <v>77</v>
       </c>
@@ -8025,7 +8025,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="2" t="s">
         <v>78</v>
       </c>
@@ -8043,7 +8043,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="41" t="s">
         <v>210</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -8063,7 +8063,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="39"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="2" t="s">
         <v>80</v>
       </c>
@@ -8081,7 +8081,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="39"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="2" t="s">
         <v>81</v>
       </c>
@@ -8099,7 +8099,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="39"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="2" t="s">
         <v>82</v>
       </c>
@@ -8117,7 +8117,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="39"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="2" t="s">
         <v>83</v>
       </c>
@@ -8135,7 +8135,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="39"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="2" t="s">
         <v>84</v>
       </c>
@@ -8153,25 +8153,25 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="39"/>
-      <c r="B87" s="55" t="s">
+      <c r="A87" s="41"/>
+      <c r="B87" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D87" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E87" s="55">
+      <c r="E87" s="39">
         <v>88</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="40">
         <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="39"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="2" t="s">
         <v>85</v>
       </c>
@@ -8189,7 +8189,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="39"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="2" t="s">
         <v>86</v>
       </c>
@@ -8207,7 +8207,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="39"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="2" t="s">
         <v>87</v>
       </c>
@@ -8225,7 +8225,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="39"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="2" t="s">
         <v>88</v>
       </c>
@@ -8243,7 +8243,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="39"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="2" t="s">
         <v>89</v>
       </c>
@@ -8261,7 +8261,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="39"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="2" t="s">
         <v>90</v>
       </c>
@@ -8279,7 +8279,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="39"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="2" t="s">
         <v>91</v>
       </c>
@@ -8297,7 +8297,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="39"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="2" t="s">
         <v>92</v>
       </c>
@@ -8315,7 +8315,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="39"/>
+      <c r="A96" s="41"/>
       <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
@@ -8333,7 +8333,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="39"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="2" t="s">
         <v>94</v>
       </c>
@@ -8351,7 +8351,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="39"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="2" t="s">
         <v>95</v>
       </c>
@@ -8369,7 +8369,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="39"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="2" t="s">
         <v>96</v>
       </c>
@@ -8387,7 +8387,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="39"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="2" t="s">
         <v>97</v>
       </c>
@@ -8405,7 +8405,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="39"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="2" t="s">
         <v>98</v>
       </c>
@@ -8423,7 +8423,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="39"/>
+      <c r="A102" s="41"/>
       <c r="B102" s="2" t="s">
         <v>99</v>
       </c>
@@ -8441,7 +8441,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="39"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="2" t="s">
         <v>100</v>
       </c>
@@ -8459,7 +8459,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="39"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="2" t="s">
         <v>101</v>
       </c>
@@ -8477,7 +8477,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="39"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="2" t="s">
         <v>102</v>
       </c>
@@ -8495,7 +8495,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="39"/>
+      <c r="A106" s="41"/>
       <c r="B106" s="2" t="s">
         <v>103</v>
       </c>
@@ -8513,7 +8513,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="39"/>
+      <c r="A107" s="41"/>
       <c r="B107" s="2" t="s">
         <v>104</v>
       </c>
@@ -8531,7 +8531,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="39"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="2" t="s">
         <v>105</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="39"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="2" t="s">
         <v>106</v>
       </c>
@@ -8563,11 +8563,11 @@
         <v>281</v>
       </c>
       <c r="F109" s="1">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="39"/>
+      <c r="A110" s="41"/>
       <c r="B110" s="2" t="s">
         <v>107</v>
       </c>
@@ -8585,7 +8585,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="39"/>
+      <c r="A111" s="41"/>
       <c r="B111" s="2" t="s">
         <v>108</v>
       </c>
@@ -8603,57 +8603,57 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="39"/>
-      <c r="B112" s="55" t="s">
+      <c r="A112" s="41"/>
+      <c r="B112" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="C112" s="55" t="s">
+      <c r="C112" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="D112" s="55" t="s">
+      <c r="D112" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E112" s="55"/>
-      <c r="F112" s="56"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="40"/>
     </row>
     <row r="113" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="39"/>
-      <c r="B113" s="55" t="s">
+      <c r="A113" s="41"/>
+      <c r="B113" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C113" s="55" t="s">
+      <c r="C113" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="D113" s="55" t="s">
+      <c r="D113" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="E113" s="55">
+      <c r="E113" s="39">
         <v>118</v>
       </c>
-      <c r="F113" s="56">
+      <c r="F113" s="40">
         <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="39"/>
-      <c r="B114" s="55" t="s">
+      <c r="A114" s="41"/>
+      <c r="B114" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C114" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D114" s="55" t="s">
+      <c r="D114" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E114" s="55">
+      <c r="E114" s="39">
         <v>116</v>
       </c>
-      <c r="F114" s="56">
+      <c r="F114" s="40">
         <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="39"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="2" t="s">
         <v>109</v>
       </c>
@@ -8671,7 +8671,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="39"/>
+      <c r="A116" s="41"/>
       <c r="B116" s="2" t="s">
         <v>110</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="41" t="s">
         <v>211</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -8709,7 +8709,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="39"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="2" t="s">
         <v>112</v>
       </c>
@@ -8727,7 +8727,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="39"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="2" t="s">
         <v>113</v>
       </c>
@@ -8745,7 +8745,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="39"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="2" t="s">
         <v>114</v>
       </c>
@@ -8763,7 +8763,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="39"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="2" t="s">
         <v>115</v>
       </c>
@@ -8781,7 +8781,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="39"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="2" t="s">
         <v>116</v>
       </c>
@@ -8799,7 +8799,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="39"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="2" t="s">
         <v>117</v>
       </c>
@@ -8817,7 +8817,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="39"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="2" t="s">
         <v>118</v>
       </c>
@@ -8835,7 +8835,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="39"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="2" t="s">
         <v>119</v>
       </c>
@@ -8853,7 +8853,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="39"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="2" t="s">
         <v>120</v>
       </c>
@@ -8871,7 +8871,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="39"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="2" t="s">
         <v>121</v>
       </c>
@@ -8889,7 +8889,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="39"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="2" t="s">
         <v>122</v>
       </c>
@@ -8907,7 +8907,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="39"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="2" t="s">
         <v>123</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="39"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="2" t="s">
         <v>124</v>
       </c>
@@ -8943,7 +8943,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="39"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="2" t="s">
         <v>125</v>
       </c>
@@ -8961,7 +8961,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="39"/>
+      <c r="A132" s="41"/>
       <c r="B132" s="2" t="s">
         <v>127</v>
       </c>
@@ -8979,7 +8979,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="39"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="2" t="s">
         <v>128</v>
       </c>
@@ -8997,7 +8997,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="39"/>
+      <c r="A134" s="41"/>
       <c r="B134" s="2" t="s">
         <v>129</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="39"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="2" t="s">
         <v>130</v>
       </c>
@@ -9033,7 +9033,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="39"/>
+      <c r="A136" s="41"/>
       <c r="B136" s="2" t="s">
         <v>131</v>
       </c>
@@ -9051,7 +9051,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="39"/>
+      <c r="A137" s="41"/>
       <c r="B137" s="2" t="s">
         <v>132</v>
       </c>
@@ -9069,7 +9069,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="39"/>
+      <c r="A138" s="41"/>
       <c r="B138" s="2" t="s">
         <v>133</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="39"/>
+      <c r="A139" s="41"/>
       <c r="B139" s="2" t="s">
         <v>134</v>
       </c>
@@ -9105,7 +9105,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="39"/>
+      <c r="A140" s="41"/>
       <c r="B140" s="2" t="s">
         <v>135</v>
       </c>
@@ -9123,7 +9123,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="39"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="2" t="s">
         <v>126</v>
       </c>
@@ -9141,7 +9141,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="39"/>
+      <c r="A142" s="41"/>
       <c r="B142" s="2" t="s">
         <v>136</v>
       </c>
@@ -9159,7 +9159,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="39"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="2" t="s">
         <v>137</v>
       </c>
@@ -9177,7 +9177,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="39"/>
+      <c r="A144" s="41"/>
       <c r="B144" s="2" t="s">
         <v>138</v>
       </c>
@@ -9195,7 +9195,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="39"/>
+      <c r="A145" s="41"/>
       <c r="B145" s="2" t="s">
         <v>139</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="39"/>
+      <c r="A146" s="41"/>
       <c r="B146" s="2" t="s">
         <v>140</v>
       </c>
@@ -9231,7 +9231,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="39"/>
+      <c r="A147" s="41"/>
       <c r="B147" s="2" t="s">
         <v>141</v>
       </c>
@@ -9249,7 +9249,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="39"/>
+      <c r="A148" s="41"/>
       <c r="B148" s="2" t="s">
         <v>142</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="39"/>
+      <c r="A149" s="41"/>
       <c r="B149" s="2" t="s">
         <v>143</v>
       </c>
@@ -9285,7 +9285,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="39"/>
+      <c r="A150" s="41"/>
       <c r="B150" s="2" t="s">
         <v>144</v>
       </c>
@@ -9303,7 +9303,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="39"/>
+      <c r="A151" s="41"/>
       <c r="B151" s="2" t="s">
         <v>145</v>
       </c>
@@ -9321,7 +9321,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="39"/>
+      <c r="A152" s="41"/>
       <c r="B152" s="2" t="s">
         <v>146</v>
       </c>
@@ -9339,7 +9339,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="39"/>
+      <c r="A153" s="41"/>
       <c r="B153" s="2" t="s">
         <v>147</v>
       </c>
@@ -9357,7 +9357,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="39"/>
+      <c r="A154" s="41"/>
       <c r="B154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9375,7 +9375,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="39"/>
+      <c r="A155" s="41"/>
       <c r="B155" s="2" t="s">
         <v>149</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="39"/>
+      <c r="A156" s="41"/>
       <c r="B156" s="2" t="s">
         <v>150</v>
       </c>
@@ -9411,7 +9411,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="39"/>
+      <c r="A157" s="41"/>
       <c r="B157" s="2" t="s">
         <v>151</v>
       </c>
@@ -9429,7 +9429,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="39"/>
+      <c r="A158" s="41"/>
       <c r="B158" s="2" t="s">
         <v>152</v>
       </c>
@@ -9447,7 +9447,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="39"/>
+      <c r="A159" s="41"/>
       <c r="B159" s="2" t="s">
         <v>153</v>
       </c>
@@ -9465,7 +9465,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="39"/>
+      <c r="A160" s="41"/>
       <c r="B160" s="2" t="s">
         <v>154</v>
       </c>
@@ -9483,7 +9483,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="39"/>
+      <c r="A161" s="41"/>
       <c r="B161" s="2" t="s">
         <v>155</v>
       </c>
@@ -9501,7 +9501,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="39"/>
+      <c r="A162" s="41"/>
       <c r="B162" s="2" t="s">
         <v>156</v>
       </c>
@@ -9519,7 +9519,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="39"/>
+      <c r="A163" s="41"/>
       <c r="B163" s="2" t="s">
         <v>157</v>
       </c>
@@ -9537,25 +9537,25 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="39"/>
-      <c r="B164" s="55" t="s">
+      <c r="A164" s="41"/>
+      <c r="B164" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C164" s="55" t="s">
+      <c r="C164" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D164" s="55" t="s">
+      <c r="D164" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E164" s="55">
+      <c r="E164" s="39">
         <v>264</v>
       </c>
-      <c r="F164" s="56">
+      <c r="F164" s="40">
         <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="39"/>
+      <c r="A165" s="41"/>
       <c r="B165" s="2" t="s">
         <v>158</v>
       </c>
@@ -9573,21 +9573,21 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="39"/>
-      <c r="B166" s="55" t="s">
+      <c r="A166" s="41"/>
+      <c r="B166" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="C166" s="55" t="s">
+      <c r="C166" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="D166" s="55" t="s">
+      <c r="D166" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E166" s="55"/>
-      <c r="F166" s="56"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="40"/>
     </row>
     <row r="167" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="39"/>
+      <c r="A167" s="41"/>
       <c r="B167" s="2" t="s">
         <v>159</v>
       </c>
@@ -9605,25 +9605,25 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="39"/>
-      <c r="B168" s="55" t="s">
+      <c r="A168" s="41"/>
+      <c r="B168" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C168" s="55" t="s">
+      <c r="C168" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="D168" s="55" t="s">
+      <c r="D168" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="E168" s="55">
+      <c r="E168" s="39">
         <v>178</v>
       </c>
-      <c r="F168" s="56">
+      <c r="F168" s="40">
         <v>217</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="39"/>
+      <c r="A169" s="41"/>
       <c r="B169" s="2" t="s">
         <v>160</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="39"/>
+      <c r="A170" s="41"/>
       <c r="B170" s="2" t="s">
         <v>161</v>
       </c>
@@ -9659,7 +9659,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="39"/>
+      <c r="A171" s="41"/>
       <c r="B171" s="2" t="s">
         <v>162</v>
       </c>
@@ -9677,7 +9677,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="39"/>
+      <c r="A172" s="41"/>
       <c r="B172" s="2" t="s">
         <v>163</v>
       </c>
@@ -9695,7 +9695,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="39"/>
+      <c r="A173" s="41"/>
       <c r="B173" s="2" t="s">
         <v>164</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="39"/>
+      <c r="A174" s="41"/>
       <c r="B174" s="2" t="s">
         <v>165</v>
       </c>
@@ -9731,7 +9731,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="39"/>
+      <c r="A175" s="41"/>
       <c r="B175" s="2" t="s">
         <v>166</v>
       </c>
@@ -9749,7 +9749,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="39"/>
+      <c r="A176" s="41"/>
       <c r="B176" s="2" t="s">
         <v>167</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="39"/>
+      <c r="A177" s="41"/>
       <c r="B177" s="2" t="s">
         <v>168</v>
       </c>
@@ -9785,7 +9785,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="39"/>
+      <c r="A178" s="41"/>
       <c r="B178" s="2" t="s">
         <v>169</v>
       </c>
@@ -9803,7 +9803,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="39"/>
+      <c r="A179" s="41"/>
       <c r="B179" s="2" t="s">
         <v>170</v>
       </c>
@@ -9821,7 +9821,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="39"/>
+      <c r="A180" s="41"/>
       <c r="B180" s="2" t="s">
         <v>171</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="39" t="s">
+      <c r="A181" s="41" t="s">
         <v>449</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -9859,7 +9859,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="39"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="2" t="s">
         <v>451</v>
       </c>
@@ -9877,7 +9877,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="39"/>
+      <c r="A183" s="41"/>
       <c r="B183" s="2" t="s">
         <v>452</v>
       </c>
@@ -9895,7 +9895,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="39" t="s">
+      <c r="A184" s="41" t="s">
         <v>212</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -9915,7 +9915,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="39"/>
+      <c r="A185" s="41"/>
       <c r="B185" s="2" t="s">
         <v>185</v>
       </c>
@@ -9933,7 +9933,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="39"/>
+      <c r="A186" s="41"/>
       <c r="B186" s="2" t="s">
         <v>184</v>
       </c>
@@ -9951,7 +9951,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="39"/>
+      <c r="A187" s="41"/>
       <c r="B187" s="2" t="s">
         <v>183</v>
       </c>
@@ -9969,7 +9969,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="39"/>
+      <c r="A188" s="41"/>
       <c r="B188" s="2" t="s">
         <v>182</v>
       </c>
@@ -9987,25 +9987,25 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="39"/>
-      <c r="B189" s="55" t="s">
+      <c r="A189" s="41"/>
+      <c r="B189" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C189" s="55" t="s">
+      <c r="C189" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D189" s="55" t="s">
+      <c r="D189" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E189" s="55">
+      <c r="E189" s="39">
         <v>155</v>
       </c>
-      <c r="F189" s="56">
+      <c r="F189" s="40">
         <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="39"/>
+      <c r="A190" s="41"/>
       <c r="B190" s="2" t="s">
         <v>172</v>
       </c>
@@ -10023,7 +10023,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="39"/>
+      <c r="A191" s="41"/>
       <c r="B191" s="2" t="s">
         <v>173</v>
       </c>
@@ -10041,7 +10041,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="39"/>
+      <c r="A192" s="41"/>
       <c r="B192" s="2" t="s">
         <v>174</v>
       </c>
@@ -10059,7 +10059,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="39"/>
+      <c r="A193" s="41"/>
       <c r="B193" s="2" t="s">
         <v>175</v>
       </c>
@@ -10077,7 +10077,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="39"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="2" t="s">
         <v>176</v>
       </c>
@@ -10095,7 +10095,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="39"/>
+      <c r="A195" s="41"/>
       <c r="B195" s="2" t="s">
         <v>177</v>
       </c>
@@ -10113,7 +10113,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="39"/>
+      <c r="A196" s="41"/>
       <c r="B196" s="2" t="s">
         <v>178</v>
       </c>
@@ -10131,7 +10131,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="39"/>
+      <c r="A197" s="41"/>
       <c r="B197" s="2" t="s">
         <v>179</v>
       </c>
@@ -10149,7 +10149,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="39"/>
+      <c r="A198" s="41"/>
       <c r="B198" s="2" t="s">
         <v>180</v>
       </c>
@@ -10167,7 +10167,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="39"/>
+      <c r="A199" s="41"/>
       <c r="B199" s="2" t="s">
         <v>181</v>
       </c>
@@ -10185,7 +10185,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="39" t="s">
+      <c r="A200" s="41" t="s">
         <v>213</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -10205,25 +10205,25 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="39"/>
-      <c r="B201" s="55" t="s">
+      <c r="A201" s="41"/>
+      <c r="B201" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C201" s="55" t="s">
+      <c r="C201" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D201" s="55" t="s">
+      <c r="D201" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E201" s="55">
+      <c r="E201" s="39">
         <v>313</v>
       </c>
-      <c r="F201" s="56">
+      <c r="F201" s="40">
         <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="39"/>
+      <c r="A202" s="41"/>
       <c r="B202" s="2" t="s">
         <v>188</v>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="39"/>
+      <c r="A203" s="41"/>
       <c r="B203" s="2" t="s">
         <v>189</v>
       </c>
@@ -10259,7 +10259,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="39"/>
+      <c r="A204" s="41"/>
       <c r="B204" s="2" t="s">
         <v>190</v>
       </c>
@@ -10277,7 +10277,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="39"/>
+      <c r="A205" s="41"/>
       <c r="B205" s="2" t="s">
         <v>191</v>
       </c>
@@ -10295,7 +10295,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="39"/>
+      <c r="A206" s="41"/>
       <c r="B206" s="2" t="s">
         <v>192</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="39"/>
+      <c r="A207" s="41"/>
       <c r="B207" s="2" t="s">
         <v>193</v>
       </c>
@@ -10331,7 +10331,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="39"/>
+      <c r="A208" s="41"/>
       <c r="B208" s="2" t="s">
         <v>194</v>
       </c>
@@ -10349,7 +10349,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="39" t="s">
+      <c r="A209" s="41" t="s">
         <v>214</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -10369,7 +10369,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="39"/>
+      <c r="A210" s="41"/>
       <c r="B210" s="2" t="s">
         <v>196</v>
       </c>
@@ -10387,7 +10387,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="39"/>
+      <c r="A211" s="41"/>
       <c r="B211" s="2" t="s">
         <v>197</v>
       </c>
@@ -10405,7 +10405,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="39"/>
+      <c r="A212" s="41"/>
       <c r="B212" s="2" t="s">
         <v>198</v>
       </c>
@@ -10423,7 +10423,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="39"/>
+      <c r="A213" s="41"/>
       <c r="B213" s="2" t="s">
         <v>199</v>
       </c>
@@ -10441,7 +10441,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="39"/>
+      <c r="A214" s="41"/>
       <c r="B214" s="2" t="s">
         <v>200</v>
       </c>
@@ -10459,7 +10459,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="39"/>
+      <c r="A215" s="41"/>
       <c r="B215" s="2" t="s">
         <v>201</v>
       </c>
@@ -10477,7 +10477,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="39"/>
+      <c r="A216" s="41"/>
       <c r="B216" s="2" t="s">
         <v>202</v>
       </c>
@@ -10495,7 +10495,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="39"/>
+      <c r="A217" s="41"/>
       <c r="B217" s="2" t="s">
         <v>203</v>
       </c>
@@ -10513,7 +10513,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="39"/>
+      <c r="A218" s="41"/>
       <c r="B218" s="2" t="s">
         <v>204</v>
       </c>
@@ -10531,7 +10531,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="39"/>
+      <c r="A219" s="41"/>
       <c r="B219" s="2" t="s">
         <v>205</v>
       </c>
@@ -10549,25 +10549,25 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="39"/>
-      <c r="B220" s="55" t="s">
+      <c r="A220" s="41"/>
+      <c r="B220" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C220" s="55" t="s">
+      <c r="C220" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D220" s="55" t="s">
+      <c r="D220" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E220" s="55">
+      <c r="E220" s="39">
         <v>118</v>
       </c>
-      <c r="F220" s="56">
+      <c r="F220" s="40">
         <v>286</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="39"/>
+      <c r="A221" s="41"/>
       <c r="B221" s="2" t="s">
         <v>206</v>
       </c>
@@ -10586,15 +10586,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A39"/>
+    <mergeCell ref="A40:A56"/>
+    <mergeCell ref="A57:A80"/>
+    <mergeCell ref="A81:A116"/>
     <mergeCell ref="A117:A180"/>
     <mergeCell ref="A181:A183"/>
     <mergeCell ref="A184:A199"/>
     <mergeCell ref="A200:A208"/>
     <mergeCell ref="A209:A221"/>
-    <mergeCell ref="A2:A39"/>
-    <mergeCell ref="A40:A56"/>
-    <mergeCell ref="A57:A80"/>
-    <mergeCell ref="A81:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10644,7 +10644,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="32"/>
@@ -10667,7 +10667,7 @@
       <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="33"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -10680,7 +10680,7 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10693,7 +10693,7 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="33"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -10706,7 +10706,7 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="34"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -10719,7 +10719,7 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -10739,7 +10739,7 @@
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="33"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -10751,7 +10751,7 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="33"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -10763,7 +10763,7 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="33"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -10775,7 +10775,7 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="34"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -10787,7 +10787,7 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>209</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -10807,7 +10807,7 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -10819,7 +10819,7 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="33"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -10831,7 +10831,7 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="33"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -10843,7 +10843,7 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -10855,7 +10855,7 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="42" t="s">
         <v>210</v>
       </c>
       <c r="B17" s="32"/>
@@ -10875,7 +10875,7 @@
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="33"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -10887,7 +10887,7 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="33"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -10899,7 +10899,7 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="33"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -10911,7 +10911,7 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -10923,7 +10923,7 @@
       <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -10949,7 +10949,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="33" t="s">
         <v>626</v>
       </c>
@@ -10962,7 +10962,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="33" t="s">
         <v>627</v>
       </c>
@@ -10974,7 +10974,7 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="33" t="s">
         <v>628</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="34" t="s">
         <v>629</v>
       </c>
@@ -11001,7 +11001,7 @@
       <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="42" t="s">
         <v>449</v>
       </c>
       <c r="B27" s="38"/>
@@ -11017,7 +11017,7 @@
       <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -11029,7 +11029,7 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -11041,7 +11041,7 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="33"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -11053,7 +11053,7 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -11065,7 +11065,7 @@
       <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="42" t="s">
         <v>212</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -11085,7 +11085,7 @@
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -11097,7 +11097,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="33"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -11109,7 +11109,7 @@
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="33"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -11121,7 +11121,7 @@
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="34"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -11133,7 +11133,7 @@
       <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="42" t="s">
         <v>213</v>
       </c>
       <c r="B37" s="38" t="s">
@@ -11153,22 +11153,22 @@
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="36"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="36"/>
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="36"/>
       <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="37"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -11180,7 +11180,7 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="42" t="s">
         <v>214</v>
       </c>
       <c r="B42" s="38"/>
@@ -11196,7 +11196,7 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="36"/>
       <c r="F43" t="s">
         <v>632</v>
@@ -11204,17 +11204,17 @@
       <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="36"/>
       <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="36"/>
       <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="37"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -11307,7 +11307,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -11355,7 +11355,7 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="9" t="s">
         <v>618</v>
       </c>
@@ -11413,7 +11413,7 @@
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="9" t="s">
         <v>620</v>
       </c>
@@ -11471,7 +11471,7 @@
       <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>211</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -11513,7 +11513,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="9" t="s">
         <v>618</v>
       </c>
@@ -11549,7 +11549,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="9" t="s">
         <v>620</v>
       </c>
@@ -11597,7 +11597,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>449</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -11625,7 +11625,7 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="9" t="s">
         <v>618</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="9" t="s">
         <v>620</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>213</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11705,7 +11705,7 @@
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="9" t="s">
         <v>618</v>
       </c>
@@ -11744,7 +11744,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="9" t="s">
         <v>620</v>
       </c>
@@ -11788,7 +11788,7 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -11834,7 +11834,7 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="9" t="s">
         <v>618</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="10" t="s">
         <v>620</v>
       </c>
@@ -11964,31 +11964,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -12042,8 +12042,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -12097,8 +12097,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -12152,8 +12152,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -12207,8 +12207,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -12262,8 +12262,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -12317,8 +12317,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -12372,8 +12372,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -12427,8 +12427,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -12482,8 +12482,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -12537,8 +12537,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -12592,8 +12592,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -12647,8 +12647,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -12702,8 +12702,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -12757,8 +12757,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -12812,8 +12812,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -12867,8 +12867,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -12922,8 +12922,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -12977,8 +12977,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -13032,8 +13032,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -13087,8 +13087,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -13142,8 +13142,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -13197,8 +13197,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -13252,8 +13252,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -13307,8 +13307,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -13362,8 +13362,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -13417,8 +13417,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -13472,8 +13472,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -13527,8 +13527,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -13582,8 +13582,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -13637,8 +13637,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -13692,8 +13692,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -13747,8 +13747,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -13802,8 +13802,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -13857,8 +13857,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -13912,8 +13912,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -13967,8 +13967,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -14022,8 +14022,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -14077,8 +14077,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -14132,8 +14132,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -14187,8 +14187,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -14242,8 +14242,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -14297,8 +14297,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -14352,8 +14352,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -14407,8 +14407,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -14462,8 +14462,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -14517,8 +14517,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -14572,8 +14572,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -14627,8 +14627,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -14682,8 +14682,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -14737,8 +14737,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -14792,10 +14792,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="53" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -14870,8 +14870,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -14946,8 +14946,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -15022,8 +15022,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -15098,8 +15098,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -15174,8 +15174,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -15250,8 +15250,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -15326,8 +15326,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -15402,8 +15402,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -15478,8 +15478,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -15554,8 +15554,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -15630,8 +15630,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -15706,8 +15706,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -15782,8 +15782,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -15858,8 +15858,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -15934,8 +15934,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -16010,8 +16010,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -16086,8 +16086,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -16162,8 +16162,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -16238,8 +16238,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -16314,8 +16314,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -16390,8 +16390,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -16466,8 +16466,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -16542,8 +16542,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -16618,8 +16618,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="46" t="s">
+      <c r="A77" s="54"/>
+      <c r="B77" s="53" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -16694,8 +16694,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -16770,8 +16770,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -16846,8 +16846,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -16922,8 +16922,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -16998,8 +16998,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -17074,8 +17074,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -17150,8 +17150,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -17226,8 +17226,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -17302,8 +17302,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -17378,8 +17378,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -17454,8 +17454,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -17530,8 +17530,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -17606,8 +17606,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -17682,8 +17682,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -17758,8 +17758,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -17834,8 +17834,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -17910,8 +17910,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -17986,8 +17986,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -18062,8 +18062,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -18138,8 +18138,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -18214,8 +18214,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -18290,8 +18290,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="54"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -18366,8 +18366,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -18442,8 +18442,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="47"/>
-      <c r="B101" s="46" t="s">
+      <c r="A101" s="54"/>
+      <c r="B101" s="53" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -18518,8 +18518,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -18594,8 +18594,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -18670,8 +18670,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -18746,8 +18746,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -18822,8 +18822,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -18898,8 +18898,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -18974,8 +18974,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -19050,8 +19050,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -19126,8 +19126,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -19202,8 +19202,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -19278,8 +19278,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -19354,8 +19354,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="54"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -19430,8 +19430,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -19506,8 +19506,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -19582,8 +19582,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="54"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -19658,8 +19658,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -19734,8 +19734,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="54"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -19810,8 +19810,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -19886,8 +19886,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="54"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -19962,8 +19962,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -20038,8 +20038,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="54"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -20114,8 +20114,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -20190,8 +20190,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
+      <c r="A124" s="51"/>
+      <c r="B124" s="51"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -20266,10 +20266,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="53" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -20371,8 +20371,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -20474,8 +20474,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="54"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -20577,8 +20577,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -20680,8 +20680,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -20783,8 +20783,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="54"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -20886,8 +20886,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="54"/>
+      <c r="B131" s="54"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -20989,8 +20989,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="54"/>
+      <c r="B132" s="54"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -21092,8 +21092,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="54"/>
+      <c r="B133" s="54"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -21195,8 +21195,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -21298,8 +21298,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -21401,8 +21401,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="54"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -21504,8 +21504,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="54"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -21607,8 +21607,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="54"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -21710,8 +21710,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="54"/>
+      <c r="B139" s="54"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -21813,8 +21813,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="54"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -21916,8 +21916,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -22019,8 +22019,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
+      <c r="A142" s="54"/>
+      <c r="B142" s="54"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -22122,8 +22122,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="54"/>
+      <c r="B143" s="54"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -22225,8 +22225,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+      <c r="A144" s="54"/>
+      <c r="B144" s="54"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -22328,8 +22328,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="54"/>
+      <c r="B145" s="54"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -22431,8 +22431,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="54"/>
+      <c r="B146" s="54"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -22534,8 +22534,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="54"/>
+      <c r="B147" s="54"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -22637,8 +22637,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="54"/>
+      <c r="B148" s="54"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -22740,8 +22740,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="54"/>
+      <c r="B149" s="54"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -22843,8 +22843,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="54"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -22946,8 +22946,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="54"/>
+      <c r="B151" s="54"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -23049,8 +23049,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="54"/>
+      <c r="B152" s="54"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -23152,8 +23152,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="54"/>
+      <c r="B153" s="54"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -23255,8 +23255,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="54"/>
+      <c r="B154" s="54"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -23358,8 +23358,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="54"/>
+      <c r="B155" s="54"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -23461,8 +23461,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="54"/>
+      <c r="B156" s="54"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -23564,8 +23564,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
-      <c r="B157" s="48"/>
+      <c r="A157" s="54"/>
+      <c r="B157" s="51"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -23667,8 +23667,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="47"/>
-      <c r="B158" s="46" t="s">
+      <c r="A158" s="54"/>
+      <c r="B158" s="53" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -23770,8 +23770,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="54"/>
+      <c r="B159" s="54"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -23873,8 +23873,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+      <c r="A160" s="54"/>
+      <c r="B160" s="54"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -23976,8 +23976,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+      <c r="A161" s="54"/>
+      <c r="B161" s="54"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -24079,8 +24079,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+      <c r="A162" s="54"/>
+      <c r="B162" s="54"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -24182,8 +24182,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
-      <c r="B163" s="47"/>
+      <c r="A163" s="54"/>
+      <c r="B163" s="54"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -24285,8 +24285,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
-      <c r="B164" s="47"/>
+      <c r="A164" s="54"/>
+      <c r="B164" s="54"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -24388,8 +24388,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
+      <c r="A165" s="54"/>
+      <c r="B165" s="54"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -24491,8 +24491,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
+      <c r="A166" s="54"/>
+      <c r="B166" s="54"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -24594,8 +24594,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="54"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -24697,8 +24697,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="47"/>
-      <c r="B168" s="47"/>
+      <c r="A168" s="54"/>
+      <c r="B168" s="54"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -24800,8 +24800,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
+      <c r="A169" s="54"/>
+      <c r="B169" s="54"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -24903,8 +24903,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="47"/>
-      <c r="B170" s="47"/>
+      <c r="A170" s="54"/>
+      <c r="B170" s="54"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -25006,8 +25006,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="47"/>
-      <c r="B171" s="47"/>
+      <c r="A171" s="54"/>
+      <c r="B171" s="54"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -25109,8 +25109,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="47"/>
-      <c r="B172" s="47"/>
+      <c r="A172" s="54"/>
+      <c r="B172" s="54"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -25212,8 +25212,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="47"/>
-      <c r="B173" s="47"/>
+      <c r="A173" s="54"/>
+      <c r="B173" s="54"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -25315,8 +25315,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="47"/>
-      <c r="B174" s="47"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="54"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -25418,8 +25418,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="54"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -25521,8 +25521,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="47"/>
-      <c r="B176" s="47"/>
+      <c r="A176" s="54"/>
+      <c r="B176" s="54"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -25624,8 +25624,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="47"/>
-      <c r="B177" s="47"/>
+      <c r="A177" s="54"/>
+      <c r="B177" s="54"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -25727,8 +25727,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
+      <c r="A178" s="54"/>
+      <c r="B178" s="54"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -25830,8 +25830,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
+      <c r="A179" s="54"/>
+      <c r="B179" s="54"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -25933,8 +25933,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
+      <c r="A180" s="54"/>
+      <c r="B180" s="54"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -26036,8 +26036,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
+      <c r="A181" s="54"/>
+      <c r="B181" s="54"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -26139,8 +26139,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="47"/>
-      <c r="B182" s="47"/>
+      <c r="A182" s="54"/>
+      <c r="B182" s="54"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -26242,8 +26242,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
+      <c r="A183" s="54"/>
+      <c r="B183" s="54"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -26345,8 +26345,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
+      <c r="A184" s="54"/>
+      <c r="B184" s="54"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -26448,8 +26448,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
+      <c r="A185" s="54"/>
+      <c r="B185" s="54"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -26551,8 +26551,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
+      <c r="A186" s="54"/>
+      <c r="B186" s="54"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -26654,8 +26654,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
+      <c r="A187" s="54"/>
+      <c r="B187" s="54"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -26757,8 +26757,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="47"/>
-      <c r="B188" s="47"/>
+      <c r="A188" s="54"/>
+      <c r="B188" s="54"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -26860,8 +26860,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="47"/>
-      <c r="B189" s="47"/>
+      <c r="A189" s="54"/>
+      <c r="B189" s="54"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -26963,8 +26963,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="47"/>
-      <c r="B190" s="48"/>
+      <c r="A190" s="54"/>
+      <c r="B190" s="51"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -27066,8 +27066,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="47"/>
-      <c r="B191" s="46" t="s">
+      <c r="A191" s="54"/>
+      <c r="B191" s="53" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -27169,8 +27169,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="47"/>
-      <c r="B192" s="47"/>
+      <c r="A192" s="54"/>
+      <c r="B192" s="54"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -27304,8 +27304,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="47"/>
-      <c r="B193" s="47"/>
+      <c r="A193" s="54"/>
+      <c r="B193" s="54"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -27439,8 +27439,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="47"/>
-      <c r="B194" s="47"/>
+      <c r="A194" s="54"/>
+      <c r="B194" s="54"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -27574,8 +27574,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="47"/>
-      <c r="B195" s="47"/>
+      <c r="A195" s="54"/>
+      <c r="B195" s="54"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -27709,8 +27709,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="47"/>
-      <c r="B196" s="47"/>
+      <c r="A196" s="54"/>
+      <c r="B196" s="54"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -27844,8 +27844,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
+      <c r="A197" s="54"/>
+      <c r="B197" s="54"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -27979,8 +27979,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="47"/>
-      <c r="B198" s="47"/>
+      <c r="A198" s="54"/>
+      <c r="B198" s="54"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -28114,8 +28114,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="47"/>
-      <c r="B199" s="47"/>
+      <c r="A199" s="54"/>
+      <c r="B199" s="54"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -28249,8 +28249,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="47"/>
-      <c r="B200" s="47"/>
+      <c r="A200" s="54"/>
+      <c r="B200" s="54"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -28384,8 +28384,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="47"/>
-      <c r="B201" s="47"/>
+      <c r="A201" s="54"/>
+      <c r="B201" s="54"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -28519,8 +28519,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="47"/>
-      <c r="B202" s="47"/>
+      <c r="A202" s="54"/>
+      <c r="B202" s="54"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -28654,8 +28654,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="47"/>
-      <c r="B203" s="47"/>
+      <c r="A203" s="54"/>
+      <c r="B203" s="54"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -28789,8 +28789,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="47"/>
-      <c r="B204" s="47"/>
+      <c r="A204" s="54"/>
+      <c r="B204" s="54"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -28924,8 +28924,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="47"/>
-      <c r="B205" s="47"/>
+      <c r="A205" s="54"/>
+      <c r="B205" s="54"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -29059,8 +29059,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="47"/>
-      <c r="B206" s="47"/>
+      <c r="A206" s="54"/>
+      <c r="B206" s="54"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -29194,8 +29194,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="47"/>
-      <c r="B207" s="47"/>
+      <c r="A207" s="54"/>
+      <c r="B207" s="54"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -29329,8 +29329,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="47"/>
-      <c r="B208" s="47"/>
+      <c r="A208" s="54"/>
+      <c r="B208" s="54"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -29464,8 +29464,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="47"/>
-      <c r="B209" s="47"/>
+      <c r="A209" s="54"/>
+      <c r="B209" s="54"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -29599,8 +29599,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
-      <c r="B210" s="47"/>
+      <c r="A210" s="54"/>
+      <c r="B210" s="54"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -29734,8 +29734,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
-      <c r="B211" s="47"/>
+      <c r="A211" s="54"/>
+      <c r="B211" s="54"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -29869,8 +29869,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="47"/>
-      <c r="B212" s="47"/>
+      <c r="A212" s="54"/>
+      <c r="B212" s="54"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -30004,8 +30004,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
-      <c r="B213" s="47"/>
+      <c r="A213" s="54"/>
+      <c r="B213" s="54"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -30139,8 +30139,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
-      <c r="B214" s="47"/>
+      <c r="A214" s="54"/>
+      <c r="B214" s="54"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -30274,8 +30274,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
-      <c r="B215" s="47"/>
+      <c r="A215" s="54"/>
+      <c r="B215" s="54"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -30409,8 +30409,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
-      <c r="B216" s="47"/>
+      <c r="A216" s="54"/>
+      <c r="B216" s="54"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -30544,8 +30544,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
-      <c r="B217" s="47"/>
+      <c r="A217" s="54"/>
+      <c r="B217" s="54"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -30679,8 +30679,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
-      <c r="B218" s="47"/>
+      <c r="A218" s="54"/>
+      <c r="B218" s="54"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -30814,8 +30814,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="47"/>
-      <c r="B219" s="47"/>
+      <c r="A219" s="54"/>
+      <c r="B219" s="54"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -30949,8 +30949,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="47"/>
-      <c r="B220" s="47"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -31084,8 +31084,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
+      <c r="A221" s="54"/>
+      <c r="B221" s="54"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -31219,8 +31219,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
+      <c r="A222" s="54"/>
+      <c r="B222" s="54"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -31354,8 +31354,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="48"/>
-      <c r="B223" s="48"/>
+      <c r="A223" s="51"/>
+      <c r="B223" s="51"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -31489,10 +31489,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="49" t="s">
+      <c r="A224" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="53" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -31554,8 +31554,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="50"/>
-      <c r="B225" s="47"/>
+      <c r="A225" s="56"/>
+      <c r="B225" s="54"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -31617,8 +31617,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="50"/>
-      <c r="B226" s="47"/>
+      <c r="A226" s="56"/>
+      <c r="B226" s="54"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -31680,8 +31680,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="50"/>
-      <c r="B227" s="47"/>
+      <c r="A227" s="56"/>
+      <c r="B227" s="54"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -31743,8 +31743,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="50"/>
-      <c r="B228" s="47"/>
+      <c r="A228" s="56"/>
+      <c r="B228" s="54"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -31806,8 +31806,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="50"/>
-      <c r="B229" s="47"/>
+      <c r="A229" s="56"/>
+      <c r="B229" s="54"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -31869,8 +31869,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="50"/>
-      <c r="B230" s="47"/>
+      <c r="A230" s="56"/>
+      <c r="B230" s="54"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -31932,8 +31932,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="50"/>
-      <c r="B231" s="47"/>
+      <c r="A231" s="56"/>
+      <c r="B231" s="54"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -31995,8 +31995,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="50"/>
-      <c r="B232" s="47"/>
+      <c r="A232" s="56"/>
+      <c r="B232" s="54"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -32058,8 +32058,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="50"/>
-      <c r="B233" s="47"/>
+      <c r="A233" s="56"/>
+      <c r="B233" s="54"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -32121,8 +32121,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="50"/>
-      <c r="B234" s="47"/>
+      <c r="A234" s="56"/>
+      <c r="B234" s="54"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -32184,8 +32184,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="50"/>
-      <c r="B235" s="47"/>
+      <c r="A235" s="56"/>
+      <c r="B235" s="54"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -32247,8 +32247,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="50"/>
-      <c r="B236" s="47"/>
+      <c r="A236" s="56"/>
+      <c r="B236" s="54"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -32310,8 +32310,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="50"/>
-      <c r="B237" s="48"/>
+      <c r="A237" s="56"/>
+      <c r="B237" s="51"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -32373,8 +32373,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="50"/>
-      <c r="B238" s="46" t="s">
+      <c r="A238" s="56"/>
+      <c r="B238" s="53" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -32419,8 +32419,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="50"/>
-      <c r="B239" s="47"/>
+      <c r="A239" s="56"/>
+      <c r="B239" s="54"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -32465,8 +32465,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="50"/>
-      <c r="B240" s="47"/>
+      <c r="A240" s="56"/>
+      <c r="B240" s="54"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -32511,8 +32511,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="50"/>
-      <c r="B241" s="47"/>
+      <c r="A241" s="56"/>
+      <c r="B241" s="54"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -32557,8 +32557,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="50"/>
-      <c r="B242" s="47"/>
+      <c r="A242" s="56"/>
+      <c r="B242" s="54"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -32603,8 +32603,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="50"/>
-      <c r="B243" s="47"/>
+      <c r="A243" s="56"/>
+      <c r="B243" s="54"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -32649,8 +32649,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="50"/>
-      <c r="B244" s="47"/>
+      <c r="A244" s="56"/>
+      <c r="B244" s="54"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -32695,8 +32695,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="50"/>
-      <c r="B245" s="47"/>
+      <c r="A245" s="56"/>
+      <c r="B245" s="54"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -32741,8 +32741,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="50"/>
-      <c r="B246" s="47"/>
+      <c r="A246" s="56"/>
+      <c r="B246" s="54"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -32787,8 +32787,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="50"/>
-      <c r="B247" s="47"/>
+      <c r="A247" s="56"/>
+      <c r="B247" s="54"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -32833,8 +32833,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="50"/>
-      <c r="B248" s="47"/>
+      <c r="A248" s="56"/>
+      <c r="B248" s="54"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -32879,8 +32879,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="50"/>
-      <c r="B249" s="47"/>
+      <c r="A249" s="56"/>
+      <c r="B249" s="54"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -32925,8 +32925,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="50"/>
-      <c r="B250" s="47"/>
+      <c r="A250" s="56"/>
+      <c r="B250" s="54"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -32971,8 +32971,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="50"/>
-      <c r="B251" s="48"/>
+      <c r="A251" s="56"/>
+      <c r="B251" s="51"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -33017,8 +33017,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="50"/>
-      <c r="B252" s="46" t="s">
+      <c r="A252" s="56"/>
+      <c r="B252" s="53" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -33063,8 +33063,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="50"/>
-      <c r="B253" s="47"/>
+      <c r="A253" s="56"/>
+      <c r="B253" s="54"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -33109,8 +33109,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="50"/>
-      <c r="B254" s="47"/>
+      <c r="A254" s="56"/>
+      <c r="B254" s="54"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -33155,8 +33155,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="50"/>
-      <c r="B255" s="47"/>
+      <c r="A255" s="56"/>
+      <c r="B255" s="54"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -33201,8 +33201,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="50"/>
-      <c r="B256" s="47"/>
+      <c r="A256" s="56"/>
+      <c r="B256" s="54"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -33247,8 +33247,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="50"/>
-      <c r="B257" s="47"/>
+      <c r="A257" s="56"/>
+      <c r="B257" s="54"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -33293,8 +33293,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="50"/>
-      <c r="B258" s="47"/>
+      <c r="A258" s="56"/>
+      <c r="B258" s="54"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -33339,8 +33339,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="50"/>
-      <c r="B259" s="47"/>
+      <c r="A259" s="56"/>
+      <c r="B259" s="54"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -33385,8 +33385,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="50"/>
-      <c r="B260" s="47"/>
+      <c r="A260" s="56"/>
+      <c r="B260" s="54"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -33431,8 +33431,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="50"/>
-      <c r="B261" s="47"/>
+      <c r="A261" s="56"/>
+      <c r="B261" s="54"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -33477,8 +33477,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="50"/>
-      <c r="B262" s="47"/>
+      <c r="A262" s="56"/>
+      <c r="B262" s="54"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -33523,8 +33523,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="50"/>
-      <c r="B263" s="47"/>
+      <c r="A263" s="56"/>
+      <c r="B263" s="54"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -33569,8 +33569,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="50"/>
-      <c r="B264" s="47"/>
+      <c r="A264" s="56"/>
+      <c r="B264" s="54"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -33615,8 +33615,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="50"/>
-      <c r="B265" s="48"/>
+      <c r="A265" s="56"/>
+      <c r="B265" s="51"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -33662,11 +33662,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -33679,6 +33674,11 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD6990-EBE0-4ADA-8BDF-566B3ADFAEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A85AC-EB80-44F4-A31F-0E3D45D2BF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
-    <sheet name="Map" sheetId="5" r:id="rId2"/>
-    <sheet name="Interchange" sheetId="4" r:id="rId3"/>
-    <sheet name="PriceByStation" sheetId="2" r:id="rId4"/>
-    <sheet name="PriceByDistance" sheetId="3" r:id="rId5"/>
+    <sheet name="Interchange" sheetId="4" r:id="rId2"/>
+    <sheet name="PriceByStation" sheetId="2" r:id="rId3"/>
+    <sheet name="PriceByDistance" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="661">
   <si>
     <t>Line</t>
   </si>
@@ -2023,22 +2022,13 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Turn</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>Temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2073,29 +2063,16 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2272,27 +2249,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2358,12 +2319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2385,6 +2340,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,28 +2364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2770,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:F209"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2756,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2822,7 +2776,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2840,7 +2794,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2858,7 +2812,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2830,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2894,7 +2848,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2912,7 +2866,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +2884,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2948,7 +2902,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2966,7 +2920,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2984,7 +2938,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3002,7 +2956,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3020,7 +2974,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3038,7 +2992,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3056,7 +3010,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3074,7 +3028,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3092,7 +3046,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -3110,7 +3064,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3128,7 +3082,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3146,7 +3100,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3164,7 +3118,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3182,7 +3136,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3200,7 +3154,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -3218,7 +3172,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3236,7 +3190,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -3254,7 +3208,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3272,7 +3226,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -3290,7 +3244,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -3308,7 +3262,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -3326,7 +3280,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3298,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
@@ -3362,7 +3316,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
@@ -3380,7 +3334,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -3398,7 +3352,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
@@ -3416,7 +3370,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3388,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
@@ -3452,7 +3406,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
@@ -3470,7 +3424,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
@@ -3488,7 +3442,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3508,7 +3462,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3526,7 +3480,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
@@ -3544,7 +3498,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
@@ -3562,7 +3516,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
@@ -3580,7 +3534,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
@@ -3598,7 +3552,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
@@ -3616,7 +3570,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
@@ -3634,7 +3588,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
@@ -3652,7 +3606,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
@@ -3670,7 +3624,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
@@ -3688,7 +3642,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
@@ -3706,7 +3660,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
@@ -3724,7 +3678,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
@@ -3742,7 +3696,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
@@ -3760,7 +3714,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
@@ -3778,7 +3732,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>209</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3798,7 +3752,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
@@ -3816,7 +3770,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
@@ -3834,7 +3788,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
@@ -3852,7 +3806,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
@@ -3870,7 +3824,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3888,7 +3842,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
@@ -3906,7 +3860,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
@@ -3924,7 +3878,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
@@ -3942,7 +3896,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
@@ -3960,7 +3914,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
@@ -3978,7 +3932,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
@@ -3996,7 +3950,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
@@ -4014,7 +3968,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
@@ -4032,7 +3986,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
@@ -4050,7 +4004,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
@@ -4068,7 +4022,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="2" t="s">
         <v>72</v>
       </c>
@@ -4086,7 +4040,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
@@ -4104,7 +4058,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
@@ -4122,7 +4076,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
@@ -4140,7 +4094,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
@@ -4158,7 +4112,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
@@ -4176,7 +4130,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
@@ -4194,7 +4148,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="39" t="s">
         <v>210</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4214,7 +4168,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="2" t="s">
         <v>80</v>
       </c>
@@ -4232,7 +4186,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
@@ -4250,7 +4204,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="2" t="s">
         <v>82</v>
       </c>
@@ -4268,7 +4222,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
@@ -4286,7 +4240,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
@@ -4304,7 +4258,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
@@ -4322,7 +4276,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
@@ -4340,7 +4294,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
@@ -4358,7 +4312,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
@@ -4376,7 +4330,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
@@ -4394,7 +4348,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
@@ -4412,7 +4366,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
@@ -4430,7 +4384,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
@@ -4448,7 +4402,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="2" t="s">
         <v>93</v>
       </c>
@@ -4466,7 +4420,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
@@ -4484,7 +4438,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="2" t="s">
         <v>95</v>
       </c>
@@ -4502,7 +4456,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
@@ -4520,7 +4474,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
@@ -4538,7 +4492,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
@@ -4556,7 +4510,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
@@ -4574,7 +4528,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
@@ -4592,7 +4546,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="41"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="2" t="s">
         <v>101</v>
       </c>
@@ -4610,7 +4564,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="41"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="2" t="s">
         <v>102</v>
       </c>
@@ -4628,7 +4582,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="41"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="2" t="s">
         <v>103</v>
       </c>
@@ -4646,7 +4600,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
@@ -4664,7 +4618,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
@@ -4682,7 +4636,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="41"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4696,11 +4650,11 @@
         <v>281</v>
       </c>
       <c r="F106" s="1">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="41"/>
+      <c r="A107" s="39"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4718,7 +4672,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="41"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4736,7 +4690,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="41"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4754,7 +4708,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="41"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4772,7 +4726,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="41" t="s">
+      <c r="A111" s="39" t="s">
         <v>211</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -4792,7 +4746,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="41"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4810,7 +4764,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="41"/>
+      <c r="A113" s="39"/>
       <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4828,7 +4782,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="41"/>
+      <c r="A114" s="39"/>
       <c r="B114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4846,7 +4800,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="41"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4864,7 +4818,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="41"/>
+      <c r="A116" s="39"/>
       <c r="B116" s="2" t="s">
         <v>116</v>
       </c>
@@ -4882,7 +4836,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="41"/>
+      <c r="A117" s="39"/>
       <c r="B117" s="2" t="s">
         <v>117</v>
       </c>
@@ -4900,7 +4854,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="41"/>
+      <c r="A118" s="39"/>
       <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
@@ -4918,7 +4872,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="41"/>
+      <c r="A119" s="39"/>
       <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
@@ -4936,7 +4890,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="41"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="2" t="s">
         <v>120</v>
       </c>
@@ -4954,7 +4908,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="41"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
@@ -4972,7 +4926,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="41"/>
+      <c r="A122" s="39"/>
       <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4990,7 +4944,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="41"/>
+      <c r="A123" s="39"/>
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
@@ -5008,7 +4962,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="41"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
@@ -5026,7 +4980,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="41"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
@@ -5044,7 +4998,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="41"/>
+      <c r="A126" s="39"/>
       <c r="B126" s="2" t="s">
         <v>127</v>
       </c>
@@ -5062,7 +5016,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="41"/>
+      <c r="A127" s="39"/>
       <c r="B127" s="2" t="s">
         <v>128</v>
       </c>
@@ -5080,7 +5034,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="41"/>
+      <c r="A128" s="39"/>
       <c r="B128" s="2" t="s">
         <v>129</v>
       </c>
@@ -5098,7 +5052,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="41"/>
+      <c r="A129" s="39"/>
       <c r="B129" s="2" t="s">
         <v>130</v>
       </c>
@@ -5116,7 +5070,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="41"/>
+      <c r="A130" s="39"/>
       <c r="B130" s="2" t="s">
         <v>131</v>
       </c>
@@ -5134,7 +5088,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="41"/>
+      <c r="A131" s="39"/>
       <c r="B131" s="2" t="s">
         <v>132</v>
       </c>
@@ -5152,7 +5106,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="41"/>
+      <c r="A132" s="39"/>
       <c r="B132" s="2" t="s">
         <v>133</v>
       </c>
@@ -5170,7 +5124,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="41"/>
+      <c r="A133" s="39"/>
       <c r="B133" s="2" t="s">
         <v>134</v>
       </c>
@@ -5188,7 +5142,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="41"/>
+      <c r="A134" s="39"/>
       <c r="B134" s="2" t="s">
         <v>135</v>
       </c>
@@ -5206,7 +5160,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="41"/>
+      <c r="A135" s="39"/>
       <c r="B135" s="2" t="s">
         <v>126</v>
       </c>
@@ -5224,7 +5178,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="41"/>
+      <c r="A136" s="39"/>
       <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
@@ -5242,7 +5196,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="41"/>
+      <c r="A137" s="39"/>
       <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
@@ -5260,7 +5214,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="41"/>
+      <c r="A138" s="39"/>
       <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
@@ -5278,7 +5232,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="41"/>
+      <c r="A139" s="39"/>
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
@@ -5296,7 +5250,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="41"/>
+      <c r="A140" s="39"/>
       <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
@@ -5314,7 +5268,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="41"/>
+      <c r="A141" s="39"/>
       <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
@@ -5332,7 +5286,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="41"/>
+      <c r="A142" s="39"/>
       <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
@@ -5350,7 +5304,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="41"/>
+      <c r="A143" s="39"/>
       <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
@@ -5368,7 +5322,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="41"/>
+      <c r="A144" s="39"/>
       <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
@@ -5386,7 +5340,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="41"/>
+      <c r="A145" s="39"/>
       <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
@@ -5404,7 +5358,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="41"/>
+      <c r="A146" s="39"/>
       <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
@@ -5422,7 +5376,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="41"/>
+      <c r="A147" s="39"/>
       <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
@@ -5440,7 +5394,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="41"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
@@ -5458,7 +5412,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="41"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
@@ -5476,7 +5430,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="41"/>
+      <c r="A150" s="39"/>
       <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
@@ -5494,7 +5448,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="41"/>
+      <c r="A151" s="39"/>
       <c r="B151" s="2" t="s">
         <v>151</v>
       </c>
@@ -5512,7 +5466,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="41"/>
+      <c r="A152" s="39"/>
       <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
@@ -5530,7 +5484,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="41"/>
+      <c r="A153" s="39"/>
       <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
@@ -5548,7 +5502,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="41"/>
+      <c r="A154" s="39"/>
       <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
@@ -5566,7 +5520,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="41"/>
+      <c r="A155" s="39"/>
       <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
@@ -5584,7 +5538,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="41"/>
+      <c r="A156" s="39"/>
       <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
@@ -5602,7 +5556,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="41"/>
+      <c r="A157" s="39"/>
       <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
@@ -5620,7 +5574,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="41"/>
+      <c r="A158" s="39"/>
       <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
@@ -5638,7 +5592,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="41"/>
+      <c r="A159" s="39"/>
       <c r="B159" s="2" t="s">
         <v>159</v>
       </c>
@@ -5656,7 +5610,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="41"/>
+      <c r="A160" s="39"/>
       <c r="B160" s="2" t="s">
         <v>160</v>
       </c>
@@ -5674,7 +5628,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="41"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
@@ -5692,7 +5646,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="41"/>
+      <c r="A162" s="39"/>
       <c r="B162" s="2" t="s">
         <v>162</v>
       </c>
@@ -5710,7 +5664,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="41"/>
+      <c r="A163" s="39"/>
       <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
@@ -5728,7 +5682,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="41"/>
+      <c r="A164" s="39"/>
       <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
@@ -5746,7 +5700,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="41"/>
+      <c r="A165" s="39"/>
       <c r="B165" s="2" t="s">
         <v>165</v>
       </c>
@@ -5764,7 +5718,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="41"/>
+      <c r="A166" s="39"/>
       <c r="B166" s="2" t="s">
         <v>166</v>
       </c>
@@ -5782,7 +5736,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="41"/>
+      <c r="A167" s="39"/>
       <c r="B167" s="2" t="s">
         <v>167</v>
       </c>
@@ -5800,7 +5754,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="41"/>
+      <c r="A168" s="39"/>
       <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
@@ -5818,7 +5772,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="41"/>
+      <c r="A169" s="39"/>
       <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
@@ -5836,7 +5790,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="41"/>
+      <c r="A170" s="39"/>
       <c r="B170" s="2" t="s">
         <v>170</v>
       </c>
@@ -5854,7 +5808,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="41"/>
+      <c r="A171" s="39"/>
       <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
@@ -5872,7 +5826,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="41" t="s">
+      <c r="A172" s="39" t="s">
         <v>449</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -5892,7 +5846,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="41"/>
+      <c r="A173" s="39"/>
       <c r="B173" s="2" t="s">
         <v>451</v>
       </c>
@@ -5910,7 +5864,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="41"/>
+      <c r="A174" s="39"/>
       <c r="B174" s="2" t="s">
         <v>452</v>
       </c>
@@ -5928,7 +5882,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="41" t="s">
+      <c r="A175" s="39" t="s">
         <v>212</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -5948,7 +5902,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="41"/>
+      <c r="A176" s="39"/>
       <c r="B176" s="2" t="s">
         <v>173</v>
       </c>
@@ -5966,7 +5920,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="41"/>
+      <c r="A177" s="39"/>
       <c r="B177" s="2" t="s">
         <v>174</v>
       </c>
@@ -5984,7 +5938,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="41"/>
+      <c r="A178" s="39"/>
       <c r="B178" s="2" t="s">
         <v>175</v>
       </c>
@@ -6002,7 +5956,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="41"/>
+      <c r="A179" s="39"/>
       <c r="B179" s="2" t="s">
         <v>176</v>
       </c>
@@ -6020,7 +5974,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="41"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="2" t="s">
         <v>177</v>
       </c>
@@ -6038,7 +5992,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="41"/>
+      <c r="A181" s="39"/>
       <c r="B181" s="2" t="s">
         <v>178</v>
       </c>
@@ -6056,7 +6010,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="41"/>
+      <c r="A182" s="39"/>
       <c r="B182" s="2" t="s">
         <v>179</v>
       </c>
@@ -6074,7 +6028,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="41"/>
+      <c r="A183" s="39"/>
       <c r="B183" s="2" t="s">
         <v>180</v>
       </c>
@@ -6092,7 +6046,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="41"/>
+      <c r="A184" s="39"/>
       <c r="B184" s="2" t="s">
         <v>181</v>
       </c>
@@ -6110,7 +6064,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="41"/>
+      <c r="A185" s="39"/>
       <c r="B185" s="2" t="s">
         <v>182</v>
       </c>
@@ -6128,7 +6082,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="41"/>
+      <c r="A186" s="39"/>
       <c r="B186" s="2" t="s">
         <v>183</v>
       </c>
@@ -6146,7 +6100,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="41"/>
+      <c r="A187" s="39"/>
       <c r="B187" s="2" t="s">
         <v>184</v>
       </c>
@@ -6164,7 +6118,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="41"/>
+      <c r="A188" s="39"/>
       <c r="B188" s="2" t="s">
         <v>185</v>
       </c>
@@ -6182,7 +6136,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="41"/>
+      <c r="A189" s="39"/>
       <c r="B189" s="2" t="s">
         <v>186</v>
       </c>
@@ -6200,7 +6154,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="41" t="s">
+      <c r="A190" s="39" t="s">
         <v>213</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -6220,7 +6174,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="41"/>
+      <c r="A191" s="39"/>
       <c r="B191" s="2" t="s">
         <v>188</v>
       </c>
@@ -6238,7 +6192,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="41"/>
+      <c r="A192" s="39"/>
       <c r="B192" s="2" t="s">
         <v>189</v>
       </c>
@@ -6256,7 +6210,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="41"/>
+      <c r="A193" s="39"/>
       <c r="B193" s="2" t="s">
         <v>190</v>
       </c>
@@ -6274,7 +6228,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="41"/>
+      <c r="A194" s="39"/>
       <c r="B194" s="2" t="s">
         <v>191</v>
       </c>
@@ -6292,7 +6246,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="41"/>
+      <c r="A195" s="39"/>
       <c r="B195" s="2" t="s">
         <v>192</v>
       </c>
@@ -6310,7 +6264,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="41"/>
+      <c r="A196" s="39"/>
       <c r="B196" s="2" t="s">
         <v>193</v>
       </c>
@@ -6328,7 +6282,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="41"/>
+      <c r="A197" s="39"/>
       <c r="B197" s="2" t="s">
         <v>194</v>
       </c>
@@ -6346,7 +6300,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="41" t="s">
+      <c r="A198" s="39" t="s">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -6366,7 +6320,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="41"/>
+      <c r="A199" s="39"/>
       <c r="B199" s="2" t="s">
         <v>196</v>
       </c>
@@ -6384,7 +6338,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="41"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="2" t="s">
         <v>197</v>
       </c>
@@ -6402,7 +6356,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="41"/>
+      <c r="A201" s="39"/>
       <c r="B201" s="2" t="s">
         <v>198</v>
       </c>
@@ -6420,7 +6374,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="41"/>
+      <c r="A202" s="39"/>
       <c r="B202" s="2" t="s">
         <v>199</v>
       </c>
@@ -6438,7 +6392,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="41"/>
+      <c r="A203" s="39"/>
       <c r="B203" s="2" t="s">
         <v>200</v>
       </c>
@@ -6456,7 +6410,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="41"/>
+      <c r="A204" s="39"/>
       <c r="B204" s="2" t="s">
         <v>201</v>
       </c>
@@ -6474,7 +6428,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="41"/>
+      <c r="A205" s="39"/>
       <c r="B205" s="2" t="s">
         <v>202</v>
       </c>
@@ -6492,7 +6446,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="41"/>
+      <c r="A206" s="39"/>
       <c r="B206" s="2" t="s">
         <v>203</v>
       </c>
@@ -6510,7 +6464,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="41"/>
+      <c r="A207" s="39"/>
       <c r="B207" s="2" t="s">
         <v>204</v>
       </c>
@@ -6528,7 +6482,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="41"/>
+      <c r="A208" s="39"/>
       <c r="B208" s="2" t="s">
         <v>205</v>
       </c>
@@ -6546,7 +6500,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="41"/>
+      <c r="A209" s="39"/>
       <c r="B209" s="2" t="s">
         <v>206</v>
       </c>
@@ -6582,4026 +6536,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A0F263-0FE6-4A77-A3D5-A843FD2683AE}">
-  <dimension ref="A1:F221"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="32.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="2">
-        <v>116</v>
-      </c>
-      <c r="F2" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" s="2">
-        <v>116</v>
-      </c>
-      <c r="F3" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="2">
-        <v>116</v>
-      </c>
-      <c r="F4" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" s="2">
-        <v>116</v>
-      </c>
-      <c r="F5" s="1">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="2">
-        <v>116</v>
-      </c>
-      <c r="F6" s="1">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E7" s="2">
-        <v>116</v>
-      </c>
-      <c r="F7" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="2">
-        <v>116</v>
-      </c>
-      <c r="F8" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E9" s="2">
-        <v>124</v>
-      </c>
-      <c r="F9" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="2">
-        <v>132</v>
-      </c>
-      <c r="F10" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" s="2">
-        <v>140</v>
-      </c>
-      <c r="F11" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E12" s="2">
-        <v>150</v>
-      </c>
-      <c r="F12" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E13" s="2">
-        <v>165</v>
-      </c>
-      <c r="F13" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="2">
-        <v>173</v>
-      </c>
-      <c r="F14" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="2">
-        <v>183</v>
-      </c>
-      <c r="F15" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="2">
-        <v>193</v>
-      </c>
-      <c r="F16" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E17" s="2">
-        <v>199</v>
-      </c>
-      <c r="F17" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E18" s="2">
-        <v>205</v>
-      </c>
-      <c r="F18" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" s="2">
-        <v>211</v>
-      </c>
-      <c r="F19" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E20" s="2">
-        <v>217</v>
-      </c>
-      <c r="F20" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E21" s="2">
-        <v>217</v>
-      </c>
-      <c r="F21" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="2">
-        <v>217</v>
-      </c>
-      <c r="F22" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" s="2">
-        <v>217</v>
-      </c>
-      <c r="F23" s="1">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="2">
-        <v>217</v>
-      </c>
-      <c r="F24" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="2">
-        <v>209</v>
-      </c>
-      <c r="F25" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E26" s="2">
-        <v>197</v>
-      </c>
-      <c r="F26" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E27" s="2">
-        <v>185</v>
-      </c>
-      <c r="F27" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E28" s="2">
-        <v>168</v>
-      </c>
-      <c r="F28" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E29" s="2">
-        <v>158</v>
-      </c>
-      <c r="F29" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E30" s="2">
-        <v>149</v>
-      </c>
-      <c r="F30" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E31" s="2">
-        <v>140</v>
-      </c>
-      <c r="F31" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E32" s="2">
-        <v>133</v>
-      </c>
-      <c r="F32" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E33" s="2">
-        <v>126</v>
-      </c>
-      <c r="F33" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E34" s="2">
-        <v>106</v>
-      </c>
-      <c r="F34" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E35" s="2">
-        <v>96</v>
-      </c>
-      <c r="F35" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E36" s="2">
-        <v>86</v>
-      </c>
-      <c r="F36" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E37" s="2">
-        <v>76</v>
-      </c>
-      <c r="F37" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E38" s="2">
-        <v>66</v>
-      </c>
-      <c r="F38" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E39" s="2">
-        <v>56</v>
-      </c>
-      <c r="F39" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E40" s="2">
-        <v>28</v>
-      </c>
-      <c r="F40" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E41" s="2">
-        <v>28</v>
-      </c>
-      <c r="F41" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E42" s="39">
-        <v>36</v>
-      </c>
-      <c r="F42" s="40">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E43" s="2">
-        <v>36</v>
-      </c>
-      <c r="F43" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E44" s="2">
-        <v>46</v>
-      </c>
-      <c r="F44" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E45" s="2">
-        <v>56</v>
-      </c>
-      <c r="F45" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E46" s="2">
-        <v>66</v>
-      </c>
-      <c r="F46" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E47" s="2">
-        <v>76</v>
-      </c>
-      <c r="F47" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E48" s="2">
-        <v>86</v>
-      </c>
-      <c r="F48" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E49" s="2">
-        <v>96</v>
-      </c>
-      <c r="F49" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E50" s="2">
-        <v>106</v>
-      </c>
-      <c r="F50" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E51" s="2">
-        <v>116</v>
-      </c>
-      <c r="F51" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E52" s="2">
-        <v>124</v>
-      </c>
-      <c r="F52" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E53" s="2">
-        <v>132</v>
-      </c>
-      <c r="F53" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
-      <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E54" s="2">
-        <v>140</v>
-      </c>
-      <c r="F54" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
-      <c r="B55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E55" s="2">
-        <v>140</v>
-      </c>
-      <c r="F55" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E56" s="2">
-        <v>140</v>
-      </c>
-      <c r="F56" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E57" s="2">
-        <v>197</v>
-      </c>
-      <c r="F57" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E58" s="2">
-        <v>207</v>
-      </c>
-      <c r="F58" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
-      <c r="B59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E59" s="2">
-        <v>217</v>
-      </c>
-      <c r="F59" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
-      <c r="B60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E60" s="2">
-        <v>227</v>
-      </c>
-      <c r="F60" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
-      <c r="B61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E61" s="2">
-        <v>237</v>
-      </c>
-      <c r="F61" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
-      <c r="B62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E62" s="2">
-        <v>245</v>
-      </c>
-      <c r="F62" s="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="E63" s="2">
-        <v>253</v>
-      </c>
-      <c r="F63" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
-      <c r="B64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E64" s="2">
-        <v>261</v>
-      </c>
-      <c r="F64" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E65" s="2">
-        <v>269</v>
-      </c>
-      <c r="F65" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E66" s="2">
-        <v>277</v>
-      </c>
-      <c r="F66" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
-      <c r="B67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E67" s="2">
-        <v>277</v>
-      </c>
-      <c r="F67" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E68" s="2">
-        <v>277</v>
-      </c>
-      <c r="F68" s="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E69" s="2">
-        <v>277</v>
-      </c>
-      <c r="F69" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E70" s="2">
-        <v>277</v>
-      </c>
-      <c r="F70" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E71" s="2">
-        <v>277</v>
-      </c>
-      <c r="F71" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E72" s="2">
-        <v>277</v>
-      </c>
-      <c r="F72" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
-      <c r="B73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E73" s="2">
-        <v>277</v>
-      </c>
-      <c r="F73" s="1">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E74" s="2">
-        <v>277</v>
-      </c>
-      <c r="F74" s="1">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
-      <c r="B75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E75" s="2">
-        <v>277</v>
-      </c>
-      <c r="F75" s="1">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
-      <c r="B76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="E76" s="2">
-        <v>277</v>
-      </c>
-      <c r="F76" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D77" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E77" s="39">
-        <v>275</v>
-      </c>
-      <c r="F77" s="40">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
-      <c r="B78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E78" s="2">
-        <v>275</v>
-      </c>
-      <c r="F78" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
-      <c r="B79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E79" s="2">
-        <v>268</v>
-      </c>
-      <c r="F79" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
-      <c r="B80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E80" s="2">
-        <v>261</v>
-      </c>
-      <c r="F80" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E81" s="2">
-        <v>112</v>
-      </c>
-      <c r="F81" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
-      <c r="B82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E82" s="2">
-        <v>104</v>
-      </c>
-      <c r="F82" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
-      <c r="B83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E83" s="2">
-        <v>96</v>
-      </c>
-      <c r="F83" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E84" s="2">
-        <v>88</v>
-      </c>
-      <c r="F84" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
-      <c r="B85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E85" s="2">
-        <v>80</v>
-      </c>
-      <c r="F85" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E86" s="2">
-        <v>80</v>
-      </c>
-      <c r="F86" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
-      <c r="B87" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D87" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E87" s="39">
-        <v>88</v>
-      </c>
-      <c r="F87" s="40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
-      <c r="B88" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E88" s="2">
-        <v>88</v>
-      </c>
-      <c r="F88" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
-      <c r="B89" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E89" s="2">
-        <v>98</v>
-      </c>
-      <c r="F89" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
-      <c r="B90" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E90" s="2">
-        <v>108</v>
-      </c>
-      <c r="F90" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
-      <c r="B91" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E91" s="2">
-        <v>118</v>
-      </c>
-      <c r="F91" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
-      <c r="B92" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E92" s="2">
-        <v>128</v>
-      </c>
-      <c r="F92" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
-      <c r="B93" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E93" s="2">
-        <v>137</v>
-      </c>
-      <c r="F93" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E94" s="2">
-        <v>146</v>
-      </c>
-      <c r="F94" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
-      <c r="B95" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E95" s="2">
-        <v>160</v>
-      </c>
-      <c r="F95" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
-      <c r="B96" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E96" s="2">
-        <v>169</v>
-      </c>
-      <c r="F96" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
-      <c r="B97" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E97" s="2">
-        <v>183</v>
-      </c>
-      <c r="F97" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
-      <c r="B98" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E98" s="2">
-        <v>192</v>
-      </c>
-      <c r="F98" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
-      <c r="B99" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E99" s="2">
-        <v>201</v>
-      </c>
-      <c r="F99" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
-      <c r="B100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E100" s="2">
-        <v>210</v>
-      </c>
-      <c r="F100" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="41"/>
-      <c r="B101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E101" s="2">
-        <v>219</v>
-      </c>
-      <c r="F101" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="41"/>
-      <c r="B102" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E102" s="2">
-        <v>228</v>
-      </c>
-      <c r="F102" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="41"/>
-      <c r="B103" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E103" s="2">
-        <v>237</v>
-      </c>
-      <c r="F103" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
-      <c r="B104" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E104" s="2">
-        <v>245</v>
-      </c>
-      <c r="F104" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="41"/>
-      <c r="B105" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E105" s="2">
-        <v>253</v>
-      </c>
-      <c r="F105" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="41"/>
-      <c r="B106" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E106" s="2">
-        <v>260</v>
-      </c>
-      <c r="F106" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="41"/>
-      <c r="B107" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E107" s="2">
-        <v>267</v>
-      </c>
-      <c r="F107" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="41"/>
-      <c r="B108" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E108" s="2">
-        <v>274</v>
-      </c>
-      <c r="F108" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="41"/>
-      <c r="B109" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="E109" s="2">
-        <v>281</v>
-      </c>
-      <c r="F109" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="41"/>
-      <c r="B110" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E110" s="2">
-        <v>288</v>
-      </c>
-      <c r="F110" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="41"/>
-      <c r="B111" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E111" s="2">
-        <v>295</v>
-      </c>
-      <c r="F111" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="41"/>
-      <c r="B112" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="C112" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="D112" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="E112" s="39"/>
-      <c r="F112" s="40"/>
-    </row>
-    <row r="113" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="41"/>
-      <c r="B113" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="C113" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="D113" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E113" s="39">
-        <v>118</v>
-      </c>
-      <c r="F113" s="40">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="41"/>
-      <c r="B114" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C114" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D114" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E114" s="39">
-        <v>116</v>
-      </c>
-      <c r="F114" s="40">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="41"/>
-      <c r="B115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E115" s="2">
-        <v>116</v>
-      </c>
-      <c r="F115" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="41"/>
-      <c r="B116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E116" s="2">
-        <v>116</v>
-      </c>
-      <c r="F116" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E117" s="2">
-        <v>224</v>
-      </c>
-      <c r="F117" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="41"/>
-      <c r="B118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E118" s="2">
-        <v>214</v>
-      </c>
-      <c r="F118" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="41"/>
-      <c r="B119" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E119" s="2">
-        <v>208</v>
-      </c>
-      <c r="F119" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="41"/>
-      <c r="B120" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="E120" s="2">
-        <v>202</v>
-      </c>
-      <c r="F120" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="41"/>
-      <c r="B121" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E121" s="2">
-        <v>196</v>
-      </c>
-      <c r="F121" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="41"/>
-      <c r="B122" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E122" s="2">
-        <v>190</v>
-      </c>
-      <c r="F122" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="41"/>
-      <c r="B123" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E123" s="2">
-        <v>184</v>
-      </c>
-      <c r="F123" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="41"/>
-      <c r="B124" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E124" s="2">
-        <v>178</v>
-      </c>
-      <c r="F124" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="41"/>
-      <c r="B125" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E125" s="2">
-        <v>178</v>
-      </c>
-      <c r="F125" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="41"/>
-      <c r="B126" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E126" s="2">
-        <v>178</v>
-      </c>
-      <c r="F126" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="41"/>
-      <c r="B127" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E127" s="2">
-        <v>178</v>
-      </c>
-      <c r="F127" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="41"/>
-      <c r="B128" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E128" s="2">
-        <v>178</v>
-      </c>
-      <c r="F128" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="41"/>
-      <c r="B129" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E129" s="2">
-        <v>178</v>
-      </c>
-      <c r="F129" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="41"/>
-      <c r="B130" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="E130" s="2">
-        <v>178</v>
-      </c>
-      <c r="F130" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="41"/>
-      <c r="B131" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E131" s="2">
-        <v>178</v>
-      </c>
-      <c r="F131" s="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="41"/>
-      <c r="B132" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E132" s="2">
-        <v>178</v>
-      </c>
-      <c r="F132" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="41"/>
-      <c r="B133" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E133" s="2">
-        <v>178</v>
-      </c>
-      <c r="F133" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="41"/>
-      <c r="B134" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="E134" s="2">
-        <v>178</v>
-      </c>
-      <c r="F134" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="41"/>
-      <c r="B135" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="E135" s="2">
-        <v>178</v>
-      </c>
-      <c r="F135" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="41"/>
-      <c r="B136" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E136" s="2">
-        <v>178</v>
-      </c>
-      <c r="F136" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="41"/>
-      <c r="B137" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E137" s="2">
-        <v>178</v>
-      </c>
-      <c r="F137" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="41"/>
-      <c r="B138" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="E138" s="2">
-        <v>178</v>
-      </c>
-      <c r="F138" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="41"/>
-      <c r="B139" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E139" s="2">
-        <v>178</v>
-      </c>
-      <c r="F139" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="41"/>
-      <c r="B140" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E140" s="2">
-        <v>178</v>
-      </c>
-      <c r="F140" s="1">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="41"/>
-      <c r="B141" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E141" s="2">
-        <v>178</v>
-      </c>
-      <c r="F141" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="41"/>
-      <c r="B142" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E142" s="2">
-        <v>188</v>
-      </c>
-      <c r="F142" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="41"/>
-      <c r="B143" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E143" s="2">
-        <v>199</v>
-      </c>
-      <c r="F143" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="41"/>
-      <c r="B144" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E144" s="2">
-        <v>208</v>
-      </c>
-      <c r="F144" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="41"/>
-      <c r="B145" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E145" s="2">
-        <v>217</v>
-      </c>
-      <c r="F145" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="41"/>
-      <c r="B146" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E146" s="2">
-        <v>226</v>
-      </c>
-      <c r="F146" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="41"/>
-      <c r="B147" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E147" s="2">
-        <v>231</v>
-      </c>
-      <c r="F147" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="41"/>
-      <c r="B148" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="E148" s="2">
-        <v>236</v>
-      </c>
-      <c r="F148" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="41"/>
-      <c r="B149" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E149" s="2">
-        <v>241</v>
-      </c>
-      <c r="F149" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="41"/>
-      <c r="B150" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E150" s="2">
-        <v>246</v>
-      </c>
-      <c r="F150" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="41"/>
-      <c r="B151" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E151" s="2">
-        <v>251</v>
-      </c>
-      <c r="F151" s="1">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="41"/>
-      <c r="B152" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E152" s="2">
-        <v>256</v>
-      </c>
-      <c r="F152" s="1">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="41"/>
-      <c r="B153" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="E153" s="2">
-        <v>256</v>
-      </c>
-      <c r="F153" s="1">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="41"/>
-      <c r="B154" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E154" s="2">
-        <v>256</v>
-      </c>
-      <c r="F154" s="1">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="41"/>
-      <c r="B155" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E155" s="2">
-        <v>256</v>
-      </c>
-      <c r="F155" s="1">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="41"/>
-      <c r="B156" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E156" s="2">
-        <v>256</v>
-      </c>
-      <c r="F156" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="41"/>
-      <c r="B157" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E157" s="2">
-        <v>256</v>
-      </c>
-      <c r="F157" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="41"/>
-      <c r="B158" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="E158" s="2">
-        <v>256</v>
-      </c>
-      <c r="F158" s="1">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="41"/>
-      <c r="B159" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E159" s="2">
-        <v>256</v>
-      </c>
-      <c r="F159" s="1">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="41"/>
-      <c r="B160" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E160" s="2">
-        <v>256</v>
-      </c>
-      <c r="F160" s="1">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="41"/>
-      <c r="B161" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E161" s="2">
-        <v>256</v>
-      </c>
-      <c r="F161" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="41"/>
-      <c r="B162" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="E162" s="2">
-        <v>256</v>
-      </c>
-      <c r="F162" s="1">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="41"/>
-      <c r="B163" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E163" s="2">
-        <v>256</v>
-      </c>
-      <c r="F163" s="1">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="41"/>
-      <c r="B164" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C164" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D164" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E164" s="39">
-        <v>264</v>
-      </c>
-      <c r="F164" s="40">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="41"/>
-      <c r="B165" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E165" s="2">
-        <v>264</v>
-      </c>
-      <c r="F165" s="1">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="41"/>
-      <c r="B166" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="C166" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="D166" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="E166" s="39"/>
-      <c r="F166" s="40"/>
-    </row>
-    <row r="167" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="41"/>
-      <c r="B167" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="E167" s="2">
-        <v>168</v>
-      </c>
-      <c r="F167" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="41"/>
-      <c r="B168" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="C168" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="D168" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E168" s="39">
-        <v>178</v>
-      </c>
-      <c r="F168" s="40">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="41"/>
-      <c r="B169" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E169" s="2">
-        <v>178</v>
-      </c>
-      <c r="F169" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="41"/>
-      <c r="B170" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E170" s="2">
-        <v>178</v>
-      </c>
-      <c r="F170" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="41"/>
-      <c r="B171" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E171" s="2">
-        <v>178</v>
-      </c>
-      <c r="F171" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="41"/>
-      <c r="B172" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E172" s="2">
-        <v>172</v>
-      </c>
-      <c r="F172" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="41"/>
-      <c r="B173" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="E173" s="2">
-        <v>165</v>
-      </c>
-      <c r="F173" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="41"/>
-      <c r="B174" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E174" s="2">
-        <v>158</v>
-      </c>
-      <c r="F174" s="1">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="41"/>
-      <c r="B175" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E175" s="2">
-        <v>148</v>
-      </c>
-      <c r="F175" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="41"/>
-      <c r="B176" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E176" s="2">
-        <v>138</v>
-      </c>
-      <c r="F176" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="41"/>
-      <c r="B177" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E177" s="2">
-        <v>128</v>
-      </c>
-      <c r="F177" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="41"/>
-      <c r="B178" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="E178" s="2">
-        <v>118</v>
-      </c>
-      <c r="F178" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="41"/>
-      <c r="B179" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E179" s="2">
-        <v>109</v>
-      </c>
-      <c r="F179" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="41"/>
-      <c r="B180" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E180" s="2">
-        <v>100</v>
-      </c>
-      <c r="F180" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E181" s="2">
-        <v>148</v>
-      </c>
-      <c r="F181" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="41"/>
-      <c r="B182" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E182" s="2">
-        <v>143</v>
-      </c>
-      <c r="F182" s="1">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="41"/>
-      <c r="B183" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E183" s="2">
-        <v>138</v>
-      </c>
-      <c r="F183" s="1">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E184" s="2">
-        <v>78</v>
-      </c>
-      <c r="F184" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="41"/>
-      <c r="B185" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E185" s="2">
-        <v>88</v>
-      </c>
-      <c r="F185" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="41"/>
-      <c r="B186" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E186" s="2">
-        <v>104</v>
-      </c>
-      <c r="F186" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="41"/>
-      <c r="B187" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E187" s="2">
-        <v>119</v>
-      </c>
-      <c r="F187" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="41"/>
-      <c r="B188" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E188" s="2">
-        <v>135</v>
-      </c>
-      <c r="F188" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="41"/>
-      <c r="B189" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C189" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D189" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E189" s="39">
-        <v>155</v>
-      </c>
-      <c r="F189" s="40">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="41"/>
-      <c r="B190" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E190" s="2">
-        <v>155</v>
-      </c>
-      <c r="F190" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="41"/>
-      <c r="B191" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E191" s="2">
-        <v>155</v>
-      </c>
-      <c r="F191" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="41"/>
-      <c r="B192" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E192" s="2">
-        <v>155</v>
-      </c>
-      <c r="F192" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="41"/>
-      <c r="B193" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E193" s="2">
-        <v>155</v>
-      </c>
-      <c r="F193" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="41"/>
-      <c r="B194" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E194" s="2">
-        <v>155</v>
-      </c>
-      <c r="F194" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="41"/>
-      <c r="B195" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E195" s="2">
-        <v>155</v>
-      </c>
-      <c r="F195" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="41"/>
-      <c r="B196" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E196" s="2">
-        <v>155</v>
-      </c>
-      <c r="F196" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="41"/>
-      <c r="B197" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E197" s="2">
-        <v>155</v>
-      </c>
-      <c r="F197" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="41"/>
-      <c r="B198" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E198" s="2">
-        <v>155</v>
-      </c>
-      <c r="F198" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="41"/>
-      <c r="B199" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E199" s="2">
-        <v>155</v>
-      </c>
-      <c r="F199" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E200" s="2">
-        <v>324</v>
-      </c>
-      <c r="F200" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="41"/>
-      <c r="B201" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C201" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D201" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E201" s="39">
-        <v>313</v>
-      </c>
-      <c r="F201" s="40">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="41"/>
-      <c r="B202" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E202" s="2">
-        <v>313</v>
-      </c>
-      <c r="F202" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="41"/>
-      <c r="B203" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E203" s="2">
-        <v>297</v>
-      </c>
-      <c r="F203" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="41"/>
-      <c r="B204" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E204" s="2">
-        <v>281</v>
-      </c>
-      <c r="F204" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="41"/>
-      <c r="B205" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E205" s="2">
-        <v>233</v>
-      </c>
-      <c r="F205" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="41"/>
-      <c r="B206" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E206" s="2">
-        <v>212</v>
-      </c>
-      <c r="F206" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="41"/>
-      <c r="B207" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E207" s="2">
-        <v>197</v>
-      </c>
-      <c r="F207" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="41"/>
-      <c r="B208" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E208" s="2">
-        <v>183</v>
-      </c>
-      <c r="F208" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E209" s="2">
-        <v>183</v>
-      </c>
-      <c r="F209" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="41"/>
-      <c r="B210" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E210" s="2">
-        <v>183</v>
-      </c>
-      <c r="F210" s="1">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="41"/>
-      <c r="B211" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E211" s="2">
-        <v>183</v>
-      </c>
-      <c r="F211" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="41"/>
-      <c r="B212" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E212" s="2">
-        <v>183</v>
-      </c>
-      <c r="F212" s="1">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="41"/>
-      <c r="B213" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E213" s="2">
-        <v>191</v>
-      </c>
-      <c r="F213" s="1">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="41"/>
-      <c r="B214" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E214" s="2">
-        <v>198</v>
-      </c>
-      <c r="F214" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="41"/>
-      <c r="B215" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E215" s="2">
-        <v>191</v>
-      </c>
-      <c r="F215" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="41"/>
-      <c r="B216" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E216" s="2">
-        <v>182</v>
-      </c>
-      <c r="F216" s="1">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="41"/>
-      <c r="B217" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E217" s="2">
-        <v>168</v>
-      </c>
-      <c r="F217" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="41"/>
-      <c r="B218" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E218" s="2">
-        <v>175</v>
-      </c>
-      <c r="F218" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="41"/>
-      <c r="B219" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E219" s="2">
-        <v>161</v>
-      </c>
-      <c r="F219" s="1">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="41"/>
-      <c r="B220" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="C220" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="D220" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E220" s="39">
-        <v>118</v>
-      </c>
-      <c r="F220" s="40">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="41"/>
-      <c r="B221" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E221" s="2">
-        <v>118</v>
-      </c>
-      <c r="F221" s="1">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:A39"/>
-    <mergeCell ref="A40:A56"/>
-    <mergeCell ref="A57:A80"/>
-    <mergeCell ref="A81:A116"/>
-    <mergeCell ref="A117:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A199"/>
-    <mergeCell ref="A200:A208"/>
-    <mergeCell ref="A209:A221"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAA2FF1-CCDE-4BC9-BBC6-84B8AE5E59CA}">
   <dimension ref="A1:J46"/>
   <sheetViews>
@@ -10644,7 +6578,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="32"/>
@@ -10667,7 +6601,7 @@
       <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="33"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -10680,7 +6614,7 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10693,7 +6627,7 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="33"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -10706,7 +6640,7 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="34"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -10719,7 +6653,7 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -10739,7 +6673,7 @@
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="33"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -10751,7 +6685,7 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="33"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -10763,7 +6697,7 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="33"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -10775,7 +6709,7 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="34"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -10787,7 +6721,7 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>209</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -10807,7 +6741,7 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -10819,7 +6753,7 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="33"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -10831,7 +6765,7 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="33"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -10843,7 +6777,7 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -10855,7 +6789,7 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>210</v>
       </c>
       <c r="B17" s="32"/>
@@ -10875,7 +6809,7 @@
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="33"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -10887,7 +6821,7 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="33"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -10899,7 +6833,7 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="33"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -10911,7 +6845,7 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -10923,7 +6857,7 @@
       <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="40" t="s">
         <v>211</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -10949,7 +6883,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="33" t="s">
         <v>626</v>
       </c>
@@ -10962,7 +6896,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="33" t="s">
         <v>627</v>
       </c>
@@ -10974,7 +6908,7 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="33" t="s">
         <v>628</v>
       </c>
@@ -10987,7 +6921,7 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="34" t="s">
         <v>629</v>
       </c>
@@ -11001,7 +6935,7 @@
       <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>449</v>
       </c>
       <c r="B27" s="38"/>
@@ -11017,7 +6951,7 @@
       <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -11029,7 +6963,7 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -11041,7 +6975,7 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="33"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -11053,7 +6987,7 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -11065,7 +6999,7 @@
       <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="40" t="s">
         <v>212</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -11085,7 +7019,7 @@
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -11097,7 +7031,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="33"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -11109,7 +7043,7 @@
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="33"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -11121,7 +7055,7 @@
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="34"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -11133,7 +7067,7 @@
       <c r="J36" s="31"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="40" t="s">
         <v>213</v>
       </c>
       <c r="B37" s="38" t="s">
@@ -11153,22 +7087,22 @@
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="36"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="36"/>
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="36"/>
       <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="37"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -11180,7 +7114,7 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="40" t="s">
         <v>214</v>
       </c>
       <c r="B42" s="38"/>
@@ -11196,7 +7130,7 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="36"/>
       <c r="F43" t="s">
         <v>632</v>
@@ -11204,17 +7138,17 @@
       <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="36"/>
       <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="36"/>
       <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="37"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -11243,7 +7177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BD90CC-09F2-46A0-A203-5B8BE87044B8}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -11307,7 +7241,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -11355,7 +7289,7 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="9" t="s">
         <v>618</v>
       </c>
@@ -11413,7 +7347,7 @@
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="9" t="s">
         <v>620</v>
       </c>
@@ -11471,7 +7405,7 @@
       <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -11513,7 +7447,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="9" t="s">
         <v>618</v>
       </c>
@@ -11549,7 +7483,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="9" t="s">
         <v>620</v>
       </c>
@@ -11597,7 +7531,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>449</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -11625,7 +7559,7 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="9" t="s">
         <v>618</v>
       </c>
@@ -11641,7 +7575,7 @@
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>620</v>
       </c>
@@ -11667,7 +7601,7 @@
       <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
         <v>213</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -11705,7 +7639,7 @@
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>618</v>
       </c>
@@ -11744,7 +7678,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>620</v>
       </c>
@@ -11788,7 +7722,7 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -11834,7 +7768,7 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="9" t="s">
         <v>618</v>
       </c>
@@ -11877,7 +7811,7 @@
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="10" t="s">
         <v>620</v>
       </c>
@@ -11940,7 +7874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E650487-5FD3-4C14-90E1-8D588F0B14CD}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -11964,31 +7898,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -12042,8 +7976,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -12097,8 +8031,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -12152,8 +8086,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -12207,8 +8141,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -12262,8 +8196,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -12317,8 +8251,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -12372,8 +8306,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -12427,8 +8361,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -12482,8 +8416,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -12537,8 +8471,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -12592,8 +8526,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -12647,8 +8581,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -12702,8 +8636,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -12757,8 +8691,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -12812,8 +8746,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -12867,8 +8801,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -12922,8 +8856,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -12977,8 +8911,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -13032,8 +8966,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -13087,8 +9021,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -13142,8 +9076,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -13197,8 +9131,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -13252,8 +9186,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -13307,8 +9241,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -13362,8 +9296,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -13417,8 +9351,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -13472,8 +9406,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -13527,8 +9461,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -13582,8 +9516,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -13637,8 +9571,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -13692,8 +9626,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -13747,8 +9681,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -13802,8 +9736,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -13857,8 +9791,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -13912,8 +9846,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -13967,8 +9901,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -14022,8 +9956,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -14077,8 +10011,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -14132,8 +10066,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -14187,8 +10121,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -14242,8 +10176,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -14297,8 +10231,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -14352,8 +10286,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -14407,8 +10341,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -14462,8 +10396,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -14517,8 +10451,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -14572,8 +10506,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -14627,8 +10561,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -14682,8 +10616,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -14737,8 +10671,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -14792,10 +10726,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -14870,8 +10804,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -14946,8 +10880,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -15022,8 +10956,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -15098,8 +11032,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -15174,8 +11108,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -15250,8 +11184,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -15326,8 +11260,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -15402,8 +11336,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -15478,8 +11412,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -15554,8 +11488,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -15630,8 +11564,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -15706,8 +11640,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -15782,8 +11716,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -15858,8 +11792,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -15934,8 +11868,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -16010,8 +11944,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -16086,8 +12020,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -16162,8 +12096,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -16238,8 +12172,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -16314,8 +12248,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -16390,8 +12324,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -16466,8 +12400,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -16542,8 +12476,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -16618,8 +12552,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
-      <c r="B77" s="53" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -16694,8 +12628,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -16770,8 +12704,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -16846,8 +12780,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -16922,8 +12856,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -16998,8 +12932,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -17074,8 +13008,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -17150,8 +13084,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -17226,8 +13160,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -17302,8 +13236,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -17378,8 +13312,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -17454,8 +13388,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -17530,8 +13464,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -17606,8 +13540,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -17682,8 +13616,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -17758,8 +13692,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
-      <c r="B92" s="54"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -17834,8 +13768,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
-      <c r="B93" s="54"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -17910,8 +13844,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
-      <c r="B94" s="54"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -17986,8 +13920,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="54"/>
-      <c r="B95" s="54"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -18062,8 +13996,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
-      <c r="B96" s="54"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -18138,8 +14072,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -18214,8 +14148,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -18290,8 +14224,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="54"/>
-      <c r="B99" s="54"/>
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -18366,8 +14300,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
-      <c r="B100" s="51"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -18442,8 +14376,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="54"/>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -18518,8 +14452,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -18594,8 +14528,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="54"/>
-      <c r="B103" s="54"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -18670,8 +14604,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
-      <c r="B104" s="54"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -18746,8 +14680,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="54"/>
-      <c r="B105" s="54"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -18822,8 +14756,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="54"/>
-      <c r="B106" s="54"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -18898,8 +14832,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -18974,8 +14908,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -19050,8 +14984,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="54"/>
-      <c r="B109" s="54"/>
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -19126,8 +15060,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="54"/>
-      <c r="B110" s="54"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -19202,8 +15136,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="54"/>
-      <c r="B111" s="54"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -19278,8 +15212,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="54"/>
-      <c r="B112" s="54"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -19354,8 +15288,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="54"/>
-      <c r="B113" s="54"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -19430,8 +15364,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -19506,8 +15440,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="54"/>
-      <c r="B115" s="54"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -19582,8 +15516,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="54"/>
-      <c r="B116" s="54"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -19658,8 +15592,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -19734,8 +15668,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="54"/>
-      <c r="B118" s="54"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -19810,8 +15744,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
-      <c r="B119" s="54"/>
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -19886,8 +15820,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
-      <c r="B120" s="54"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -19962,8 +15896,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
-      <c r="B121" s="54"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -20038,8 +15972,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="54"/>
-      <c r="B122" s="54"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -20114,8 +16048,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -20190,8 +16124,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="51"/>
-      <c r="B124" s="51"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -20266,10 +16200,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="53" t="s">
+      <c r="B125" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -20371,8 +16305,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="54"/>
-      <c r="B126" s="54"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -20474,8 +16408,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="54"/>
-      <c r="B127" s="54"/>
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -20577,8 +16511,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
-      <c r="B128" s="54"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -20680,8 +16614,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54"/>
-      <c r="B129" s="54"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -20783,8 +16717,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="54"/>
-      <c r="B130" s="54"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -20886,8 +16820,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="54"/>
-      <c r="B131" s="54"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -20989,8 +16923,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="54"/>
-      <c r="B132" s="54"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -21092,8 +17026,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="54"/>
-      <c r="B133" s="54"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -21195,8 +17129,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="54"/>
-      <c r="B134" s="54"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -21298,8 +17232,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -21401,8 +17335,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -21504,8 +17438,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="54"/>
-      <c r="B137" s="54"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -21607,8 +17541,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -21710,8 +17644,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="54"/>
-      <c r="B139" s="54"/>
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -21813,8 +17747,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="54"/>
-      <c r="B140" s="54"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -21916,8 +17850,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="54"/>
-      <c r="B141" s="54"/>
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -22019,8 +17953,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="54"/>
-      <c r="B142" s="54"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -22122,8 +18056,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="54"/>
-      <c r="B143" s="54"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -22225,8 +18159,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="54"/>
-      <c r="B144" s="54"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -22328,8 +18262,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="54"/>
-      <c r="B145" s="54"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -22431,8 +18365,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="54"/>
-      <c r="B146" s="54"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -22534,8 +18468,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="54"/>
-      <c r="B147" s="54"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -22637,8 +18571,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="54"/>
-      <c r="B148" s="54"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -22740,8 +18674,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="54"/>
-      <c r="B149" s="54"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -22843,8 +18777,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="54"/>
-      <c r="B150" s="54"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -22946,8 +18880,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="54"/>
-      <c r="B151" s="54"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -23049,8 +18983,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="54"/>
-      <c r="B152" s="54"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -23152,8 +19086,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="54"/>
-      <c r="B153" s="54"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -23255,8 +19189,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="54"/>
-      <c r="B154" s="54"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -23358,8 +19292,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="54"/>
-      <c r="B155" s="54"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -23461,8 +19395,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="54"/>
-      <c r="B156" s="54"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -23564,8 +19498,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="54"/>
-      <c r="B157" s="51"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -23667,8 +19601,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="54"/>
-      <c r="B158" s="53" t="s">
+      <c r="A158" s="47"/>
+      <c r="B158" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -23770,8 +19704,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="54"/>
-      <c r="B159" s="54"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -23873,8 +19807,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="54"/>
-      <c r="B160" s="54"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -23976,8 +19910,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="54"/>
-      <c r="B161" s="54"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -24079,8 +20013,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="54"/>
-      <c r="B162" s="54"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -24182,8 +20116,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="54"/>
-      <c r="B163" s="54"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -24285,8 +20219,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="54"/>
-      <c r="B164" s="54"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -24388,8 +20322,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="54"/>
-      <c r="B165" s="54"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -24491,8 +20425,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="54"/>
-      <c r="B166" s="54"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -24594,8 +20528,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="54"/>
-      <c r="B167" s="54"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -24697,8 +20631,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="54"/>
-      <c r="B168" s="54"/>
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -24800,8 +20734,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="54"/>
-      <c r="B169" s="54"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -24903,8 +20837,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="54"/>
-      <c r="B170" s="54"/>
+      <c r="A170" s="47"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -25006,8 +20940,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="54"/>
-      <c r="B171" s="54"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -25109,8 +21043,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="54"/>
-      <c r="B172" s="54"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -25212,8 +21146,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="54"/>
-      <c r="B173" s="54"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -25315,8 +21249,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="54"/>
-      <c r="B174" s="54"/>
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -25418,8 +21352,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="54"/>
-      <c r="B175" s="54"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -25521,8 +21455,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="54"/>
-      <c r="B176" s="54"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="47"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -25624,8 +21558,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="54"/>
-      <c r="B177" s="54"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -25727,8 +21661,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="54"/>
-      <c r="B178" s="54"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -25830,8 +21764,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="54"/>
-      <c r="B179" s="54"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -25933,8 +21867,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="54"/>
-      <c r="B180" s="54"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -26036,8 +21970,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="54"/>
-      <c r="B181" s="54"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -26139,8 +22073,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="54"/>
-      <c r="B182" s="54"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -26242,8 +22176,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="54"/>
-      <c r="B183" s="54"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="47"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -26345,8 +22279,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="54"/>
-      <c r="B184" s="54"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -26448,8 +22382,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="54"/>
-      <c r="B185" s="54"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -26551,8 +22485,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="54"/>
-      <c r="B186" s="54"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -26654,8 +22588,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="54"/>
-      <c r="B187" s="54"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -26757,8 +22691,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="54"/>
-      <c r="B188" s="54"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -26860,8 +22794,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="54"/>
-      <c r="B189" s="54"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -26963,8 +22897,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="54"/>
-      <c r="B190" s="51"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="48"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -27066,8 +23000,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="54"/>
-      <c r="B191" s="53" t="s">
+      <c r="A191" s="47"/>
+      <c r="B191" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -27169,8 +23103,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="54"/>
-      <c r="B192" s="54"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -27304,8 +23238,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="54"/>
-      <c r="B193" s="54"/>
+      <c r="A193" s="47"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -27439,8 +23373,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="54"/>
-      <c r="B194" s="54"/>
+      <c r="A194" s="47"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -27574,8 +23508,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="54"/>
-      <c r="B195" s="54"/>
+      <c r="A195" s="47"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -27709,8 +23643,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="54"/>
-      <c r="B196" s="54"/>
+      <c r="A196" s="47"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -27844,8 +23778,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="54"/>
-      <c r="B197" s="54"/>
+      <c r="A197" s="47"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -27979,8 +23913,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="54"/>
-      <c r="B198" s="54"/>
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -28114,8 +24048,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="54"/>
-      <c r="B199" s="54"/>
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -28249,8 +24183,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="54"/>
-      <c r="B200" s="54"/>
+      <c r="A200" s="47"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -28384,8 +24318,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="54"/>
-      <c r="B201" s="54"/>
+      <c r="A201" s="47"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -28519,8 +24453,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="54"/>
-      <c r="B202" s="54"/>
+      <c r="A202" s="47"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -28654,8 +24588,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="54"/>
-      <c r="B203" s="54"/>
+      <c r="A203" s="47"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -28789,8 +24723,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="54"/>
-      <c r="B204" s="54"/>
+      <c r="A204" s="47"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -28924,8 +24858,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="54"/>
-      <c r="B205" s="54"/>
+      <c r="A205" s="47"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -29059,8 +24993,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="54"/>
-      <c r="B206" s="54"/>
+      <c r="A206" s="47"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -29194,8 +25128,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="54"/>
-      <c r="B207" s="54"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -29329,8 +25263,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="54"/>
-      <c r="B208" s="54"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -29464,8 +25398,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="54"/>
-      <c r="B209" s="54"/>
+      <c r="A209" s="47"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -29599,8 +25533,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="54"/>
-      <c r="B210" s="54"/>
+      <c r="A210" s="47"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -29734,8 +25668,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="54"/>
-      <c r="B211" s="54"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -29869,8 +25803,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="54"/>
-      <c r="B212" s="54"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -30004,8 +25938,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="54"/>
-      <c r="B213" s="54"/>
+      <c r="A213" s="47"/>
+      <c r="B213" s="47"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -30139,8 +26073,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="54"/>
-      <c r="B214" s="54"/>
+      <c r="A214" s="47"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -30274,8 +26208,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="54"/>
-      <c r="B215" s="54"/>
+      <c r="A215" s="47"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -30409,8 +26343,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="54"/>
-      <c r="B216" s="54"/>
+      <c r="A216" s="47"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -30544,8 +26478,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="54"/>
-      <c r="B217" s="54"/>
+      <c r="A217" s="47"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -30679,8 +26613,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="54"/>
-      <c r="B218" s="54"/>
+      <c r="A218" s="47"/>
+      <c r="B218" s="47"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -30814,8 +26748,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="54"/>
-      <c r="B219" s="54"/>
+      <c r="A219" s="47"/>
+      <c r="B219" s="47"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -30949,8 +26883,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="54"/>
-      <c r="B220" s="54"/>
+      <c r="A220" s="47"/>
+      <c r="B220" s="47"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -31084,8 +27018,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="54"/>
-      <c r="B221" s="54"/>
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -31219,8 +27153,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="54"/>
-      <c r="B222" s="54"/>
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -31354,8 +27288,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="51"/>
-      <c r="B223" s="51"/>
+      <c r="A223" s="48"/>
+      <c r="B223" s="48"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -31489,10 +27423,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="55" t="s">
+      <c r="A224" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="53" t="s">
+      <c r="B224" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -31554,8 +27488,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="56"/>
-      <c r="B225" s="54"/>
+      <c r="A225" s="50"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -31617,8 +27551,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="56"/>
-      <c r="B226" s="54"/>
+      <c r="A226" s="50"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -31680,8 +27614,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="56"/>
-      <c r="B227" s="54"/>
+      <c r="A227" s="50"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -31743,8 +27677,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="56"/>
-      <c r="B228" s="54"/>
+      <c r="A228" s="50"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -31806,8 +27740,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="56"/>
-      <c r="B229" s="54"/>
+      <c r="A229" s="50"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -31869,8 +27803,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="56"/>
-      <c r="B230" s="54"/>
+      <c r="A230" s="50"/>
+      <c r="B230" s="47"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -31932,8 +27866,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="56"/>
-      <c r="B231" s="54"/>
+      <c r="A231" s="50"/>
+      <c r="B231" s="47"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -31995,8 +27929,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="56"/>
-      <c r="B232" s="54"/>
+      <c r="A232" s="50"/>
+      <c r="B232" s="47"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -32058,8 +27992,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="56"/>
-      <c r="B233" s="54"/>
+      <c r="A233" s="50"/>
+      <c r="B233" s="47"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -32121,8 +28055,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="56"/>
-      <c r="B234" s="54"/>
+      <c r="A234" s="50"/>
+      <c r="B234" s="47"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -32184,8 +28118,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="56"/>
-      <c r="B235" s="54"/>
+      <c r="A235" s="50"/>
+      <c r="B235" s="47"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -32247,8 +28181,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="56"/>
-      <c r="B236" s="54"/>
+      <c r="A236" s="50"/>
+      <c r="B236" s="47"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -32310,8 +28244,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="56"/>
-      <c r="B237" s="51"/>
+      <c r="A237" s="50"/>
+      <c r="B237" s="48"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -32373,8 +28307,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="56"/>
-      <c r="B238" s="53" t="s">
+      <c r="A238" s="50"/>
+      <c r="B238" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -32419,8 +28353,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="56"/>
-      <c r="B239" s="54"/>
+      <c r="A239" s="50"/>
+      <c r="B239" s="47"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -32465,8 +28399,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="56"/>
-      <c r="B240" s="54"/>
+      <c r="A240" s="50"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -32511,8 +28445,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="56"/>
-      <c r="B241" s="54"/>
+      <c r="A241" s="50"/>
+      <c r="B241" s="47"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -32557,8 +28491,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="56"/>
-      <c r="B242" s="54"/>
+      <c r="A242" s="50"/>
+      <c r="B242" s="47"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -32603,8 +28537,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="56"/>
-      <c r="B243" s="54"/>
+      <c r="A243" s="50"/>
+      <c r="B243" s="47"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -32649,8 +28583,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="56"/>
-      <c r="B244" s="54"/>
+      <c r="A244" s="50"/>
+      <c r="B244" s="47"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -32695,8 +28629,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="56"/>
-      <c r="B245" s="54"/>
+      <c r="A245" s="50"/>
+      <c r="B245" s="47"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -32741,8 +28675,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="56"/>
-      <c r="B246" s="54"/>
+      <c r="A246" s="50"/>
+      <c r="B246" s="47"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -32787,8 +28721,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="56"/>
-      <c r="B247" s="54"/>
+      <c r="A247" s="50"/>
+      <c r="B247" s="47"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -32833,8 +28767,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="56"/>
-      <c r="B248" s="54"/>
+      <c r="A248" s="50"/>
+      <c r="B248" s="47"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -32879,8 +28813,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="56"/>
-      <c r="B249" s="54"/>
+      <c r="A249" s="50"/>
+      <c r="B249" s="47"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -32925,8 +28859,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="56"/>
-      <c r="B250" s="54"/>
+      <c r="A250" s="50"/>
+      <c r="B250" s="47"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -32971,8 +28905,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="56"/>
-      <c r="B251" s="51"/>
+      <c r="A251" s="50"/>
+      <c r="B251" s="48"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -33017,8 +28951,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="56"/>
-      <c r="B252" s="53" t="s">
+      <c r="A252" s="50"/>
+      <c r="B252" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -33063,8 +28997,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="56"/>
-      <c r="B253" s="54"/>
+      <c r="A253" s="50"/>
+      <c r="B253" s="47"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -33109,8 +29043,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="56"/>
-      <c r="B254" s="54"/>
+      <c r="A254" s="50"/>
+      <c r="B254" s="47"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -33155,8 +29089,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="56"/>
-      <c r="B255" s="54"/>
+      <c r="A255" s="50"/>
+      <c r="B255" s="47"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -33201,8 +29135,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="56"/>
-      <c r="B256" s="54"/>
+      <c r="A256" s="50"/>
+      <c r="B256" s="47"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -33247,8 +29181,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="56"/>
-      <c r="B257" s="54"/>
+      <c r="A257" s="50"/>
+      <c r="B257" s="47"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -33293,8 +29227,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="56"/>
-      <c r="B258" s="54"/>
+      <c r="A258" s="50"/>
+      <c r="B258" s="47"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -33339,8 +29273,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="56"/>
-      <c r="B259" s="54"/>
+      <c r="A259" s="50"/>
+      <c r="B259" s="47"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -33385,8 +29319,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="56"/>
-      <c r="B260" s="54"/>
+      <c r="A260" s="50"/>
+      <c r="B260" s="47"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -33431,8 +29365,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="56"/>
-      <c r="B261" s="54"/>
+      <c r="A261" s="50"/>
+      <c r="B261" s="47"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -33477,8 +29411,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="56"/>
-      <c r="B262" s="54"/>
+      <c r="A262" s="50"/>
+      <c r="B262" s="47"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -33523,8 +29457,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="56"/>
-      <c r="B263" s="54"/>
+      <c r="A263" s="50"/>
+      <c r="B263" s="47"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -33569,8 +29503,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="56"/>
-      <c r="B264" s="54"/>
+      <c r="A264" s="50"/>
+      <c r="B264" s="47"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -33615,8 +29549,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="56"/>
-      <c r="B265" s="51"/>
+      <c r="A265" s="50"/>
+      <c r="B265" s="48"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -33662,6 +29596,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -33674,11 +29613,6 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A85AC-EB80-44F4-A31F-0E3D45D2BF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B649A8B-E69B-4B84-BC21-3DF232538037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
@@ -2340,21 +2340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,7 +2349,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2724,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3201,7 +3201,7 @@
         <v>357</v>
       </c>
       <c r="E26" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" s="1">
         <v>238</v>
@@ -3219,7 +3219,7 @@
         <v>361</v>
       </c>
       <c r="E27" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F27" s="1">
         <v>238</v>
@@ -7898,31 +7898,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -7976,8 +7976,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8031,8 +8031,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8086,8 +8086,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8141,8 +8141,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8196,8 +8196,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8251,8 +8251,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8306,8 +8306,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8361,8 +8361,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8416,8 +8416,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8471,8 +8471,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8526,8 +8526,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8581,8 +8581,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8636,8 +8636,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8691,8 +8691,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8746,8 +8746,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8801,8 +8801,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8856,8 +8856,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8911,8 +8911,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -8966,8 +8966,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9021,8 +9021,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9076,8 +9076,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9131,8 +9131,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9186,8 +9186,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9241,8 +9241,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9296,8 +9296,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9351,8 +9351,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9406,8 +9406,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9461,8 +9461,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9516,8 +9516,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9571,8 +9571,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9626,8 +9626,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9681,8 +9681,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9736,8 +9736,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9791,8 +9791,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9846,8 +9846,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9901,8 +9901,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -9956,8 +9956,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10011,8 +10011,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10066,8 +10066,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10121,8 +10121,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10176,8 +10176,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10231,8 +10231,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10286,8 +10286,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10341,8 +10341,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10396,8 +10396,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10451,8 +10451,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10506,8 +10506,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10561,8 +10561,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10616,8 +10616,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10671,8 +10671,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10726,10 +10726,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10804,8 +10804,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10880,8 +10880,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -10956,8 +10956,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11032,8 +11032,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11108,8 +11108,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11184,8 +11184,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11260,8 +11260,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11336,8 +11336,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11412,8 +11412,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11488,8 +11488,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11564,8 +11564,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11640,8 +11640,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11716,8 +11716,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11792,8 +11792,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11868,8 +11868,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11944,8 +11944,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12020,8 +12020,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12096,8 +12096,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12172,8 +12172,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12248,8 +12248,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12324,8 +12324,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12400,8 +12400,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12476,8 +12476,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12552,8 +12552,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="46" t="s">
+      <c r="A77" s="52"/>
+      <c r="B77" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12628,8 +12628,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12704,8 +12704,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12780,8 +12780,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12932,8 +12932,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13008,8 +13008,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13084,8 +13084,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13160,8 +13160,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13236,8 +13236,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13312,8 +13312,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13388,8 +13388,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13464,8 +13464,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13540,8 +13540,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13616,8 +13616,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13692,8 +13692,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13768,8 +13768,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13844,8 +13844,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13920,8 +13920,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -13996,8 +13996,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14072,8 +14072,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14148,8 +14148,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14224,8 +14224,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14300,8 +14300,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14376,8 +14376,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="47"/>
-      <c r="B101" s="46" t="s">
+      <c r="A101" s="52"/>
+      <c r="B101" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14452,8 +14452,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14528,8 +14528,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14604,8 +14604,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14680,8 +14680,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14756,8 +14756,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14832,8 +14832,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14908,8 +14908,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -14984,8 +14984,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15060,8 +15060,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15136,8 +15136,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15212,8 +15212,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15288,8 +15288,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15364,8 +15364,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15440,8 +15440,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15516,8 +15516,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15592,8 +15592,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15668,8 +15668,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15744,8 +15744,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15820,8 +15820,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15896,8 +15896,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -15972,8 +15972,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16048,8 +16048,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16124,8 +16124,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
+      <c r="A124" s="49"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16200,10 +16200,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16305,8 +16305,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16408,8 +16408,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16511,8 +16511,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16614,8 +16614,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16717,8 +16717,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16820,8 +16820,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16923,8 +16923,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17026,8 +17026,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17129,8 +17129,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17232,8 +17232,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17335,8 +17335,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17541,8 +17541,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17644,8 +17644,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17747,8 +17747,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17850,8 +17850,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -17953,8 +17953,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18056,8 +18056,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18159,8 +18159,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18262,8 +18262,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18365,8 +18365,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18468,8 +18468,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18571,8 +18571,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18674,8 +18674,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18777,8 +18777,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18880,8 +18880,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="52"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -18983,8 +18983,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19086,8 +19086,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19189,8 +19189,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19292,8 +19292,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19395,8 +19395,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19498,8 +19498,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
-      <c r="B157" s="48"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19601,8 +19601,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="47"/>
-      <c r="B158" s="46" t="s">
+      <c r="A158" s="52"/>
+      <c r="B158" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19704,8 +19704,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19807,8 +19807,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19910,8 +19910,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20013,8 +20013,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20116,8 +20116,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
-      <c r="B163" s="47"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20219,8 +20219,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
-      <c r="B164" s="47"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20322,8 +20322,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20425,8 +20425,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20528,8 +20528,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20631,8 +20631,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="47"/>
-      <c r="B168" s="47"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20734,8 +20734,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20837,8 +20837,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="47"/>
-      <c r="B170" s="47"/>
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20940,8 +20940,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="47"/>
-      <c r="B171" s="47"/>
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21043,8 +21043,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="47"/>
-      <c r="B172" s="47"/>
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21146,8 +21146,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="47"/>
-      <c r="B173" s="47"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21249,8 +21249,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="47"/>
-      <c r="B174" s="47"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21352,8 +21352,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21455,8 +21455,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="47"/>
-      <c r="B176" s="47"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="52"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21558,8 +21558,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="47"/>
-      <c r="B177" s="47"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21661,8 +21661,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21764,8 +21764,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21867,8 +21867,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -21970,8 +21970,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22073,8 +22073,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="47"/>
-      <c r="B182" s="47"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="52"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22176,8 +22176,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22279,8 +22279,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="52"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22382,8 +22382,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="52"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22485,8 +22485,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="52"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22588,8 +22588,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="52"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22691,8 +22691,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="47"/>
-      <c r="B188" s="47"/>
+      <c r="A188" s="52"/>
+      <c r="B188" s="52"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22794,8 +22794,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="47"/>
-      <c r="B189" s="47"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="52"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22897,8 +22897,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="47"/>
-      <c r="B190" s="48"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -23000,8 +23000,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="47"/>
-      <c r="B191" s="46" t="s">
+      <c r="A191" s="52"/>
+      <c r="B191" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23103,8 +23103,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="47"/>
-      <c r="B192" s="47"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23238,8 +23238,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="47"/>
-      <c r="B193" s="47"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23373,8 +23373,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="47"/>
-      <c r="B194" s="47"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23508,8 +23508,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="47"/>
-      <c r="B195" s="47"/>
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23643,8 +23643,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="47"/>
-      <c r="B196" s="47"/>
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23778,8 +23778,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23913,8 +23913,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="47"/>
-      <c r="B198" s="47"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24048,8 +24048,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="47"/>
-      <c r="B199" s="47"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="52"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24183,8 +24183,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="47"/>
-      <c r="B200" s="47"/>
+      <c r="A200" s="52"/>
+      <c r="B200" s="52"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24318,8 +24318,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="47"/>
-      <c r="B201" s="47"/>
+      <c r="A201" s="52"/>
+      <c r="B201" s="52"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24453,8 +24453,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="47"/>
-      <c r="B202" s="47"/>
+      <c r="A202" s="52"/>
+      <c r="B202" s="52"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24588,8 +24588,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="47"/>
-      <c r="B203" s="47"/>
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24723,8 +24723,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="47"/>
-      <c r="B204" s="47"/>
+      <c r="A204" s="52"/>
+      <c r="B204" s="52"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24858,8 +24858,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="47"/>
-      <c r="B205" s="47"/>
+      <c r="A205" s="52"/>
+      <c r="B205" s="52"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -24993,8 +24993,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="47"/>
-      <c r="B206" s="47"/>
+      <c r="A206" s="52"/>
+      <c r="B206" s="52"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25128,8 +25128,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="47"/>
-      <c r="B207" s="47"/>
+      <c r="A207" s="52"/>
+      <c r="B207" s="52"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25263,8 +25263,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="47"/>
-      <c r="B208" s="47"/>
+      <c r="A208" s="52"/>
+      <c r="B208" s="52"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25398,8 +25398,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="47"/>
-      <c r="B209" s="47"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25533,8 +25533,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
-      <c r="B210" s="47"/>
+      <c r="A210" s="52"/>
+      <c r="B210" s="52"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25668,8 +25668,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
-      <c r="B211" s="47"/>
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25803,8 +25803,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="47"/>
-      <c r="B212" s="47"/>
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25938,8 +25938,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
-      <c r="B213" s="47"/>
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26073,8 +26073,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
-      <c r="B214" s="47"/>
+      <c r="A214" s="52"/>
+      <c r="B214" s="52"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26208,8 +26208,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
-      <c r="B215" s="47"/>
+      <c r="A215" s="52"/>
+      <c r="B215" s="52"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26343,8 +26343,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
-      <c r="B216" s="47"/>
+      <c r="A216" s="52"/>
+      <c r="B216" s="52"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26478,8 +26478,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
-      <c r="B217" s="47"/>
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26613,8 +26613,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
-      <c r="B218" s="47"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26748,8 +26748,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="47"/>
-      <c r="B219" s="47"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26883,8 +26883,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="47"/>
-      <c r="B220" s="47"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27018,8 +27018,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27153,8 +27153,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27288,8 +27288,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="48"/>
-      <c r="B223" s="48"/>
+      <c r="A223" s="49"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27423,10 +27423,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="49" t="s">
+      <c r="A224" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27488,8 +27488,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="50"/>
-      <c r="B225" s="47"/>
+      <c r="A225" s="54"/>
+      <c r="B225" s="52"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27551,8 +27551,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="50"/>
-      <c r="B226" s="47"/>
+      <c r="A226" s="54"/>
+      <c r="B226" s="52"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27614,8 +27614,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="50"/>
-      <c r="B227" s="47"/>
+      <c r="A227" s="54"/>
+      <c r="B227" s="52"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27677,8 +27677,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="50"/>
-      <c r="B228" s="47"/>
+      <c r="A228" s="54"/>
+      <c r="B228" s="52"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27740,8 +27740,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="50"/>
-      <c r="B229" s="47"/>
+      <c r="A229" s="54"/>
+      <c r="B229" s="52"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27803,8 +27803,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="50"/>
-      <c r="B230" s="47"/>
+      <c r="A230" s="54"/>
+      <c r="B230" s="52"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27866,8 +27866,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="50"/>
-      <c r="B231" s="47"/>
+      <c r="A231" s="54"/>
+      <c r="B231" s="52"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27929,8 +27929,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="50"/>
-      <c r="B232" s="47"/>
+      <c r="A232" s="54"/>
+      <c r="B232" s="52"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -27992,8 +27992,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="50"/>
-      <c r="B233" s="47"/>
+      <c r="A233" s="54"/>
+      <c r="B233" s="52"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28055,8 +28055,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="50"/>
-      <c r="B234" s="47"/>
+      <c r="A234" s="54"/>
+      <c r="B234" s="52"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28118,8 +28118,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="50"/>
-      <c r="B235" s="47"/>
+      <c r="A235" s="54"/>
+      <c r="B235" s="52"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28181,8 +28181,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="50"/>
-      <c r="B236" s="47"/>
+      <c r="A236" s="54"/>
+      <c r="B236" s="52"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28244,8 +28244,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="50"/>
-      <c r="B237" s="48"/>
+      <c r="A237" s="54"/>
+      <c r="B237" s="49"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28307,8 +28307,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="50"/>
-      <c r="B238" s="46" t="s">
+      <c r="A238" s="54"/>
+      <c r="B238" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28353,8 +28353,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="50"/>
-      <c r="B239" s="47"/>
+      <c r="A239" s="54"/>
+      <c r="B239" s="52"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28399,8 +28399,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="50"/>
-      <c r="B240" s="47"/>
+      <c r="A240" s="54"/>
+      <c r="B240" s="52"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28445,8 +28445,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="50"/>
-      <c r="B241" s="47"/>
+      <c r="A241" s="54"/>
+      <c r="B241" s="52"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28491,8 +28491,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="50"/>
-      <c r="B242" s="47"/>
+      <c r="A242" s="54"/>
+      <c r="B242" s="52"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28537,8 +28537,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="50"/>
-      <c r="B243" s="47"/>
+      <c r="A243" s="54"/>
+      <c r="B243" s="52"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28583,8 +28583,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="50"/>
-      <c r="B244" s="47"/>
+      <c r="A244" s="54"/>
+      <c r="B244" s="52"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28629,8 +28629,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="50"/>
-      <c r="B245" s="47"/>
+      <c r="A245" s="54"/>
+      <c r="B245" s="52"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28675,8 +28675,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="50"/>
-      <c r="B246" s="47"/>
+      <c r="A246" s="54"/>
+      <c r="B246" s="52"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28721,8 +28721,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="50"/>
-      <c r="B247" s="47"/>
+      <c r="A247" s="54"/>
+      <c r="B247" s="52"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28767,8 +28767,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="50"/>
-      <c r="B248" s="47"/>
+      <c r="A248" s="54"/>
+      <c r="B248" s="52"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28813,8 +28813,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="50"/>
-      <c r="B249" s="47"/>
+      <c r="A249" s="54"/>
+      <c r="B249" s="52"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28859,8 +28859,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="50"/>
-      <c r="B250" s="47"/>
+      <c r="A250" s="54"/>
+      <c r="B250" s="52"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28905,8 +28905,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="50"/>
-      <c r="B251" s="48"/>
+      <c r="A251" s="54"/>
+      <c r="B251" s="49"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -28951,8 +28951,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="50"/>
-      <c r="B252" s="46" t="s">
+      <c r="A252" s="54"/>
+      <c r="B252" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -28997,8 +28997,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="50"/>
-      <c r="B253" s="47"/>
+      <c r="A253" s="54"/>
+      <c r="B253" s="52"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29043,8 +29043,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="50"/>
-      <c r="B254" s="47"/>
+      <c r="A254" s="54"/>
+      <c r="B254" s="52"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29089,8 +29089,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="50"/>
-      <c r="B255" s="47"/>
+      <c r="A255" s="54"/>
+      <c r="B255" s="52"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29135,8 +29135,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="50"/>
-      <c r="B256" s="47"/>
+      <c r="A256" s="54"/>
+      <c r="B256" s="52"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29181,8 +29181,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="50"/>
-      <c r="B257" s="47"/>
+      <c r="A257" s="54"/>
+      <c r="B257" s="52"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29227,8 +29227,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="50"/>
-      <c r="B258" s="47"/>
+      <c r="A258" s="54"/>
+      <c r="B258" s="52"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29273,8 +29273,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="50"/>
-      <c r="B259" s="47"/>
+      <c r="A259" s="54"/>
+      <c r="B259" s="52"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29319,8 +29319,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="50"/>
-      <c r="B260" s="47"/>
+      <c r="A260" s="54"/>
+      <c r="B260" s="52"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29365,8 +29365,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="50"/>
-      <c r="B261" s="47"/>
+      <c r="A261" s="54"/>
+      <c r="B261" s="52"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29411,8 +29411,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="50"/>
-      <c r="B262" s="47"/>
+      <c r="A262" s="54"/>
+      <c r="B262" s="52"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29457,8 +29457,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="50"/>
-      <c r="B263" s="47"/>
+      <c r="A263" s="54"/>
+      <c r="B263" s="52"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29503,8 +29503,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="50"/>
-      <c r="B264" s="47"/>
+      <c r="A264" s="54"/>
+      <c r="B264" s="52"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29549,8 +29549,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="50"/>
-      <c r="B265" s="48"/>
+      <c r="A265" s="54"/>
+      <c r="B265" s="49"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29596,11 +29596,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29613,6 +29608,11 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B649A8B-E69B-4B84-BC21-3DF232538037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F2133-4DA8-48BB-BF02-CFB7555EF791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
@@ -2340,6 +2340,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,22 +2364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2724,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3835,10 +3835,10 @@
         <v>539</v>
       </c>
       <c r="E61" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F61" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3853,7 +3853,7 @@
         <v>540</v>
       </c>
       <c r="E62" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F62" s="1">
         <v>160</v>
@@ -3871,10 +3871,10 @@
         <v>541</v>
       </c>
       <c r="E63" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F63" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3889,10 +3889,10 @@
         <v>542</v>
       </c>
       <c r="E64" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F64" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3907,10 +3907,10 @@
         <v>543</v>
       </c>
       <c r="E65" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F65" s="1">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
         <v>228</v>
       </c>
       <c r="E66" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F66" s="1">
         <v>203</v>
@@ -3943,7 +3943,7 @@
         <v>544</v>
       </c>
       <c r="E67" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F67" s="1">
         <v>213</v>
@@ -3961,7 +3961,7 @@
         <v>545</v>
       </c>
       <c r="E68" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F68" s="1">
         <v>223</v>
@@ -3979,7 +3979,7 @@
         <v>546</v>
       </c>
       <c r="E69" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F69" s="1">
         <v>233</v>
@@ -3997,7 +3997,7 @@
         <v>547</v>
       </c>
       <c r="E70" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F70" s="1">
         <v>243</v>
@@ -4015,7 +4015,7 @@
         <v>548</v>
       </c>
       <c r="E71" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F71" s="1">
         <v>253</v>
@@ -4033,7 +4033,7 @@
         <v>549</v>
       </c>
       <c r="E72" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F72" s="1">
         <v>263</v>
@@ -4051,7 +4051,7 @@
         <v>550</v>
       </c>
       <c r="E73" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F73" s="1">
         <v>273</v>
@@ -4069,7 +4069,7 @@
         <v>551</v>
       </c>
       <c r="E74" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F74" s="1">
         <v>283</v>
@@ -4087,7 +4087,7 @@
         <v>552</v>
       </c>
       <c r="E75" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F75" s="1">
         <v>293</v>
@@ -5916,7 +5916,7 @@
         <v>155</v>
       </c>
       <c r="F176" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
         <v>226</v>
       </c>
       <c r="E191" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F191" s="1">
         <v>199</v>
@@ -6203,7 +6203,7 @@
         <v>227</v>
       </c>
       <c r="E192" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F192" s="1">
         <v>199</v>
@@ -6221,7 +6221,7 @@
         <v>228</v>
       </c>
       <c r="E193" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F193" s="1">
         <v>199</v>
@@ -7898,31 +7898,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -7976,8 +7976,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8031,8 +8031,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8086,8 +8086,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8141,8 +8141,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8196,8 +8196,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8251,8 +8251,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8306,8 +8306,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8361,8 +8361,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8416,8 +8416,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8471,8 +8471,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8526,8 +8526,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8581,8 +8581,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8636,8 +8636,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8691,8 +8691,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8746,8 +8746,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8801,8 +8801,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8856,8 +8856,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8911,8 +8911,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -8966,8 +8966,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9021,8 +9021,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9076,8 +9076,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9131,8 +9131,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9186,8 +9186,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9241,8 +9241,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9296,8 +9296,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9351,8 +9351,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9406,8 +9406,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9461,8 +9461,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9516,8 +9516,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9571,8 +9571,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9626,8 +9626,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9681,8 +9681,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9736,8 +9736,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9791,8 +9791,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9846,8 +9846,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9901,8 +9901,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -9956,8 +9956,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10011,8 +10011,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10066,8 +10066,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10121,8 +10121,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10176,8 +10176,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10231,8 +10231,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10286,8 +10286,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10341,8 +10341,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10396,8 +10396,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10451,8 +10451,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10506,8 +10506,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10561,8 +10561,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10616,8 +10616,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10671,8 +10671,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10726,10 +10726,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10804,8 +10804,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10880,8 +10880,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -10956,8 +10956,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11032,8 +11032,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11108,8 +11108,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11184,8 +11184,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11260,8 +11260,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11336,8 +11336,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11412,8 +11412,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11488,8 +11488,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11564,8 +11564,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11640,8 +11640,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11716,8 +11716,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11792,8 +11792,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11868,8 +11868,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11944,8 +11944,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12020,8 +12020,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12096,8 +12096,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12172,8 +12172,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12248,8 +12248,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12324,8 +12324,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12400,8 +12400,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12476,8 +12476,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12552,8 +12552,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
-      <c r="B77" s="51" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12628,8 +12628,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12704,8 +12704,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12780,8 +12780,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12932,8 +12932,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13008,8 +13008,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13084,8 +13084,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13160,8 +13160,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13236,8 +13236,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13312,8 +13312,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13388,8 +13388,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13464,8 +13464,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13540,8 +13540,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13616,8 +13616,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13692,8 +13692,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13768,8 +13768,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13844,8 +13844,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13920,8 +13920,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -13996,8 +13996,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14072,8 +14072,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14148,8 +14148,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14224,8 +14224,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14300,8 +14300,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
-      <c r="B100" s="49"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14376,8 +14376,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
-      <c r="B101" s="51" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14452,8 +14452,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14528,8 +14528,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14604,8 +14604,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14680,8 +14680,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14756,8 +14756,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14832,8 +14832,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14908,8 +14908,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -14984,8 +14984,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15060,8 +15060,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15136,8 +15136,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15212,8 +15212,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15288,8 +15288,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15364,8 +15364,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15440,8 +15440,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15516,8 +15516,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15592,8 +15592,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="52"/>
-      <c r="B117" s="52"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15668,8 +15668,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="52"/>
-      <c r="B118" s="52"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15744,8 +15744,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="52"/>
-      <c r="B119" s="52"/>
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15820,8 +15820,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15896,8 +15896,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
-      <c r="B121" s="52"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -15972,8 +15972,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="52"/>
-      <c r="B122" s="52"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16048,8 +16048,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="52"/>
-      <c r="B123" s="52"/>
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16124,8 +16124,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="49"/>
-      <c r="B124" s="49"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16200,10 +16200,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="51" t="s">
+      <c r="A125" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16305,8 +16305,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="52"/>
-      <c r="B126" s="52"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16408,8 +16408,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
-      <c r="B127" s="52"/>
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16511,8 +16511,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
-      <c r="B128" s="52"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16614,8 +16614,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16717,8 +16717,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16820,8 +16820,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16923,8 +16923,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17026,8 +17026,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17129,8 +17129,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17232,8 +17232,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17335,8 +17335,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17541,8 +17541,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
-      <c r="B138" s="52"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17644,8 +17644,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52"/>
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17747,8 +17747,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17850,8 +17850,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -17953,8 +17953,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18056,8 +18056,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18159,8 +18159,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18262,8 +18262,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18365,8 +18365,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18468,8 +18468,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18571,8 +18571,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="52"/>
-      <c r="B148" s="52"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18674,8 +18674,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="52"/>
-      <c r="B149" s="52"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18777,8 +18777,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="52"/>
-      <c r="B150" s="52"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18880,8 +18880,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="52"/>
-      <c r="B151" s="52"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -18983,8 +18983,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="52"/>
-      <c r="B152" s="52"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19086,8 +19086,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19189,8 +19189,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19292,8 +19292,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="52"/>
-      <c r="B155" s="52"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19395,8 +19395,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="52"/>
-      <c r="B156" s="52"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19498,8 +19498,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="52"/>
-      <c r="B157" s="49"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19601,8 +19601,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="52"/>
-      <c r="B158" s="51" t="s">
+      <c r="A158" s="47"/>
+      <c r="B158" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19704,8 +19704,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
-      <c r="B159" s="52"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19807,8 +19807,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="52"/>
-      <c r="B160" s="52"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19910,8 +19910,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20013,8 +20013,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20116,8 +20116,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="52"/>
-      <c r="B163" s="52"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20219,8 +20219,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20322,8 +20322,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20425,8 +20425,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20528,8 +20528,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="52"/>
-      <c r="B167" s="52"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20631,8 +20631,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="52"/>
-      <c r="B168" s="52"/>
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20734,8 +20734,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="52"/>
-      <c r="B169" s="52"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20837,8 +20837,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="52"/>
-      <c r="B170" s="52"/>
+      <c r="A170" s="47"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20940,8 +20940,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="52"/>
-      <c r="B171" s="52"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21043,8 +21043,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="52"/>
-      <c r="B172" s="52"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21146,8 +21146,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="52"/>
-      <c r="B173" s="52"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21249,8 +21249,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="52"/>
-      <c r="B174" s="52"/>
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21352,8 +21352,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="52"/>
-      <c r="B175" s="52"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21455,8 +21455,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="52"/>
-      <c r="B176" s="52"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="47"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21558,8 +21558,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="52"/>
-      <c r="B177" s="52"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21661,8 +21661,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="52"/>
-      <c r="B178" s="52"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21764,8 +21764,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="52"/>
-      <c r="B179" s="52"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21867,8 +21867,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="52"/>
-      <c r="B180" s="52"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -21970,8 +21970,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="52"/>
-      <c r="B181" s="52"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22073,8 +22073,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="52"/>
-      <c r="B182" s="52"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22176,8 +22176,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="52"/>
-      <c r="B183" s="52"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="47"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22279,8 +22279,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="52"/>
-      <c r="B184" s="52"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22382,8 +22382,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="52"/>
-      <c r="B185" s="52"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22485,8 +22485,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="52"/>
-      <c r="B186" s="52"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22588,8 +22588,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="52"/>
-      <c r="B187" s="52"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22691,8 +22691,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="52"/>
-      <c r="B188" s="52"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22794,8 +22794,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="52"/>
-      <c r="B189" s="52"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22897,8 +22897,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="52"/>
-      <c r="B190" s="49"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="48"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -23000,8 +23000,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="52"/>
-      <c r="B191" s="51" t="s">
+      <c r="A191" s="47"/>
+      <c r="B191" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23103,8 +23103,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="52"/>
-      <c r="B192" s="52"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23238,8 +23238,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
+      <c r="A193" s="47"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23373,8 +23373,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
+      <c r="A194" s="47"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23508,8 +23508,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
+      <c r="A195" s="47"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23643,8 +23643,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
+      <c r="A196" s="47"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23778,8 +23778,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="52"/>
-      <c r="B197" s="52"/>
+      <c r="A197" s="47"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23913,8 +23913,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="52"/>
-      <c r="B198" s="52"/>
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24048,8 +24048,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="52"/>
-      <c r="B199" s="52"/>
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24183,8 +24183,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="52"/>
-      <c r="B200" s="52"/>
+      <c r="A200" s="47"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24318,8 +24318,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="52"/>
-      <c r="B201" s="52"/>
+      <c r="A201" s="47"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24453,8 +24453,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="52"/>
-      <c r="B202" s="52"/>
+      <c r="A202" s="47"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24588,8 +24588,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="52"/>
-      <c r="B203" s="52"/>
+      <c r="A203" s="47"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24723,8 +24723,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="52"/>
-      <c r="B204" s="52"/>
+      <c r="A204" s="47"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24858,8 +24858,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="52"/>
-      <c r="B205" s="52"/>
+      <c r="A205" s="47"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -24993,8 +24993,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="52"/>
-      <c r="B206" s="52"/>
+      <c r="A206" s="47"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25128,8 +25128,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="52"/>
-      <c r="B207" s="52"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25263,8 +25263,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="52"/>
-      <c r="B208" s="52"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25398,8 +25398,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="52"/>
-      <c r="B209" s="52"/>
+      <c r="A209" s="47"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25533,8 +25533,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
-      <c r="B210" s="52"/>
+      <c r="A210" s="47"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25668,8 +25668,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25803,8 +25803,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25938,8 +25938,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="52"/>
-      <c r="B213" s="52"/>
+      <c r="A213" s="47"/>
+      <c r="B213" s="47"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26073,8 +26073,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="52"/>
-      <c r="B214" s="52"/>
+      <c r="A214" s="47"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26208,8 +26208,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="52"/>
-      <c r="B215" s="52"/>
+      <c r="A215" s="47"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26343,8 +26343,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="52"/>
-      <c r="B216" s="52"/>
+      <c r="A216" s="47"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26478,8 +26478,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="52"/>
-      <c r="B217" s="52"/>
+      <c r="A217" s="47"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26613,8 +26613,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="52"/>
-      <c r="B218" s="52"/>
+      <c r="A218" s="47"/>
+      <c r="B218" s="47"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26748,8 +26748,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="52"/>
-      <c r="B219" s="52"/>
+      <c r="A219" s="47"/>
+      <c r="B219" s="47"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26883,8 +26883,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="52"/>
-      <c r="B220" s="52"/>
+      <c r="A220" s="47"/>
+      <c r="B220" s="47"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27018,8 +27018,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="52"/>
-      <c r="B221" s="52"/>
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27153,8 +27153,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="52"/>
-      <c r="B222" s="52"/>
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27288,8 +27288,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="49"/>
-      <c r="B223" s="49"/>
+      <c r="A223" s="48"/>
+      <c r="B223" s="48"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27423,10 +27423,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="53" t="s">
+      <c r="A224" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27488,8 +27488,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="54"/>
-      <c r="B225" s="52"/>
+      <c r="A225" s="50"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27551,8 +27551,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="54"/>
-      <c r="B226" s="52"/>
+      <c r="A226" s="50"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27614,8 +27614,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="54"/>
-      <c r="B227" s="52"/>
+      <c r="A227" s="50"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27677,8 +27677,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="54"/>
-      <c r="B228" s="52"/>
+      <c r="A228" s="50"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27740,8 +27740,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="54"/>
-      <c r="B229" s="52"/>
+      <c r="A229" s="50"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27803,8 +27803,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="54"/>
-      <c r="B230" s="52"/>
+      <c r="A230" s="50"/>
+      <c r="B230" s="47"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27866,8 +27866,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="54"/>
-      <c r="B231" s="52"/>
+      <c r="A231" s="50"/>
+      <c r="B231" s="47"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27929,8 +27929,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="54"/>
-      <c r="B232" s="52"/>
+      <c r="A232" s="50"/>
+      <c r="B232" s="47"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -27992,8 +27992,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="54"/>
-      <c r="B233" s="52"/>
+      <c r="A233" s="50"/>
+      <c r="B233" s="47"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28055,8 +28055,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="54"/>
-      <c r="B234" s="52"/>
+      <c r="A234" s="50"/>
+      <c r="B234" s="47"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28118,8 +28118,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="54"/>
-      <c r="B235" s="52"/>
+      <c r="A235" s="50"/>
+      <c r="B235" s="47"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28181,8 +28181,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="54"/>
-      <c r="B236" s="52"/>
+      <c r="A236" s="50"/>
+      <c r="B236" s="47"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28244,8 +28244,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="54"/>
-      <c r="B237" s="49"/>
+      <c r="A237" s="50"/>
+      <c r="B237" s="48"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28307,8 +28307,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="54"/>
-      <c r="B238" s="51" t="s">
+      <c r="A238" s="50"/>
+      <c r="B238" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28353,8 +28353,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="54"/>
-      <c r="B239" s="52"/>
+      <c r="A239" s="50"/>
+      <c r="B239" s="47"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28399,8 +28399,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="54"/>
-      <c r="B240" s="52"/>
+      <c r="A240" s="50"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28445,8 +28445,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="54"/>
-      <c r="B241" s="52"/>
+      <c r="A241" s="50"/>
+      <c r="B241" s="47"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28491,8 +28491,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="54"/>
-      <c r="B242" s="52"/>
+      <c r="A242" s="50"/>
+      <c r="B242" s="47"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28537,8 +28537,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="54"/>
-      <c r="B243" s="52"/>
+      <c r="A243" s="50"/>
+      <c r="B243" s="47"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28583,8 +28583,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="54"/>
-      <c r="B244" s="52"/>
+      <c r="A244" s="50"/>
+      <c r="B244" s="47"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28629,8 +28629,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="54"/>
-      <c r="B245" s="52"/>
+      <c r="A245" s="50"/>
+      <c r="B245" s="47"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28675,8 +28675,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="54"/>
-      <c r="B246" s="52"/>
+      <c r="A246" s="50"/>
+      <c r="B246" s="47"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28721,8 +28721,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="54"/>
-      <c r="B247" s="52"/>
+      <c r="A247" s="50"/>
+      <c r="B247" s="47"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28767,8 +28767,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="54"/>
-      <c r="B248" s="52"/>
+      <c r="A248" s="50"/>
+      <c r="B248" s="47"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28813,8 +28813,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="54"/>
-      <c r="B249" s="52"/>
+      <c r="A249" s="50"/>
+      <c r="B249" s="47"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28859,8 +28859,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="54"/>
-      <c r="B250" s="52"/>
+      <c r="A250" s="50"/>
+      <c r="B250" s="47"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28905,8 +28905,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="54"/>
-      <c r="B251" s="49"/>
+      <c r="A251" s="50"/>
+      <c r="B251" s="48"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -28951,8 +28951,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="54"/>
-      <c r="B252" s="51" t="s">
+      <c r="A252" s="50"/>
+      <c r="B252" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -28997,8 +28997,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="54"/>
-      <c r="B253" s="52"/>
+      <c r="A253" s="50"/>
+      <c r="B253" s="47"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29043,8 +29043,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="54"/>
-      <c r="B254" s="52"/>
+      <c r="A254" s="50"/>
+      <c r="B254" s="47"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29089,8 +29089,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="54"/>
-      <c r="B255" s="52"/>
+      <c r="A255" s="50"/>
+      <c r="B255" s="47"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29135,8 +29135,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="54"/>
-      <c r="B256" s="52"/>
+      <c r="A256" s="50"/>
+      <c r="B256" s="47"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29181,8 +29181,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="54"/>
-      <c r="B257" s="52"/>
+      <c r="A257" s="50"/>
+      <c r="B257" s="47"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29227,8 +29227,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="54"/>
-      <c r="B258" s="52"/>
+      <c r="A258" s="50"/>
+      <c r="B258" s="47"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29273,8 +29273,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="54"/>
-      <c r="B259" s="52"/>
+      <c r="A259" s="50"/>
+      <c r="B259" s="47"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29319,8 +29319,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="54"/>
-      <c r="B260" s="52"/>
+      <c r="A260" s="50"/>
+      <c r="B260" s="47"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29365,8 +29365,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="54"/>
-      <c r="B261" s="52"/>
+      <c r="A261" s="50"/>
+      <c r="B261" s="47"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29411,8 +29411,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="54"/>
-      <c r="B262" s="52"/>
+      <c r="A262" s="50"/>
+      <c r="B262" s="47"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29457,8 +29457,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="54"/>
-      <c r="B263" s="52"/>
+      <c r="A263" s="50"/>
+      <c r="B263" s="47"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29503,8 +29503,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="54"/>
-      <c r="B264" s="52"/>
+      <c r="A264" s="50"/>
+      <c r="B264" s="47"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29549,8 +29549,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="54"/>
-      <c r="B265" s="49"/>
+      <c r="A265" s="50"/>
+      <c r="B265" s="48"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29596,6 +29596,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29608,11 +29613,6 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F2133-4DA8-48BB-BF02-CFB7555EF791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A416B89-55E0-4875-A6AB-AEE4A75F9D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
@@ -2340,21 +2340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,7 +2349,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2724,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5878,7 +5878,7 @@
         <v>138</v>
       </c>
       <c r="F174" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7898,31 +7898,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -7976,8 +7976,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8031,8 +8031,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8086,8 +8086,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8141,8 +8141,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8196,8 +8196,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8251,8 +8251,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8306,8 +8306,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8361,8 +8361,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8416,8 +8416,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8471,8 +8471,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8526,8 +8526,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8581,8 +8581,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8636,8 +8636,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8691,8 +8691,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8746,8 +8746,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8801,8 +8801,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8856,8 +8856,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8911,8 +8911,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -8966,8 +8966,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9021,8 +9021,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9076,8 +9076,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9131,8 +9131,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9186,8 +9186,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9241,8 +9241,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9296,8 +9296,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9351,8 +9351,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9406,8 +9406,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9461,8 +9461,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9516,8 +9516,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9571,8 +9571,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9626,8 +9626,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9681,8 +9681,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9736,8 +9736,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9791,8 +9791,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9846,8 +9846,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9901,8 +9901,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -9956,8 +9956,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10011,8 +10011,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10066,8 +10066,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10121,8 +10121,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10176,8 +10176,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10231,8 +10231,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10286,8 +10286,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10341,8 +10341,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10396,8 +10396,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10451,8 +10451,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10506,8 +10506,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10561,8 +10561,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10616,8 +10616,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10671,8 +10671,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10726,10 +10726,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10804,8 +10804,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10880,8 +10880,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -10956,8 +10956,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11032,8 +11032,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11108,8 +11108,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11184,8 +11184,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11260,8 +11260,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11336,8 +11336,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11412,8 +11412,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11488,8 +11488,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11564,8 +11564,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11640,8 +11640,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11716,8 +11716,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11792,8 +11792,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11868,8 +11868,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11944,8 +11944,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12020,8 +12020,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12096,8 +12096,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12172,8 +12172,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12248,8 +12248,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12324,8 +12324,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12400,8 +12400,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12476,8 +12476,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12552,8 +12552,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="46" t="s">
+      <c r="A77" s="52"/>
+      <c r="B77" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12628,8 +12628,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12704,8 +12704,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12780,8 +12780,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12932,8 +12932,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13008,8 +13008,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13084,8 +13084,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13160,8 +13160,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13236,8 +13236,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13312,8 +13312,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13388,8 +13388,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13464,8 +13464,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13540,8 +13540,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13616,8 +13616,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13692,8 +13692,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13768,8 +13768,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13844,8 +13844,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13920,8 +13920,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -13996,8 +13996,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14072,8 +14072,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14148,8 +14148,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14224,8 +14224,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14300,8 +14300,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14376,8 +14376,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="47"/>
-      <c r="B101" s="46" t="s">
+      <c r="A101" s="52"/>
+      <c r="B101" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14452,8 +14452,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14528,8 +14528,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14604,8 +14604,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14680,8 +14680,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14756,8 +14756,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14832,8 +14832,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14908,8 +14908,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -14984,8 +14984,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15060,8 +15060,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15136,8 +15136,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15212,8 +15212,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15288,8 +15288,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15364,8 +15364,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15440,8 +15440,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15516,8 +15516,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15592,8 +15592,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15668,8 +15668,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15744,8 +15744,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15820,8 +15820,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15896,8 +15896,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -15972,8 +15972,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16048,8 +16048,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16124,8 +16124,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
+      <c r="A124" s="49"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16200,10 +16200,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16305,8 +16305,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16408,8 +16408,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16511,8 +16511,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16614,8 +16614,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16717,8 +16717,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16820,8 +16820,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16923,8 +16923,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17026,8 +17026,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17129,8 +17129,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17232,8 +17232,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17335,8 +17335,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17541,8 +17541,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17644,8 +17644,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17747,8 +17747,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17850,8 +17850,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -17953,8 +17953,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18056,8 +18056,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18159,8 +18159,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18262,8 +18262,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18365,8 +18365,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18468,8 +18468,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18571,8 +18571,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18674,8 +18674,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18777,8 +18777,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18880,8 +18880,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="52"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -18983,8 +18983,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19086,8 +19086,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19189,8 +19189,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19292,8 +19292,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19395,8 +19395,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19498,8 +19498,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
-      <c r="B157" s="48"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19601,8 +19601,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="47"/>
-      <c r="B158" s="46" t="s">
+      <c r="A158" s="52"/>
+      <c r="B158" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19704,8 +19704,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19807,8 +19807,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19910,8 +19910,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20013,8 +20013,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20116,8 +20116,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
-      <c r="B163" s="47"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20219,8 +20219,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
-      <c r="B164" s="47"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20322,8 +20322,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20425,8 +20425,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20528,8 +20528,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20631,8 +20631,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="47"/>
-      <c r="B168" s="47"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20734,8 +20734,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20837,8 +20837,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="47"/>
-      <c r="B170" s="47"/>
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20940,8 +20940,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="47"/>
-      <c r="B171" s="47"/>
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21043,8 +21043,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="47"/>
-      <c r="B172" s="47"/>
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21146,8 +21146,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="47"/>
-      <c r="B173" s="47"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21249,8 +21249,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="47"/>
-      <c r="B174" s="47"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21352,8 +21352,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21455,8 +21455,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="47"/>
-      <c r="B176" s="47"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="52"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21558,8 +21558,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="47"/>
-      <c r="B177" s="47"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21661,8 +21661,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21764,8 +21764,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21867,8 +21867,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -21970,8 +21970,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22073,8 +22073,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="47"/>
-      <c r="B182" s="47"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="52"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22176,8 +22176,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22279,8 +22279,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="52"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22382,8 +22382,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="52"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22485,8 +22485,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="52"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22588,8 +22588,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="52"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22691,8 +22691,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="47"/>
-      <c r="B188" s="47"/>
+      <c r="A188" s="52"/>
+      <c r="B188" s="52"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22794,8 +22794,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="47"/>
-      <c r="B189" s="47"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="52"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22897,8 +22897,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="47"/>
-      <c r="B190" s="48"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -23000,8 +23000,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="47"/>
-      <c r="B191" s="46" t="s">
+      <c r="A191" s="52"/>
+      <c r="B191" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23103,8 +23103,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="47"/>
-      <c r="B192" s="47"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23238,8 +23238,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="47"/>
-      <c r="B193" s="47"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23373,8 +23373,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="47"/>
-      <c r="B194" s="47"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23508,8 +23508,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="47"/>
-      <c r="B195" s="47"/>
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23643,8 +23643,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="47"/>
-      <c r="B196" s="47"/>
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23778,8 +23778,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23913,8 +23913,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="47"/>
-      <c r="B198" s="47"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24048,8 +24048,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="47"/>
-      <c r="B199" s="47"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="52"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24183,8 +24183,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="47"/>
-      <c r="B200" s="47"/>
+      <c r="A200" s="52"/>
+      <c r="B200" s="52"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24318,8 +24318,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="47"/>
-      <c r="B201" s="47"/>
+      <c r="A201" s="52"/>
+      <c r="B201" s="52"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24453,8 +24453,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="47"/>
-      <c r="B202" s="47"/>
+      <c r="A202" s="52"/>
+      <c r="B202" s="52"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24588,8 +24588,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="47"/>
-      <c r="B203" s="47"/>
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24723,8 +24723,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="47"/>
-      <c r="B204" s="47"/>
+      <c r="A204" s="52"/>
+      <c r="B204" s="52"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24858,8 +24858,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="47"/>
-      <c r="B205" s="47"/>
+      <c r="A205" s="52"/>
+      <c r="B205" s="52"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -24993,8 +24993,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="47"/>
-      <c r="B206" s="47"/>
+      <c r="A206" s="52"/>
+      <c r="B206" s="52"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25128,8 +25128,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="47"/>
-      <c r="B207" s="47"/>
+      <c r="A207" s="52"/>
+      <c r="B207" s="52"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25263,8 +25263,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="47"/>
-      <c r="B208" s="47"/>
+      <c r="A208" s="52"/>
+      <c r="B208" s="52"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25398,8 +25398,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="47"/>
-      <c r="B209" s="47"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25533,8 +25533,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
-      <c r="B210" s="47"/>
+      <c r="A210" s="52"/>
+      <c r="B210" s="52"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25668,8 +25668,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
-      <c r="B211" s="47"/>
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25803,8 +25803,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="47"/>
-      <c r="B212" s="47"/>
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25938,8 +25938,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
-      <c r="B213" s="47"/>
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26073,8 +26073,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
-      <c r="B214" s="47"/>
+      <c r="A214" s="52"/>
+      <c r="B214" s="52"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26208,8 +26208,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
-      <c r="B215" s="47"/>
+      <c r="A215" s="52"/>
+      <c r="B215" s="52"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26343,8 +26343,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
-      <c r="B216" s="47"/>
+      <c r="A216" s="52"/>
+      <c r="B216" s="52"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26478,8 +26478,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
-      <c r="B217" s="47"/>
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26613,8 +26613,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
-      <c r="B218" s="47"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26748,8 +26748,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="47"/>
-      <c r="B219" s="47"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26883,8 +26883,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="47"/>
-      <c r="B220" s="47"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27018,8 +27018,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27153,8 +27153,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27288,8 +27288,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="48"/>
-      <c r="B223" s="48"/>
+      <c r="A223" s="49"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27423,10 +27423,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="49" t="s">
+      <c r="A224" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27488,8 +27488,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="50"/>
-      <c r="B225" s="47"/>
+      <c r="A225" s="54"/>
+      <c r="B225" s="52"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27551,8 +27551,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="50"/>
-      <c r="B226" s="47"/>
+      <c r="A226" s="54"/>
+      <c r="B226" s="52"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27614,8 +27614,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="50"/>
-      <c r="B227" s="47"/>
+      <c r="A227" s="54"/>
+      <c r="B227" s="52"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27677,8 +27677,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="50"/>
-      <c r="B228" s="47"/>
+      <c r="A228" s="54"/>
+      <c r="B228" s="52"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27740,8 +27740,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="50"/>
-      <c r="B229" s="47"/>
+      <c r="A229" s="54"/>
+      <c r="B229" s="52"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27803,8 +27803,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="50"/>
-      <c r="B230" s="47"/>
+      <c r="A230" s="54"/>
+      <c r="B230" s="52"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27866,8 +27866,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="50"/>
-      <c r="B231" s="47"/>
+      <c r="A231" s="54"/>
+      <c r="B231" s="52"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27929,8 +27929,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="50"/>
-      <c r="B232" s="47"/>
+      <c r="A232" s="54"/>
+      <c r="B232" s="52"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -27992,8 +27992,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="50"/>
-      <c r="B233" s="47"/>
+      <c r="A233" s="54"/>
+      <c r="B233" s="52"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28055,8 +28055,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="50"/>
-      <c r="B234" s="47"/>
+      <c r="A234" s="54"/>
+      <c r="B234" s="52"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28118,8 +28118,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="50"/>
-      <c r="B235" s="47"/>
+      <c r="A235" s="54"/>
+      <c r="B235" s="52"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28181,8 +28181,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="50"/>
-      <c r="B236" s="47"/>
+      <c r="A236" s="54"/>
+      <c r="B236" s="52"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28244,8 +28244,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="50"/>
-      <c r="B237" s="48"/>
+      <c r="A237" s="54"/>
+      <c r="B237" s="49"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28307,8 +28307,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="50"/>
-      <c r="B238" s="46" t="s">
+      <c r="A238" s="54"/>
+      <c r="B238" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28353,8 +28353,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="50"/>
-      <c r="B239" s="47"/>
+      <c r="A239" s="54"/>
+      <c r="B239" s="52"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28399,8 +28399,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="50"/>
-      <c r="B240" s="47"/>
+      <c r="A240" s="54"/>
+      <c r="B240" s="52"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28445,8 +28445,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="50"/>
-      <c r="B241" s="47"/>
+      <c r="A241" s="54"/>
+      <c r="B241" s="52"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28491,8 +28491,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="50"/>
-      <c r="B242" s="47"/>
+      <c r="A242" s="54"/>
+      <c r="B242" s="52"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28537,8 +28537,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="50"/>
-      <c r="B243" s="47"/>
+      <c r="A243" s="54"/>
+      <c r="B243" s="52"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28583,8 +28583,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="50"/>
-      <c r="B244" s="47"/>
+      <c r="A244" s="54"/>
+      <c r="B244" s="52"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28629,8 +28629,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="50"/>
-      <c r="B245" s="47"/>
+      <c r="A245" s="54"/>
+      <c r="B245" s="52"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28675,8 +28675,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="50"/>
-      <c r="B246" s="47"/>
+      <c r="A246" s="54"/>
+      <c r="B246" s="52"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28721,8 +28721,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="50"/>
-      <c r="B247" s="47"/>
+      <c r="A247" s="54"/>
+      <c r="B247" s="52"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28767,8 +28767,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="50"/>
-      <c r="B248" s="47"/>
+      <c r="A248" s="54"/>
+      <c r="B248" s="52"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28813,8 +28813,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="50"/>
-      <c r="B249" s="47"/>
+      <c r="A249" s="54"/>
+      <c r="B249" s="52"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28859,8 +28859,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="50"/>
-      <c r="B250" s="47"/>
+      <c r="A250" s="54"/>
+      <c r="B250" s="52"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28905,8 +28905,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="50"/>
-      <c r="B251" s="48"/>
+      <c r="A251" s="54"/>
+      <c r="B251" s="49"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -28951,8 +28951,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="50"/>
-      <c r="B252" s="46" t="s">
+      <c r="A252" s="54"/>
+      <c r="B252" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -28997,8 +28997,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="50"/>
-      <c r="B253" s="47"/>
+      <c r="A253" s="54"/>
+      <c r="B253" s="52"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29043,8 +29043,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="50"/>
-      <c r="B254" s="47"/>
+      <c r="A254" s="54"/>
+      <c r="B254" s="52"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29089,8 +29089,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="50"/>
-      <c r="B255" s="47"/>
+      <c r="A255" s="54"/>
+      <c r="B255" s="52"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29135,8 +29135,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="50"/>
-      <c r="B256" s="47"/>
+      <c r="A256" s="54"/>
+      <c r="B256" s="52"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29181,8 +29181,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="50"/>
-      <c r="B257" s="47"/>
+      <c r="A257" s="54"/>
+      <c r="B257" s="52"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29227,8 +29227,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="50"/>
-      <c r="B258" s="47"/>
+      <c r="A258" s="54"/>
+      <c r="B258" s="52"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29273,8 +29273,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="50"/>
-      <c r="B259" s="47"/>
+      <c r="A259" s="54"/>
+      <c r="B259" s="52"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29319,8 +29319,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="50"/>
-      <c r="B260" s="47"/>
+      <c r="A260" s="54"/>
+      <c r="B260" s="52"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29365,8 +29365,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="50"/>
-      <c r="B261" s="47"/>
+      <c r="A261" s="54"/>
+      <c r="B261" s="52"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29411,8 +29411,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="50"/>
-      <c r="B262" s="47"/>
+      <c r="A262" s="54"/>
+      <c r="B262" s="52"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29457,8 +29457,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="50"/>
-      <c r="B263" s="47"/>
+      <c r="A263" s="54"/>
+      <c r="B263" s="52"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29503,8 +29503,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="50"/>
-      <c r="B264" s="47"/>
+      <c r="A264" s="54"/>
+      <c r="B264" s="52"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29549,8 +29549,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="50"/>
-      <c r="B265" s="48"/>
+      <c r="A265" s="54"/>
+      <c r="B265" s="49"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29596,11 +29596,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29613,6 +29608,11 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A416B89-55E0-4875-A6AB-AEE4A75F9D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C991D-70D0-429B-8D18-BD270DC867D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
@@ -2340,6 +2340,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,22 +2364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2725,7 +2725,7 @@
   <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7898,31 +7898,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -7976,8 +7976,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8031,8 +8031,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8086,8 +8086,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8141,8 +8141,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8196,8 +8196,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8251,8 +8251,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8306,8 +8306,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8361,8 +8361,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8416,8 +8416,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8471,8 +8471,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8526,8 +8526,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8581,8 +8581,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8636,8 +8636,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8691,8 +8691,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8746,8 +8746,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8801,8 +8801,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8856,8 +8856,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8911,8 +8911,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -8966,8 +8966,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9021,8 +9021,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9076,8 +9076,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9131,8 +9131,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9186,8 +9186,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9241,8 +9241,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9296,8 +9296,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9351,8 +9351,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9406,8 +9406,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9461,8 +9461,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9516,8 +9516,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9571,8 +9571,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9626,8 +9626,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9681,8 +9681,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9736,8 +9736,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9791,8 +9791,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9846,8 +9846,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9901,8 +9901,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -9956,8 +9956,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10011,8 +10011,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10066,8 +10066,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10121,8 +10121,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10176,8 +10176,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10231,8 +10231,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10286,8 +10286,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10341,8 +10341,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10396,8 +10396,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10451,8 +10451,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10506,8 +10506,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10561,8 +10561,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10616,8 +10616,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10671,8 +10671,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10726,10 +10726,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10804,8 +10804,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10880,8 +10880,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -10956,8 +10956,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11032,8 +11032,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11108,8 +11108,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11184,8 +11184,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11260,8 +11260,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11336,8 +11336,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11412,8 +11412,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11488,8 +11488,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11564,8 +11564,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11640,8 +11640,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11716,8 +11716,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11792,8 +11792,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11868,8 +11868,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11944,8 +11944,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12020,8 +12020,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12096,8 +12096,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12172,8 +12172,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12248,8 +12248,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12324,8 +12324,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12400,8 +12400,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12476,8 +12476,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12552,8 +12552,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
-      <c r="B77" s="51" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12628,8 +12628,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12704,8 +12704,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12780,8 +12780,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12932,8 +12932,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13008,8 +13008,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13084,8 +13084,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13160,8 +13160,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13236,8 +13236,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13312,8 +13312,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13388,8 +13388,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13464,8 +13464,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13540,8 +13540,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13616,8 +13616,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13692,8 +13692,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13768,8 +13768,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13844,8 +13844,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13920,8 +13920,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -13996,8 +13996,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14072,8 +14072,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14148,8 +14148,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14224,8 +14224,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14300,8 +14300,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
-      <c r="B100" s="49"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14376,8 +14376,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
-      <c r="B101" s="51" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14452,8 +14452,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14528,8 +14528,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14604,8 +14604,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14680,8 +14680,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14756,8 +14756,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14832,8 +14832,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14908,8 +14908,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -14984,8 +14984,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15060,8 +15060,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15136,8 +15136,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15212,8 +15212,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15288,8 +15288,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15364,8 +15364,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15440,8 +15440,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15516,8 +15516,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15592,8 +15592,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="52"/>
-      <c r="B117" s="52"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15668,8 +15668,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="52"/>
-      <c r="B118" s="52"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15744,8 +15744,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="52"/>
-      <c r="B119" s="52"/>
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15820,8 +15820,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15896,8 +15896,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
-      <c r="B121" s="52"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -15972,8 +15972,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="52"/>
-      <c r="B122" s="52"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16048,8 +16048,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="52"/>
-      <c r="B123" s="52"/>
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16124,8 +16124,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="49"/>
-      <c r="B124" s="49"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16200,10 +16200,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="51" t="s">
+      <c r="A125" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16305,8 +16305,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="52"/>
-      <c r="B126" s="52"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16408,8 +16408,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
-      <c r="B127" s="52"/>
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16511,8 +16511,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
-      <c r="B128" s="52"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16614,8 +16614,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16717,8 +16717,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16820,8 +16820,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16923,8 +16923,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17026,8 +17026,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17129,8 +17129,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17232,8 +17232,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17335,8 +17335,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17541,8 +17541,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
-      <c r="B138" s="52"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17644,8 +17644,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52"/>
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17747,8 +17747,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17850,8 +17850,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -17953,8 +17953,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18056,8 +18056,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18159,8 +18159,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18262,8 +18262,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18365,8 +18365,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18468,8 +18468,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18571,8 +18571,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="52"/>
-      <c r="B148" s="52"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18674,8 +18674,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="52"/>
-      <c r="B149" s="52"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18777,8 +18777,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="52"/>
-      <c r="B150" s="52"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18880,8 +18880,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="52"/>
-      <c r="B151" s="52"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -18983,8 +18983,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="52"/>
-      <c r="B152" s="52"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19086,8 +19086,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19189,8 +19189,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19292,8 +19292,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="52"/>
-      <c r="B155" s="52"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19395,8 +19395,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="52"/>
-      <c r="B156" s="52"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19498,8 +19498,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="52"/>
-      <c r="B157" s="49"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19601,8 +19601,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="52"/>
-      <c r="B158" s="51" t="s">
+      <c r="A158" s="47"/>
+      <c r="B158" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19704,8 +19704,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
-      <c r="B159" s="52"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19807,8 +19807,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="52"/>
-      <c r="B160" s="52"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19910,8 +19910,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20013,8 +20013,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20116,8 +20116,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="52"/>
-      <c r="B163" s="52"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20219,8 +20219,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20322,8 +20322,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20425,8 +20425,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20528,8 +20528,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="52"/>
-      <c r="B167" s="52"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20631,8 +20631,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="52"/>
-      <c r="B168" s="52"/>
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20734,8 +20734,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="52"/>
-      <c r="B169" s="52"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20837,8 +20837,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="52"/>
-      <c r="B170" s="52"/>
+      <c r="A170" s="47"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20940,8 +20940,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="52"/>
-      <c r="B171" s="52"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21043,8 +21043,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="52"/>
-      <c r="B172" s="52"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21146,8 +21146,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="52"/>
-      <c r="B173" s="52"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21249,8 +21249,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="52"/>
-      <c r="B174" s="52"/>
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21352,8 +21352,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="52"/>
-      <c r="B175" s="52"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21455,8 +21455,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="52"/>
-      <c r="B176" s="52"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="47"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21558,8 +21558,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="52"/>
-      <c r="B177" s="52"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21661,8 +21661,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="52"/>
-      <c r="B178" s="52"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21764,8 +21764,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="52"/>
-      <c r="B179" s="52"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21867,8 +21867,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="52"/>
-      <c r="B180" s="52"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -21970,8 +21970,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="52"/>
-      <c r="B181" s="52"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22073,8 +22073,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="52"/>
-      <c r="B182" s="52"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22176,8 +22176,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="52"/>
-      <c r="B183" s="52"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="47"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22279,8 +22279,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="52"/>
-      <c r="B184" s="52"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22382,8 +22382,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="52"/>
-      <c r="B185" s="52"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22485,8 +22485,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="52"/>
-      <c r="B186" s="52"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22588,8 +22588,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="52"/>
-      <c r="B187" s="52"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22691,8 +22691,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="52"/>
-      <c r="B188" s="52"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22794,8 +22794,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="52"/>
-      <c r="B189" s="52"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22897,8 +22897,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="52"/>
-      <c r="B190" s="49"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="48"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -23000,8 +23000,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="52"/>
-      <c r="B191" s="51" t="s">
+      <c r="A191" s="47"/>
+      <c r="B191" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23103,8 +23103,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="52"/>
-      <c r="B192" s="52"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23238,8 +23238,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
+      <c r="A193" s="47"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23373,8 +23373,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
+      <c r="A194" s="47"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23508,8 +23508,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
+      <c r="A195" s="47"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23643,8 +23643,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
+      <c r="A196" s="47"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23778,8 +23778,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="52"/>
-      <c r="B197" s="52"/>
+      <c r="A197" s="47"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23913,8 +23913,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="52"/>
-      <c r="B198" s="52"/>
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24048,8 +24048,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="52"/>
-      <c r="B199" s="52"/>
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24183,8 +24183,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="52"/>
-      <c r="B200" s="52"/>
+      <c r="A200" s="47"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24318,8 +24318,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="52"/>
-      <c r="B201" s="52"/>
+      <c r="A201" s="47"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24453,8 +24453,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="52"/>
-      <c r="B202" s="52"/>
+      <c r="A202" s="47"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24588,8 +24588,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="52"/>
-      <c r="B203" s="52"/>
+      <c r="A203" s="47"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24723,8 +24723,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="52"/>
-      <c r="B204" s="52"/>
+      <c r="A204" s="47"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24858,8 +24858,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="52"/>
-      <c r="B205" s="52"/>
+      <c r="A205" s="47"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -24993,8 +24993,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="52"/>
-      <c r="B206" s="52"/>
+      <c r="A206" s="47"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25128,8 +25128,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="52"/>
-      <c r="B207" s="52"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25263,8 +25263,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="52"/>
-      <c r="B208" s="52"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25398,8 +25398,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="52"/>
-      <c r="B209" s="52"/>
+      <c r="A209" s="47"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25533,8 +25533,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
-      <c r="B210" s="52"/>
+      <c r="A210" s="47"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25668,8 +25668,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25803,8 +25803,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25938,8 +25938,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="52"/>
-      <c r="B213" s="52"/>
+      <c r="A213" s="47"/>
+      <c r="B213" s="47"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26073,8 +26073,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="52"/>
-      <c r="B214" s="52"/>
+      <c r="A214" s="47"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26208,8 +26208,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="52"/>
-      <c r="B215" s="52"/>
+      <c r="A215" s="47"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26343,8 +26343,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="52"/>
-      <c r="B216" s="52"/>
+      <c r="A216" s="47"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26478,8 +26478,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="52"/>
-      <c r="B217" s="52"/>
+      <c r="A217" s="47"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26613,8 +26613,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="52"/>
-      <c r="B218" s="52"/>
+      <c r="A218" s="47"/>
+      <c r="B218" s="47"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26748,8 +26748,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="52"/>
-      <c r="B219" s="52"/>
+      <c r="A219" s="47"/>
+      <c r="B219" s="47"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26883,8 +26883,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="52"/>
-      <c r="B220" s="52"/>
+      <c r="A220" s="47"/>
+      <c r="B220" s="47"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27018,8 +27018,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="52"/>
-      <c r="B221" s="52"/>
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27153,8 +27153,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="52"/>
-      <c r="B222" s="52"/>
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27288,8 +27288,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="49"/>
-      <c r="B223" s="49"/>
+      <c r="A223" s="48"/>
+      <c r="B223" s="48"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27423,10 +27423,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="53" t="s">
+      <c r="A224" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27488,8 +27488,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="54"/>
-      <c r="B225" s="52"/>
+      <c r="A225" s="50"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27551,8 +27551,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="54"/>
-      <c r="B226" s="52"/>
+      <c r="A226" s="50"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27614,8 +27614,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="54"/>
-      <c r="B227" s="52"/>
+      <c r="A227" s="50"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27677,8 +27677,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="54"/>
-      <c r="B228" s="52"/>
+      <c r="A228" s="50"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27740,8 +27740,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="54"/>
-      <c r="B229" s="52"/>
+      <c r="A229" s="50"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27803,8 +27803,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="54"/>
-      <c r="B230" s="52"/>
+      <c r="A230" s="50"/>
+      <c r="B230" s="47"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27866,8 +27866,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="54"/>
-      <c r="B231" s="52"/>
+      <c r="A231" s="50"/>
+      <c r="B231" s="47"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27929,8 +27929,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="54"/>
-      <c r="B232" s="52"/>
+      <c r="A232" s="50"/>
+      <c r="B232" s="47"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -27992,8 +27992,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="54"/>
-      <c r="B233" s="52"/>
+      <c r="A233" s="50"/>
+      <c r="B233" s="47"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28055,8 +28055,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="54"/>
-      <c r="B234" s="52"/>
+      <c r="A234" s="50"/>
+      <c r="B234" s="47"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28118,8 +28118,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="54"/>
-      <c r="B235" s="52"/>
+      <c r="A235" s="50"/>
+      <c r="B235" s="47"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28181,8 +28181,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="54"/>
-      <c r="B236" s="52"/>
+      <c r="A236" s="50"/>
+      <c r="B236" s="47"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28244,8 +28244,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="54"/>
-      <c r="B237" s="49"/>
+      <c r="A237" s="50"/>
+      <c r="B237" s="48"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28307,8 +28307,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="54"/>
-      <c r="B238" s="51" t="s">
+      <c r="A238" s="50"/>
+      <c r="B238" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28353,8 +28353,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="54"/>
-      <c r="B239" s="52"/>
+      <c r="A239" s="50"/>
+      <c r="B239" s="47"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28399,8 +28399,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="54"/>
-      <c r="B240" s="52"/>
+      <c r="A240" s="50"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28445,8 +28445,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="54"/>
-      <c r="B241" s="52"/>
+      <c r="A241" s="50"/>
+      <c r="B241" s="47"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28491,8 +28491,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="54"/>
-      <c r="B242" s="52"/>
+      <c r="A242" s="50"/>
+      <c r="B242" s="47"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28537,8 +28537,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="54"/>
-      <c r="B243" s="52"/>
+      <c r="A243" s="50"/>
+      <c r="B243" s="47"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28583,8 +28583,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="54"/>
-      <c r="B244" s="52"/>
+      <c r="A244" s="50"/>
+      <c r="B244" s="47"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28629,8 +28629,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="54"/>
-      <c r="B245" s="52"/>
+      <c r="A245" s="50"/>
+      <c r="B245" s="47"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28675,8 +28675,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="54"/>
-      <c r="B246" s="52"/>
+      <c r="A246" s="50"/>
+      <c r="B246" s="47"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28721,8 +28721,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="54"/>
-      <c r="B247" s="52"/>
+      <c r="A247" s="50"/>
+      <c r="B247" s="47"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28767,8 +28767,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="54"/>
-      <c r="B248" s="52"/>
+      <c r="A248" s="50"/>
+      <c r="B248" s="47"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28813,8 +28813,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="54"/>
-      <c r="B249" s="52"/>
+      <c r="A249" s="50"/>
+      <c r="B249" s="47"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28859,8 +28859,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="54"/>
-      <c r="B250" s="52"/>
+      <c r="A250" s="50"/>
+      <c r="B250" s="47"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28905,8 +28905,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="54"/>
-      <c r="B251" s="49"/>
+      <c r="A251" s="50"/>
+      <c r="B251" s="48"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -28951,8 +28951,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="54"/>
-      <c r="B252" s="51" t="s">
+      <c r="A252" s="50"/>
+      <c r="B252" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -28997,8 +28997,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="54"/>
-      <c r="B253" s="52"/>
+      <c r="A253" s="50"/>
+      <c r="B253" s="47"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29043,8 +29043,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="54"/>
-      <c r="B254" s="52"/>
+      <c r="A254" s="50"/>
+      <c r="B254" s="47"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29089,8 +29089,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="54"/>
-      <c r="B255" s="52"/>
+      <c r="A255" s="50"/>
+      <c r="B255" s="47"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29135,8 +29135,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="54"/>
-      <c r="B256" s="52"/>
+      <c r="A256" s="50"/>
+      <c r="B256" s="47"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29181,8 +29181,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="54"/>
-      <c r="B257" s="52"/>
+      <c r="A257" s="50"/>
+      <c r="B257" s="47"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29227,8 +29227,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="54"/>
-      <c r="B258" s="52"/>
+      <c r="A258" s="50"/>
+      <c r="B258" s="47"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29273,8 +29273,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="54"/>
-      <c r="B259" s="52"/>
+      <c r="A259" s="50"/>
+      <c r="B259" s="47"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29319,8 +29319,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="54"/>
-      <c r="B260" s="52"/>
+      <c r="A260" s="50"/>
+      <c r="B260" s="47"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29365,8 +29365,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="54"/>
-      <c r="B261" s="52"/>
+      <c r="A261" s="50"/>
+      <c r="B261" s="47"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29411,8 +29411,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="54"/>
-      <c r="B262" s="52"/>
+      <c r="A262" s="50"/>
+      <c r="B262" s="47"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29457,8 +29457,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="54"/>
-      <c r="B263" s="52"/>
+      <c r="A263" s="50"/>
+      <c r="B263" s="47"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29503,8 +29503,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="54"/>
-      <c r="B264" s="52"/>
+      <c r="A264" s="50"/>
+      <c r="B264" s="47"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29549,8 +29549,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="54"/>
-      <c r="B265" s="49"/>
+      <c r="A265" s="50"/>
+      <c r="B265" s="48"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29596,6 +29596,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29608,11 +29613,6 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jirat\OneDrive\เดสก์ท็อป\Pointast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POINTAST\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367C991D-70D0-429B-8D18-BD270DC867D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A53987-7996-4B05-BF5F-479A3EA1864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
@@ -2340,21 +2340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,12 +2349,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2724,18 +2724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="32.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="32.58203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>207</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -2811,7 +2811,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2829,7 +2829,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -2847,7 +2847,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -2865,7 +2865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -2883,7 +2883,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2901,7 +2901,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -2919,7 +2919,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -2937,7 +2937,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -2955,7 +2955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -2973,7 +2973,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -2991,7 +2991,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -3009,7 +3009,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -3027,7 +3027,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -3045,7 +3045,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -3063,7 +3063,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
         <v>19</v>
@@ -3081,7 +3081,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -3099,7 +3099,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -3117,7 +3117,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -3135,7 +3135,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -3153,7 +3153,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3171,7 +3171,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -3189,7 +3189,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -3207,7 +3207,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -3225,7 +3225,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -3243,7 +3243,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -3261,7 +3261,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -3279,7 +3279,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
       <c r="B31" s="2" t="s">
         <v>31</v>
@@ -3297,7 +3297,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -3315,7 +3315,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>33</v>
@@ -3333,7 +3333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -3351,7 +3351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="2" t="s">
         <v>35</v>
@@ -3369,7 +3369,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
         <v>37</v>
@@ -3405,7 +3405,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -3423,7 +3423,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
         <v>39</v>
@@ -3441,7 +3441,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>208</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
@@ -3479,7 +3479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
       <c r="B42" s="2" t="s">
         <v>42</v>
@@ -3497,7 +3497,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="39"/>
       <c r="B43" s="2" t="s">
         <v>43</v>
@@ -3515,7 +3515,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -3533,7 +3533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="2" t="s">
         <v>45</v>
@@ -3551,7 +3551,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="2" t="s">
         <v>46</v>
@@ -3569,7 +3569,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="2" t="s">
         <v>47</v>
@@ -3587,7 +3587,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -3605,7 +3605,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="39"/>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -3623,7 +3623,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -3641,7 +3641,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -3659,7 +3659,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="2" t="s">
         <v>52</v>
@@ -3677,7 +3677,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="2" t="s">
         <v>53</v>
@@ -3695,7 +3695,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="2" t="s">
         <v>54</v>
@@ -3713,7 +3713,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="2" t="s">
         <v>55</v>
@@ -3731,7 +3731,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>209</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="2" t="s">
         <v>57</v>
@@ -3769,7 +3769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="2" t="s">
         <v>58</v>
@@ -3787,7 +3787,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="2" t="s">
         <v>59</v>
@@ -3805,7 +3805,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="2" t="s">
         <v>60</v>
@@ -3823,7 +3823,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="2" t="s">
         <v>61</v>
@@ -3841,7 +3841,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="2" t="s">
         <v>62</v>
@@ -3859,7 +3859,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="2" t="s">
         <v>63</v>
@@ -3877,7 +3877,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="2" t="s">
         <v>64</v>
@@ -3895,7 +3895,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="2" t="s">
         <v>65</v>
@@ -3913,7 +3913,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="2" t="s">
         <v>66</v>
@@ -3931,7 +3931,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="2" t="s">
         <v>67</v>
@@ -3949,7 +3949,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="2" t="s">
         <v>68</v>
@@ -3967,7 +3967,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="2" t="s">
         <v>69</v>
@@ -3985,7 +3985,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="2" t="s">
         <v>70</v>
@@ -4003,7 +4003,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
@@ -4021,7 +4021,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="2" t="s">
         <v>72</v>
@@ -4039,7 +4039,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="2" t="s">
         <v>73</v>
@@ -4057,7 +4057,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="2" t="s">
         <v>74</v>
@@ -4075,7 +4075,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="2" t="s">
         <v>75</v>
@@ -4093,7 +4093,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="2" t="s">
         <v>76</v>
@@ -4111,7 +4111,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="2" t="s">
         <v>77</v>
@@ -4129,7 +4129,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
       <c r="B78" s="2" t="s">
         <v>78</v>
@@ -4147,7 +4147,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
         <v>210</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="2" t="s">
         <v>80</v>
@@ -4185,7 +4185,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="2" t="s">
         <v>81</v>
@@ -4203,7 +4203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="39"/>
       <c r="B82" s="2" t="s">
         <v>82</v>
@@ -4221,7 +4221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="39"/>
       <c r="B83" s="2" t="s">
         <v>83</v>
@@ -4239,7 +4239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="39"/>
       <c r="B84" s="2" t="s">
         <v>84</v>
@@ -4257,7 +4257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="2" t="s">
         <v>85</v>
@@ -4275,7 +4275,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="2" t="s">
         <v>86</v>
@@ -4293,7 +4293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="39"/>
       <c r="B87" s="2" t="s">
         <v>87</v>
@@ -4311,7 +4311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="2" t="s">
         <v>88</v>
@@ -4329,7 +4329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
@@ -4347,7 +4347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="2" t="s">
         <v>90</v>
@@ -4365,7 +4365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="39"/>
       <c r="B91" s="2" t="s">
         <v>91</v>
@@ -4383,7 +4383,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="39"/>
       <c r="B92" s="2" t="s">
         <v>92</v>
@@ -4401,7 +4401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
       <c r="B93" s="2" t="s">
         <v>93</v>
@@ -4419,7 +4419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="39"/>
       <c r="B94" s="2" t="s">
         <v>94</v>
@@ -4437,7 +4437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="39"/>
       <c r="B95" s="2" t="s">
         <v>95</v>
@@ -4455,7 +4455,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="39"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
@@ -4473,7 +4473,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
       <c r="B97" s="2" t="s">
         <v>97</v>
@@ -4491,7 +4491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="39"/>
       <c r="B98" s="2" t="s">
         <v>98</v>
@@ -4509,7 +4509,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="39"/>
       <c r="B99" s="2" t="s">
         <v>99</v>
@@ -4527,7 +4527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="39"/>
       <c r="B100" s="2" t="s">
         <v>100</v>
@@ -4545,7 +4545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="39"/>
       <c r="B101" s="2" t="s">
         <v>101</v>
@@ -4563,7 +4563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="39"/>
       <c r="B102" s="2" t="s">
         <v>102</v>
@@ -4581,7 +4581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="39"/>
       <c r="B103" s="2" t="s">
         <v>103</v>
@@ -4599,7 +4599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -4617,7 +4617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -4635,7 +4635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="39"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
@@ -4653,7 +4653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
@@ -4671,7 +4671,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
@@ -4689,7 +4689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="2" t="s">
         <v>109</v>
@@ -4707,7 +4707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="39"/>
       <c r="B110" s="2" t="s">
         <v>110</v>
@@ -4725,7 +4725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="39" t="s">
         <v>211</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="39"/>
       <c r="B112" s="2" t="s">
         <v>112</v>
@@ -4763,7 +4763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="2" t="s">
         <v>113</v>
@@ -4781,7 +4781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39"/>
       <c r="B114" s="2" t="s">
         <v>114</v>
@@ -4799,7 +4799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="39"/>
       <c r="B115" s="2" t="s">
         <v>115</v>
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="39"/>
       <c r="B116" s="2" t="s">
         <v>116</v>
@@ -4835,7 +4835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="39"/>
       <c r="B117" s="2" t="s">
         <v>117</v>
@@ -4853,7 +4853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="39"/>
       <c r="B118" s="2" t="s">
         <v>118</v>
@@ -4871,7 +4871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="39"/>
       <c r="B119" s="2" t="s">
         <v>119</v>
@@ -4889,7 +4889,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="39"/>
       <c r="B120" s="2" t="s">
         <v>120</v>
@@ -4907,7 +4907,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="39"/>
       <c r="B121" s="2" t="s">
         <v>121</v>
@@ -4925,7 +4925,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="39"/>
       <c r="B122" s="2" t="s">
         <v>122</v>
@@ -4943,7 +4943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="39"/>
       <c r="B123" s="2" t="s">
         <v>123</v>
@@ -4961,7 +4961,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="39"/>
       <c r="B124" s="2" t="s">
         <v>124</v>
@@ -4979,7 +4979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="2" t="s">
         <v>125</v>
@@ -4997,7 +4997,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="39"/>
       <c r="B126" s="2" t="s">
         <v>127</v>
@@ -5015,7 +5015,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39"/>
       <c r="B127" s="2" t="s">
         <v>128</v>
@@ -5033,7 +5033,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="39"/>
       <c r="B128" s="2" t="s">
         <v>129</v>
@@ -5051,7 +5051,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="39"/>
       <c r="B129" s="2" t="s">
         <v>130</v>
@@ -5069,7 +5069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="39"/>
       <c r="B130" s="2" t="s">
         <v>131</v>
@@ -5087,7 +5087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="39"/>
       <c r="B131" s="2" t="s">
         <v>132</v>
@@ -5105,7 +5105,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="39"/>
       <c r="B132" s="2" t="s">
         <v>133</v>
@@ -5123,7 +5123,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="39"/>
       <c r="B133" s="2" t="s">
         <v>134</v>
@@ -5141,7 +5141,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="39"/>
       <c r="B134" s="2" t="s">
         <v>135</v>
@@ -5159,7 +5159,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="39"/>
       <c r="B135" s="2" t="s">
         <v>126</v>
@@ -5177,7 +5177,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="2" t="s">
         <v>136</v>
@@ -5195,7 +5195,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="2" t="s">
         <v>137</v>
@@ -5213,7 +5213,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="2" t="s">
         <v>138</v>
@@ -5231,7 +5231,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="39"/>
       <c r="B139" s="2" t="s">
         <v>139</v>
@@ -5249,7 +5249,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="2" t="s">
         <v>140</v>
@@ -5267,7 +5267,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="39"/>
       <c r="B141" s="2" t="s">
         <v>141</v>
@@ -5285,7 +5285,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="39"/>
       <c r="B142" s="2" t="s">
         <v>142</v>
@@ -5303,7 +5303,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="39"/>
       <c r="B143" s="2" t="s">
         <v>143</v>
@@ -5321,7 +5321,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="39"/>
       <c r="B144" s="2" t="s">
         <v>144</v>
@@ -5339,7 +5339,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39"/>
       <c r="B145" s="2" t="s">
         <v>145</v>
@@ -5357,7 +5357,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39"/>
       <c r="B146" s="2" t="s">
         <v>146</v>
@@ -5375,7 +5375,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="39"/>
       <c r="B147" s="2" t="s">
         <v>147</v>
@@ -5393,7 +5393,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="39"/>
       <c r="B148" s="2" t="s">
         <v>148</v>
@@ -5411,7 +5411,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="39"/>
       <c r="B149" s="2" t="s">
         <v>149</v>
@@ -5429,7 +5429,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="39"/>
       <c r="B150" s="2" t="s">
         <v>150</v>
@@ -5447,7 +5447,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="39"/>
       <c r="B151" s="2" t="s">
         <v>151</v>
@@ -5465,7 +5465,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="39"/>
       <c r="B152" s="2" t="s">
         <v>152</v>
@@ -5483,7 +5483,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="39"/>
       <c r="B153" s="2" t="s">
         <v>153</v>
@@ -5501,7 +5501,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="39"/>
       <c r="B154" s="2" t="s">
         <v>154</v>
@@ -5519,7 +5519,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="39"/>
       <c r="B155" s="2" t="s">
         <v>155</v>
@@ -5537,7 +5537,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="39"/>
       <c r="B156" s="2" t="s">
         <v>156</v>
@@ -5555,7 +5555,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="39"/>
       <c r="B157" s="2" t="s">
         <v>157</v>
@@ -5573,7 +5573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="39"/>
       <c r="B158" s="2" t="s">
         <v>158</v>
@@ -5591,7 +5591,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="39"/>
       <c r="B159" s="2" t="s">
         <v>159</v>
@@ -5609,7 +5609,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="39"/>
       <c r="B160" s="2" t="s">
         <v>160</v>
@@ -5627,7 +5627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="39"/>
       <c r="B161" s="2" t="s">
         <v>161</v>
@@ -5645,7 +5645,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="39"/>
       <c r="B162" s="2" t="s">
         <v>162</v>
@@ -5663,7 +5663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="39"/>
       <c r="B163" s="2" t="s">
         <v>163</v>
@@ -5681,7 +5681,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="39"/>
       <c r="B164" s="2" t="s">
         <v>164</v>
@@ -5699,7 +5699,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="39"/>
       <c r="B165" s="2" t="s">
         <v>165</v>
@@ -5717,7 +5717,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="39"/>
       <c r="B166" s="2" t="s">
         <v>166</v>
@@ -5735,7 +5735,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="39"/>
       <c r="B167" s="2" t="s">
         <v>167</v>
@@ -5753,7 +5753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="39"/>
       <c r="B168" s="2" t="s">
         <v>168</v>
@@ -5771,7 +5771,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="39"/>
       <c r="B169" s="2" t="s">
         <v>169</v>
@@ -5789,7 +5789,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="39"/>
       <c r="B170" s="2" t="s">
         <v>170</v>
@@ -5807,7 +5807,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="39"/>
       <c r="B171" s="2" t="s">
         <v>171</v>
@@ -5825,7 +5825,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="39" t="s">
         <v>449</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="39"/>
       <c r="B173" s="2" t="s">
         <v>451</v>
@@ -5863,7 +5863,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="39"/>
       <c r="B174" s="2" t="s">
         <v>452</v>
@@ -5881,279 +5881,279 @@
         <v>261</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="39" t="s">
         <v>212</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>233</v>
+        <v>186</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E175" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F175" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="39"/>
       <c r="B176" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E176" s="2">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="F176" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="39"/>
       <c r="B177" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E177" s="2">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="F177" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="39"/>
       <c r="B178" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="E178" s="2">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="F178" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="39"/>
       <c r="B179" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>237</v>
+        <v>182</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E179" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="F179" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="39"/>
       <c r="B180" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>238</v>
+        <v>172</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E180" s="2">
         <v>155</v>
       </c>
       <c r="F180" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="39"/>
       <c r="B181" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>239</v>
+        <v>173</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E181" s="2">
         <v>155</v>
       </c>
       <c r="F181" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="39"/>
       <c r="B182" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E182" s="2">
         <v>155</v>
       </c>
       <c r="F182" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="39"/>
       <c r="B183" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>242</v>
+        <v>175</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E183" s="2">
         <v>155</v>
       </c>
       <c r="F183" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="39"/>
       <c r="B184" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E184" s="2">
         <v>155</v>
       </c>
       <c r="F184" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="39"/>
       <c r="B185" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>240</v>
+        <v>177</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E185" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F185" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="39"/>
       <c r="B186" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>249</v>
+        <v>178</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E186" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F186" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="39"/>
       <c r="B187" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="E187" s="2">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="F187" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="39"/>
       <c r="B188" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>244</v>
+        <v>180</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E188" s="2">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="F188" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="39"/>
       <c r="B189" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E189" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="F189" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="39" t="s">
         <v>213</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="39"/>
       <c r="B191" s="2" t="s">
         <v>188</v>
@@ -6191,7 +6191,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="39"/>
       <c r="B192" s="2" t="s">
         <v>189</v>
@@ -6209,7 +6209,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="39"/>
       <c r="B193" s="2" t="s">
         <v>190</v>
@@ -6227,7 +6227,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="39"/>
       <c r="B194" s="2" t="s">
         <v>191</v>
@@ -6245,7 +6245,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="39"/>
       <c r="B195" s="2" t="s">
         <v>192</v>
@@ -6263,7 +6263,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="39"/>
       <c r="B196" s="2" t="s">
         <v>193</v>
@@ -6281,7 +6281,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="39"/>
       <c r="B197" s="2" t="s">
         <v>194</v>
@@ -6299,7 +6299,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="39" t="s">
         <v>214</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="39"/>
       <c r="B199" s="2" t="s">
         <v>196</v>
@@ -6337,7 +6337,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="39"/>
       <c r="B200" s="2" t="s">
         <v>197</v>
@@ -6355,7 +6355,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="39"/>
       <c r="B201" s="2" t="s">
         <v>198</v>
@@ -6373,7 +6373,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="39"/>
       <c r="B202" s="2" t="s">
         <v>199</v>
@@ -6391,7 +6391,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="39"/>
       <c r="B203" s="2" t="s">
         <v>200</v>
@@ -6409,7 +6409,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="39"/>
       <c r="B204" s="2" t="s">
         <v>201</v>
@@ -6427,7 +6427,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="39"/>
       <c r="B205" s="2" t="s">
         <v>202</v>
@@ -6445,7 +6445,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="39"/>
       <c r="B206" s="2" t="s">
         <v>203</v>
@@ -6463,7 +6463,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="39"/>
       <c r="B207" s="2" t="s">
         <v>204</v>
@@ -6481,7 +6481,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="39"/>
       <c r="B208" s="2" t="s">
         <v>205</v>
@@ -6499,7 +6499,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="39"/>
       <c r="B209" s="2" t="s">
         <v>206</v>
@@ -6543,9 +6543,9 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="33"/>
       <c r="C3" s="35"/>
@@ -6613,7 +6613,7 @@
       <c r="I3" s="35"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35"/>
@@ -6626,7 +6626,7 @@
       <c r="I4" s="35"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="33"/>
       <c r="C5" s="35"/>
@@ -6639,7 +6639,7 @@
       <c r="I5" s="35"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="34"/>
       <c r="C6" s="30"/>
@@ -6652,7 +6652,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>208</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="33"/>
       <c r="C8" s="35"/>
@@ -6684,7 +6684,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" s="33"/>
       <c r="C9" s="35"/>
@@ -6696,7 +6696,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="33"/>
       <c r="C10" s="35"/>
@@ -6708,7 +6708,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="34"/>
       <c r="C11" s="30"/>
@@ -6720,7 +6720,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>209</v>
       </c>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35"/>
@@ -6752,7 +6752,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="33"/>
       <c r="C14" s="35"/>
@@ -6764,7 +6764,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="33"/>
       <c r="C15" s="35"/>
@@ -6776,7 +6776,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30"/>
@@ -6788,7 +6788,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>210</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="33"/>
       <c r="C18" s="35"/>
@@ -6820,7 +6820,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="33"/>
       <c r="C19" s="35"/>
@@ -6832,7 +6832,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="33"/>
       <c r="C20" s="35"/>
@@ -6844,7 +6844,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30"/>
@@ -6856,7 +6856,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>211</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="33" t="s">
         <v>626</v>
@@ -6895,7 +6895,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="33" t="s">
         <v>627</v>
@@ -6907,7 +6907,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="33" t="s">
         <v>628</v>
@@ -6920,7 +6920,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="34" t="s">
         <v>629</v>
@@ -6934,7 +6934,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
         <v>449</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
@@ -6962,7 +6962,7 @@
       <c r="I28" s="35"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
@@ -6974,7 +6974,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="33"/>
       <c r="C30" s="35"/>
@@ -6986,7 +6986,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
@@ -6998,7 +6998,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>212</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -7030,7 +7030,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="33"/>
       <c r="C34" s="35"/>
@@ -7042,7 +7042,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="33"/>
       <c r="C35" s="35"/>
@@ -7054,7 +7054,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="34"/>
       <c r="C36" s="30"/>
@@ -7066,7 +7066,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>213</v>
       </c>
@@ -7086,22 +7086,22 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="36"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="36"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="36"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="37"/>
       <c r="C41" s="14"/>
@@ -7113,7 +7113,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>214</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="36"/>
       <c r="F43" t="s">
@@ -7137,17 +7137,17 @@
       </c>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="36"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="36"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="37"/>
       <c r="C46" s="14"/>
@@ -7185,12 +7185,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="9" t="s">
         <v>618</v>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="9" t="s">
         <v>620</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>211</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="9" t="s">
         <v>618</v>
@@ -7482,7 +7482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="9" t="s">
         <v>620</v>
@@ -7530,7 +7530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>449</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="9" t="s">
         <v>618</v>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>620</v>
@@ -7600,7 +7600,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>213</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>618</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>620</v>
@@ -7721,7 +7721,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>214</v>
       </c>
@@ -7767,7 +7767,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="9" t="s">
         <v>618</v>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="10" t="s">
         <v>620</v>
@@ -7885,44 +7885,44 @@
       <selection activeCell="AH134" sqref="AH1:AI1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
-    </row>
-    <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48"/>
+    </row>
+    <row r="2" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -7975,9 +7975,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8030,9 +8030,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+    <row r="4" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8085,9 +8085,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+    <row r="5" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8140,9 +8140,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+    <row r="6" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8195,9 +8195,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+    <row r="7" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8250,9 +8250,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8305,9 +8305,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+    <row r="9" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8360,9 +8360,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+    <row r="10" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8415,9 +8415,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+    <row r="11" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8470,9 +8470,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+    <row r="12" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8525,9 +8525,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+    <row r="13" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8580,9 +8580,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+    <row r="14" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8635,9 +8635,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+    <row r="15" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8690,9 +8690,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+    <row r="16" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8745,9 +8745,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+    <row r="17" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8800,9 +8800,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+    <row r="18" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8855,9 +8855,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8910,9 +8910,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+    <row r="20" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -8965,9 +8965,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+    <row r="21" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9020,9 +9020,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+    <row r="22" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9075,9 +9075,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+    <row r="23" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9130,9 +9130,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+    <row r="24" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9185,9 +9185,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+    <row r="25" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9240,9 +9240,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+    <row r="26" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9295,9 +9295,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+    <row r="27" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9350,9 +9350,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+    <row r="28" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9405,9 +9405,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+    <row r="29" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9460,9 +9460,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+    <row r="30" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9515,9 +9515,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+    <row r="31" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9570,9 +9570,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+    <row r="32" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9625,9 +9625,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+    <row r="33" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9680,9 +9680,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+    <row r="34" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9735,9 +9735,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+    <row r="35" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9790,9 +9790,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54" t="s">
+    <row r="36" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9845,9 +9845,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
+    <row r="37" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9900,9 +9900,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+    <row r="38" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -9955,9 +9955,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+    <row r="39" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10010,9 +10010,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+    <row r="40" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10065,9 +10065,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+    <row r="41" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10120,9 +10120,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
+    <row r="42" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10175,9 +10175,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+    <row r="43" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10230,9 +10230,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+    <row r="44" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10285,9 +10285,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+    <row r="45" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10340,9 +10340,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+    <row r="46" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10395,9 +10395,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+    <row r="47" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10450,9 +10450,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+    <row r="48" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10505,9 +10505,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+    <row r="49" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10560,9 +10560,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
+    <row r="50" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10615,9 +10615,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
+    <row r="51" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10670,9 +10670,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
+    <row r="52" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10725,11 +10725,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+    <row r="53" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10803,9 +10803,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+    <row r="54" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10879,9 +10879,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+    <row r="55" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -10955,9 +10955,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+    <row r="56" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11031,9 +11031,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+    <row r="57" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11107,9 +11107,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
+    <row r="58" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11183,9 +11183,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+    <row r="59" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11259,9 +11259,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+    <row r="60" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11335,9 +11335,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+    <row r="61" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11411,9 +11411,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+    <row r="62" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11487,9 +11487,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+    <row r="63" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11563,9 +11563,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+    <row r="64" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11639,9 +11639,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+    <row r="65" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11715,9 +11715,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+    <row r="66" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11791,9 +11791,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+    <row r="67" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11867,9 +11867,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+    <row r="68" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11943,9 +11943,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+    <row r="69" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12019,9 +12019,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+    <row r="70" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12095,9 +12095,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+    <row r="71" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12171,9 +12171,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+    <row r="72" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12247,9 +12247,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+    <row r="73" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12323,9 +12323,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+    <row r="74" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12399,9 +12399,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+    <row r="75" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12475,9 +12475,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
+    <row r="76" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="52"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12551,9 +12551,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="46" t="s">
+    <row r="77" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="52"/>
+      <c r="B77" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12627,9 +12627,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+    <row r="78" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12703,9 +12703,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+    <row r="79" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12779,9 +12779,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+    <row r="80" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12855,9 +12855,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+    <row r="81" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12931,9 +12931,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+    <row r="82" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13007,9 +13007,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+    <row r="83" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13083,9 +13083,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+    <row r="84" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13159,9 +13159,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+    <row r="85" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13235,9 +13235,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+    <row r="86" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13311,9 +13311,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
+    <row r="87" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13387,9 +13387,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+    <row r="88" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13463,9 +13463,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+    <row r="89" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13539,9 +13539,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+    <row r="90" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13615,9 +13615,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+    <row r="91" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13691,9 +13691,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+    <row r="92" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13767,9 +13767,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+    <row r="93" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13843,9 +13843,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+    <row r="94" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13919,9 +13919,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+    <row r="95" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -13995,9 +13995,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+    <row r="96" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14071,9 +14071,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+    <row r="97" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14147,9 +14147,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+    <row r="98" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14223,9 +14223,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+    <row r="99" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14299,9 +14299,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
-      <c r="B100" s="48"/>
+    <row r="100" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="52"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14375,9 +14375,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="47"/>
-      <c r="B101" s="46" t="s">
+    <row r="101" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="52"/>
+      <c r="B101" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14451,9 +14451,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+    <row r="102" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14527,9 +14527,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+    <row r="103" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14603,9 +14603,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+    <row r="104" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14679,9 +14679,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+    <row r="105" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14755,9 +14755,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+    <row r="106" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14831,9 +14831,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+    <row r="107" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14907,9 +14907,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+    <row r="108" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -14983,9 +14983,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+    <row r="109" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="52"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15059,9 +15059,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+    <row r="110" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15135,9 +15135,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
+    <row r="111" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15211,9 +15211,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
+    <row r="112" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15287,9 +15287,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
+    <row r="113" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15363,9 +15363,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
+    <row r="114" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15439,9 +15439,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
+    <row r="115" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15515,9 +15515,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
+    <row r="116" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15591,9 +15591,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
+    <row r="117" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15667,9 +15667,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
+    <row r="118" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15743,9 +15743,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
+    <row r="119" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15819,9 +15819,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
+    <row r="120" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15895,9 +15895,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
+    <row r="121" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -15971,9 +15971,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
+    <row r="122" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16047,9 +16047,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
+    <row r="123" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16123,9 +16123,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
+    <row r="124" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="49"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16199,11 +16199,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="46" t="s">
+    <row r="125" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16304,9 +16304,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
+    <row r="126" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16407,9 +16407,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
+    <row r="127" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16510,9 +16510,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
+    <row r="128" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16613,9 +16613,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
+    <row r="129" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16716,9 +16716,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+    <row r="130" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16819,9 +16819,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+    <row r="131" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16922,9 +16922,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+    <row r="132" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17025,9 +17025,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+    <row r="133" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17128,9 +17128,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+    <row r="134" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17231,9 +17231,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+    <row r="135" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17334,9 +17334,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+    <row r="136" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17437,9 +17437,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+    <row r="137" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17540,9 +17540,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+    <row r="138" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17643,9 +17643,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+    <row r="139" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="52"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17746,9 +17746,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+    <row r="140" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17849,9 +17849,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+    <row r="141" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -17952,9 +17952,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
+    <row r="142" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18055,9 +18055,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
+    <row r="143" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18158,9 +18158,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+    <row r="144" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18261,9 +18261,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+    <row r="145" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18364,9 +18364,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+    <row r="146" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18467,9 +18467,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+    <row r="147" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18570,9 +18570,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+    <row r="148" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18673,9 +18673,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+    <row r="149" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18776,9 +18776,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+    <row r="150" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18879,9 +18879,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+    <row r="151" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="52"/>
+      <c r="B151" s="52"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -18982,9 +18982,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+    <row r="152" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19085,9 +19085,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+    <row r="153" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19188,9 +19188,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+    <row r="154" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19291,9 +19291,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+    <row r="155" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19394,9 +19394,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
+    <row r="156" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19497,9 +19497,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
-      <c r="B157" s="48"/>
+    <row r="157" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="52"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19600,9 +19600,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="47"/>
-      <c r="B158" s="46" t="s">
+    <row r="158" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="52"/>
+      <c r="B158" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19703,9 +19703,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+    <row r="159" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19806,9 +19806,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+    <row r="160" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19909,9 +19909,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+    <row r="161" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20012,9 +20012,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+    <row r="162" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20115,9 +20115,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
-      <c r="B163" s="47"/>
+    <row r="163" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20218,9 +20218,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
-      <c r="B164" s="47"/>
+    <row r="164" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20321,9 +20321,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
+    <row r="165" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20424,9 +20424,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
+    <row r="166" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20527,9 +20527,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
+    <row r="167" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20630,9 +20630,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="47"/>
-      <c r="B168" s="47"/>
+    <row r="168" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20733,9 +20733,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
+    <row r="169" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20836,9 +20836,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="47"/>
-      <c r="B170" s="47"/>
+    <row r="170" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20939,9 +20939,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="47"/>
-      <c r="B171" s="47"/>
+    <row r="171" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21042,9 +21042,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="47"/>
-      <c r="B172" s="47"/>
+    <row r="172" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21145,9 +21145,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="47"/>
-      <c r="B173" s="47"/>
+    <row r="173" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21248,9 +21248,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="47"/>
-      <c r="B174" s="47"/>
+    <row r="174" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21351,9 +21351,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
+    <row r="175" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21454,9 +21454,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="47"/>
-      <c r="B176" s="47"/>
+    <row r="176" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="52"/>
+      <c r="B176" s="52"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21557,9 +21557,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="47"/>
-      <c r="B177" s="47"/>
+    <row r="177" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21660,9 +21660,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
+    <row r="178" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21763,9 +21763,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
+    <row r="179" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21866,9 +21866,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
+    <row r="180" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -21969,9 +21969,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
+    <row r="181" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22072,9 +22072,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="47"/>
-      <c r="B182" s="47"/>
+    <row r="182" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="52"/>
+      <c r="B182" s="52"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22175,9 +22175,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
+    <row r="183" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22278,9 +22278,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
+    <row r="184" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="52"/>
+      <c r="B184" s="52"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22381,9 +22381,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
+    <row r="185" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="52"/>
+      <c r="B185" s="52"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22484,9 +22484,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
+    <row r="186" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="52"/>
+      <c r="B186" s="52"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22587,9 +22587,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
+    <row r="187" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="52"/>
+      <c r="B187" s="52"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22690,9 +22690,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="47"/>
-      <c r="B188" s="47"/>
+    <row r="188" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="52"/>
+      <c r="B188" s="52"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22793,9 +22793,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="47"/>
-      <c r="B189" s="47"/>
+    <row r="189" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="52"/>
+      <c r="B189" s="52"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22896,9 +22896,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="47"/>
-      <c r="B190" s="48"/>
+    <row r="190" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="52"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -22999,9 +22999,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="47"/>
-      <c r="B191" s="46" t="s">
+    <row r="191" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="52"/>
+      <c r="B191" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23102,9 +23102,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="47"/>
-      <c r="B192" s="47"/>
+    <row r="192" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23237,9 +23237,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="47"/>
-      <c r="B193" s="47"/>
+    <row r="193" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23372,9 +23372,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="47"/>
-      <c r="B194" s="47"/>
+    <row r="194" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23507,9 +23507,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="47"/>
-      <c r="B195" s="47"/>
+    <row r="195" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23642,9 +23642,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="47"/>
-      <c r="B196" s="47"/>
+    <row r="196" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23777,9 +23777,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
+    <row r="197" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23912,9 +23912,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="47"/>
-      <c r="B198" s="47"/>
+    <row r="198" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24047,9 +24047,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="47"/>
-      <c r="B199" s="47"/>
+    <row r="199" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="52"/>
+      <c r="B199" s="52"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24182,9 +24182,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="47"/>
-      <c r="B200" s="47"/>
+    <row r="200" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="52"/>
+      <c r="B200" s="52"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24317,9 +24317,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="47"/>
-      <c r="B201" s="47"/>
+    <row r="201" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="52"/>
+      <c r="B201" s="52"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24452,9 +24452,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="47"/>
-      <c r="B202" s="47"/>
+    <row r="202" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="52"/>
+      <c r="B202" s="52"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24587,9 +24587,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="47"/>
-      <c r="B203" s="47"/>
+    <row r="203" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24722,9 +24722,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="47"/>
-      <c r="B204" s="47"/>
+    <row r="204" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="52"/>
+      <c r="B204" s="52"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24857,9 +24857,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="47"/>
-      <c r="B205" s="47"/>
+    <row r="205" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="52"/>
+      <c r="B205" s="52"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -24992,9 +24992,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="47"/>
-      <c r="B206" s="47"/>
+    <row r="206" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="52"/>
+      <c r="B206" s="52"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25127,9 +25127,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="47"/>
-      <c r="B207" s="47"/>
+    <row r="207" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="52"/>
+      <c r="B207" s="52"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25262,9 +25262,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="47"/>
-      <c r="B208" s="47"/>
+    <row r="208" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="52"/>
+      <c r="B208" s="52"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25397,9 +25397,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="47"/>
-      <c r="B209" s="47"/>
+    <row r="209" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25532,9 +25532,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
-      <c r="B210" s="47"/>
+    <row r="210" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="52"/>
+      <c r="B210" s="52"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25667,9 +25667,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
-      <c r="B211" s="47"/>
+    <row r="211" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25802,9 +25802,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="47"/>
-      <c r="B212" s="47"/>
+    <row r="212" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25937,9 +25937,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
-      <c r="B213" s="47"/>
+    <row r="213" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26072,9 +26072,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
-      <c r="B214" s="47"/>
+    <row r="214" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="52"/>
+      <c r="B214" s="52"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26207,9 +26207,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
-      <c r="B215" s="47"/>
+    <row r="215" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="52"/>
+      <c r="B215" s="52"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26342,9 +26342,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
-      <c r="B216" s="47"/>
+    <row r="216" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="52"/>
+      <c r="B216" s="52"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26477,9 +26477,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
-      <c r="B217" s="47"/>
+    <row r="217" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26612,9 +26612,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
-      <c r="B218" s="47"/>
+    <row r="218" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26747,9 +26747,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="47"/>
-      <c r="B219" s="47"/>
+    <row r="219" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26882,9 +26882,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="47"/>
-      <c r="B220" s="47"/>
+    <row r="220" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27017,9 +27017,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
+    <row r="221" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27152,9 +27152,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
+    <row r="222" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27287,9 +27287,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="48"/>
-      <c r="B223" s="48"/>
+    <row r="223" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="49"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27422,11 +27422,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="49" t="s">
+    <row r="224" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27487,9 +27487,9 @@
       <c r="AF224" s="16"/>
       <c r="AG224" s="16"/>
     </row>
-    <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="50"/>
-      <c r="B225" s="47"/>
+    <row r="225" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="54"/>
+      <c r="B225" s="52"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27550,9 +27550,9 @@
       <c r="AF225" s="16"/>
       <c r="AG225" s="16"/>
     </row>
-    <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="50"/>
-      <c r="B226" s="47"/>
+    <row r="226" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="54"/>
+      <c r="B226" s="52"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27613,9 +27613,9 @@
       <c r="AF226" s="16"/>
       <c r="AG226" s="16"/>
     </row>
-    <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="50"/>
-      <c r="B227" s="47"/>
+    <row r="227" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="54"/>
+      <c r="B227" s="52"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27676,9 +27676,9 @@
       <c r="AF227" s="16"/>
       <c r="AG227" s="16"/>
     </row>
-    <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="50"/>
-      <c r="B228" s="47"/>
+    <row r="228" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="54"/>
+      <c r="B228" s="52"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27739,9 +27739,9 @@
       <c r="AF228" s="16"/>
       <c r="AG228" s="16"/>
     </row>
-    <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="50"/>
-      <c r="B229" s="47"/>
+    <row r="229" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="54"/>
+      <c r="B229" s="52"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27802,9 +27802,9 @@
       <c r="AF229" s="16"/>
       <c r="AG229" s="16"/>
     </row>
-    <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="50"/>
-      <c r="B230" s="47"/>
+    <row r="230" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="54"/>
+      <c r="B230" s="52"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27865,9 +27865,9 @@
       <c r="AF230" s="16"/>
       <c r="AG230" s="16"/>
     </row>
-    <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="50"/>
-      <c r="B231" s="47"/>
+    <row r="231" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="54"/>
+      <c r="B231" s="52"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27928,9 +27928,9 @@
       <c r="AF231" s="16"/>
       <c r="AG231" s="16"/>
     </row>
-    <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="50"/>
-      <c r="B232" s="47"/>
+    <row r="232" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="54"/>
+      <c r="B232" s="52"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -27991,9 +27991,9 @@
       <c r="AF232" s="16"/>
       <c r="AG232" s="16"/>
     </row>
-    <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="50"/>
-      <c r="B233" s="47"/>
+    <row r="233" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="54"/>
+      <c r="B233" s="52"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28054,9 +28054,9 @@
       <c r="AF233" s="16"/>
       <c r="AG233" s="16"/>
     </row>
-    <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="50"/>
-      <c r="B234" s="47"/>
+    <row r="234" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="54"/>
+      <c r="B234" s="52"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28117,9 +28117,9 @@
       <c r="AF234" s="16"/>
       <c r="AG234" s="16"/>
     </row>
-    <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="50"/>
-      <c r="B235" s="47"/>
+    <row r="235" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="54"/>
+      <c r="B235" s="52"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28180,9 +28180,9 @@
       <c r="AF235" s="16"/>
       <c r="AG235" s="16"/>
     </row>
-    <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="50"/>
-      <c r="B236" s="47"/>
+    <row r="236" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="54"/>
+      <c r="B236" s="52"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28243,9 +28243,9 @@
       <c r="AF236" s="16"/>
       <c r="AG236" s="16"/>
     </row>
-    <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="50"/>
-      <c r="B237" s="48"/>
+    <row r="237" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="54"/>
+      <c r="B237" s="49"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28306,9 +28306,9 @@
       <c r="AF237" s="16"/>
       <c r="AG237" s="16"/>
     </row>
-    <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="50"/>
-      <c r="B238" s="46" t="s">
+    <row r="238" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="54"/>
+      <c r="B238" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28352,9 +28352,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="50"/>
-      <c r="B239" s="47"/>
+    <row r="239" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="54"/>
+      <c r="B239" s="52"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28398,9 +28398,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="50"/>
-      <c r="B240" s="47"/>
+    <row r="240" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="54"/>
+      <c r="B240" s="52"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28444,9 +28444,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="50"/>
-      <c r="B241" s="47"/>
+    <row r="241" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="54"/>
+      <c r="B241" s="52"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28490,9 +28490,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="50"/>
-      <c r="B242" s="47"/>
+    <row r="242" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="54"/>
+      <c r="B242" s="52"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28536,9 +28536,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="50"/>
-      <c r="B243" s="47"/>
+    <row r="243" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="54"/>
+      <c r="B243" s="52"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28582,9 +28582,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="50"/>
-      <c r="B244" s="47"/>
+    <row r="244" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="54"/>
+      <c r="B244" s="52"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28628,9 +28628,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="50"/>
-      <c r="B245" s="47"/>
+    <row r="245" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="54"/>
+      <c r="B245" s="52"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28674,9 +28674,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="50"/>
-      <c r="B246" s="47"/>
+    <row r="246" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="54"/>
+      <c r="B246" s="52"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28720,9 +28720,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="50"/>
-      <c r="B247" s="47"/>
+    <row r="247" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="54"/>
+      <c r="B247" s="52"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28766,9 +28766,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="50"/>
-      <c r="B248" s="47"/>
+    <row r="248" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="54"/>
+      <c r="B248" s="52"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28812,9 +28812,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="50"/>
-      <c r="B249" s="47"/>
+    <row r="249" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="54"/>
+      <c r="B249" s="52"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28858,9 +28858,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="50"/>
-      <c r="B250" s="47"/>
+    <row r="250" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="54"/>
+      <c r="B250" s="52"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28904,9 +28904,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="50"/>
-      <c r="B251" s="48"/>
+    <row r="251" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="54"/>
+      <c r="B251" s="49"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -28950,9 +28950,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="50"/>
-      <c r="B252" s="46" t="s">
+    <row r="252" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="54"/>
+      <c r="B252" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -28996,9 +28996,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="50"/>
-      <c r="B253" s="47"/>
+    <row r="253" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="54"/>
+      <c r="B253" s="52"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29042,9 +29042,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="50"/>
-      <c r="B254" s="47"/>
+    <row r="254" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="54"/>
+      <c r="B254" s="52"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29088,9 +29088,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="50"/>
-      <c r="B255" s="47"/>
+    <row r="255" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="54"/>
+      <c r="B255" s="52"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29134,9 +29134,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="50"/>
-      <c r="B256" s="47"/>
+    <row r="256" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="54"/>
+      <c r="B256" s="52"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29180,9 +29180,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="50"/>
-      <c r="B257" s="47"/>
+    <row r="257" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="54"/>
+      <c r="B257" s="52"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29226,9 +29226,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="50"/>
-      <c r="B258" s="47"/>
+    <row r="258" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="54"/>
+      <c r="B258" s="52"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29272,9 +29272,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="50"/>
-      <c r="B259" s="47"/>
+    <row r="259" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="54"/>
+      <c r="B259" s="52"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29318,9 +29318,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="50"/>
-      <c r="B260" s="47"/>
+    <row r="260" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="54"/>
+      <c r="B260" s="52"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29364,9 +29364,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="50"/>
-      <c r="B261" s="47"/>
+    <row r="261" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="54"/>
+      <c r="B261" s="52"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29410,9 +29410,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="50"/>
-      <c r="B262" s="47"/>
+    <row r="262" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="54"/>
+      <c r="B262" s="52"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29456,9 +29456,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="50"/>
-      <c r="B263" s="47"/>
+    <row r="263" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="54"/>
+      <c r="B263" s="52"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29502,9 +29502,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="50"/>
-      <c r="B264" s="47"/>
+    <row r="264" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="54"/>
+      <c r="B264" s="52"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29548,9 +29548,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="50"/>
-      <c r="B265" s="48"/>
+    <row r="265" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="54"/>
+      <c r="B265" s="49"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29596,11 +29596,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29613,6 +29608,11 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POINTAST\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A53987-7996-4B05-BF5F-479A3EA1864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B813AD-3C22-42FD-A6D2-D87F73328799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
@@ -2340,6 +2340,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,27 +2364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2722,20 +2722,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="32.58203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="32.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>207</v>
       </c>
@@ -2768,14 +2768,14 @@
       <c r="D2" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="2">
-        <v>116</v>
+      <c r="E2" s="1">
+        <v>176</v>
       </c>
       <c r="F2" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2786,14 +2786,14 @@
       <c r="D3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E3" s="2">
-        <v>116</v>
+      <c r="E3" s="1">
+        <v>176</v>
       </c>
       <c r="F3" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -2804,14 +2804,14 @@
       <c r="D4" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E4" s="2">
-        <v>116</v>
+      <c r="E4" s="1">
+        <v>176</v>
       </c>
       <c r="F4" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2822,14 +2822,14 @@
       <c r="D5" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E5" s="2">
-        <v>116</v>
+      <c r="E5" s="1">
+        <v>176</v>
       </c>
       <c r="F5" s="1">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -2840,14 +2840,14 @@
       <c r="D6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E6" s="2">
-        <v>116</v>
+      <c r="E6" s="1">
+        <v>176</v>
       </c>
       <c r="F6" s="1">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -2858,14 +2858,14 @@
       <c r="D7" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E7" s="2">
-        <v>116</v>
+      <c r="E7" s="1">
+        <v>176</v>
       </c>
       <c r="F7" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -2876,14 +2876,14 @@
       <c r="D8" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E8" s="2">
-        <v>116</v>
+      <c r="E8" s="1">
+        <v>176</v>
       </c>
       <c r="F8" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2894,14 +2894,14 @@
       <c r="D9" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="2">
-        <v>124</v>
+      <c r="E9" s="1">
+        <v>192</v>
       </c>
       <c r="F9" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -2912,14 +2912,14 @@
       <c r="D10" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E10" s="2">
-        <v>132</v>
+      <c r="E10" s="1">
+        <v>208</v>
       </c>
       <c r="F10" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -2930,14 +2930,14 @@
       <c r="D11" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E11" s="2">
-        <v>140</v>
+      <c r="E11" s="1">
+        <v>224</v>
       </c>
       <c r="F11" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -2948,14 +2948,14 @@
       <c r="D12" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E12" s="2">
-        <v>150</v>
+      <c r="E12" s="1">
+        <v>240</v>
       </c>
       <c r="F12" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -2966,14 +2966,14 @@
       <c r="D13" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="2">
-        <v>165</v>
+      <c r="E13" s="1">
+        <v>261</v>
       </c>
       <c r="F13" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -2984,14 +2984,14 @@
       <c r="D14" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="2">
-        <v>173</v>
+      <c r="E14" s="1">
+        <v>279</v>
       </c>
       <c r="F14" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -3002,14 +3002,14 @@
       <c r="D15" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="2">
-        <v>183</v>
+      <c r="E15" s="1">
+        <v>289</v>
       </c>
       <c r="F15" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -3020,14 +3020,14 @@
       <c r="D16" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="2">
-        <v>193</v>
+      <c r="E16" s="1">
+        <v>305</v>
       </c>
       <c r="F16" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -3038,14 +3038,14 @@
       <c r="D17" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E17" s="2">
-        <v>199</v>
+      <c r="E17" s="1">
+        <v>317</v>
       </c>
       <c r="F17" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -3056,14 +3056,14 @@
       <c r="D18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="2">
-        <v>205</v>
+      <c r="E18" s="1">
+        <v>329</v>
       </c>
       <c r="F18" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
         <v>19</v>
@@ -3074,14 +3074,14 @@
       <c r="D19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E19" s="2">
-        <v>211</v>
+      <c r="E19" s="1">
+        <v>341</v>
       </c>
       <c r="F19" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -3092,14 +3092,14 @@
       <c r="D20" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="2">
-        <v>217</v>
+      <c r="E20" s="1">
+        <v>353</v>
       </c>
       <c r="F20" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -3110,14 +3110,14 @@
       <c r="D21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E21" s="2">
-        <v>217</v>
+      <c r="E21" s="1">
+        <v>353</v>
       </c>
       <c r="F21" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -3128,14 +3128,14 @@
       <c r="D22" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E22" s="2">
-        <v>217</v>
+      <c r="E22" s="1">
+        <v>353</v>
       </c>
       <c r="F22" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -3146,14 +3146,14 @@
       <c r="D23" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="2">
-        <v>217</v>
+      <c r="E23" s="1">
+        <v>353</v>
       </c>
       <c r="F23" s="1">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3164,14 +3164,14 @@
       <c r="D24" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="2">
-        <v>217</v>
+      <c r="E24" s="1">
+        <v>353</v>
       </c>
       <c r="F24" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -3182,14 +3182,14 @@
       <c r="D25" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E25" s="2">
-        <v>209</v>
+      <c r="E25" s="1">
+        <v>337</v>
       </c>
       <c r="F25" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -3200,14 +3200,14 @@
       <c r="D26" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="2">
-        <v>196</v>
+      <c r="E26" s="1">
+        <v>313</v>
       </c>
       <c r="F26" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -3218,14 +3218,14 @@
       <c r="D27" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="2">
-        <v>183</v>
+      <c r="E27" s="1">
+        <v>289</v>
       </c>
       <c r="F27" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -3236,14 +3236,14 @@
       <c r="D28" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E28" s="2">
-        <v>168</v>
+      <c r="E28" s="1">
+        <v>268</v>
       </c>
       <c r="F28" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -3254,14 +3254,14 @@
       <c r="D29" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E29" s="2">
-        <v>158</v>
+      <c r="E29" s="1">
+        <v>252</v>
       </c>
       <c r="F29" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -3272,14 +3272,14 @@
       <c r="D30" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E30" s="2">
-        <v>149</v>
+      <c r="E30" s="1">
+        <v>236</v>
       </c>
       <c r="F30" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="2" t="s">
         <v>31</v>
@@ -3290,14 +3290,14 @@
       <c r="D31" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E31" s="2">
-        <v>140</v>
+      <c r="E31" s="1">
+        <v>220</v>
       </c>
       <c r="F31" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -3308,14 +3308,14 @@
       <c r="D32" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E32" s="2">
-        <v>133</v>
+      <c r="E32" s="1">
+        <v>208</v>
       </c>
       <c r="F32" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>33</v>
@@ -3326,14 +3326,14 @@
       <c r="D33" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E33" s="2">
-        <v>126</v>
+      <c r="E33" s="1">
+        <v>192</v>
       </c>
       <c r="F33" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -3344,14 +3344,14 @@
       <c r="D34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E34" s="2">
-        <v>106</v>
+      <c r="E34" s="1">
+        <v>160</v>
       </c>
       <c r="F34" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="2" t="s">
         <v>35</v>
@@ -3362,14 +3362,14 @@
       <c r="D35" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E35" s="2">
-        <v>96</v>
+      <c r="E35" s="1">
+        <v>144</v>
       </c>
       <c r="F35" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -3380,14 +3380,14 @@
       <c r="D36" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="2">
-        <v>86</v>
+      <c r="E36" s="1">
+        <v>128</v>
       </c>
       <c r="F36" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
         <v>37</v>
@@ -3398,14 +3398,14 @@
       <c r="D37" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E37" s="2">
-        <v>76</v>
+      <c r="E37" s="1">
+        <v>112</v>
       </c>
       <c r="F37" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -3416,14 +3416,14 @@
       <c r="D38" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E38" s="2">
-        <v>66</v>
+      <c r="E38" s="1">
+        <v>96</v>
       </c>
       <c r="F38" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
         <v>39</v>
@@ -3434,14 +3434,14 @@
       <c r="D39" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E39" s="2">
-        <v>56</v>
+      <c r="E39" s="1">
+        <v>80</v>
       </c>
       <c r="F39" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>208</v>
       </c>
@@ -3455,13 +3455,16 @@
         <v>377</v>
       </c>
       <c r="E40" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F40" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
@@ -3473,13 +3476,16 @@
         <v>378</v>
       </c>
       <c r="E41" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="2" t="s">
         <v>42</v>
@@ -3491,13 +3497,16 @@
         <v>379</v>
       </c>
       <c r="E42" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="2" t="s">
         <v>43</v>
@@ -3509,13 +3518,16 @@
         <v>380</v>
       </c>
       <c r="E43" s="2">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F43" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -3527,13 +3539,16 @@
         <v>390</v>
       </c>
       <c r="E44" s="2">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="2" t="s">
         <v>45</v>
@@ -3545,13 +3560,16 @@
         <v>389</v>
       </c>
       <c r="E45" s="2">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F45" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="2" t="s">
         <v>46</v>
@@ -3563,13 +3581,16 @@
         <v>388</v>
       </c>
       <c r="E46" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="F46" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="2" t="s">
         <v>47</v>
@@ -3581,13 +3602,16 @@
         <v>387</v>
       </c>
       <c r="E47" s="2">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -3599,13 +3623,16 @@
         <v>386</v>
       </c>
       <c r="E48" s="2">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="F48" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -3617,13 +3644,16 @@
         <v>385</v>
       </c>
       <c r="E49" s="2">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="F49" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -3635,13 +3665,16 @@
         <v>384</v>
       </c>
       <c r="E50" s="2">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F50" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -3653,13 +3686,16 @@
         <v>383</v>
       </c>
       <c r="E51" s="2">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="F51" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="2" t="s">
         <v>52</v>
@@ -3671,13 +3707,16 @@
         <v>382</v>
       </c>
       <c r="E52" s="2">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="F52" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="2" t="s">
         <v>53</v>
@@ -3689,13 +3728,16 @@
         <v>381</v>
       </c>
       <c r="E53" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="F53" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="2" t="s">
         <v>54</v>
@@ -3707,13 +3749,16 @@
         <v>260</v>
       </c>
       <c r="E54" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="F54" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="2" t="s">
         <v>55</v>
@@ -3725,13 +3770,16 @@
         <v>374</v>
       </c>
       <c r="E55" s="2">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="F55" s="1">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
         <v>209</v>
       </c>
@@ -3745,13 +3793,13 @@
         <v>356</v>
       </c>
       <c r="E56" s="2">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="F56" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="2" t="s">
         <v>57</v>
@@ -3763,13 +3811,13 @@
         <v>535</v>
       </c>
       <c r="E57" s="2">
-        <v>207</v>
+        <v>325</v>
       </c>
       <c r="F57" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="2" t="s">
         <v>58</v>
@@ -3781,13 +3829,13 @@
         <v>536</v>
       </c>
       <c r="E58" s="2">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="F58" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="2" t="s">
         <v>59</v>
@@ -3799,13 +3847,13 @@
         <v>537</v>
       </c>
       <c r="E59" s="2">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="F59" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="2" t="s">
         <v>60</v>
@@ -3817,13 +3865,13 @@
         <v>538</v>
       </c>
       <c r="E60" s="2">
-        <v>237</v>
+        <v>373</v>
       </c>
       <c r="F60" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="2" t="s">
         <v>61</v>
@@ -3835,13 +3883,13 @@
         <v>539</v>
       </c>
       <c r="E61" s="2">
-        <v>246</v>
+        <v>389</v>
       </c>
       <c r="F61" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="2" t="s">
         <v>62</v>
@@ -3853,13 +3901,13 @@
         <v>540</v>
       </c>
       <c r="E62" s="2">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="F62" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="2" t="s">
         <v>63</v>
@@ -3871,13 +3919,13 @@
         <v>541</v>
       </c>
       <c r="E63" s="2">
-        <v>264</v>
+        <v>421</v>
       </c>
       <c r="F63" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="2" t="s">
         <v>64</v>
@@ -3889,13 +3937,13 @@
         <v>542</v>
       </c>
       <c r="E64" s="2">
-        <v>273</v>
+        <v>437</v>
       </c>
       <c r="F64" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="2" t="s">
         <v>65</v>
@@ -3907,13 +3955,13 @@
         <v>543</v>
       </c>
       <c r="E65" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F65" s="1">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="2" t="s">
         <v>66</v>
@@ -3925,13 +3973,13 @@
         <v>228</v>
       </c>
       <c r="E66" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F66" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="2" t="s">
         <v>67</v>
@@ -3943,13 +3991,13 @@
         <v>544</v>
       </c>
       <c r="E67" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F67" s="1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="2" t="s">
         <v>68</v>
@@ -3961,13 +4009,13 @@
         <v>545</v>
       </c>
       <c r="E68" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F68" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="2" t="s">
         <v>69</v>
@@ -3979,13 +4027,13 @@
         <v>546</v>
       </c>
       <c r="E69" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F69" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="2" t="s">
         <v>70</v>
@@ -3997,13 +4045,13 @@
         <v>547</v>
       </c>
       <c r="E70" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F70" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
@@ -4015,13 +4063,13 @@
         <v>548</v>
       </c>
       <c r="E71" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F71" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="2" t="s">
         <v>72</v>
@@ -4033,13 +4081,13 @@
         <v>549</v>
       </c>
       <c r="E72" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F72" s="1">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39"/>
       <c r="B73" s="2" t="s">
         <v>73</v>
@@ -4051,13 +4099,13 @@
         <v>550</v>
       </c>
       <c r="E73" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F73" s="1">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="2" t="s">
         <v>74</v>
@@ -4069,13 +4117,13 @@
         <v>551</v>
       </c>
       <c r="E74" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F74" s="1">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="2" t="s">
         <v>75</v>
@@ -4087,13 +4135,13 @@
         <v>552</v>
       </c>
       <c r="E75" s="2">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="F75" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="2" t="s">
         <v>76</v>
@@ -4105,13 +4153,13 @@
         <v>553</v>
       </c>
       <c r="E76" s="2">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="F76" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39"/>
       <c r="B77" s="2" t="s">
         <v>77</v>
@@ -4123,13 +4171,13 @@
         <v>554</v>
       </c>
       <c r="E77" s="2">
-        <v>268</v>
+        <v>420</v>
       </c>
       <c r="F77" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="B78" s="2" t="s">
         <v>78</v>
@@ -4141,13 +4189,13 @@
         <v>555</v>
       </c>
       <c r="E78" s="2">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="F78" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
         <v>210</v>
       </c>
@@ -4161,13 +4209,13 @@
         <v>384</v>
       </c>
       <c r="E79" s="2">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="F79" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39"/>
       <c r="B80" s="2" t="s">
         <v>80</v>
@@ -4179,13 +4227,13 @@
         <v>507</v>
       </c>
       <c r="E80" s="2">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="F80" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39"/>
       <c r="B81" s="2" t="s">
         <v>81</v>
@@ -4197,13 +4245,13 @@
         <v>508</v>
       </c>
       <c r="E81" s="2">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="F81" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39"/>
       <c r="B82" s="2" t="s">
         <v>82</v>
@@ -4215,13 +4263,13 @@
         <v>509</v>
       </c>
       <c r="E82" s="2">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="F82" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39"/>
       <c r="B83" s="2" t="s">
         <v>83</v>
@@ -4233,13 +4281,13 @@
         <v>510</v>
       </c>
       <c r="E83" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F83" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39"/>
       <c r="B84" s="2" t="s">
         <v>84</v>
@@ -4251,13 +4299,13 @@
         <v>511</v>
       </c>
       <c r="E84" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F84" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39"/>
       <c r="B85" s="2" t="s">
         <v>85</v>
@@ -4269,13 +4317,13 @@
         <v>512</v>
       </c>
       <c r="E85" s="2">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="F85" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39"/>
       <c r="B86" s="2" t="s">
         <v>86</v>
@@ -4287,13 +4335,13 @@
         <v>513</v>
       </c>
       <c r="E86" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="F86" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39"/>
       <c r="B87" s="2" t="s">
         <v>87</v>
@@ -4305,13 +4353,13 @@
         <v>514</v>
       </c>
       <c r="E87" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="F87" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39"/>
       <c r="B88" s="2" t="s">
         <v>88</v>
@@ -4323,13 +4371,13 @@
         <v>515</v>
       </c>
       <c r="E88" s="2">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="F88" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
@@ -4341,13 +4389,13 @@
         <v>516</v>
       </c>
       <c r="E89" s="2">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="F89" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39"/>
       <c r="B90" s="2" t="s">
         <v>90</v>
@@ -4359,13 +4407,13 @@
         <v>517</v>
       </c>
       <c r="E90" s="2">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="F90" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39"/>
       <c r="B91" s="2" t="s">
         <v>91</v>
@@ -4377,13 +4425,13 @@
         <v>518</v>
       </c>
       <c r="E91" s="2">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="F91" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39"/>
       <c r="B92" s="2" t="s">
         <v>92</v>
@@ -4395,13 +4443,13 @@
         <v>255</v>
       </c>
       <c r="E92" s="2">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="F92" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39"/>
       <c r="B93" s="2" t="s">
         <v>93</v>
@@ -4413,13 +4461,13 @@
         <v>519</v>
       </c>
       <c r="E93" s="2">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="F93" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39"/>
       <c r="B94" s="2" t="s">
         <v>94</v>
@@ -4431,13 +4479,13 @@
         <v>520</v>
       </c>
       <c r="E94" s="2">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="F94" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39"/>
       <c r="B95" s="2" t="s">
         <v>95</v>
@@ -4449,13 +4497,13 @@
         <v>521</v>
       </c>
       <c r="E95" s="2">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="F95" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
@@ -4467,13 +4515,13 @@
         <v>522</v>
       </c>
       <c r="E96" s="2">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="F96" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39"/>
       <c r="B97" s="2" t="s">
         <v>97</v>
@@ -4485,13 +4533,13 @@
         <v>523</v>
       </c>
       <c r="E97" s="2">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="F97" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39"/>
       <c r="B98" s="2" t="s">
         <v>98</v>
@@ -4503,13 +4551,13 @@
         <v>524</v>
       </c>
       <c r="E98" s="2">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="F98" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39"/>
       <c r="B99" s="2" t="s">
         <v>99</v>
@@ -4521,13 +4569,13 @@
         <v>525</v>
       </c>
       <c r="E99" s="2">
-        <v>228</v>
+        <v>368</v>
       </c>
       <c r="F99" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39"/>
       <c r="B100" s="2" t="s">
         <v>100</v>
@@ -4539,13 +4587,13 @@
         <v>526</v>
       </c>
       <c r="E100" s="2">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="F100" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39"/>
       <c r="B101" s="2" t="s">
         <v>101</v>
@@ -4557,13 +4605,13 @@
         <v>527</v>
       </c>
       <c r="E101" s="2">
-        <v>245</v>
+        <v>396</v>
       </c>
       <c r="F101" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39"/>
       <c r="B102" s="2" t="s">
         <v>102</v>
@@ -4575,13 +4623,13 @@
         <v>528</v>
       </c>
       <c r="E102" s="2">
-        <v>253</v>
+        <v>410</v>
       </c>
       <c r="F102" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39"/>
       <c r="B103" s="2" t="s">
         <v>103</v>
@@ -4593,13 +4641,13 @@
         <v>529</v>
       </c>
       <c r="E103" s="2">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="F103" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39"/>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -4611,13 +4659,13 @@
         <v>530</v>
       </c>
       <c r="E104" s="2">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="F104" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="39"/>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -4629,13 +4677,13 @@
         <v>531</v>
       </c>
       <c r="E105" s="2">
-        <v>274</v>
+        <v>440</v>
       </c>
       <c r="F105" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
@@ -4647,13 +4695,13 @@
         <v>532</v>
       </c>
       <c r="E106" s="2">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="F106" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="39"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
@@ -4665,13 +4713,13 @@
         <v>533</v>
       </c>
       <c r="E107" s="2">
-        <v>288</v>
+        <v>460</v>
       </c>
       <c r="F107" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
@@ -4683,13 +4731,13 @@
         <v>534</v>
       </c>
       <c r="E108" s="2">
-        <v>295</v>
+        <v>470</v>
       </c>
       <c r="F108" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39"/>
       <c r="B109" s="2" t="s">
         <v>109</v>
@@ -4701,13 +4749,13 @@
         <v>505</v>
       </c>
       <c r="E109" s="2">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F109" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39"/>
       <c r="B110" s="2" t="s">
         <v>110</v>
@@ -4719,13 +4767,13 @@
         <v>506</v>
       </c>
       <c r="E110" s="2">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F110" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="s">
         <v>211</v>
       </c>
@@ -4738,14 +4786,14 @@
       <c r="D111" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E111" s="2">
-        <v>224</v>
+      <c r="E111" s="1">
+        <v>372</v>
       </c>
       <c r="F111" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39"/>
       <c r="B112" s="2" t="s">
         <v>112</v>
@@ -4756,14 +4804,14 @@
       <c r="D112" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E112" s="2">
-        <v>214</v>
+      <c r="E112" s="1">
+        <v>356</v>
       </c>
       <c r="F112" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39"/>
       <c r="B113" s="2" t="s">
         <v>113</v>
@@ -4774,14 +4822,14 @@
       <c r="D113" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E113" s="2">
-        <v>208</v>
+      <c r="E113" s="1">
+        <v>344</v>
       </c>
       <c r="F113" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39"/>
       <c r="B114" s="2" t="s">
         <v>114</v>
@@ -4792,14 +4840,14 @@
       <c r="D114" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E114" s="2">
-        <v>202</v>
+      <c r="E114" s="1">
+        <v>332</v>
       </c>
       <c r="F114" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39"/>
       <c r="B115" s="2" t="s">
         <v>115</v>
@@ -4810,14 +4858,14 @@
       <c r="D115" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E115" s="2">
-        <v>196</v>
+      <c r="E115" s="1">
+        <v>320</v>
       </c>
       <c r="F115" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39"/>
       <c r="B116" s="2" t="s">
         <v>116</v>
@@ -4828,14 +4876,14 @@
       <c r="D116" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E116" s="2">
-        <v>190</v>
+      <c r="E116" s="1">
+        <v>308</v>
       </c>
       <c r="F116" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39"/>
       <c r="B117" s="2" t="s">
         <v>117</v>
@@ -4846,14 +4894,14 @@
       <c r="D117" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E117" s="2">
-        <v>184</v>
+      <c r="E117" s="1">
+        <v>296</v>
       </c>
       <c r="F117" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39"/>
       <c r="B118" s="2" t="s">
         <v>118</v>
@@ -4864,14 +4912,14 @@
       <c r="D118" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E118" s="2">
-        <v>178</v>
+      <c r="E118" s="1">
+        <v>284</v>
       </c>
       <c r="F118" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39"/>
       <c r="B119" s="2" t="s">
         <v>119</v>
@@ -4882,14 +4930,14 @@
       <c r="D119" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E119" s="2">
-        <v>178</v>
+      <c r="E119" s="1">
+        <v>284</v>
       </c>
       <c r="F119" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39"/>
       <c r="B120" s="2" t="s">
         <v>120</v>
@@ -4900,14 +4948,14 @@
       <c r="D120" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E120" s="2">
-        <v>178</v>
+      <c r="E120" s="1">
+        <v>284</v>
       </c>
       <c r="F120" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39"/>
       <c r="B121" s="2" t="s">
         <v>121</v>
@@ -4918,14 +4966,14 @@
       <c r="D121" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E121" s="2">
-        <v>178</v>
+      <c r="E121" s="1">
+        <v>284</v>
       </c>
       <c r="F121" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39"/>
       <c r="B122" s="2" t="s">
         <v>122</v>
@@ -4936,14 +4984,14 @@
       <c r="D122" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E122" s="2">
-        <v>178</v>
+      <c r="E122" s="1">
+        <v>284</v>
       </c>
       <c r="F122" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39"/>
       <c r="B123" s="2" t="s">
         <v>123</v>
@@ -4954,14 +5002,14 @@
       <c r="D123" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E123" s="2">
-        <v>178</v>
+      <c r="E123" s="1">
+        <v>284</v>
       </c>
       <c r="F123" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39"/>
       <c r="B124" s="2" t="s">
         <v>124</v>
@@ -4972,14 +5020,14 @@
       <c r="D124" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E124" s="2">
-        <v>178</v>
+      <c r="E124" s="1">
+        <v>284</v>
       </c>
       <c r="F124" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39"/>
       <c r="B125" s="2" t="s">
         <v>125</v>
@@ -4990,14 +5038,14 @@
       <c r="D125" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E125" s="2">
-        <v>178</v>
+      <c r="E125" s="1">
+        <v>284</v>
       </c>
       <c r="F125" s="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39"/>
       <c r="B126" s="2" t="s">
         <v>127</v>
@@ -5008,14 +5056,14 @@
       <c r="D126" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E126" s="2">
-        <v>178</v>
+      <c r="E126" s="1">
+        <v>284</v>
       </c>
       <c r="F126" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39"/>
       <c r="B127" s="2" t="s">
         <v>128</v>
@@ -5026,14 +5074,14 @@
       <c r="D127" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E127" s="2">
-        <v>178</v>
+      <c r="E127" s="1">
+        <v>284</v>
       </c>
       <c r="F127" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39"/>
       <c r="B128" s="2" t="s">
         <v>129</v>
@@ -5044,14 +5092,14 @@
       <c r="D128" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E128" s="2">
-        <v>178</v>
+      <c r="E128" s="1">
+        <v>284</v>
       </c>
       <c r="F128" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39"/>
       <c r="B129" s="2" t="s">
         <v>130</v>
@@ -5062,14 +5110,14 @@
       <c r="D129" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E129" s="2">
-        <v>178</v>
+      <c r="E129" s="1">
+        <v>284</v>
       </c>
       <c r="F129" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39"/>
       <c r="B130" s="2" t="s">
         <v>131</v>
@@ -5080,14 +5128,14 @@
       <c r="D130" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E130" s="2">
-        <v>178</v>
+      <c r="E130" s="1">
+        <v>284</v>
       </c>
       <c r="F130" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39"/>
       <c r="B131" s="2" t="s">
         <v>132</v>
@@ -5098,14 +5146,14 @@
       <c r="D131" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E131" s="2">
-        <v>178</v>
+      <c r="E131" s="1">
+        <v>284</v>
       </c>
       <c r="F131" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39"/>
       <c r="B132" s="2" t="s">
         <v>133</v>
@@ -5116,14 +5164,14 @@
       <c r="D132" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E132" s="2">
-        <v>178</v>
+      <c r="E132" s="1">
+        <v>284</v>
       </c>
       <c r="F132" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39"/>
       <c r="B133" s="2" t="s">
         <v>134</v>
@@ -5134,14 +5182,14 @@
       <c r="D133" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E133" s="2">
-        <v>178</v>
+      <c r="E133" s="1">
+        <v>284</v>
       </c>
       <c r="F133" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39"/>
       <c r="B134" s="2" t="s">
         <v>135</v>
@@ -5152,14 +5200,14 @@
       <c r="D134" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E134" s="2">
-        <v>178</v>
+      <c r="E134" s="1">
+        <v>284</v>
       </c>
       <c r="F134" s="1">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39"/>
       <c r="B135" s="2" t="s">
         <v>126</v>
@@ -5171,13 +5219,13 @@
         <v>578</v>
       </c>
       <c r="E135" s="2">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="F135" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39"/>
       <c r="B136" s="2" t="s">
         <v>136</v>
@@ -5188,14 +5236,14 @@
       <c r="D136" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E136" s="2">
-        <v>188</v>
+      <c r="E136" s="1">
+        <v>300</v>
       </c>
       <c r="F136" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39"/>
       <c r="B137" s="2" t="s">
         <v>137</v>
@@ -5206,14 +5254,14 @@
       <c r="D137" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E137" s="2">
-        <v>199</v>
+      <c r="E137" s="1">
+        <v>316</v>
       </c>
       <c r="F137" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39"/>
       <c r="B138" s="2" t="s">
         <v>138</v>
@@ -5224,14 +5272,14 @@
       <c r="D138" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E138" s="2">
-        <v>208</v>
+      <c r="E138" s="1">
+        <v>332</v>
       </c>
       <c r="F138" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39"/>
       <c r="B139" s="2" t="s">
         <v>139</v>
@@ -5242,14 +5290,14 @@
       <c r="D139" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E139" s="2">
-        <v>217</v>
+      <c r="E139" s="1">
+        <v>348</v>
       </c>
       <c r="F139" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39"/>
       <c r="B140" s="2" t="s">
         <v>140</v>
@@ -5260,14 +5308,14 @@
       <c r="D140" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E140" s="2">
-        <v>226</v>
+      <c r="E140" s="1">
+        <v>363</v>
       </c>
       <c r="F140" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39"/>
       <c r="B141" s="2" t="s">
         <v>141</v>
@@ -5278,14 +5326,14 @@
       <c r="D141" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E141" s="2">
-        <v>231</v>
+      <c r="E141" s="1">
+        <v>370</v>
       </c>
       <c r="F141" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39"/>
       <c r="B142" s="2" t="s">
         <v>142</v>
@@ -5296,14 +5344,14 @@
       <c r="D142" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E142" s="2">
-        <v>236</v>
+      <c r="E142" s="1">
+        <v>377</v>
       </c>
       <c r="F142" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39"/>
       <c r="B143" s="2" t="s">
         <v>143</v>
@@ -5314,14 +5362,14 @@
       <c r="D143" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E143" s="2">
-        <v>241</v>
+      <c r="E143" s="1">
+        <v>384</v>
       </c>
       <c r="F143" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39"/>
       <c r="B144" s="2" t="s">
         <v>144</v>
@@ -5332,14 +5380,14 @@
       <c r="D144" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E144" s="2">
-        <v>246</v>
+      <c r="E144" s="1">
+        <v>391</v>
       </c>
       <c r="F144" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39"/>
       <c r="B145" s="2" t="s">
         <v>145</v>
@@ -5350,14 +5398,14 @@
       <c r="D145" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E145" s="2">
-        <v>251</v>
+      <c r="E145" s="1">
+        <v>398</v>
       </c>
       <c r="F145" s="1">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39"/>
       <c r="B146" s="2" t="s">
         <v>146</v>
@@ -5368,14 +5416,14 @@
       <c r="D146" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E146" s="2">
-        <v>256</v>
+      <c r="E146" s="1">
+        <v>405</v>
       </c>
       <c r="F146" s="1">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39"/>
       <c r="B147" s="2" t="s">
         <v>147</v>
@@ -5386,14 +5434,14 @@
       <c r="D147" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E147" s="2">
-        <v>256</v>
+      <c r="E147" s="1">
+        <v>405</v>
       </c>
       <c r="F147" s="1">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39"/>
       <c r="B148" s="2" t="s">
         <v>148</v>
@@ -5404,14 +5452,14 @@
       <c r="D148" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E148" s="2">
-        <v>256</v>
+      <c r="E148" s="1">
+        <v>405</v>
       </c>
       <c r="F148" s="1">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39"/>
       <c r="B149" s="2" t="s">
         <v>149</v>
@@ -5422,14 +5470,14 @@
       <c r="D149" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E149" s="2">
-        <v>256</v>
+      <c r="E149" s="1">
+        <v>405</v>
       </c>
       <c r="F149" s="1">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39"/>
       <c r="B150" s="2" t="s">
         <v>150</v>
@@ -5440,14 +5488,14 @@
       <c r="D150" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E150" s="2">
-        <v>256</v>
+      <c r="E150" s="1">
+        <v>405</v>
       </c>
       <c r="F150" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39"/>
       <c r="B151" s="2" t="s">
         <v>151</v>
@@ -5458,14 +5506,14 @@
       <c r="D151" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E151" s="2">
-        <v>256</v>
+      <c r="E151" s="1">
+        <v>405</v>
       </c>
       <c r="F151" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39"/>
       <c r="B152" s="2" t="s">
         <v>152</v>
@@ -5476,14 +5524,14 @@
       <c r="D152" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E152" s="2">
-        <v>256</v>
+      <c r="E152" s="1">
+        <v>405</v>
       </c>
       <c r="F152" s="1">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39"/>
       <c r="B153" s="2" t="s">
         <v>153</v>
@@ -5494,14 +5542,14 @@
       <c r="D153" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E153" s="2">
-        <v>256</v>
+      <c r="E153" s="1">
+        <v>405</v>
       </c>
       <c r="F153" s="1">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39"/>
       <c r="B154" s="2" t="s">
         <v>154</v>
@@ -5512,14 +5560,14 @@
       <c r="D154" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E154" s="2">
-        <v>256</v>
+      <c r="E154" s="1">
+        <v>405</v>
       </c>
       <c r="F154" s="1">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39"/>
       <c r="B155" s="2" t="s">
         <v>155</v>
@@ -5530,14 +5578,14 @@
       <c r="D155" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E155" s="2">
-        <v>256</v>
+      <c r="E155" s="1">
+        <v>405</v>
       </c>
       <c r="F155" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39"/>
       <c r="B156" s="2" t="s">
         <v>156</v>
@@ -5548,14 +5596,14 @@
       <c r="D156" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E156" s="2">
-        <v>256</v>
+      <c r="E156" s="1">
+        <v>405</v>
       </c>
       <c r="F156" s="1">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39"/>
       <c r="B157" s="2" t="s">
         <v>157</v>
@@ -5566,14 +5614,14 @@
       <c r="D157" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E157" s="2">
-        <v>256</v>
+      <c r="E157" s="1">
+        <v>405</v>
       </c>
       <c r="F157" s="1">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39"/>
       <c r="B158" s="2" t="s">
         <v>158</v>
@@ -5584,14 +5632,14 @@
       <c r="D158" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="E158" s="2">
-        <v>264</v>
+      <c r="E158" s="1">
+        <v>421</v>
       </c>
       <c r="F158" s="1">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39"/>
       <c r="B159" s="2" t="s">
         <v>159</v>
@@ -5603,13 +5651,13 @@
         <v>601</v>
       </c>
       <c r="E159" s="2">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="F159" s="1">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39"/>
       <c r="B160" s="2" t="s">
         <v>160</v>
@@ -5620,14 +5668,14 @@
       <c r="D160" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E160" s="2">
-        <v>178</v>
+      <c r="E160" s="1">
+        <v>284</v>
       </c>
       <c r="F160" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39"/>
       <c r="B161" s="2" t="s">
         <v>161</v>
@@ -5638,14 +5686,14 @@
       <c r="D161" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E161" s="2">
-        <v>178</v>
+      <c r="E161" s="1">
+        <v>284</v>
       </c>
       <c r="F161" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39"/>
       <c r="B162" s="2" t="s">
         <v>162</v>
@@ -5656,14 +5704,14 @@
       <c r="D162" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E162" s="2">
-        <v>178</v>
+      <c r="E162" s="1">
+        <v>284</v>
       </c>
       <c r="F162" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39"/>
       <c r="B163" s="2" t="s">
         <v>163</v>
@@ -5674,14 +5722,14 @@
       <c r="D163" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E163" s="2">
-        <v>172</v>
+      <c r="E163" s="1">
+        <v>272</v>
       </c>
       <c r="F163" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39"/>
       <c r="B164" s="2" t="s">
         <v>164</v>
@@ -5692,14 +5740,14 @@
       <c r="D164" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E164" s="2">
-        <v>165</v>
+      <c r="E164" s="1">
+        <v>260</v>
       </c>
       <c r="F164" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39"/>
       <c r="B165" s="2" t="s">
         <v>165</v>
@@ -5710,14 +5758,14 @@
       <c r="D165" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E165" s="2">
-        <v>158</v>
+      <c r="E165" s="1">
+        <v>248</v>
       </c>
       <c r="F165" s="1">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39"/>
       <c r="B166" s="2" t="s">
         <v>166</v>
@@ -5728,14 +5776,14 @@
       <c r="D166" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E166" s="2">
-        <v>148</v>
+      <c r="E166" s="1">
+        <v>232</v>
       </c>
       <c r="F166" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39"/>
       <c r="B167" s="2" t="s">
         <v>167</v>
@@ -5746,14 +5794,14 @@
       <c r="D167" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="E167" s="2">
-        <v>138</v>
+      <c r="E167" s="1">
+        <v>216</v>
       </c>
       <c r="F167" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39"/>
       <c r="B168" s="2" t="s">
         <v>168</v>
@@ -5764,14 +5812,14 @@
       <c r="D168" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E168" s="2">
-        <v>128</v>
+      <c r="E168" s="1">
+        <v>200</v>
       </c>
       <c r="F168" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39"/>
       <c r="B169" s="2" t="s">
         <v>169</v>
@@ -5782,14 +5830,14 @@
       <c r="D169" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E169" s="2">
-        <v>118</v>
+      <c r="E169" s="1">
+        <v>184</v>
       </c>
       <c r="F169" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39"/>
       <c r="B170" s="2" t="s">
         <v>170</v>
@@ -5800,14 +5848,14 @@
       <c r="D170" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E170" s="2">
-        <v>109</v>
+      <c r="E170" s="1">
+        <v>166</v>
       </c>
       <c r="F170" s="1">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39"/>
       <c r="B171" s="2" t="s">
         <v>171</v>
@@ -5818,14 +5866,14 @@
       <c r="D171" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E171" s="2">
-        <v>100</v>
+      <c r="E171" s="1">
+        <v>148</v>
       </c>
       <c r="F171" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="s">
         <v>449</v>
       </c>
@@ -5839,13 +5887,13 @@
         <v>608</v>
       </c>
       <c r="E172" s="2">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="F172" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39"/>
       <c r="B173" s="2" t="s">
         <v>451</v>
@@ -5857,13 +5905,13 @@
         <v>613</v>
       </c>
       <c r="E173" s="2">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="F173" s="1">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39"/>
       <c r="B174" s="2" t="s">
         <v>452</v>
@@ -5875,13 +5923,13 @@
         <v>614</v>
       </c>
       <c r="E174" s="2">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="F174" s="1">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="s">
         <v>212</v>
       </c>
@@ -5894,14 +5942,14 @@
       <c r="D175" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E175" s="2">
-        <v>78</v>
+      <c r="E175" s="1">
+        <v>128</v>
       </c>
       <c r="F175" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39"/>
       <c r="B176" s="2" t="s">
         <v>185</v>
@@ -5912,14 +5960,14 @@
       <c r="D176" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E176" s="2">
-        <v>88</v>
+      <c r="E176" s="1">
+        <v>153</v>
       </c>
       <c r="F176" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39"/>
       <c r="B177" s="2" t="s">
         <v>184</v>
@@ -5930,14 +5978,14 @@
       <c r="D177" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E177" s="2">
-        <v>104</v>
+      <c r="E177" s="1">
+        <v>175</v>
       </c>
       <c r="F177" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39"/>
       <c r="B178" s="2" t="s">
         <v>183</v>
@@ -5948,14 +5996,14 @@
       <c r="D178" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E178" s="2">
-        <v>119</v>
+      <c r="E178" s="1">
+        <v>197</v>
       </c>
       <c r="F178" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39"/>
       <c r="B179" s="2" t="s">
         <v>182</v>
@@ -5966,14 +6014,14 @@
       <c r="D179" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E179" s="2">
-        <v>135</v>
+      <c r="E179" s="1">
+        <v>219</v>
       </c>
       <c r="F179" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39"/>
       <c r="B180" s="2" t="s">
         <v>172</v>
@@ -5985,13 +6033,13 @@
         <v>250</v>
       </c>
       <c r="E180" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F180" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39"/>
       <c r="B181" s="2" t="s">
         <v>173</v>
@@ -6003,13 +6051,13 @@
         <v>251</v>
       </c>
       <c r="E181" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F181" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39"/>
       <c r="B182" s="2" t="s">
         <v>174</v>
@@ -6021,13 +6069,13 @@
         <v>252</v>
       </c>
       <c r="E182" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F182" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39"/>
       <c r="B183" s="2" t="s">
         <v>175</v>
@@ -6039,13 +6087,13 @@
         <v>253</v>
       </c>
       <c r="E183" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F183" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39"/>
       <c r="B184" s="2" t="s">
         <v>176</v>
@@ -6057,13 +6105,13 @@
         <v>254</v>
       </c>
       <c r="E184" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F184" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39"/>
       <c r="B185" s="2" t="s">
         <v>177</v>
@@ -6075,13 +6123,13 @@
         <v>255</v>
       </c>
       <c r="E185" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F185" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39"/>
       <c r="B186" s="2" t="s">
         <v>178</v>
@@ -6093,13 +6141,13 @@
         <v>256</v>
       </c>
       <c r="E186" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F186" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39"/>
       <c r="B187" s="2" t="s">
         <v>179</v>
@@ -6111,13 +6159,13 @@
         <v>257</v>
       </c>
       <c r="E187" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F187" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39"/>
       <c r="B188" s="2" t="s">
         <v>180</v>
@@ -6129,13 +6177,13 @@
         <v>258</v>
       </c>
       <c r="E188" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F188" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39"/>
       <c r="B189" s="2" t="s">
         <v>181</v>
@@ -6147,13 +6195,13 @@
         <v>259</v>
       </c>
       <c r="E189" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="F189" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="s">
         <v>213</v>
       </c>
@@ -6166,14 +6214,14 @@
       <c r="D190" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E190" s="2">
-        <v>324</v>
+      <c r="E190" s="1">
+        <v>501</v>
       </c>
       <c r="F190" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39"/>
       <c r="B191" s="2" t="s">
         <v>188</v>
@@ -6184,14 +6232,14 @@
       <c r="D191" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E191" s="2">
-        <v>312</v>
+      <c r="E191" s="1">
+        <v>481</v>
       </c>
       <c r="F191" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39"/>
       <c r="B192" s="2" t="s">
         <v>189</v>
@@ -6202,14 +6250,14 @@
       <c r="D192" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E192" s="2">
-        <v>298</v>
+      <c r="E192" s="1">
+        <v>461</v>
       </c>
       <c r="F192" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39"/>
       <c r="B193" s="2" t="s">
         <v>190</v>
@@ -6220,14 +6268,14 @@
       <c r="D193" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E193" s="2">
-        <v>286</v>
+      <c r="E193" s="1">
+        <v>441</v>
       </c>
       <c r="F193" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39"/>
       <c r="B194" s="2" t="s">
         <v>191</v>
@@ -6238,14 +6286,14 @@
       <c r="D194" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E194" s="2">
-        <v>233</v>
+      <c r="E194" s="1">
+        <v>384</v>
       </c>
       <c r="F194" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39"/>
       <c r="B195" s="2" t="s">
         <v>192</v>
@@ -6256,14 +6304,14 @@
       <c r="D195" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E195" s="2">
-        <v>212</v>
+      <c r="E195" s="1">
+        <v>348</v>
       </c>
       <c r="F195" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39"/>
       <c r="B196" s="2" t="s">
         <v>193</v>
@@ -6274,14 +6322,14 @@
       <c r="D196" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E196" s="2">
-        <v>197</v>
+      <c r="E196" s="1">
+        <v>319</v>
       </c>
       <c r="F196" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39"/>
       <c r="B197" s="2" t="s">
         <v>194</v>
@@ -6292,14 +6340,14 @@
       <c r="D197" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E197" s="2">
-        <v>183</v>
+      <c r="E197" s="1">
+        <v>289</v>
       </c>
       <c r="F197" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="s">
         <v>214</v>
       </c>
@@ -6313,13 +6361,13 @@
         <v>275</v>
       </c>
       <c r="E198" s="2">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="F198" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39"/>
       <c r="B199" s="2" t="s">
         <v>196</v>
@@ -6331,13 +6379,13 @@
         <v>276</v>
       </c>
       <c r="E199" s="2">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="F199" s="1">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39"/>
       <c r="B200" s="2" t="s">
         <v>197</v>
@@ -6349,13 +6397,13 @@
         <v>277</v>
       </c>
       <c r="E200" s="2">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="F200" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39"/>
       <c r="B201" s="2" t="s">
         <v>198</v>
@@ -6367,13 +6415,13 @@
         <v>278</v>
       </c>
       <c r="E201" s="2">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="F201" s="1">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39"/>
       <c r="B202" s="2" t="s">
         <v>199</v>
@@ -6385,13 +6433,13 @@
         <v>279</v>
       </c>
       <c r="E202" s="2">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="F202" s="1">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39"/>
       <c r="B203" s="2" t="s">
         <v>200</v>
@@ -6403,13 +6451,13 @@
         <v>280</v>
       </c>
       <c r="E203" s="2">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="F203" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39"/>
       <c r="B204" s="2" t="s">
         <v>201</v>
@@ -6421,13 +6469,13 @@
         <v>281</v>
       </c>
       <c r="E204" s="2">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="F204" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="39"/>
       <c r="B205" s="2" t="s">
         <v>202</v>
@@ -6439,13 +6487,13 @@
         <v>282</v>
       </c>
       <c r="E205" s="2">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="F205" s="1">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39"/>
       <c r="B206" s="2" t="s">
         <v>203</v>
@@ -6457,13 +6505,13 @@
         <v>283</v>
       </c>
       <c r="E206" s="2">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="F206" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="39"/>
       <c r="B207" s="2" t="s">
         <v>204</v>
@@ -6475,13 +6523,13 @@
         <v>284</v>
       </c>
       <c r="E207" s="2">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="F207" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="39"/>
       <c r="B208" s="2" t="s">
         <v>205</v>
@@ -6493,13 +6541,13 @@
         <v>285</v>
       </c>
       <c r="E208" s="2">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="F208" s="1">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39"/>
       <c r="B209" s="2" t="s">
         <v>206</v>
@@ -6511,13 +6559,16 @@
         <v>286</v>
       </c>
       <c r="E209" s="2">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="F209" s="1">
-        <v>281</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G190:I197">
+    <sortCondition ref="G190:G197"/>
+  </sortState>
   <mergeCells count="9">
     <mergeCell ref="A190:A197"/>
     <mergeCell ref="A198:A209"/>
@@ -6543,9 +6594,9 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6577,7 +6628,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
@@ -6600,7 +6651,7 @@
       </c>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="33"/>
       <c r="C3" s="35"/>
@@ -6613,7 +6664,7 @@
       <c r="I3" s="35"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35"/>
@@ -6626,7 +6677,7 @@
       <c r="I4" s="35"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="33"/>
       <c r="C5" s="35"/>
@@ -6639,7 +6690,7 @@
       <c r="I5" s="35"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="34"/>
       <c r="C6" s="30"/>
@@ -6652,7 +6703,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>208</v>
       </c>
@@ -6672,7 +6723,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="33"/>
       <c r="C8" s="35"/>
@@ -6684,7 +6735,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="33"/>
       <c r="C9" s="35"/>
@@ -6696,7 +6747,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="33"/>
       <c r="C10" s="35"/>
@@ -6708,7 +6759,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="34"/>
       <c r="C11" s="30"/>
@@ -6720,7 +6771,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>209</v>
       </c>
@@ -6740,7 +6791,7 @@
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35"/>
@@ -6752,7 +6803,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="33"/>
       <c r="C14" s="35"/>
@@ -6764,7 +6815,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="33"/>
       <c r="C15" s="35"/>
@@ -6776,7 +6827,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30"/>
@@ -6788,7 +6839,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>210</v>
       </c>
@@ -6808,7 +6859,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="33"/>
       <c r="C18" s="35"/>
@@ -6820,7 +6871,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="33"/>
       <c r="C19" s="35"/>
@@ -6832,7 +6883,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="33"/>
       <c r="C20" s="35"/>
@@ -6844,7 +6895,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30"/>
@@ -6856,7 +6907,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>211</v>
       </c>
@@ -6882,7 +6933,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="33" t="s">
         <v>626</v>
@@ -6895,7 +6946,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="33" t="s">
         <v>627</v>
@@ -6907,7 +6958,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="33" t="s">
         <v>628</v>
@@ -6920,7 +6971,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="34" t="s">
         <v>629</v>
@@ -6934,7 +6985,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>449</v>
       </c>
@@ -6950,7 +7001,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
@@ -6962,7 +7013,7 @@
       <c r="I28" s="35"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
@@ -6974,7 +7025,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="33"/>
       <c r="C30" s="35"/>
@@ -6986,7 +7037,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
@@ -6998,7 +7049,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>212</v>
       </c>
@@ -7018,7 +7069,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -7030,7 +7081,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="33"/>
       <c r="C34" s="35"/>
@@ -7042,7 +7093,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="33"/>
       <c r="C35" s="35"/>
@@ -7054,7 +7105,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="34"/>
       <c r="C36" s="30"/>
@@ -7066,7 +7117,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>213</v>
       </c>
@@ -7086,22 +7137,22 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="36"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="36"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="36"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="40"/>
       <c r="B41" s="37"/>
       <c r="C41" s="14"/>
@@ -7113,7 +7164,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>214</v>
       </c>
@@ -7129,7 +7180,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
       <c r="B43" s="36"/>
       <c r="F43" t="s">
@@ -7137,17 +7188,17 @@
       </c>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="40"/>
       <c r="B44" s="36"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="40"/>
       <c r="B45" s="36"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="40"/>
       <c r="B46" s="37"/>
       <c r="C46" s="14"/>
@@ -7185,12 +7236,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7240,7 +7291,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -7288,7 +7339,7 @@
       </c>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="9" t="s">
         <v>618</v>
@@ -7346,7 +7397,7 @@
       </c>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
       <c r="B4" s="9" t="s">
         <v>620</v>
@@ -7404,7 +7455,7 @@
       </c>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>211</v>
       </c>
@@ -7446,7 +7497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
       <c r="B6" s="9" t="s">
         <v>618</v>
@@ -7482,7 +7533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="9" t="s">
         <v>620</v>
@@ -7530,7 +7581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>449</v>
       </c>
@@ -7558,7 +7609,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="9" t="s">
         <v>618</v>
@@ -7574,7 +7625,7 @@
       </c>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>620</v>
@@ -7600,7 +7651,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
         <v>213</v>
       </c>
@@ -7638,7 +7689,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>618</v>
@@ -7677,7 +7728,7 @@
       </c>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>620</v>
@@ -7721,7 +7772,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>214</v>
       </c>
@@ -7767,7 +7818,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="9" t="s">
         <v>618</v>
@@ -7810,7 +7861,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="10" t="s">
         <v>620</v>
@@ -7885,44 +7936,44 @@
       <selection activeCell="AH134" sqref="AH1:AI1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="5.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
-    </row>
-    <row r="2" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
+    </row>
+    <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -7975,9 +8026,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8030,9 +8081,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+    <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8085,9 +8136,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+    <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8140,9 +8191,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+    <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8195,9 +8246,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+    <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8250,9 +8301,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8305,9 +8356,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+    <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8360,9 +8411,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+    <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8415,9 +8466,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+    <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8470,9 +8521,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+    <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8525,9 +8576,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+    <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8580,9 +8631,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+    <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8635,9 +8686,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+    <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8690,9 +8741,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+    <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8745,9 +8796,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+    <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8800,9 +8851,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+    <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8855,9 +8906,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8910,9 +8961,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+    <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -8965,9 +9016,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+    <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9020,9 +9071,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+    <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9075,9 +9126,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+    <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9130,9 +9181,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+    <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9185,9 +9236,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+    <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9240,9 +9291,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+    <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9295,9 +9346,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
+    <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9350,9 +9401,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+    <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9405,9 +9456,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+    <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9460,9 +9511,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+    <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9515,9 +9566,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+    <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9570,9 +9621,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+    <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9625,9 +9676,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+    <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9680,9 +9731,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+    <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9735,9 +9786,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+    <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9790,9 +9841,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50" t="s">
+    <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9845,9 +9896,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
+    <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9900,9 +9951,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+    <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -9955,9 +10006,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
+    <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10010,9 +10061,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+    <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10065,9 +10116,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
+    <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10120,9 +10171,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+    <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10175,9 +10226,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+    <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10230,9 +10281,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+    <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10285,9 +10336,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+    <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10340,9 +10391,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+    <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10395,9 +10446,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
+    <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10450,9 +10501,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+    <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10505,9 +10556,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+    <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10560,9 +10611,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+    <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10615,9 +10666,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
+    <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10670,9 +10721,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
+    <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10725,11 +10776,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51" t="s">
+    <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10803,9 +10854,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
+    <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10879,9 +10930,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+    <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -10955,9 +11006,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
+    <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11031,9 +11082,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
+    <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11107,9 +11158,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
+    <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11183,9 +11234,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
+    <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11259,9 +11310,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
+    <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11335,9 +11386,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
+    <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11411,9 +11462,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
+    <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11487,9 +11538,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
+    <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11563,9 +11614,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
+    <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11639,9 +11690,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
+    <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11715,9 +11766,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
+    <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11791,9 +11842,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+    <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11867,9 +11918,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+    <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11943,9 +11994,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
+    <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12019,9 +12070,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
+    <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12095,9 +12146,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+    <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12171,9 +12222,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+    <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12247,9 +12298,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+    <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12323,9 +12374,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
+    <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12399,9 +12450,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
+    <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12475,9 +12526,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="52"/>
-      <c r="B76" s="49"/>
+    <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12551,9 +12602,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="52"/>
-      <c r="B77" s="51" t="s">
+    <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="47"/>
+      <c r="B77" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12627,9 +12678,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
+    <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12703,9 +12754,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
+    <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12779,9 +12830,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
+    <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12855,9 +12906,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
+    <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12931,9 +12982,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
+    <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13007,9 +13058,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
+    <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13083,9 +13134,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
+    <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13159,9 +13210,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
+    <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13235,9 +13286,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
+    <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13311,9 +13362,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
+    <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13387,9 +13438,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
+    <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13463,9 +13514,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
+    <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13539,9 +13590,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
+    <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13615,9 +13666,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
+    <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13691,9 +13742,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
+    <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13767,9 +13818,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
+    <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13843,9 +13894,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
+    <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13919,9 +13970,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
+    <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -13995,9 +14046,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
+    <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14071,9 +14122,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
+    <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14147,9 +14198,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
+    <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14223,9 +14274,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
+    <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14299,9 +14350,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="52"/>
-      <c r="B100" s="49"/>
+    <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14375,9 +14426,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="52"/>
-      <c r="B101" s="51" t="s">
+    <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="47"/>
+      <c r="B101" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14451,9 +14502,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
+    <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14527,9 +14578,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
+    <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14603,9 +14654,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
+    <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14679,9 +14730,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
+    <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14755,9 +14806,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
+    <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14831,9 +14882,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
+    <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14907,9 +14958,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
+    <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -14983,9 +15034,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
+    <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15059,9 +15110,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
+    <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15135,9 +15186,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
+    <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15211,9 +15262,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
+    <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15287,9 +15338,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
+    <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15363,9 +15414,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
+    <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15439,9 +15490,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
+    <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15515,9 +15566,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
+    <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15591,9 +15642,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="52"/>
-      <c r="B117" s="52"/>
+    <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15667,9 +15718,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="52"/>
-      <c r="B118" s="52"/>
+    <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15743,9 +15794,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="52"/>
-      <c r="B119" s="52"/>
+    <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15819,9 +15870,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
+    <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15895,9 +15946,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="52"/>
-      <c r="B121" s="52"/>
+    <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -15971,9 +16022,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="52"/>
-      <c r="B122" s="52"/>
+    <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="47"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16047,9 +16098,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="52"/>
-      <c r="B123" s="52"/>
+    <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16123,9 +16174,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="49"/>
-      <c r="B124" s="49"/>
+    <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16199,11 +16250,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="51" t="s">
+    <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16304,9 +16355,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52"/>
-      <c r="B126" s="52"/>
+    <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="47"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16407,9 +16458,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="52"/>
-      <c r="B127" s="52"/>
+    <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="47"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16510,9 +16561,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="52"/>
-      <c r="B128" s="52"/>
+    <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="47"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16613,9 +16664,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
+    <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16716,9 +16767,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52"/>
+    <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="47"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16819,9 +16870,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
+    <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="47"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16922,9 +16973,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
+    <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="47"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17025,9 +17076,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52"/>
+    <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="47"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17128,9 +17179,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
+    <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="47"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17231,9 +17282,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
+    <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17334,9 +17385,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
+    <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17437,9 +17488,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52"/>
+    <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17540,9 +17591,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="52"/>
-      <c r="B138" s="52"/>
+    <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17643,9 +17694,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52"/>
+    <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17746,9 +17797,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
+    <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17849,9 +17900,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
+    <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="47"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -17952,9 +18003,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
+    <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18055,9 +18106,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
+    <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18158,9 +18209,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
+    <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18261,9 +18312,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
+    <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18364,9 +18415,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
+    <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18467,9 +18518,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
+    <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18570,9 +18621,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="52"/>
-      <c r="B148" s="52"/>
+    <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18673,9 +18724,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="52"/>
-      <c r="B149" s="52"/>
+    <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18776,9 +18827,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="52"/>
-      <c r="B150" s="52"/>
+    <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18879,9 +18930,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="52"/>
-      <c r="B151" s="52"/>
+    <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -18982,9 +19033,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="52"/>
-      <c r="B152" s="52"/>
+    <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19085,9 +19136,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52"/>
+    <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19188,9 +19239,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52"/>
+    <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19291,9 +19342,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="52"/>
-      <c r="B155" s="52"/>
+    <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19394,9 +19445,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="52"/>
-      <c r="B156" s="52"/>
+    <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19497,9 +19548,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="52"/>
-      <c r="B157" s="49"/>
+    <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="47"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19600,9 +19651,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="52"/>
-      <c r="B158" s="51" t="s">
+    <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="47"/>
+      <c r="B158" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19703,9 +19754,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="52"/>
-      <c r="B159" s="52"/>
+    <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19806,9 +19857,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="52"/>
-      <c r="B160" s="52"/>
+    <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19909,9 +19960,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
+    <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20012,9 +20063,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
+    <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20115,9 +20166,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="52"/>
-      <c r="B163" s="52"/>
+    <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="47"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20218,9 +20269,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
+    <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="47"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20321,9 +20372,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
+    <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20424,9 +20475,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
+    <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20527,9 +20578,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="52"/>
-      <c r="B167" s="52"/>
+    <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20630,9 +20681,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="52"/>
-      <c r="B168" s="52"/>
+    <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20733,9 +20784,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="52"/>
-      <c r="B169" s="52"/>
+    <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20836,9 +20887,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="52"/>
-      <c r="B170" s="52"/>
+    <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="47"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20939,9 +20990,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="52"/>
-      <c r="B171" s="52"/>
+    <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="47"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21042,9 +21093,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="52"/>
-      <c r="B172" s="52"/>
+    <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="47"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21145,9 +21196,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="52"/>
-      <c r="B173" s="52"/>
+    <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="47"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21248,9 +21299,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="52"/>
-      <c r="B174" s="52"/>
+    <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="47"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21351,9 +21402,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="52"/>
-      <c r="B175" s="52"/>
+    <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="47"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21454,9 +21505,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="52"/>
-      <c r="B176" s="52"/>
+    <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="47"/>
+      <c r="B176" s="47"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21557,9 +21608,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="52"/>
-      <c r="B177" s="52"/>
+    <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="47"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21660,9 +21711,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="52"/>
-      <c r="B178" s="52"/>
+    <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21763,9 +21814,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="52"/>
-      <c r="B179" s="52"/>
+    <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21866,9 +21917,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="52"/>
-      <c r="B180" s="52"/>
+    <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -21969,9 +22020,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="52"/>
-      <c r="B181" s="52"/>
+    <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22072,9 +22123,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="52"/>
-      <c r="B182" s="52"/>
+    <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="47"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22175,9 +22226,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="52"/>
-      <c r="B183" s="52"/>
+    <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="47"/>
+      <c r="B183" s="47"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22278,9 +22329,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="52"/>
-      <c r="B184" s="52"/>
+    <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22381,9 +22432,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="52"/>
-      <c r="B185" s="52"/>
+    <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22484,9 +22535,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="52"/>
-      <c r="B186" s="52"/>
+    <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22587,9 +22638,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="52"/>
-      <c r="B187" s="52"/>
+    <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22690,9 +22741,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="52"/>
-      <c r="B188" s="52"/>
+    <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="47"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22793,9 +22844,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="52"/>
-      <c r="B189" s="52"/>
+    <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="47"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22896,9 +22947,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="52"/>
-      <c r="B190" s="49"/>
+    <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="47"/>
+      <c r="B190" s="48"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -22999,9 +23050,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="52"/>
-      <c r="B191" s="51" t="s">
+    <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="47"/>
+      <c r="B191" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23102,9 +23153,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="52"/>
-      <c r="B192" s="52"/>
+    <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="47"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23237,9 +23288,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
+    <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="47"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23372,9 +23423,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
+    <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="47"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23507,9 +23558,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
+    <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="47"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23642,9 +23693,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
+    <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="47"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23777,9 +23828,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="52"/>
-      <c r="B197" s="52"/>
+    <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="47"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23912,9 +23963,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:35" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="52"/>
-      <c r="B198" s="52"/>
+    <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="47"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24047,9 +24098,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="52"/>
-      <c r="B199" s="52"/>
+    <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="47"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24182,9 +24233,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="52"/>
-      <c r="B200" s="52"/>
+    <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="47"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24317,9 +24368,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="52"/>
-      <c r="B201" s="52"/>
+    <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="47"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24452,9 +24503,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="52"/>
-      <c r="B202" s="52"/>
+    <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="47"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24587,9 +24638,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="52"/>
-      <c r="B203" s="52"/>
+    <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="47"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24722,9 +24773,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="52"/>
-      <c r="B204" s="52"/>
+    <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="47"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24857,9 +24908,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="52"/>
-      <c r="B205" s="52"/>
+    <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="47"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -24992,9 +25043,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="52"/>
-      <c r="B206" s="52"/>
+    <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="47"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25127,9 +25178,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="52"/>
-      <c r="B207" s="52"/>
+    <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="47"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25262,9 +25313,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="52"/>
-      <c r="B208" s="52"/>
+    <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="47"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25397,9 +25448,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="52"/>
-      <c r="B209" s="52"/>
+    <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="47"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25532,9 +25583,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="52"/>
-      <c r="B210" s="52"/>
+    <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="47"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25667,9 +25718,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
+    <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="47"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25802,9 +25853,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
+    <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="47"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25937,9 +25988,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="52"/>
-      <c r="B213" s="52"/>
+    <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="47"/>
+      <c r="B213" s="47"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26072,9 +26123,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="52"/>
-      <c r="B214" s="52"/>
+    <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="47"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26207,9 +26258,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="52"/>
-      <c r="B215" s="52"/>
+    <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="47"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26342,9 +26393,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="52"/>
-      <c r="B216" s="52"/>
+    <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="47"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26477,9 +26528,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="52"/>
-      <c r="B217" s="52"/>
+    <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="47"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26612,9 +26663,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="52"/>
-      <c r="B218" s="52"/>
+    <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="47"/>
+      <c r="B218" s="47"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26747,9 +26798,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="52"/>
-      <c r="B219" s="52"/>
+    <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="47"/>
+      <c r="B219" s="47"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26882,9 +26933,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="52"/>
-      <c r="B220" s="52"/>
+    <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="47"/>
+      <c r="B220" s="47"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27017,9 +27068,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="52"/>
-      <c r="B221" s="52"/>
+    <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27152,9 +27203,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="52"/>
-      <c r="B222" s="52"/>
+    <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27287,9 +27338,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="49"/>
-      <c r="B223" s="49"/>
+    <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="48"/>
+      <c r="B223" s="48"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27422,11 +27473,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="53" t="s">
+    <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27487,9 +27538,9 @@
       <c r="AF224" s="16"/>
       <c r="AG224" s="16"/>
     </row>
-    <row r="225" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="54"/>
-      <c r="B225" s="52"/>
+    <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="50"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27550,9 +27601,9 @@
       <c r="AF225" s="16"/>
       <c r="AG225" s="16"/>
     </row>
-    <row r="226" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="54"/>
-      <c r="B226" s="52"/>
+    <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="50"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27613,9 +27664,9 @@
       <c r="AF226" s="16"/>
       <c r="AG226" s="16"/>
     </row>
-    <row r="227" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="54"/>
-      <c r="B227" s="52"/>
+    <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="50"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27676,9 +27727,9 @@
       <c r="AF227" s="16"/>
       <c r="AG227" s="16"/>
     </row>
-    <row r="228" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="54"/>
-      <c r="B228" s="52"/>
+    <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="50"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27739,9 +27790,9 @@
       <c r="AF228" s="16"/>
       <c r="AG228" s="16"/>
     </row>
-    <row r="229" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="54"/>
-      <c r="B229" s="52"/>
+    <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="50"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27802,9 +27853,9 @@
       <c r="AF229" s="16"/>
       <c r="AG229" s="16"/>
     </row>
-    <row r="230" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="54"/>
-      <c r="B230" s="52"/>
+    <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="50"/>
+      <c r="B230" s="47"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27865,9 +27916,9 @@
       <c r="AF230" s="16"/>
       <c r="AG230" s="16"/>
     </row>
-    <row r="231" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="54"/>
-      <c r="B231" s="52"/>
+    <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="50"/>
+      <c r="B231" s="47"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27928,9 +27979,9 @@
       <c r="AF231" s="16"/>
       <c r="AG231" s="16"/>
     </row>
-    <row r="232" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="54"/>
-      <c r="B232" s="52"/>
+    <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="50"/>
+      <c r="B232" s="47"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -27991,9 +28042,9 @@
       <c r="AF232" s="16"/>
       <c r="AG232" s="16"/>
     </row>
-    <row r="233" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="54"/>
-      <c r="B233" s="52"/>
+    <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="50"/>
+      <c r="B233" s="47"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28054,9 +28105,9 @@
       <c r="AF233" s="16"/>
       <c r="AG233" s="16"/>
     </row>
-    <row r="234" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="54"/>
-      <c r="B234" s="52"/>
+    <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="50"/>
+      <c r="B234" s="47"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28117,9 +28168,9 @@
       <c r="AF234" s="16"/>
       <c r="AG234" s="16"/>
     </row>
-    <row r="235" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="54"/>
-      <c r="B235" s="52"/>
+    <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="50"/>
+      <c r="B235" s="47"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28180,9 +28231,9 @@
       <c r="AF235" s="16"/>
       <c r="AG235" s="16"/>
     </row>
-    <row r="236" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="54"/>
-      <c r="B236" s="52"/>
+    <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="50"/>
+      <c r="B236" s="47"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28243,9 +28294,9 @@
       <c r="AF236" s="16"/>
       <c r="AG236" s="16"/>
     </row>
-    <row r="237" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="54"/>
-      <c r="B237" s="49"/>
+    <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="50"/>
+      <c r="B237" s="48"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28306,9 +28357,9 @@
       <c r="AF237" s="16"/>
       <c r="AG237" s="16"/>
     </row>
-    <row r="238" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="54"/>
-      <c r="B238" s="51" t="s">
+    <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="50"/>
+      <c r="B238" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28352,9 +28403,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="54"/>
-      <c r="B239" s="52"/>
+    <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="50"/>
+      <c r="B239" s="47"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28398,9 +28449,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="54"/>
-      <c r="B240" s="52"/>
+    <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="50"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28444,9 +28495,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="54"/>
-      <c r="B241" s="52"/>
+    <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="50"/>
+      <c r="B241" s="47"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28490,9 +28541,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="54"/>
-      <c r="B242" s="52"/>
+    <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="50"/>
+      <c r="B242" s="47"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28536,9 +28587,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="54"/>
-      <c r="B243" s="52"/>
+    <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="50"/>
+      <c r="B243" s="47"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28582,9 +28633,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="54"/>
-      <c r="B244" s="52"/>
+    <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="50"/>
+      <c r="B244" s="47"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28628,9 +28679,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="54"/>
-      <c r="B245" s="52"/>
+    <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="50"/>
+      <c r="B245" s="47"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28674,9 +28725,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="54"/>
-      <c r="B246" s="52"/>
+    <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="50"/>
+      <c r="B246" s="47"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28720,9 +28771,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="54"/>
-      <c r="B247" s="52"/>
+    <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="50"/>
+      <c r="B247" s="47"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28766,9 +28817,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="54"/>
-      <c r="B248" s="52"/>
+    <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="50"/>
+      <c r="B248" s="47"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28812,9 +28863,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="54"/>
-      <c r="B249" s="52"/>
+    <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="50"/>
+      <c r="B249" s="47"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28858,9 +28909,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="54"/>
-      <c r="B250" s="52"/>
+    <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="50"/>
+      <c r="B250" s="47"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28904,9 +28955,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="54"/>
-      <c r="B251" s="49"/>
+    <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="50"/>
+      <c r="B251" s="48"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -28950,9 +29001,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="54"/>
-      <c r="B252" s="51" t="s">
+    <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="50"/>
+      <c r="B252" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -28996,9 +29047,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="54"/>
-      <c r="B253" s="52"/>
+    <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="50"/>
+      <c r="B253" s="47"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29042,9 +29093,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="54"/>
-      <c r="B254" s="52"/>
+    <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="50"/>
+      <c r="B254" s="47"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29088,9 +29139,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="54"/>
-      <c r="B255" s="52"/>
+    <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="50"/>
+      <c r="B255" s="47"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29134,9 +29185,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="54"/>
-      <c r="B256" s="52"/>
+    <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="50"/>
+      <c r="B256" s="47"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29180,9 +29231,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="54"/>
-      <c r="B257" s="52"/>
+    <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="50"/>
+      <c r="B257" s="47"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29226,9 +29277,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="54"/>
-      <c r="B258" s="52"/>
+    <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="50"/>
+      <c r="B258" s="47"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29272,9 +29323,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="54"/>
-      <c r="B259" s="52"/>
+    <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="50"/>
+      <c r="B259" s="47"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29318,9 +29369,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="54"/>
-      <c r="B260" s="52"/>
+    <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="50"/>
+      <c r="B260" s="47"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29364,9 +29415,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="54"/>
-      <c r="B261" s="52"/>
+    <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="50"/>
+      <c r="B261" s="47"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29410,9 +29461,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="54"/>
-      <c r="B262" s="52"/>
+    <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="50"/>
+      <c r="B262" s="47"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29456,9 +29507,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="54"/>
-      <c r="B263" s="52"/>
+    <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="50"/>
+      <c r="B263" s="47"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29502,9 +29553,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="54"/>
-      <c r="B264" s="52"/>
+    <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="50"/>
+      <c r="B264" s="47"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29548,9 +29599,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="54"/>
-      <c r="B265" s="49"/>
+    <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="50"/>
+      <c r="B265" s="48"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29596,6 +29647,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29608,11 +29664,6 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POINTAST\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B813AD-3C22-42FD-A6D2-D87F73328799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557F439-119B-40E3-BF8B-F0EC3488EF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
+    <workbookView xWindow="14265" yWindow="615" windowWidth="14100" windowHeight="15060" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
@@ -2340,21 +2340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,7 +2349,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2724,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3455,7 +3455,7 @@
         <v>377</v>
       </c>
       <c r="E40" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F40" s="1">
         <v>176</v>
@@ -3476,7 +3476,7 @@
         <v>378</v>
       </c>
       <c r="E41" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1">
         <v>188</v>
@@ -3497,7 +3497,7 @@
         <v>379</v>
       </c>
       <c r="E42" s="2">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F42" s="1">
         <v>200</v>
@@ -3518,7 +3518,7 @@
         <v>380</v>
       </c>
       <c r="E43" s="2">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F43" s="1">
         <v>200</v>
@@ -3539,7 +3539,7 @@
         <v>390</v>
       </c>
       <c r="E44" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F44" s="1">
         <v>200</v>
@@ -3560,7 +3560,7 @@
         <v>389</v>
       </c>
       <c r="E45" s="2">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F45" s="1">
         <v>200</v>
@@ -3581,7 +3581,7 @@
         <v>388</v>
       </c>
       <c r="E46" s="2">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F46" s="1">
         <v>200</v>
@@ -3602,7 +3602,7 @@
         <v>387</v>
       </c>
       <c r="E47" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F47" s="1">
         <v>200</v>
@@ -3623,7 +3623,7 @@
         <v>386</v>
       </c>
       <c r="E48" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F48" s="1">
         <v>200</v>
@@ -3644,7 +3644,7 @@
         <v>385</v>
       </c>
       <c r="E49" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F49" s="1">
         <v>200</v>
@@ -4227,7 +4227,7 @@
         <v>507</v>
       </c>
       <c r="E80" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F80" s="1">
         <v>186</v>
@@ -4245,7 +4245,7 @@
         <v>508</v>
       </c>
       <c r="E81" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F81" s="1">
         <v>176</v>
@@ -4263,7 +4263,7 @@
         <v>509</v>
       </c>
       <c r="E82" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F82" s="1">
         <v>166</v>
@@ -4281,7 +4281,7 @@
         <v>510</v>
       </c>
       <c r="E83" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F83" s="1">
         <v>156</v>
@@ -4299,7 +4299,7 @@
         <v>511</v>
       </c>
       <c r="E84" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F84" s="1">
         <v>142</v>
@@ -4317,7 +4317,7 @@
         <v>512</v>
       </c>
       <c r="E85" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F85" s="1">
         <v>131</v>
@@ -4335,7 +4335,7 @@
         <v>513</v>
       </c>
       <c r="E86" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F86" s="1">
         <v>131</v>
@@ -4353,7 +4353,7 @@
         <v>514</v>
       </c>
       <c r="E87" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F87" s="1">
         <v>131</v>
@@ -4371,7 +4371,7 @@
         <v>515</v>
       </c>
       <c r="E88" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F88" s="1">
         <v>131</v>
@@ -4389,7 +4389,7 @@
         <v>516</v>
       </c>
       <c r="E89" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F89" s="1">
         <v>131</v>
@@ -4407,7 +4407,7 @@
         <v>517</v>
       </c>
       <c r="E90" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F90" s="1">
         <v>131</v>
@@ -4425,7 +4425,7 @@
         <v>518</v>
       </c>
       <c r="E91" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F91" s="1">
         <v>131</v>
@@ -4443,7 +4443,7 @@
         <v>255</v>
       </c>
       <c r="E92" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F92" s="1">
         <v>131</v>
@@ -4461,7 +4461,7 @@
         <v>519</v>
       </c>
       <c r="E93" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F93" s="1">
         <v>131</v>
@@ -4479,7 +4479,7 @@
         <v>520</v>
       </c>
       <c r="E94" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F94" s="1">
         <v>131</v>
@@ -4497,7 +4497,7 @@
         <v>521</v>
       </c>
       <c r="E95" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F95" s="1">
         <v>131</v>
@@ -4515,7 +4515,7 @@
         <v>522</v>
       </c>
       <c r="E96" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F96" s="1">
         <v>131</v>
@@ -4533,7 +4533,7 @@
         <v>523</v>
       </c>
       <c r="E97" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F97" s="1">
         <v>131</v>
@@ -4551,7 +4551,7 @@
         <v>524</v>
       </c>
       <c r="E98" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F98" s="1">
         <v>131</v>
@@ -4569,7 +4569,7 @@
         <v>525</v>
       </c>
       <c r="E99" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F99" s="1">
         <v>131</v>
@@ -4587,7 +4587,7 @@
         <v>526</v>
       </c>
       <c r="E100" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F100" s="1">
         <v>131</v>
@@ -4605,7 +4605,7 @@
         <v>527</v>
       </c>
       <c r="E101" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F101" s="1">
         <v>131</v>
@@ -4623,7 +4623,7 @@
         <v>528</v>
       </c>
       <c r="E102" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F102" s="1">
         <v>131</v>
@@ -4641,7 +4641,7 @@
         <v>529</v>
       </c>
       <c r="E103" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F103" s="1">
         <v>141</v>
@@ -4659,7 +4659,7 @@
         <v>530</v>
       </c>
       <c r="E104" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F104" s="1">
         <v>151</v>
@@ -4677,7 +4677,7 @@
         <v>531</v>
       </c>
       <c r="E105" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F105" s="1">
         <v>161</v>
@@ -4695,7 +4695,7 @@
         <v>532</v>
       </c>
       <c r="E106" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F106" s="1">
         <v>171</v>
@@ -4713,7 +4713,7 @@
         <v>533</v>
       </c>
       <c r="E107" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F107" s="1">
         <v>181</v>
@@ -4731,7 +4731,7 @@
         <v>534</v>
       </c>
       <c r="E108" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F108" s="1">
         <v>191</v>
@@ -4749,7 +4749,7 @@
         <v>505</v>
       </c>
       <c r="E109" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F109" s="1">
         <v>99</v>
@@ -4767,7 +4767,7 @@
         <v>506</v>
       </c>
       <c r="E110" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F110" s="1">
         <v>115</v>
@@ -7949,31 +7949,31 @@
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -8027,8 +8027,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8082,8 +8082,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8137,8 +8137,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8192,8 +8192,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8247,8 +8247,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8302,8 +8302,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8357,8 +8357,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8412,8 +8412,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8467,8 +8467,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8522,8 +8522,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8577,8 +8577,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8632,8 +8632,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8687,8 +8687,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8742,8 +8742,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8797,8 +8797,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8852,8 +8852,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8907,8 +8907,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8962,8 +8962,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -9017,8 +9017,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9072,8 +9072,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9127,8 +9127,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9182,8 +9182,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9237,8 +9237,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9292,8 +9292,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9347,8 +9347,8 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9402,8 +9402,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9457,8 +9457,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9512,8 +9512,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9567,8 +9567,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9622,8 +9622,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9677,8 +9677,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9732,8 +9732,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9787,8 +9787,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9842,8 +9842,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9897,8 +9897,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9952,8 +9952,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -10007,8 +10007,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10062,8 +10062,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10117,8 +10117,8 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10172,8 +10172,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10227,8 +10227,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10282,8 +10282,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10337,8 +10337,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10392,8 +10392,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10447,8 +10447,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10502,8 +10502,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10557,8 +10557,8 @@
       </c>
     </row>
     <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10612,8 +10612,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10667,8 +10667,8 @@
       </c>
     </row>
     <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10722,8 +10722,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10777,10 +10777,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10855,8 +10855,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10931,8 +10931,8 @@
       </c>
     </row>
     <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -11007,8 +11007,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11083,8 +11083,8 @@
       </c>
     </row>
     <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11159,8 +11159,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11235,8 +11235,8 @@
       </c>
     </row>
     <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11311,8 +11311,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11387,8 +11387,8 @@
       </c>
     </row>
     <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11463,8 +11463,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11539,8 +11539,8 @@
       </c>
     </row>
     <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11615,8 +11615,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11691,8 +11691,8 @@
       </c>
     </row>
     <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11767,8 +11767,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11843,8 +11843,8 @@
       </c>
     </row>
     <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11919,8 +11919,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11995,8 +11995,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12071,8 +12071,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12147,8 +12147,8 @@
       </c>
     </row>
     <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12223,8 +12223,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12299,8 +12299,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12375,8 +12375,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12451,8 +12451,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12527,8 +12527,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12603,8 +12603,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
-      <c r="B77" s="46" t="s">
+      <c r="A77" s="52"/>
+      <c r="B77" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12679,8 +12679,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12755,8 +12755,8 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12831,8 +12831,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12907,8 +12907,8 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12983,8 +12983,8 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13059,8 +13059,8 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13135,8 +13135,8 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13211,8 +13211,8 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13287,8 +13287,8 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13363,8 +13363,8 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13439,8 +13439,8 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13515,8 +13515,8 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13591,8 +13591,8 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13667,8 +13667,8 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13743,8 +13743,8 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13819,8 +13819,8 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13895,8 +13895,8 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13971,8 +13971,8 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -14047,8 +14047,8 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14123,8 +14123,8 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14199,8 +14199,8 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14275,8 +14275,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14351,8 +14351,8 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="47"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14427,8 +14427,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="47"/>
-      <c r="B101" s="46" t="s">
+      <c r="A101" s="52"/>
+      <c r="B101" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14503,8 +14503,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14579,8 +14579,8 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14655,8 +14655,8 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14731,8 +14731,8 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14807,8 +14807,8 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14883,8 +14883,8 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14959,8 +14959,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -15035,8 +15035,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15111,8 +15111,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15187,8 +15187,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15263,8 +15263,8 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15339,8 +15339,8 @@
       </c>
     </row>
     <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15415,8 +15415,8 @@
       </c>
     </row>
     <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15491,8 +15491,8 @@
       </c>
     </row>
     <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="21" t="s">
         <v>69</v>
       </c>
@@ -15567,8 +15567,8 @@
       </c>
     </row>
     <row r="116" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
       <c r="C116" s="21" t="s">
         <v>70</v>
       </c>
@@ -15643,8 +15643,8 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="21" t="s">
         <v>71</v>
       </c>
@@ -15719,8 +15719,8 @@
       </c>
     </row>
     <row r="118" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
       <c r="C118" s="21" t="s">
         <v>72</v>
       </c>
@@ -15795,8 +15795,8 @@
       </c>
     </row>
     <row r="119" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="21" t="s">
         <v>73</v>
       </c>
@@ -15871,8 +15871,8 @@
       </c>
     </row>
     <row r="120" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="21" t="s">
         <v>74</v>
       </c>
@@ -15947,8 +15947,8 @@
       </c>
     </row>
     <row r="121" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
       <c r="C121" s="21" t="s">
         <v>75</v>
       </c>
@@ -16023,8 +16023,8 @@
       </c>
     </row>
     <row r="122" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
       <c r="C122" s="21" t="s">
         <v>76</v>
       </c>
@@ -16099,8 +16099,8 @@
       </c>
     </row>
     <row r="123" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="21" t="s">
         <v>77</v>
       </c>
@@ -16175,8 +16175,8 @@
       </c>
     </row>
     <row r="124" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
+      <c r="A124" s="49"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="23" t="s">
         <v>78</v>
       </c>
@@ -16251,10 +16251,10 @@
       </c>
     </row>
     <row r="125" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C125" s="18"/>
@@ -16356,8 +16356,8 @@
       </c>
     </row>
     <row r="126" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
       <c r="C126" s="21" t="s">
         <v>79</v>
       </c>
@@ -16459,8 +16459,8 @@
       </c>
     </row>
     <row r="127" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
       <c r="C127" s="21" t="s">
         <v>80</v>
       </c>
@@ -16562,8 +16562,8 @@
       </c>
     </row>
     <row r="128" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="21" t="s">
         <v>81</v>
       </c>
@@ -16665,8 +16665,8 @@
       </c>
     </row>
     <row r="129" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
-      <c r="B129" s="47"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
       <c r="C129" s="21" t="s">
         <v>82</v>
       </c>
@@ -16768,8 +16768,8 @@
       </c>
     </row>
     <row r="130" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="21" t="s">
         <v>83</v>
       </c>
@@ -16871,8 +16871,8 @@
       </c>
     </row>
     <row r="131" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
       <c r="C131" s="21" t="s">
         <v>84</v>
       </c>
@@ -16974,8 +16974,8 @@
       </c>
     </row>
     <row r="132" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
       <c r="C132" s="21" t="s">
         <v>85</v>
       </c>
@@ -17077,8 +17077,8 @@
       </c>
     </row>
     <row r="133" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="21" t="s">
         <v>86</v>
       </c>
@@ -17180,8 +17180,8 @@
       </c>
     </row>
     <row r="134" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
       <c r="C134" s="21" t="s">
         <v>87</v>
       </c>
@@ -17283,8 +17283,8 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="21" t="s">
         <v>88</v>
       </c>
@@ -17386,8 +17386,8 @@
       </c>
     </row>
     <row r="136" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
       <c r="C136" s="21" t="s">
         <v>109</v>
       </c>
@@ -17489,8 +17489,8 @@
       </c>
     </row>
     <row r="137" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
       <c r="C137" s="21" t="s">
         <v>110</v>
       </c>
@@ -17592,8 +17592,8 @@
       </c>
     </row>
     <row r="138" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
       <c r="C138" s="21" t="s">
         <v>89</v>
       </c>
@@ -17695,8 +17695,8 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="21" t="s">
         <v>90</v>
       </c>
@@ -17798,8 +17798,8 @@
       </c>
     </row>
     <row r="140" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="21" t="s">
         <v>91</v>
       </c>
@@ -17901,8 +17901,8 @@
       </c>
     </row>
     <row r="141" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
       <c r="C141" s="21" t="s">
         <v>92</v>
       </c>
@@ -18004,8 +18004,8 @@
       </c>
     </row>
     <row r="142" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
       <c r="C142" s="21" t="s">
         <v>93</v>
       </c>
@@ -18107,8 +18107,8 @@
       </c>
     </row>
     <row r="143" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="21" t="s">
         <v>94</v>
       </c>
@@ -18210,8 +18210,8 @@
       </c>
     </row>
     <row r="144" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
       <c r="C144" s="21" t="s">
         <v>95</v>
       </c>
@@ -18313,8 +18313,8 @@
       </c>
     </row>
     <row r="145" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="21" t="s">
         <v>96</v>
       </c>
@@ -18416,8 +18416,8 @@
       </c>
     </row>
     <row r="146" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="21" t="s">
         <v>97</v>
       </c>
@@ -18519,8 +18519,8 @@
       </c>
     </row>
     <row r="147" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="21" t="s">
         <v>98</v>
       </c>
@@ -18622,8 +18622,8 @@
       </c>
     </row>
     <row r="148" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="52"/>
       <c r="C148" s="21" t="s">
         <v>99</v>
       </c>
@@ -18725,8 +18725,8 @@
       </c>
     </row>
     <row r="149" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="52"/>
       <c r="C149" s="21" t="s">
         <v>100</v>
       </c>
@@ -18828,8 +18828,8 @@
       </c>
     </row>
     <row r="150" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="21" t="s">
         <v>101</v>
       </c>
@@ -18931,8 +18931,8 @@
       </c>
     </row>
     <row r="151" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="52"/>
       <c r="C151" s="21" t="s">
         <v>102</v>
       </c>
@@ -19034,8 +19034,8 @@
       </c>
     </row>
     <row r="152" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
       <c r="C152" s="21" t="s">
         <v>103</v>
       </c>
@@ -19137,8 +19137,8 @@
       </c>
     </row>
     <row r="153" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="21" t="s">
         <v>104</v>
       </c>
@@ -19240,8 +19240,8 @@
       </c>
     </row>
     <row r="154" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="21" t="s">
         <v>105</v>
       </c>
@@ -19343,8 +19343,8 @@
       </c>
     </row>
     <row r="155" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="21" t="s">
         <v>106</v>
       </c>
@@ -19446,8 +19446,8 @@
       </c>
     </row>
     <row r="156" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
       <c r="C156" s="21" t="s">
         <v>107</v>
       </c>
@@ -19549,8 +19549,8 @@
       </c>
     </row>
     <row r="157" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
-      <c r="B157" s="48"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="49"/>
       <c r="C157" s="23" t="s">
         <v>108</v>
       </c>
@@ -19652,8 +19652,8 @@
       </c>
     </row>
     <row r="158" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="47"/>
-      <c r="B158" s="46" t="s">
+      <c r="A158" s="52"/>
+      <c r="B158" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C158" s="18"/>
@@ -19755,8 +19755,8 @@
       </c>
     </row>
     <row r="159" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
       <c r="C159" s="21" t="s">
         <v>79</v>
       </c>
@@ -19858,8 +19858,8 @@
       </c>
     </row>
     <row r="160" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="21" t="s">
         <v>80</v>
       </c>
@@ -19961,8 +19961,8 @@
       </c>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
       <c r="C161" s="21" t="s">
         <v>81</v>
       </c>
@@ -20064,8 +20064,8 @@
       </c>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
       <c r="C162" s="21" t="s">
         <v>82</v>
       </c>
@@ -20167,8 +20167,8 @@
       </c>
     </row>
     <row r="163" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
-      <c r="B163" s="47"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="21" t="s">
         <v>83</v>
       </c>
@@ -20270,8 +20270,8 @@
       </c>
     </row>
     <row r="164" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
-      <c r="B164" s="47"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
       <c r="C164" s="21" t="s">
         <v>84</v>
       </c>
@@ -20373,8 +20373,8 @@
       </c>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="21" t="s">
         <v>85</v>
       </c>
@@ -20476,8 +20476,8 @@
       </c>
     </row>
     <row r="166" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
       <c r="C166" s="21" t="s">
         <v>86</v>
       </c>
@@ -20579,8 +20579,8 @@
       </c>
     </row>
     <row r="167" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
       <c r="C167" s="21" t="s">
         <v>87</v>
       </c>
@@ -20682,8 +20682,8 @@
       </c>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="47"/>
-      <c r="B168" s="47"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
       <c r="C168" s="21" t="s">
         <v>88</v>
       </c>
@@ -20785,8 +20785,8 @@
       </c>
     </row>
     <row r="169" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
       <c r="C169" s="21" t="s">
         <v>109</v>
       </c>
@@ -20888,8 +20888,8 @@
       </c>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="47"/>
-      <c r="B170" s="47"/>
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="21" t="s">
         <v>110</v>
       </c>
@@ -20991,8 +20991,8 @@
       </c>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="47"/>
-      <c r="B171" s="47"/>
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
       <c r="C171" s="21" t="s">
         <v>89</v>
       </c>
@@ -21094,8 +21094,8 @@
       </c>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="47"/>
-      <c r="B172" s="47"/>
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
       <c r="C172" s="21" t="s">
         <v>90</v>
       </c>
@@ -21197,8 +21197,8 @@
       </c>
     </row>
     <row r="173" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="47"/>
-      <c r="B173" s="47"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="21" t="s">
         <v>91</v>
       </c>
@@ -21300,8 +21300,8 @@
       </c>
     </row>
     <row r="174" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="47"/>
-      <c r="B174" s="47"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
       <c r="C174" s="21" t="s">
         <v>92</v>
       </c>
@@ -21403,8 +21403,8 @@
       </c>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="21" t="s">
         <v>93</v>
       </c>
@@ -21506,8 +21506,8 @@
       </c>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="47"/>
-      <c r="B176" s="47"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="52"/>
       <c r="C176" s="21" t="s">
         <v>94</v>
       </c>
@@ -21609,8 +21609,8 @@
       </c>
     </row>
     <row r="177" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="47"/>
-      <c r="B177" s="47"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
       <c r="C177" s="21" t="s">
         <v>95</v>
       </c>
@@ -21712,8 +21712,8 @@
       </c>
     </row>
     <row r="178" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
       <c r="C178" s="21" t="s">
         <v>96</v>
       </c>
@@ -21815,8 +21815,8 @@
       </c>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
       <c r="C179" s="21" t="s">
         <v>97</v>
       </c>
@@ -21918,8 +21918,8 @@
       </c>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="21" t="s">
         <v>98</v>
       </c>
@@ -22021,8 +22021,8 @@
       </c>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
       <c r="C181" s="21" t="s">
         <v>99</v>
       </c>
@@ -22124,8 +22124,8 @@
       </c>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="47"/>
-      <c r="B182" s="47"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="52"/>
       <c r="C182" s="21" t="s">
         <v>100</v>
       </c>
@@ -22227,8 +22227,8 @@
       </c>
     </row>
     <row r="183" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="21" t="s">
         <v>101</v>
       </c>
@@ -22330,8 +22330,8 @@
       </c>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="52"/>
       <c r="C184" s="21" t="s">
         <v>102</v>
       </c>
@@ -22433,8 +22433,8 @@
       </c>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="52"/>
       <c r="C185" s="21" t="s">
         <v>103</v>
       </c>
@@ -22536,8 +22536,8 @@
       </c>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="52"/>
       <c r="C186" s="21" t="s">
         <v>104</v>
       </c>
@@ -22639,8 +22639,8 @@
       </c>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="52"/>
       <c r="C187" s="21" t="s">
         <v>105</v>
       </c>
@@ -22742,8 +22742,8 @@
       </c>
     </row>
     <row r="188" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="47"/>
-      <c r="B188" s="47"/>
+      <c r="A188" s="52"/>
+      <c r="B188" s="52"/>
       <c r="C188" s="21" t="s">
         <v>106</v>
       </c>
@@ -22845,8 +22845,8 @@
       </c>
     </row>
     <row r="189" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="47"/>
-      <c r="B189" s="47"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="52"/>
       <c r="C189" s="21" t="s">
         <v>107</v>
       </c>
@@ -22948,8 +22948,8 @@
       </c>
     </row>
     <row r="190" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="47"/>
-      <c r="B190" s="48"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="23" t="s">
         <v>108</v>
       </c>
@@ -23051,8 +23051,8 @@
       </c>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="47"/>
-      <c r="B191" s="46" t="s">
+      <c r="A191" s="52"/>
+      <c r="B191" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C191" s="18"/>
@@ -23154,8 +23154,8 @@
       </c>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="47"/>
-      <c r="B192" s="47"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
       <c r="C192" s="21" t="s">
         <v>79</v>
       </c>
@@ -23289,8 +23289,8 @@
       </c>
     </row>
     <row r="193" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="47"/>
-      <c r="B193" s="47"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
       <c r="C193" s="21" t="s">
         <v>80</v>
       </c>
@@ -23424,8 +23424,8 @@
       </c>
     </row>
     <row r="194" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="47"/>
-      <c r="B194" s="47"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
       <c r="C194" s="21" t="s">
         <v>81</v>
       </c>
@@ -23559,8 +23559,8 @@
       </c>
     </row>
     <row r="195" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="47"/>
-      <c r="B195" s="47"/>
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
       <c r="C195" s="21" t="s">
         <v>82</v>
       </c>
@@ -23694,8 +23694,8 @@
       </c>
     </row>
     <row r="196" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="47"/>
-      <c r="B196" s="47"/>
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
       <c r="C196" s="21" t="s">
         <v>83</v>
       </c>
@@ -23829,8 +23829,8 @@
       </c>
     </row>
     <row r="197" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
       <c r="C197" s="21" t="s">
         <v>84</v>
       </c>
@@ -23964,8 +23964,8 @@
       </c>
     </row>
     <row r="198" spans="1:35" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="47"/>
-      <c r="B198" s="47"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
       <c r="C198" s="21" t="s">
         <v>85</v>
       </c>
@@ -24099,8 +24099,8 @@
       </c>
     </row>
     <row r="199" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="47"/>
-      <c r="B199" s="47"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="52"/>
       <c r="C199" s="21" t="s">
         <v>86</v>
       </c>
@@ -24234,8 +24234,8 @@
       </c>
     </row>
     <row r="200" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="47"/>
-      <c r="B200" s="47"/>
+      <c r="A200" s="52"/>
+      <c r="B200" s="52"/>
       <c r="C200" s="21" t="s">
         <v>87</v>
       </c>
@@ -24369,8 +24369,8 @@
       </c>
     </row>
     <row r="201" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="47"/>
-      <c r="B201" s="47"/>
+      <c r="A201" s="52"/>
+      <c r="B201" s="52"/>
       <c r="C201" s="21" t="s">
         <v>88</v>
       </c>
@@ -24504,8 +24504,8 @@
       </c>
     </row>
     <row r="202" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="47"/>
-      <c r="B202" s="47"/>
+      <c r="A202" s="52"/>
+      <c r="B202" s="52"/>
       <c r="C202" s="21" t="s">
         <v>109</v>
       </c>
@@ -24639,8 +24639,8 @@
       </c>
     </row>
     <row r="203" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="47"/>
-      <c r="B203" s="47"/>
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
       <c r="C203" s="21" t="s">
         <v>110</v>
       </c>
@@ -24774,8 +24774,8 @@
       </c>
     </row>
     <row r="204" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="47"/>
-      <c r="B204" s="47"/>
+      <c r="A204" s="52"/>
+      <c r="B204" s="52"/>
       <c r="C204" s="21" t="s">
         <v>89</v>
       </c>
@@ -24909,8 +24909,8 @@
       </c>
     </row>
     <row r="205" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="47"/>
-      <c r="B205" s="47"/>
+      <c r="A205" s="52"/>
+      <c r="B205" s="52"/>
       <c r="C205" s="21" t="s">
         <v>90</v>
       </c>
@@ -25044,8 +25044,8 @@
       </c>
     </row>
     <row r="206" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="47"/>
-      <c r="B206" s="47"/>
+      <c r="A206" s="52"/>
+      <c r="B206" s="52"/>
       <c r="C206" s="21" t="s">
         <v>91</v>
       </c>
@@ -25179,8 +25179,8 @@
       </c>
     </row>
     <row r="207" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="47"/>
-      <c r="B207" s="47"/>
+      <c r="A207" s="52"/>
+      <c r="B207" s="52"/>
       <c r="C207" s="21" t="s">
         <v>92</v>
       </c>
@@ -25314,8 +25314,8 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="47"/>
-      <c r="B208" s="47"/>
+      <c r="A208" s="52"/>
+      <c r="B208" s="52"/>
       <c r="C208" s="21" t="s">
         <v>93</v>
       </c>
@@ -25449,8 +25449,8 @@
       </c>
     </row>
     <row r="209" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="47"/>
-      <c r="B209" s="47"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
       <c r="C209" s="21" t="s">
         <v>94</v>
       </c>
@@ -25584,8 +25584,8 @@
       </c>
     </row>
     <row r="210" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
-      <c r="B210" s="47"/>
+      <c r="A210" s="52"/>
+      <c r="B210" s="52"/>
       <c r="C210" s="21" t="s">
         <v>95</v>
       </c>
@@ -25719,8 +25719,8 @@
       </c>
     </row>
     <row r="211" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
-      <c r="B211" s="47"/>
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
       <c r="C211" s="21" t="s">
         <v>96</v>
       </c>
@@ -25854,8 +25854,8 @@
       </c>
     </row>
     <row r="212" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="47"/>
-      <c r="B212" s="47"/>
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
       <c r="C212" s="21" t="s">
         <v>97</v>
       </c>
@@ -25989,8 +25989,8 @@
       </c>
     </row>
     <row r="213" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
-      <c r="B213" s="47"/>
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
       <c r="C213" s="21" t="s">
         <v>98</v>
       </c>
@@ -26124,8 +26124,8 @@
       </c>
     </row>
     <row r="214" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
-      <c r="B214" s="47"/>
+      <c r="A214" s="52"/>
+      <c r="B214" s="52"/>
       <c r="C214" s="21" t="s">
         <v>99</v>
       </c>
@@ -26259,8 +26259,8 @@
       </c>
     </row>
     <row r="215" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
-      <c r="B215" s="47"/>
+      <c r="A215" s="52"/>
+      <c r="B215" s="52"/>
       <c r="C215" s="21" t="s">
         <v>100</v>
       </c>
@@ -26394,8 +26394,8 @@
       </c>
     </row>
     <row r="216" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
-      <c r="B216" s="47"/>
+      <c r="A216" s="52"/>
+      <c r="B216" s="52"/>
       <c r="C216" s="21" t="s">
         <v>101</v>
       </c>
@@ -26529,8 +26529,8 @@
       </c>
     </row>
     <row r="217" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
-      <c r="B217" s="47"/>
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
       <c r="C217" s="21" t="s">
         <v>102</v>
       </c>
@@ -26664,8 +26664,8 @@
       </c>
     </row>
     <row r="218" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
-      <c r="B218" s="47"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
       <c r="C218" s="21" t="s">
         <v>103</v>
       </c>
@@ -26799,8 +26799,8 @@
       </c>
     </row>
     <row r="219" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="47"/>
-      <c r="B219" s="47"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
       <c r="C219" s="21" t="s">
         <v>104</v>
       </c>
@@ -26934,8 +26934,8 @@
       </c>
     </row>
     <row r="220" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="47"/>
-      <c r="B220" s="47"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
       <c r="C220" s="21" t="s">
         <v>105</v>
       </c>
@@ -27069,8 +27069,8 @@
       </c>
     </row>
     <row r="221" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
       <c r="C221" s="21" t="s">
         <v>106</v>
       </c>
@@ -27204,8 +27204,8 @@
       </c>
     </row>
     <row r="222" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
       <c r="C222" s="21" t="s">
         <v>107</v>
       </c>
@@ -27339,8 +27339,8 @@
       </c>
     </row>
     <row r="223" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="48"/>
-      <c r="B223" s="48"/>
+      <c r="A223" s="49"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="23" t="s">
         <v>108</v>
       </c>
@@ -27474,10 +27474,10 @@
       </c>
     </row>
     <row r="224" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="49" t="s">
+      <c r="A224" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="51" t="s">
         <v>617</v>
       </c>
       <c r="C224" s="21"/>
@@ -27539,8 +27539,8 @@
       <c r="AG224" s="16"/>
     </row>
     <row r="225" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="50"/>
-      <c r="B225" s="47"/>
+      <c r="A225" s="54"/>
+      <c r="B225" s="52"/>
       <c r="C225" s="21" t="s">
         <v>186</v>
       </c>
@@ -27602,8 +27602,8 @@
       <c r="AG225" s="16"/>
     </row>
     <row r="226" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="50"/>
-      <c r="B226" s="47"/>
+      <c r="A226" s="54"/>
+      <c r="B226" s="52"/>
       <c r="C226" s="21" t="s">
         <v>185</v>
       </c>
@@ -27665,8 +27665,8 @@
       <c r="AG226" s="16"/>
     </row>
     <row r="227" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="50"/>
-      <c r="B227" s="47"/>
+      <c r="A227" s="54"/>
+      <c r="B227" s="52"/>
       <c r="C227" s="21" t="s">
         <v>182</v>
       </c>
@@ -27728,8 +27728,8 @@
       <c r="AG227" s="16"/>
     </row>
     <row r="228" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="50"/>
-      <c r="B228" s="47"/>
+      <c r="A228" s="54"/>
+      <c r="B228" s="52"/>
       <c r="C228" s="21" t="s">
         <v>172</v>
       </c>
@@ -27791,8 +27791,8 @@
       <c r="AG228" s="16"/>
     </row>
     <row r="229" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="50"/>
-      <c r="B229" s="47"/>
+      <c r="A229" s="54"/>
+      <c r="B229" s="52"/>
       <c r="C229" s="21" t="s">
         <v>173</v>
       </c>
@@ -27854,8 +27854,8 @@
       <c r="AG229" s="16"/>
     </row>
     <row r="230" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="50"/>
-      <c r="B230" s="47"/>
+      <c r="A230" s="54"/>
+      <c r="B230" s="52"/>
       <c r="C230" s="21" t="s">
         <v>174</v>
       </c>
@@ -27917,8 +27917,8 @@
       <c r="AG230" s="16"/>
     </row>
     <row r="231" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="50"/>
-      <c r="B231" s="47"/>
+      <c r="A231" s="54"/>
+      <c r="B231" s="52"/>
       <c r="C231" s="21" t="s">
         <v>175</v>
       </c>
@@ -27980,8 +27980,8 @@
       <c r="AG231" s="16"/>
     </row>
     <row r="232" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="50"/>
-      <c r="B232" s="47"/>
+      <c r="A232" s="54"/>
+      <c r="B232" s="52"/>
       <c r="C232" s="21" t="s">
         <v>176</v>
       </c>
@@ -28043,8 +28043,8 @@
       <c r="AG232" s="16"/>
     </row>
     <row r="233" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="50"/>
-      <c r="B233" s="47"/>
+      <c r="A233" s="54"/>
+      <c r="B233" s="52"/>
       <c r="C233" s="21" t="s">
         <v>177</v>
       </c>
@@ -28106,8 +28106,8 @@
       <c r="AG233" s="16"/>
     </row>
     <row r="234" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="50"/>
-      <c r="B234" s="47"/>
+      <c r="A234" s="54"/>
+      <c r="B234" s="52"/>
       <c r="C234" s="21" t="s">
         <v>178</v>
       </c>
@@ -28169,8 +28169,8 @@
       <c r="AG234" s="16"/>
     </row>
     <row r="235" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="50"/>
-      <c r="B235" s="47"/>
+      <c r="A235" s="54"/>
+      <c r="B235" s="52"/>
       <c r="C235" s="21" t="s">
         <v>179</v>
       </c>
@@ -28232,8 +28232,8 @@
       <c r="AG235" s="16"/>
     </row>
     <row r="236" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="50"/>
-      <c r="B236" s="47"/>
+      <c r="A236" s="54"/>
+      <c r="B236" s="52"/>
       <c r="C236" s="21" t="s">
         <v>180</v>
       </c>
@@ -28295,8 +28295,8 @@
       <c r="AG236" s="16"/>
     </row>
     <row r="237" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="50"/>
-      <c r="B237" s="48"/>
+      <c r="A237" s="54"/>
+      <c r="B237" s="49"/>
       <c r="C237" s="23" t="s">
         <v>181</v>
       </c>
@@ -28358,8 +28358,8 @@
       <c r="AG237" s="16"/>
     </row>
     <row r="238" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="50"/>
-      <c r="B238" s="46" t="s">
+      <c r="A238" s="54"/>
+      <c r="B238" s="51" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="18"/>
@@ -28404,8 +28404,8 @@
       </c>
     </row>
     <row r="239" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="50"/>
-      <c r="B239" s="47"/>
+      <c r="A239" s="54"/>
+      <c r="B239" s="52"/>
       <c r="C239" s="21" t="s">
         <v>186</v>
       </c>
@@ -28450,8 +28450,8 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="50"/>
-      <c r="B240" s="47"/>
+      <c r="A240" s="54"/>
+      <c r="B240" s="52"/>
       <c r="C240" s="21" t="s">
         <v>185</v>
       </c>
@@ -28496,8 +28496,8 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="50"/>
-      <c r="B241" s="47"/>
+      <c r="A241" s="54"/>
+      <c r="B241" s="52"/>
       <c r="C241" s="21" t="s">
         <v>182</v>
       </c>
@@ -28542,8 +28542,8 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="50"/>
-      <c r="B242" s="47"/>
+      <c r="A242" s="54"/>
+      <c r="B242" s="52"/>
       <c r="C242" s="21" t="s">
         <v>172</v>
       </c>
@@ -28588,8 +28588,8 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="50"/>
-      <c r="B243" s="47"/>
+      <c r="A243" s="54"/>
+      <c r="B243" s="52"/>
       <c r="C243" s="21" t="s">
         <v>173</v>
       </c>
@@ -28634,8 +28634,8 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="50"/>
-      <c r="B244" s="47"/>
+      <c r="A244" s="54"/>
+      <c r="B244" s="52"/>
       <c r="C244" s="21" t="s">
         <v>174</v>
       </c>
@@ -28680,8 +28680,8 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="50"/>
-      <c r="B245" s="47"/>
+      <c r="A245" s="54"/>
+      <c r="B245" s="52"/>
       <c r="C245" s="21" t="s">
         <v>175</v>
       </c>
@@ -28726,8 +28726,8 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="50"/>
-      <c r="B246" s="47"/>
+      <c r="A246" s="54"/>
+      <c r="B246" s="52"/>
       <c r="C246" s="21" t="s">
         <v>176</v>
       </c>
@@ -28772,8 +28772,8 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="50"/>
-      <c r="B247" s="47"/>
+      <c r="A247" s="54"/>
+      <c r="B247" s="52"/>
       <c r="C247" s="21" t="s">
         <v>177</v>
       </c>
@@ -28818,8 +28818,8 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="50"/>
-      <c r="B248" s="47"/>
+      <c r="A248" s="54"/>
+      <c r="B248" s="52"/>
       <c r="C248" s="21" t="s">
         <v>178</v>
       </c>
@@ -28864,8 +28864,8 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="50"/>
-      <c r="B249" s="47"/>
+      <c r="A249" s="54"/>
+      <c r="B249" s="52"/>
       <c r="C249" s="21" t="s">
         <v>179</v>
       </c>
@@ -28910,8 +28910,8 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="50"/>
-      <c r="B250" s="47"/>
+      <c r="A250" s="54"/>
+      <c r="B250" s="52"/>
       <c r="C250" s="21" t="s">
         <v>180</v>
       </c>
@@ -28956,8 +28956,8 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="50"/>
-      <c r="B251" s="48"/>
+      <c r="A251" s="54"/>
+      <c r="B251" s="49"/>
       <c r="C251" s="23" t="s">
         <v>181</v>
       </c>
@@ -29002,8 +29002,8 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="50"/>
-      <c r="B252" s="46" t="s">
+      <c r="A252" s="54"/>
+      <c r="B252" s="51" t="s">
         <v>620</v>
       </c>
       <c r="C252" s="18"/>
@@ -29048,8 +29048,8 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="50"/>
-      <c r="B253" s="47"/>
+      <c r="A253" s="54"/>
+      <c r="B253" s="52"/>
       <c r="C253" s="21" t="s">
         <v>186</v>
       </c>
@@ -29094,8 +29094,8 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="50"/>
-      <c r="B254" s="47"/>
+      <c r="A254" s="54"/>
+      <c r="B254" s="52"/>
       <c r="C254" s="21" t="s">
         <v>185</v>
       </c>
@@ -29140,8 +29140,8 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="50"/>
-      <c r="B255" s="47"/>
+      <c r="A255" s="54"/>
+      <c r="B255" s="52"/>
       <c r="C255" s="21" t="s">
         <v>182</v>
       </c>
@@ -29186,8 +29186,8 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="50"/>
-      <c r="B256" s="47"/>
+      <c r="A256" s="54"/>
+      <c r="B256" s="52"/>
       <c r="C256" s="21" t="s">
         <v>172</v>
       </c>
@@ -29232,8 +29232,8 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="50"/>
-      <c r="B257" s="47"/>
+      <c r="A257" s="54"/>
+      <c r="B257" s="52"/>
       <c r="C257" s="21" t="s">
         <v>173</v>
       </c>
@@ -29278,8 +29278,8 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="50"/>
-      <c r="B258" s="47"/>
+      <c r="A258" s="54"/>
+      <c r="B258" s="52"/>
       <c r="C258" s="21" t="s">
         <v>174</v>
       </c>
@@ -29324,8 +29324,8 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="50"/>
-      <c r="B259" s="47"/>
+      <c r="A259" s="54"/>
+      <c r="B259" s="52"/>
       <c r="C259" s="21" t="s">
         <v>175</v>
       </c>
@@ -29370,8 +29370,8 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="50"/>
-      <c r="B260" s="47"/>
+      <c r="A260" s="54"/>
+      <c r="B260" s="52"/>
       <c r="C260" s="21" t="s">
         <v>176</v>
       </c>
@@ -29416,8 +29416,8 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="50"/>
-      <c r="B261" s="47"/>
+      <c r="A261" s="54"/>
+      <c r="B261" s="52"/>
       <c r="C261" s="21" t="s">
         <v>177</v>
       </c>
@@ -29462,8 +29462,8 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="50"/>
-      <c r="B262" s="47"/>
+      <c r="A262" s="54"/>
+      <c r="B262" s="52"/>
       <c r="C262" s="21" t="s">
         <v>178</v>
       </c>
@@ -29508,8 +29508,8 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="50"/>
-      <c r="B263" s="47"/>
+      <c r="A263" s="54"/>
+      <c r="B263" s="52"/>
       <c r="C263" s="21" t="s">
         <v>179</v>
       </c>
@@ -29554,8 +29554,8 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="50"/>
-      <c r="B264" s="47"/>
+      <c r="A264" s="54"/>
+      <c r="B264" s="52"/>
       <c r="C264" s="21" t="s">
         <v>180</v>
       </c>
@@ -29600,8 +29600,8 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="50"/>
-      <c r="B265" s="48"/>
+      <c r="A265" s="54"/>
+      <c r="B265" s="49"/>
       <c r="C265" s="23" t="s">
         <v>181</v>
       </c>
@@ -29647,11 +29647,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="B36:B52"/>
     <mergeCell ref="B101:B124"/>
     <mergeCell ref="B125:B157"/>
     <mergeCell ref="A224:A265"/>
@@ -29664,6 +29659,11 @@
     <mergeCell ref="B77:B100"/>
     <mergeCell ref="B158:B190"/>
     <mergeCell ref="B191:B223"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/MetroDatabase.xlsx
+++ b/MetroDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\POINTAST\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557F439-119B-40E3-BF8B-F0EC3488EF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3217E0A-BB91-4263-B68F-B2225040FB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="615" windowWidth="14100" windowHeight="15060" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{188AB9B8-CB21-48DF-AE07-77B1B65251BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
@@ -2340,6 +2340,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,27 +2364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2406,7 +2406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2724,18 +2724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63652DFA-0DCC-4D71-8661-966E671F1EC0}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="32.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="32.58203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>207</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -2811,7 +2811,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2829,7 +2829,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -2847,7 +2847,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -2865,7 +2865,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -2883,7 +2883,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2901,7 +2901,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -2919,7 +2919,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -2937,7 +2937,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -2955,7 +2955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -2973,7 +2973,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -2991,7 +2991,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -3009,7 +3009,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -3027,7 +3027,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -3045,7 +3045,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -3063,7 +3063,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
         <v>19</v>
@@ -3081,7 +3081,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -3099,7 +3099,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -3117,7 +3117,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -3135,7 +3135,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -3153,7 +3153,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3171,7 +3171,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -3189,7 +3189,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
@@ -3207,7 +3207,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39"/>
       <c r="B27" s="2" t="s">
         <v>27</v>
@@ -3225,7 +3225,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -3243,7 +3243,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -3261,7 +3261,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -3279,7 +3279,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
       <c r="B31" s="2" t="s">
         <v>31</v>
@@ -3297,7 +3297,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -3315,7 +3315,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>33</v>
@@ -3333,7 +3333,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="2" t="s">
         <v>34</v>
@@ -3351,7 +3351,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="2" t="s">
         <v>35</v>
@@ -3369,7 +3369,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
         <v>37</v>
@@ -3405,7 +3405,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -3423,7 +3423,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
         <v>39</v>
@@ -3441,7 +3441,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>208</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="H40"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="2" t="s">
         <v>41</v>
@@ -3485,7 +3485,7 @@
       <c r="H41"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
       <c r="B42" s="2" t="s">
         <v>42</v>
@@ -3506,7 +3506,7 @@
       <c r="H42"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="39"/>
       <c r="B43" s="2" t="s">
         <v>43</v>
@@ -3527,7 +3527,7 @@
       <c r="H43"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -3548,7 +3548,7 @@
       <c r="H44"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="2" t="s">
         <v>45</v>
@@ -3569,7 +3569,7 @@
       <c r="H45"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="2" t="s">
         <v>46</v>
@@ -3590,7 +3590,7 @@
       <c r="H46"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="2" t="s">
         <v>47</v>
@@ -3611,7 +3611,7 @@
       <c r="H47"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -3632,7 +3632,7 @@
       <c r="H48"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="39"/>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -3653,7 +3653,7 @@
       <c r="H49"/>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -3674,7 +3674,7 @@
       <c r="H50"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -3695,7 +3695,7 @@
       <c r="H51"/>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="2" t="s">
         <v>52</v>
@@ -3716,7 +3716,7 @@
       <c r="H52"/>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="2" t="s">
         <v>53</v>
@@ -3737,7 +3737,7 @@
       <c r="H53"/>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="2" t="s">
         <v>54</v>
@@ -3758,7 +3758,7 @@
       <c r="H54"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="2" t="s">
         <v>55</v>
@@ -3779,7 +3779,7 @@
       <c r="H55"/>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>209</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="2" t="s">
         <v>57</v>
@@ -3817,7 +3817,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="2" t="s">
         <v>58</v>
@@ -3835,7 +3835,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="2" t="s">
         <v>59</v>
@@ -3853,7 +3853,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="2" t="s">
         <v>60</v>
@@ -3871,7 +3871,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="2" t="s">
         <v>61</v>
@@ -3889,7 +3889,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="2" t="s">
         <v>62</v>
@@ -3907,7 +3907,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="2" t="s">
         <v>63</v>
@@ -3925,7 +3925,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="2" t="s">
         <v>64</v>
@@ -3943,7 +3943,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="2" t="s">
         <v>65</v>
@@ -3961,7 +3961,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="2" t="s">
         <v>66</v>
@@ -3979,7 +3979,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="2" t="s">
         <v>67</v>
@@ -3997,7 +3997,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="2" t="s">
         <v>68</v>
@@ -4015,7 +4015,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="2" t="s">
         <v>69</v>
@@ -4033,7 +4033,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="2" t="s">
         <v>70</v>
@@ -4051,7 +4051,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
@@ -4069,7 +4069,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="2" t="s">
         <v>72</v>
@@ -4087,7 +4087,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="2" t="s">
         <v>73</v>
@@ -4105,7 +4105,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="2" t="s">
         <v>74</v>
@@ -4123,7 +4123,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="2" t="s">
         <v>75</v>
@@ -4141,7 +4141,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="2" t="s">
         <v>76</v>
@@ -4159,7 +4159,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="2" t="s">
         <v>77</v>
@@ -4177,7 +4177,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
       <c r="B78" s="2" t="s">
         <v>78</v>
@@ -4195,7 +4195,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
         <v>210</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="2" t="s">
         <v>80</v>
@@ -4233,7 +4233,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="2" t="s">
         <v>81</v>
@@ -4251,7 +4251,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="39"/>
       <c r="B82" s="2" t="s">
         <v>82</v>
@@ -4269,7 +4269,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="39"/>
       <c r="B83" s="2" t="s">
         <v>83</v>
@@ -4287,7 +4287,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="39"/>
       <c r="B84" s="2" t="s">
         <v>84</v>
@@ -4305,7 +4305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="2" t="s">
         <v>85</v>
@@ -4323,7 +4323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="2" t="s">
         <v>86</v>
@@ -4341,7 +4341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="39"/>
       <c r="B87" s="2" t="s">
         <v>87</v>
@@ -4359,7 +4359,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="2" t="s">
         <v>88</v>
@@ -4377,7 +4377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
@@ -4395,7 +4395,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="2" t="s">
         <v>90</v>
@@ -4413,7 +4413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="39"/>
       <c r="B91" s="2" t="s">
         <v>91</v>
@@ -4431,7 +4431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="39"/>
       <c r="B92" s="2" t="s">
         <v>92</v>
@@ -4449,7 +4449,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
       <c r="B93" s="2" t="s">
         <v>93</v>
@@ -4467,7 +4467,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="39"/>
       <c r="B94" s="2" t="s">
         <v>94</v>
@@ -4485,7 +4485,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="39"/>
       <c r="B95" s="2" t="s">
         <v>95</v>
@@ -4503,7 +4503,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="39"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
@@ -4521,7 +4521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
       <c r="B97" s="2" t="s">
         <v>97</v>
@@ -4539,7 +4539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="39"/>
       <c r="B98" s="2" t="s">
         <v>98</v>
@@ -4557,7 +4557,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="39"/>
       <c r="B99" s="2" t="s">
         <v>99</v>
@@ -4575,7 +4575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="39"/>
       <c r="B100" s="2" t="s">
         <v>100</v>
@@ -4593,7 +4593,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="39"/>
       <c r="B101" s="2" t="s">
         <v>101</v>
@@ -4611,7 +4611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="39"/>
       <c r="B102" s="2" t="s">
         <v>102</v>
@@ -4629,7 +4629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="39"/>
       <c r="B103" s="2" t="s">
         <v>103</v>
@@ -4647,7 +4647,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
       <c r="B104" s="2" t="s">
         <v>104</v>
@@ -4665,7 +4665,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -4683,7 +4683,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="39"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
@@ -4701,7 +4701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
@@ -4719,7 +4719,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
@@ -4737,7 +4737,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="2" t="s">
         <v>109</v>
@@ -4749,13 +4749,13 @@
         <v>505</v>
       </c>
       <c r="E109" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F109" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="39"/>
       <c r="B110" s="2" t="s">
         <v>110</v>
@@ -4767,13 +4767,13 @@
         <v>506</v>
       </c>
       <c r="E110" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F110" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="39" t="s">
         <v>211</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="39"/>
       <c r="B112" s="2" t="s">
         <v>112</v>
@@ -4811,7 +4811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="2" t="s">
         <v>113</v>
@@ -4829,7 +4829,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39"/>
       <c r="B114" s="2" t="s">
         <v>114</v>
@@ -4847,7 +4847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="39"/>
       <c r="B115" s="2" t="s">
         <v>115</v>
@@ -4865,7 +4865,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="39"/>
       <c r="B116" s="2" t="s">
         <v>116</v>
@@ -4883,7 +4883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="39"/>
       <c r="B117" s="2" t="s">
         <v>117</v>
@@ -4901,7 +4901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="39"/>
       <c r="B118" s="2" t="s">
         <v>118</v>
@@ -4919,7 +4919,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="39"/>
       <c r="B119" s="2" t="s">
         <v>119</v>
@@ -4937,7 +4937,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="39"/>
       <c r="B120" s="2" t="s">
         <v>120</v>
@@ -4955,7 +4955,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="39"/>
       <c r="B121" s="2" t="s">
         <v>121</v>
@@ -4973,7 +4973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="39"/>
       <c r="B122" s="2" t="s">
         <v>122</v>
@@ -4991,7 +4991,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="39"/>
       <c r="B123" s="2" t="s">
         <v>123</v>
@@ -5009,7 +5009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="39"/>
       <c r="B124" s="2" t="s">
         <v>124</v>
@@ -5027,7 +5027,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="2" t="s">
         <v>125</v>
@@ -5045,7 +5045,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="39"/>
       <c r="B126" s="2" t="s">
         <v>127</v>
@@ -5063,7 +5063,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39"/>
       <c r="B127" s="2" t="s">
         <v>128</v>
@@ -5081,7 +5081,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="39"/>
       <c r="B128" s="2" t="s">
         <v>129</v>
@@ -5099,7 +5099,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="39"/>
       <c r="B129" s="2" t="s">
         <v>130</v>
@@ -5117,7 +5117,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="39"/>
       <c r="B130" s="2" t="s">
         <v>131</v>
@@ -5135,7 +5135,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="39"/>
       <c r="B131" s="2" t="s">
         <v>132</v>
@@ -5153,7 +5153,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="39"/>
       <c r="B132" s="2" t="s">
         <v>133</v>
@@ -5171,7 +5171,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="39"/>
       <c r="B133" s="2" t="s">
         <v>134</v>
@@ -5189,7 +5189,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="39"/>
       <c r="B134" s="2" t="s">
         <v>135</v>
@@ -5207,7 +5207,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="39"/>
       <c r="B135" s="2" t="s">
         <v>126</v>
@@ -5225,7 +5225,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="2" t="s">
         <v>136</v>
@@ -5243,7 +5243,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="2" t="s">
         <v>137</v>
@@ -5261,7 +5261,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="2" t="s">
         <v>138</v>
@@ -5279,7 +5279,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="39"/>
       <c r="B139" s="2" t="s">
         <v>139</v>
@@ -5297,7 +5297,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="2" t="s">
         <v>140</v>
@@ -5315,7 +5315,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="39"/>
       <c r="B141" s="2" t="s">
         <v>141</v>
@@ -5333,7 +5333,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="39"/>
       <c r="B142" s="2" t="s">
         <v>142</v>
@@ -5351,7 +5351,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="39"/>
       <c r="B143" s="2" t="s">
         <v>143</v>
@@ -5369,7 +5369,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="39"/>
       <c r="B144" s="2" t="s">
         <v>144</v>
@@ -5387,7 +5387,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39"/>
       <c r="B145" s="2" t="s">
         <v>145</v>
@@ -5405,7 +5405,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39"/>
       <c r="B146" s="2" t="s">
         <v>146</v>
@@ -5423,7 +5423,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="39"/>
       <c r="B147" s="2" t="s">
         <v>147</v>
@@ -5441,7 +5441,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="39"/>
       <c r="B148" s="2" t="s">
         <v>148</v>
@@ -5459,7 +5459,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="39"/>
       <c r="B149" s="2" t="s">
         <v>149</v>
@@ -5477,7 +5477,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="39"/>
       <c r="B150" s="2" t="s">
         <v>150</v>
@@ -5495,7 +5495,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="39"/>
       <c r="B151" s="2" t="s">
         <v>151</v>
@@ -5513,7 +5513,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="39"/>
       <c r="B152" s="2" t="s">
         <v>152</v>
@@ -5531,7 +5531,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="39"/>
       <c r="B153" s="2" t="s">
         <v>153</v>
@@ -5549,7 +5549,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="39"/>
       <c r="B154" s="2" t="s">
         <v>154</v>
@@ -5567,7 +5567,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="39"/>
       <c r="B155" s="2" t="s">
         <v>155</v>
@@ -5585,7 +5585,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="39"/>
       <c r="B156" s="2" t="s">
         <v>156</v>
@@ -5603,7 +5603,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="39"/>
       <c r="B157" s="2" t="s">
         <v>157</v>
@@ -5621,7 +5621,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="39"/>
       <c r="B158" s="2" t="s">
         <v>158</v>
@@ -5639,7 +5639,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="39"/>
       <c r="B159" s="2" t="s">
         <v>159</v>
@@ -5657,7 +5657,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="39"/>
       <c r="B160" s="2" t="s">
         <v>160</v>
@@ -5675,7 +5675,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="39"/>
       <c r="B161" s="2" t="s">
         <v>161</v>
@@ -5693,7 +5693,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="39"/>
       <c r="B162" s="2" t="s">
         <v>162</v>
@@ -5711,7 +5711,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="39"/>
       <c r="B163" s="2" t="s">
         <v>163</v>
@@ -5729,7 +5729,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="39"/>
       <c r="B164" s="2" t="s">
         <v>164</v>
@@ -5747,7 +5747,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="39"/>
       <c r="B165" s="2" t="s">
         <v>165</v>
@@ -5765,7 +5765,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="39"/>
       <c r="B166" s="2" t="s">
         <v>166</v>
@@ -5783,7 +5783,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="39"/>
       <c r="B167" s="2" t="s">
         <v>167</v>
@@ -5801,7 +5801,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="39"/>
       <c r="B168" s="2" t="s">
         <v>168</v>
@@ -5819,7 +5819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="39"/>
       <c r="B169" s="2" t="s">
         <v>169</v>
@@ -5837,7 +5837,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="39"/>
       <c r="B170" s="2" t="s">
         <v>170</v>
@@ -5855,7 +5855,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="39"/>
       <c r="B171" s="2" t="s">
         <v>171</v>
@@ -5873,7 +5873,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="39" t="s">
         <v>449</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="39"/>
       <c r="B173" s="2" t="s">
         <v>451</v>
@@ -5911,7 +5911,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="39"/>
       <c r="B174" s="2" t="s">
         <v>452</v>
@@ -5929,7 +5929,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="39" t="s">
         <v>212</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="39"/>
       <c r="B176" s="2" t="s">
         <v>185</v>
@@ -5967,7 +5967,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="39"/>
       <c r="B177" s="2" t="s">
         <v>184</v>
@@ -5985,7 +5985,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="39"/>
       <c r="B178" s="2" t="s">
         <v>183</v>
@@ -6003,7 +6003,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="39"/>
       <c r="B179" s="2" t="s">
         <v>182</v>
@@ -6021,7 +6021,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="39"/>
       <c r="B180" s="2" t="s">
         <v>172</v>
@@ -6039,7 +6039,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="39"/>
       <c r="B181" s="2" t="s">
         <v>173</v>
@@ -6057,7 +6057,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="39"/>
       <c r="B182" s="2" t="s">
         <v>174</v>
@@ -6075,7 +6075,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="39"/>
       <c r="B183" s="2" t="s">
         <v>175</v>
@@ -6093,7 +6093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="39"/>
       <c r="B184" s="2" t="s">
         <v>176</v>
@@ -6111,7 +6111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="39"/>
       <c r="B185" s="2" t="s">
         <v>177</v>
@@ -6129,7 +6129,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="39"/>
       <c r="B186" s="2" t="s">
         <v>178</v>
@@ -6147,7 +6147,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="39"/>
       <c r="B187" s="2" t="s">
         <v>179</v>
@@ -6165,7 +6165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="39"/>
       <c r="B188" s="2" t="s">
         <v>180</v>
@@ -6183,7 +6183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="39"/>
       <c r="B189" s="2" t="s">
         <v>181</v>
@@ -6201,7 +6201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="39" t="s">
         <v>213</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="39"/>
       <c r="B191" s="2" t="s">
         <v>188</v>
@@ -6239,7 +6239,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="39"/>
       <c r="B192" s="2" t="s">
         <v>189</v>
@@ -6257,7 +6257,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="39"/>
       <c r="B193" s="2" t="s">
         <v>190</v>
@@ -6275,7 +6275,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="39"/>
       <c r="B194" s="2" t="s">
         <v>191</v>
@@ -6293,7 +6293,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="39"/>
       <c r="B195" s="2" t="s">
         <v>192</v>
@@ -6311,7 +6311,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="39"/>
       <c r="B196" s="2" t="s">
         <v>193</v>
@@ -6329,7 +6329,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="39"/>
       <c r="B197" s="2" t="s">
         <v>194</v>
@@ -6347,7 +6347,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="39" t="s">
         <v>214</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="39"/>
       <c r="B199" s="2" t="s">
         <v>196</v>
@@ -6385,7 +6385,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="39"/>
       <c r="B200" s="2" t="s">
         <v>197</v>
@@ -6403,7 +6403,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="39"/>
       <c r="B201" s="2" t="s">
         <v>198</v>
@@ -6421,7 +6421,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="39"/>
       <c r="B202" s="2" t="s">
         <v>199</v>
@@ -6439,7 +6439,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="39"/>
       <c r="B203" s="2" t="s">
         <v>200</v>
@@ -6457,7 +6457,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="39"/>
       <c r="B204" s="2" t="s">
         <v>201</v>
@@ -6475,7 +6475,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="39"/>
       <c r="B205" s="2" t="s">
         <v>202</v>
@@ -6493,7 +6493,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="39"/>
       <c r="B206" s="2" t="s">
         <v>203</v>
@@ -6511,7 +6511,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="39"/>
       <c r="B207" s="2" t="s">
         <v>204</v>
@@ -6529,7 +6529,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="39"/>
       <c r="B208" s="2" t="s">
         <v>205</v>
@@ -6547,7 +6547,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="39"/>
       <c r="B209" s="2" t="s">
         <v>206</v>
@@ -6594,9 +6594,9 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>207</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="33"/>
       <c r="C3" s="35"/>
@@ -6664,7 +6664,7 @@
       <c r="I3" s="35"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35"/>
@@ -6677,7 +6677,7 @@
       <c r="I4" s="35"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="33"/>
       <c r="C5" s="35"/>
@@ -6690,7 +6690,7 @@
       <c r="I5" s="35"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="34"/>
       <c r="C6" s="30"/>
@@ -6703,7 +6703,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>208</v>
       </c>
@@ -6723,7 +6723,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="33"/>
       <c r="C8" s="35"/>
@@ -6735,7 +6735,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" s="33"/>
       <c r="C9" s="35"/>
@@ -6747,7 +6747,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="33"/>
       <c r="C10" s="35"/>
@@ -6759,7 +6759,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="34"/>
       <c r="C11" s="30"/>
@@ -6771,7 +6771,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>209</v>
       </c>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35"/>
@@ -6803,7 +6803,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="33"/>
       <c r="C14" s="35"/>
@@ -6815,7 +6815,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="33"/>
       <c r="C15" s="35"/>
@@ -6827,7 +6827,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30"/>
@@ -6839,7 +6839,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>210</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="33"/>
       <c r="C18" s="35"/>
@@ -6871,7 +6871,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="33"/>
       <c r="C19" s="35"/>
@@ -6883,7 +6883,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="33"/>
       <c r="C20" s="35"/>
@@ -6895,7 +6895,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30"/>
@@ -6907,7 +6907,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>211</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="33" t="s">
         <v>626</v>
@@ -6946,7 +6946,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="33" t="s">
         <v>627</v>
@@ -6958,7 +6958,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="33" t="s">
         <v>628</v>
@@ -6971,7 +6971,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="34" t="s">
         <v>629</v>
@@ -6985,7 +6985,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
         <v>449</v>
       </c>
@@ -7001,7 +7001,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
@@ -7013,7 +7013,7 @@
       <c r="I28" s="35"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
@@ -7025,7 +7025,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="33"/>
       <c r="C30" s="35"/>
@@ -7037,7 +7037,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="34"/>
       <c r="C31" s="30"/>
@@ -7049,7 +7049,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>212</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -7081,7 +7081,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="33"/>
       <c r="C34" s="35"/>
@@ -7093,7 +7093,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="33"/>
       <c r="C35" s="35"/>
@@ -7105,7 +7105,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="34"/>
       <c r="C36" s="30"/>
@@ -7117,7 +7117,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>213</v>
       </c>
@@ -7137,22 +7137,22 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="36"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="36"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="36"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="37"/>
       <c r="C41" s="14"/>
@@ -7164,7 +7164,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>214</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="36"/>
       <c r="F43" t="s">
@@ -7188,17 +7188,17 @@
       </c>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="36"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="36"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="37"/>
       <c r="C46" s="14"/>
@@ -7236,12 +7236,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="9" t="s">
         <v>618</v>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="9" t="s">
         <v>620</v>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>211</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="9" t="s">
         <v>618</v>
@@ -7533,7 +7533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="9" t="s">
         <v>620</v>
@@ -7581,7 +7581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>449</v>
       </c>
@@ -7609,7 +7609,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="9" t="s">
         <v>618</v>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>620</v>
@@ -7651,7 +7651,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>213</v>
       </c>
@@ -7689,7 +7689,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>618</v>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>620</v>
@@ -7772,7 +7772,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>214</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="9" t="s">
         <v>618</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="10" t="s">
         <v>620</v>
@@ -7936,44 +7936,44 @@
       <selection activeCell="AH134" sqref="AH1:AI1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
-    </row>
-    <row r="2" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
+    </row>
+    <row r="2" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>617</v>
       </c>
       <c r="C2" s="18"/>
@@ -8026,9 +8026,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
@@ -8081,9 +8081,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+    <row r="4" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
@@ -8136,9 +8136,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+    <row r="5" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8191,9 +8191,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+    <row r="6" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="21" t="s">
         <v>43</v>
       </c>
@@ -8246,9 +8246,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+    <row r="7" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
@@ -8301,9 +8301,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
@@ -8356,9 +8356,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+    <row r="9" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
@@ -8411,9 +8411,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+    <row r="10" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="21" t="s">
         <v>47</v>
       </c>
@@ -8466,9 +8466,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+    <row r="11" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="21" t="s">
         <v>48</v>
       </c>
@@ -8521,9 +8521,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+    <row r="12" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
@@ -8576,9 +8576,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+    <row r="13" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
@@ -8631,9 +8631,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+    <row r="14" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
@@ -8686,9 +8686,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+    <row r="15" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
@@ -8741,9 +8741,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+    <row r="16" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
@@ -8796,9 +8796,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
+    <row r="17" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
@@ -8851,9 +8851,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+    <row r="18" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="23" t="s">
         <v>55</v>
       </c>
@@ -8906,9 +8906,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="18"/>
@@ -8961,9 +8961,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+    <row r="20" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
@@ -9016,9 +9016,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+    <row r="21" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9071,9 +9071,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+    <row r="22" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
@@ -9126,9 +9126,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
+    <row r="23" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -9181,9 +9181,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
+    <row r="24" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
@@ -9236,9 +9236,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+    <row r="25" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="21" t="s">
         <v>45</v>
       </c>
@@ -9291,9 +9291,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+    <row r="26" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="21" t="s">
         <v>46</v>
       </c>
@@ -9346,9 +9346,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
+    <row r="27" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="21" t="s">
         <v>47</v>
       </c>
@@ -9401,9 +9401,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+    <row r="28" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="21" t="s">
         <v>48</v>
       </c>
@@ -9456,9 +9456,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+    <row r="29" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="21" t="s">
         <v>49</v>
       </c>
@@ -9511,9 +9511,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+    <row r="30" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -9566,9 +9566,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+    <row r="31" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
@@ -9621,9 +9621,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+    <row r="32" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
@@ -9676,9 +9676,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+    <row r="33" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="21" t="s">
         <v>53</v>
       </c>
@@ -9731,9 +9731,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+    <row r="34" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="21" t="s">
         <v>54</v>
       </c>
@@ -9786,9 +9786,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+    <row r="35" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
@@ -9841,9 +9841,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50" t="s">
+    <row r="36" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
         <v>620</v>
       </c>
       <c r="C36" s="18"/>
@@ -9896,9 +9896,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
+    <row r="37" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
@@ -9951,9 +9951,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+    <row r="38" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="21" t="s">
         <v>41</v>
       </c>
@@ -10006,9 +10006,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
+    <row r="39" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="21" t="s">
         <v>42</v>
       </c>
@@ -10061,9 +10061,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
+    <row r="40" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
@@ -10116,9 +10116,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
+    <row r="41" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="21" t="s">
         <v>44</v>
       </c>
@@ -10171,9 +10171,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
+    <row r="42" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="21" t="s">
         <v>45</v>
       </c>
@@ -10226,9 +10226,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
+    <row r="43" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="21" t="s">
         <v>46</v>
       </c>
@@ -10281,9 +10281,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
+    <row r="44" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="21" t="s">
         <v>47</v>
       </c>
@@ -10336,9 +10336,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
+    <row r="45" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
@@ -10391,9 +10391,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
+    <row r="46" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
@@ -10446,9 +10446,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
+    <row r="47" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="21" t="s">
         <v>50</v>
       </c>
@@ -10501,9 +10501,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
+    <row r="48" spans="1:19" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="21" t="s">
         <v>51</v>
       </c>
@@ -10556,9 +10556,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+    <row r="49" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
@@ -10611,9 +10611,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+    <row r="50" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="21" t="s">
         <v>53</v>
       </c>
@@ -10666,9 +10666,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
+    <row r="51" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="21" t="s">
         <v>54</v>
       </c>
@@ -10721,9 +10721,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
+    <row r="52" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -10776,11 +10776,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51" t="s">
+    <row r="53" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C53" s="18"/>
@@ -10854,9 +10854,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
+    <row r="54" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
@@ -10930,9 +10930,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+    <row r="55" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="21" t="s">
         <v>57</v>
       </c>
@@ -11006,9 +11006,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
+    <row r="56" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
@@ -11082,9 +11082,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
+    <row r="57" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="21" t="s">
         <v>59</v>
       </c>
@@ -11158,9 +11158,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
+    <row r="58" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
@@ -11234,9 +11234,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
+    <row r="59" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
         <v>61</v>
       </c>
@@ -11310,9 +11310,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
+    <row r="60" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
@@ -11386,9 +11386,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
+    <row r="61" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
@@ -11462,9 +11462,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
+    <row r="62" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
@@ -11538,9 +11538,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
+    <row r="63" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="21" t="s">
         <v>65</v>
       </c>
@@ -11614,9 +11614,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
+    <row r="64" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="21" t="s">
         <v>66</v>
       </c>
@@ -11690,9 +11690,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
+    <row r="65" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="21" t="s">
         <v>67</v>
       </c>
@@ -11766,9 +11766,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
+    <row r="66" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="21" t="s">
         <v>68</v>
       </c>
@@ -11842,9 +11842,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+    <row r="67" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="21" t="s">
         <v>69</v>
       </c>
@@ -11918,9 +11918,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+    <row r="68" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="21" t="s">
         <v>70</v>
       </c>
@@ -11994,9 +11994,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
+    <row r="69" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="21" t="s">
         <v>71</v>
       </c>
@@ -12070,9 +12070,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
+    <row r="70" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>72</v>
       </c>
@@ -12146,9 +12146,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
+    <row r="71" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>73</v>
       </c>
@@ -12222,9 +12222,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
+    <row r="72" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>74</v>
       </c>
@@ -12298,9 +12298,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
+    <row r="73" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
@@ -12374,9 +12374,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
+    <row r="74" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="21" t="s">
         <v>76</v>
       </c>
@@ -12450,9 +12450,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
+    <row r="75" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="21" t="s">
         <v>77</v>
       </c>
@@ -12526,9 +12526,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="16" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
-      <c r="B76" s="49"/>
+    <row r="76" spans="1:26" s="16" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="23" t="s">
         <v>78</v>
       </c>
@@ -12602,9 +12602,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
-      <c r="B77" s="51" t="s">
+    <row r="77" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="47"/>
+      <c r="B77" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="18"/>
@@ -12678,9 +12678,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
+    <row r="78" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="21" t="s">
         <v>56</v>
       </c>
@@ -12754,9 +12754,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
+    <row r="79" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="21" t="s">
         <v>57</v>
       </c>
@@ -12830,9 +12830,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
+    <row r="80" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="21" t="s">
         <v>58</v>
       </c>
@@ -12906,9 +12906,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
+    <row r="81" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="21" t="s">
         <v>59</v>
       </c>
@@ -12982,9 +12982,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
+    <row r="82" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="21" t="s">
         <v>60</v>
       </c>
@@ -13058,9 +13058,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
+    <row r="83" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
       <c r="C83" s="21" t="s">
         <v>61</v>
       </c>
@@ -13134,9 +13134,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
+    <row r="84" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="21" t="s">
         <v>62</v>
       </c>
@@ -13210,9 +13210,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
+    <row r="85" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="21" t="s">
         <v>63</v>
       </c>
@@ -13286,9 +13286,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
+    <row r="86" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="21" t="s">
         <v>64</v>
       </c>
@@ -13362,9 +13362,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
+    <row r="87" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="21" t="s">
         <v>65</v>
       </c>
@@ -13438,9 +13438,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
+    <row r="88" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="21" t="s">
         <v>66</v>
       </c>
@@ -13514,9 +13514,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
+    <row r="89" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="21" t="s">
         <v>67</v>
       </c>
@@ -13590,9 +13590,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
+    <row r="90" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="21" t="s">
         <v>68</v>
       </c>
@@ -13666,9 +13666,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
+    <row r="91" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="21" t="s">
         <v>69</v>
       </c>
@@ -13742,9 +13742,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
+    <row r="92" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="21" t="s">
         <v>70</v>
       </c>
@@ -13818,9 +13818,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
+    <row r="93" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
       <c r="C93" s="21" t="s">
         <v>71</v>
       </c>
@@ -13894,9 +13894,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
+    <row r="94" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="21" t="s">
         <v>72</v>
       </c>
@@ -13970,9 +13970,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
+    <row r="95" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="21" t="s">
         <v>73</v>
       </c>
@@ -14046,9 +14046,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
+    <row r="96" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="21" t="s">
         <v>74</v>
       </c>
@@ -14122,9 +14122,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
+    <row r="97" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="21" t="s">
         <v>75</v>
       </c>
@@ -14198,9 +14198,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
+    <row r="98" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="21" t="s">
         <v>76</v>
       </c>
@@ -14274,9 +14274,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
+    <row r="99" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="21" t="s">
         <v>77</v>
       </c>
@@ -14350,9 +14350,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
-      <c r="B100" s="49"/>
+    <row r="100" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="47"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="23" t="s">
         <v>78</v>
       </c>
@@ -14426,9 +14426,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
-      <c r="B101" s="51" t="s">
+    <row r="101" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="47"/>
+      <c r="B101" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C101" s="18"/>
@@ -14502,9 +14502,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
+    <row r="102" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="21" t="s">
         <v>56</v>
       </c>
@@ -14578,9 +14578,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
+    <row r="103" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="21" t="s">
         <v>57</v>
       </c>
@@ -14654,9 +14654,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
+    <row r="104" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="21" t="s">
         <v>58</v>
       </c>
@@ -14730,9 +14730,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
+    <row r="105" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
       <c r="C105" s="21" t="s">
         <v>59</v>
       </c>
@@ -14806,9 +14806,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
+    <row r="106" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="21" t="s">
         <v>60</v>
       </c>
@@ -14882,9 +14882,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
+    <row r="107" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
       <c r="C107" s="21" t="s">
         <v>61</v>
       </c>
@@ -14958,9 +14958,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
+    <row r="108" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="21" t="s">
         <v>62</v>
       </c>
@@ -15034,9 +15034,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
+    <row r="109" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="21" t="s">
         <v>63</v>
       </c>
@@ -15110,9 +15110,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
+    <row r="110" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="21" t="s">
         <v>64</v>
       </c>
@@ -15186,9 +15186,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
+    <row r="111" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="21" t="s">
         <v>65</v>
       </c>
@@ -15262,9 +15262,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
+    <row r="112" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="21" t="s">
         <v>66</v>
       </c>
@@ -15338,9 +15338,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
+    <row r="113" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="21" t="s">
         <v>67</v>
       </c>
@@ -15414,9 +15414,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
+    <row r="114" spans="1:35" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="21" t="s">
         <v>68</v>
       </c>
@@ -15490,9 +15490,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
+    <row r="115"